--- a/fifty_one/measurements/Updated_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_Filtered_Data_with_real_length.xlsx
@@ -603,7 +603,9 @@
       <c r="S2" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>38.4633237865796</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -673,7 +675,9 @@
       <c r="S3" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>28.90841249553062</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -743,7 +747,9 @@
       <c r="S4" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>39.58479455863773</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -813,7 +819,9 @@
       <c r="S5" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>25.08731753405586</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -883,7 +891,9 @@
       <c r="S6" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>22.56153606765636</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -953,7 +963,9 @@
       <c r="S7" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>25.0324391292011</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1023,7 +1035,9 @@
       <c r="S8" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>35.92035186635304</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1093,7 +1107,9 @@
       <c r="S9" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>33.25101619038021</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1163,7 +1179,9 @@
       <c r="S10" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>25.66259612043985</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1233,7 +1251,9 @@
       <c r="S11" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>29.99930527034374</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1303,7 +1323,9 @@
       <c r="S12" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>36.77899511119482</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1373,7 +1395,9 @@
       <c r="S13" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>29.85513969827502</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1443,7 +1467,9 @@
       <c r="S14" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>30.6454209858543</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1513,7 +1539,9 @@
       <c r="S15" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>33.6003689178345</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1583,7 +1611,9 @@
       <c r="S16" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>14.88120358976283</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1653,7 +1683,9 @@
       <c r="S17" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>26.3800861266348</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1723,7 +1755,9 @@
       <c r="S18" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>35.82629067865172</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1793,7 +1827,9 @@
       <c r="S19" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>29.95368238432675</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1863,7 +1899,9 @@
       <c r="S20" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>40.83064690332304</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1933,7 +1971,9 @@
       <c r="S21" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>31.81792909839421</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2003,7 +2043,9 @@
       <c r="S22" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>39.09854501863349</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2073,7 +2115,9 @@
       <c r="S23" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>32.60443710561533</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2143,7 +2187,9 @@
       <c r="S24" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>33.74812852721058</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2213,7 +2259,9 @@
       <c r="S25" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>13.4375697239241</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2283,7 +2331,9 @@
       <c r="S26" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>40.86265353499343</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2353,7 +2403,9 @@
       <c r="S27" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>26.71088638279051</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2913,7 +2965,9 @@
       <c r="S35" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>29.66716495857016</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2983,7 +3037,9 @@
       <c r="S36" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>38.57159027353561</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3053,7 +3109,9 @@
       <c r="S37" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>25.38946462654251</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3123,7 +3181,9 @@
       <c r="S38" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T38" t="inlineStr"/>
+      <c r="T38" t="n">
+        <v>41.82014928176122</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3193,7 +3253,9 @@
       <c r="S39" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T39" t="inlineStr"/>
+      <c r="T39" t="n">
+        <v>40.6362236076846</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3263,7 +3325,9 @@
       <c r="S40" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T40" t="inlineStr"/>
+      <c r="T40" t="n">
+        <v>24.59366620671134</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3333,7 +3397,9 @@
       <c r="S41" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T41" t="inlineStr"/>
+      <c r="T41" t="n">
+        <v>38.88348622483628</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3403,7 +3469,9 @@
       <c r="S42" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T42" t="inlineStr"/>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3473,7 +3541,9 @@
       <c r="S43" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T43" t="inlineStr"/>
+      <c r="T43" t="n">
+        <v>37.25549928137975</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3543,7 +3613,9 @@
       <c r="S44" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T44" t="inlineStr"/>
+      <c r="T44" t="n">
+        <v>28.29811256526354</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3613,7 +3685,9 @@
       <c r="S45" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T45" t="inlineStr"/>
+      <c r="T45" t="n">
+        <v>31.1195526044811</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3683,7 +3757,9 @@
       <c r="S46" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T46" t="inlineStr"/>
+      <c r="T46" t="n">
+        <v>31.1195526044811</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3753,7 +3829,9 @@
       <c r="S47" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T47" t="inlineStr"/>
+      <c r="T47" t="n">
+        <v>27.31090890939526</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3823,7 +3901,9 @@
       <c r="S48" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T48" t="inlineStr"/>
+      <c r="T48" t="n">
+        <v>35.69938430494975</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3893,7 +3973,9 @@
       <c r="S49" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T49" t="inlineStr"/>
+      <c r="T49" t="n">
+        <v>35.66872639569743</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3963,7 +4045,9 @@
       <c r="S50" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T50" t="inlineStr"/>
+      <c r="T50" t="n">
+        <v>37.80206187604055</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4033,7 +4117,9 @@
       <c r="S51" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T51" t="inlineStr"/>
+      <c r="T51" t="n">
+        <v>27.27328331517984</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4103,7 +4189,9 @@
       <c r="S52" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T52" t="inlineStr"/>
+      <c r="T52" t="n">
+        <v>32.61034635295254</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4173,7 +4261,9 @@
       <c r="S53" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T53" t="inlineStr"/>
+      <c r="T53" t="n">
+        <v>33.05552903157839</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4243,7 +4333,9 @@
       <c r="S54" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T54" t="inlineStr"/>
+      <c r="T54" t="n">
+        <v>32.94869791238239</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4313,7 +4405,9 @@
       <c r="S55" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T55" t="inlineStr"/>
+      <c r="T55" t="n">
+        <v>37.9223596053432</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4383,7 +4477,9 @@
       <c r="S56" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T56" t="inlineStr"/>
+      <c r="T56" t="n">
+        <v>22.77184097144083</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4453,7 +4549,9 @@
       <c r="S57" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T57" t="inlineStr"/>
+      <c r="T57" t="n">
+        <v>29.37688020749116</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4523,7 +4621,9 @@
       <c r="S58" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T58" t="inlineStr"/>
+      <c r="T58" t="n">
+        <v>41.04519345454099</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4593,7 +4693,9 @@
       <c r="S59" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T59" t="inlineStr"/>
+      <c r="T59" t="n">
+        <v>41.04519345454099</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4663,7 +4765,9 @@
       <c r="S60" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T60" t="inlineStr"/>
+      <c r="T60" t="n">
+        <v>22.77184097144083</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4733,7 +4837,9 @@
       <c r="S61" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T61" t="inlineStr"/>
+      <c r="T61" t="n">
+        <v>5.932218397323056</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4803,7 +4909,9 @@
       <c r="S62" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T62" t="inlineStr"/>
+      <c r="T62" t="n">
+        <v>36.2494911237218</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4873,7 +4981,9 @@
       <c r="S63" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T63" t="inlineStr"/>
+      <c r="T63" t="n">
+        <v>22.68334623615863</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4943,7 +5053,9 @@
       <c r="S64" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T64" t="inlineStr"/>
+      <c r="T64" t="n">
+        <v>21.4270352236767</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5013,7 +5125,9 @@
       <c r="S65" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T65" t="inlineStr"/>
+      <c r="T65" t="n">
+        <v>44.6018161614268</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5083,7 +5197,9 @@
       <c r="S66" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T66" t="inlineStr"/>
+      <c r="T66" t="n">
+        <v>32.86013969936226</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5153,7 +5269,9 @@
       <c r="S67" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T67" t="inlineStr"/>
+      <c r="T67" t="n">
+        <v>23.94292818163721</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5223,7 +5341,9 @@
       <c r="S68" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T68" t="inlineStr"/>
+      <c r="T68" t="n">
+        <v>32.07007888525862</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5293,7 +5413,9 @@
       <c r="S69" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T69" t="inlineStr"/>
+      <c r="T69" t="n">
+        <v>40.77401073165723</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5363,7 +5485,9 @@
       <c r="S70" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T70" t="inlineStr"/>
+      <c r="T70" t="n">
+        <v>22.54608821295353</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5433,7 +5557,9 @@
       <c r="S71" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T71" t="inlineStr"/>
+      <c r="T71" t="n">
+        <v>30.66559632295112</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5503,7 +5629,9 @@
       <c r="S72" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T72" t="inlineStr"/>
+      <c r="T72" t="n">
+        <v>36.78868115922425</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5573,7 +5701,9 @@
       <c r="S73" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T73" t="inlineStr"/>
+      <c r="T73" t="n">
+        <v>35.61726580577677</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5643,7 +5773,9 @@
       <c r="S74" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T74" t="inlineStr"/>
+      <c r="T74" t="n">
+        <v>35.98502691473605</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5713,7 +5845,9 @@
       <c r="S75" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T75" t="inlineStr"/>
+      <c r="T75" t="n">
+        <v>37.28961843891066</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5783,7 +5917,9 @@
       <c r="S76" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T76" t="inlineStr"/>
+      <c r="T76" t="n">
+        <v>37.15197798132769</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5853,7 +5989,9 @@
       <c r="S77" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T77" t="inlineStr"/>
+      <c r="T77" t="n">
+        <v>27.89060114459023</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5923,7 +6061,9 @@
       <c r="S78" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T78" t="inlineStr"/>
+      <c r="T78" t="n">
+        <v>26.24450967504827</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5993,7 +6133,9 @@
       <c r="S79" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T79" t="inlineStr"/>
+      <c r="T79" t="n">
+        <v>32.27511536018605</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -6063,7 +6205,9 @@
       <c r="S80" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T80" t="inlineStr"/>
+      <c r="T80" t="n">
+        <v>33.05232270520634</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -6133,7 +6277,9 @@
       <c r="S81" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T81" t="inlineStr"/>
+      <c r="T81" t="n">
+        <v>37.91380773744524</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -6203,7 +6349,9 @@
       <c r="S82" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T82" t="inlineStr"/>
+      <c r="T82" t="n">
+        <v>21.69298224001026</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6273,7 +6421,9 @@
       <c r="S83" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T83" t="inlineStr"/>
+      <c r="T83" t="n">
+        <v>38.9287987021165</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6343,7 +6493,9 @@
       <c r="S84" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T84" t="inlineStr"/>
+      <c r="T84" t="n">
+        <v>29.76221372731837</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -6413,7 +6565,9 @@
       <c r="S85" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T85" t="inlineStr"/>
+      <c r="T85" t="n">
+        <v>41.09995843088404</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -6483,7 +6637,9 @@
       <c r="S86" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T86" t="inlineStr"/>
+      <c r="T86" t="n">
+        <v>33.02120064349632</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6553,7 +6709,9 @@
       <c r="S87" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T87" t="inlineStr"/>
+      <c r="T87" t="n">
+        <v>29.65910939016912</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6623,7 +6781,9 @@
       <c r="S88" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T88" t="inlineStr"/>
+      <c r="T88" t="n">
+        <v>30.11506256205754</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6693,7 +6853,9 @@
       <c r="S89" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T89" t="inlineStr"/>
+      <c r="T89" t="n">
+        <v>37.16291925265281</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -6763,7 +6925,9 @@
       <c r="S90" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T90" t="inlineStr"/>
+      <c r="T90" t="n">
+        <v>39.37405917893729</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6833,7 +6997,9 @@
       <c r="S91" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T91" t="inlineStr"/>
+      <c r="T91" t="n">
+        <v>28.15365666098232</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -6903,7 +7069,9 @@
       <c r="S92" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T92" t="inlineStr"/>
+      <c r="T92" t="n">
+        <v>36.02324033101383</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6973,7 +7141,9 @@
       <c r="S93" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T93" t="inlineStr"/>
+      <c r="T93" t="n">
+        <v>36.02324033101383</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -7043,7 +7213,9 @@
       <c r="S94" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T94" t="inlineStr"/>
+      <c r="T94" t="n">
+        <v>42.04655497189034</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -7113,7 +7285,9 @@
       <c r="S95" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T95" t="inlineStr"/>
+      <c r="T95" t="n">
+        <v>42.04655497189034</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7183,7 +7357,9 @@
       <c r="S96" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T96" t="inlineStr"/>
+      <c r="T96" t="n">
+        <v>28.55569977185347</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7253,7 +7429,9 @@
       <c r="S97" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T97" t="inlineStr"/>
+      <c r="T97" t="n">
+        <v>25.08352199801356</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -7323,7 +7501,9 @@
       <c r="S98" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T98" t="inlineStr"/>
+      <c r="T98" t="n">
+        <v>32.10890210100942</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -7393,7 +7573,9 @@
       <c r="S99" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T99" t="inlineStr"/>
+      <c r="T99" t="n">
+        <v>35.24787868406799</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -7743,7 +7925,9 @@
       <c r="S104" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T104" t="inlineStr"/>
+      <c r="T104" t="n">
+        <v>41.69927347902058</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -7813,7 +7997,9 @@
       <c r="S105" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T105" t="inlineStr"/>
+      <c r="T105" t="n">
+        <v>33.65194007901309</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -8163,7 +8349,9 @@
       <c r="S110" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T110" t="inlineStr"/>
+      <c r="T110" t="n">
+        <v>27.55312813747785</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -8233,7 +8421,9 @@
       <c r="S111" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T111" t="inlineStr"/>
+      <c r="T111" t="n">
+        <v>30.50735045245302</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -8303,7 +8493,9 @@
       <c r="S112" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T112" t="inlineStr"/>
+      <c r="T112" t="n">
+        <v>30.35488466805121</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -8373,7 +8565,9 @@
       <c r="S113" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T113" t="inlineStr"/>
+      <c r="T113" t="n">
+        <v>36.95209972476533</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -8443,7 +8637,9 @@
       <c r="S114" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T114" t="inlineStr"/>
+      <c r="T114" t="n">
+        <v>38.28643206145068</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -8513,7 +8709,9 @@
       <c r="S115" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T115" t="inlineStr"/>
+      <c r="T115" t="n">
+        <v>31.30521510351421</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -8583,7 +8781,9 @@
       <c r="S116" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T116" t="inlineStr"/>
+      <c r="T116" t="n">
+        <v>31.30521510351421</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -8653,7 +8853,9 @@
       <c r="S117" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T117" t="inlineStr"/>
+      <c r="T117" t="n">
+        <v>39.32170888326723</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -8723,7 +8925,9 @@
       <c r="S118" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T118" t="inlineStr"/>
+      <c r="T118" t="n">
+        <v>25.9641771671566</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -8793,7 +8997,9 @@
       <c r="S119" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T119" t="inlineStr"/>
+      <c r="T119" t="n">
+        <v>47.34216650991087</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -8863,7 +9069,9 @@
       <c r="S120" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T120" t="inlineStr"/>
+      <c r="T120" t="n">
+        <v>27.33787097916291</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -8933,7 +9141,9 @@
       <c r="S121" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T121" t="inlineStr"/>
+      <c r="T121" t="n">
+        <v>30.76737122817728</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -9003,7 +9213,9 @@
       <c r="S122" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T122" t="inlineStr"/>
+      <c r="T122" t="n">
+        <v>35.66874734664732</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -9073,7 +9285,9 @@
       <c r="S123" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T123" t="inlineStr"/>
+      <c r="T123" t="n">
+        <v>17.70668971733859</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -9143,7 +9357,9 @@
       <c r="S124" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T124" t="inlineStr"/>
+      <c r="T124" t="n">
+        <v>33.17591760582172</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -9213,7 +9429,9 @@
       <c r="S125" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T125" t="inlineStr"/>
+      <c r="T125" t="n">
+        <v>43.44318443566831</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -9283,7 +9501,9 @@
       <c r="S126" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T126" t="inlineStr"/>
+      <c r="T126" t="n">
+        <v>30.54452112120853</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -9353,7 +9573,9 @@
       <c r="S127" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T127" t="inlineStr"/>
+      <c r="T127" t="n">
+        <v>34.7428440738251</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -9423,7 +9645,9 @@
       <c r="S128" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T128" t="inlineStr"/>
+      <c r="T128" t="n">
+        <v>33.38487950600774</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -9493,7 +9717,9 @@
       <c r="S129" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T129" t="inlineStr"/>
+      <c r="T129" t="n">
+        <v>31.42351786084434</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -9563,7 +9789,9 @@
       <c r="S130" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T130" t="inlineStr"/>
+      <c r="T130" t="n">
+        <v>44.99084352523037</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -10123,9 +10351,7 @@
       <c r="S138" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T138" t="n">
-        <v>26.08612515129033</v>
-      </c>
+      <c r="T138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -10195,9 +10421,7 @@
       <c r="S139" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T139" t="n">
-        <v>23.93050460653195</v>
-      </c>
+      <c r="T139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -10337,9 +10561,7 @@
       <c r="S141" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T141" t="n">
-        <v>27.49219583602434</v>
-      </c>
+      <c r="T141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -10409,9 +10631,7 @@
       <c r="S142" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T142" t="n">
-        <v>19.61295836078678</v>
-      </c>
+      <c r="T142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -10551,9 +10771,7 @@
       <c r="S144" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T144" t="n">
-        <v>22.19111224848443</v>
-      </c>
+      <c r="T144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -10763,9 +10981,7 @@
       <c r="S147" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T147" t="n">
-        <v>23.35257110363712</v>
-      </c>
+      <c r="T147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -10835,9 +11051,7 @@
       <c r="S148" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T148" t="n">
-        <v>15.30540194971817</v>
-      </c>
+      <c r="T148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -10977,9 +11191,7 @@
       <c r="S150" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T150" t="n">
-        <v>24.14412989876932</v>
-      </c>
+      <c r="T150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -11049,9 +11261,7 @@
       <c r="S151" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T151" t="n">
-        <v>27.73028609994433</v>
-      </c>
+      <c r="T151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -11401,9 +11611,7 @@
       <c r="S156" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T156" t="n">
-        <v>24.16451719845867</v>
-      </c>
+      <c r="T156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -11473,9 +11681,7 @@
       <c r="S157" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T157" t="n">
-        <v>22.68643009780759</v>
-      </c>
+      <c r="T157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -11545,9 +11751,7 @@
       <c r="S158" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T158" t="n">
-        <v>28.785637379808</v>
-      </c>
+      <c r="T158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -12037,9 +12241,7 @@
       <c r="S165" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T165" t="n">
-        <v>22.89241611234311</v>
-      </c>
+      <c r="T165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -12179,9 +12381,7 @@
       <c r="S167" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T167" t="n">
-        <v>18.58185241261564</v>
-      </c>
+      <c r="T167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -12251,9 +12451,7 @@
       <c r="S168" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T168" t="n">
-        <v>29.31584343996604</v>
-      </c>
+      <c r="T168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -12323,9 +12521,7 @@
       <c r="S169" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T169" t="n">
-        <v>26.18590453513018</v>
-      </c>
+      <c r="T169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -12535,9 +12731,7 @@
       <c r="S172" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T172" t="n">
-        <v>27.79947454185928</v>
-      </c>
+      <c r="T172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -12607,9 +12801,7 @@
       <c r="S173" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T173" t="n">
-        <v>18.63964296111832</v>
-      </c>
+      <c r="T173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -12679,9 +12871,7 @@
       <c r="S174" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T174" t="n">
-        <v>27.05512223460621</v>
-      </c>
+      <c r="T174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -12751,9 +12941,7 @@
       <c r="S175" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T175" t="n">
-        <v>35.93819616904451</v>
-      </c>
+      <c r="T175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -12823,9 +13011,7 @@
       <c r="S176" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T176" t="n">
-        <v>28.68315797216826</v>
-      </c>
+      <c r="T176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -12895,9 +13081,7 @@
       <c r="S177" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T177" t="n">
-        <v>35.32087710659708</v>
-      </c>
+      <c r="T177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -12967,9 +13151,7 @@
       <c r="S178" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T178" t="n">
-        <v>36.05027655013024</v>
-      </c>
+      <c r="T178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -13039,9 +13221,7 @@
       <c r="S179" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T179" t="n">
-        <v>34.10530071768536</v>
-      </c>
+      <c r="T179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -13111,9 +13291,7 @@
       <c r="S180" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T180" t="n">
-        <v>31.72592396882833</v>
-      </c>
+      <c r="T180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -13183,9 +13361,7 @@
       <c r="S181" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T181" t="n">
-        <v>38.53997763132315</v>
-      </c>
+      <c r="T181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -13255,9 +13431,7 @@
       <c r="S182" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T182" t="n">
-        <v>39.05209697061111</v>
-      </c>
+      <c r="T182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -13327,9 +13501,7 @@
       <c r="S183" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T183" t="n">
-        <v>41.81538482065801</v>
-      </c>
+      <c r="T183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -13399,9 +13571,7 @@
       <c r="S184" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T184" t="n">
-        <v>28.02380774576302</v>
-      </c>
+      <c r="T184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -13471,9 +13641,7 @@
       <c r="S185" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T185" t="n">
-        <v>23.61606748622055</v>
-      </c>
+      <c r="T185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -13543,9 +13711,7 @@
       <c r="S186" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T186" t="n">
-        <v>31.97398626399098</v>
-      </c>
+      <c r="T186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -13615,9 +13781,7 @@
       <c r="S187" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T187" t="n">
-        <v>29.03165121712465</v>
-      </c>
+      <c r="T187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -13687,9 +13851,7 @@
       <c r="S188" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T188" t="n">
-        <v>27.25143696399388</v>
-      </c>
+      <c r="T188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -13759,9 +13921,7 @@
       <c r="S189" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T189" t="n">
-        <v>25.20390857356536</v>
-      </c>
+      <c r="T189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -13831,9 +13991,7 @@
       <c r="S190" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T190" t="n">
-        <v>25.1858033686573</v>
-      </c>
+      <c r="T190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -13903,9 +14061,7 @@
       <c r="S191" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T191" t="n">
-        <v>32.79705868977337</v>
-      </c>
+      <c r="T191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -13975,9 +14131,7 @@
       <c r="S192" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T192" t="n">
-        <v>34.10612544738173</v>
-      </c>
+      <c r="T192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -14047,9 +14201,7 @@
       <c r="S193" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T193" t="n">
-        <v>19.06544537039708</v>
-      </c>
+      <c r="T193" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fifty_one/measurements/Updated_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_Filtered_Data_with_real_length.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T193"/>
+  <dimension ref="A1:U193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,11 @@
           <t>RealLength(cm)</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Pond_Type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -606,6 +611,11 @@
       <c r="T2" t="n">
         <v>38.4633237865796</v>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -678,6 +688,11 @@
       <c r="T3" t="n">
         <v>28.90841249553062</v>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -750,6 +765,11 @@
       <c r="T4" t="n">
         <v>39.58479455863773</v>
       </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -822,6 +842,11 @@
       <c r="T5" t="n">
         <v>25.08731753405586</v>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -894,6 +919,11 @@
       <c r="T6" t="n">
         <v>22.56153606765636</v>
       </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -966,6 +996,11 @@
       <c r="T7" t="n">
         <v>25.0324391292011</v>
       </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1038,6 +1073,11 @@
       <c r="T8" t="n">
         <v>35.92035186635304</v>
       </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1110,6 +1150,11 @@
       <c r="T9" t="n">
         <v>33.25101619038021</v>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1182,6 +1227,11 @@
       <c r="T10" t="n">
         <v>25.66259612043985</v>
       </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1254,6 +1304,11 @@
       <c r="T11" t="n">
         <v>29.99930527034374</v>
       </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1326,6 +1381,11 @@
       <c r="T12" t="n">
         <v>36.77899511119482</v>
       </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1398,6 +1458,11 @@
       <c r="T13" t="n">
         <v>29.85513969827502</v>
       </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1470,6 +1535,11 @@
       <c r="T14" t="n">
         <v>30.6454209858543</v>
       </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1542,6 +1612,11 @@
       <c r="T15" t="n">
         <v>33.6003689178345</v>
       </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1614,6 +1689,11 @@
       <c r="T16" t="n">
         <v>14.88120358976283</v>
       </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1686,6 +1766,11 @@
       <c r="T17" t="n">
         <v>26.3800861266348</v>
       </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1758,6 +1843,11 @@
       <c r="T18" t="n">
         <v>35.82629067865172</v>
       </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1830,6 +1920,11 @@
       <c r="T19" t="n">
         <v>29.95368238432675</v>
       </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1902,6 +1997,11 @@
       <c r="T20" t="n">
         <v>40.83064690332304</v>
       </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1974,6 +2074,11 @@
       <c r="T21" t="n">
         <v>31.81792909839421</v>
       </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2046,6 +2151,11 @@
       <c r="T22" t="n">
         <v>39.09854501863349</v>
       </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2118,6 +2228,11 @@
       <c r="T23" t="n">
         <v>32.60443710561533</v>
       </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2190,6 +2305,11 @@
       <c r="T24" t="n">
         <v>33.74812852721058</v>
       </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2262,6 +2382,11 @@
       <c r="T25" t="n">
         <v>13.4375697239241</v>
       </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2334,6 +2459,11 @@
       <c r="T26" t="n">
         <v>40.86265353499343</v>
       </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2406,6 +2536,11 @@
       <c r="T27" t="n">
         <v>26.71088638279051</v>
       </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2476,6 +2611,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2546,6 +2686,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2616,6 +2761,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2686,6 +2836,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2756,6 +2911,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2826,6 +2986,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2896,6 +3061,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2968,6 +3138,11 @@
       <c r="T35" t="n">
         <v>29.66716495857016</v>
       </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3040,6 +3215,11 @@
       <c r="T36" t="n">
         <v>38.57159027353561</v>
       </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3112,6 +3292,11 @@
       <c r="T37" t="n">
         <v>25.38946462654251</v>
       </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3184,6 +3369,11 @@
       <c r="T38" t="n">
         <v>41.82014928176122</v>
       </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3256,6 +3446,11 @@
       <c r="T39" t="n">
         <v>40.6362236076846</v>
       </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3328,6 +3523,11 @@
       <c r="T40" t="n">
         <v>24.59366620671134</v>
       </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3400,6 +3600,11 @@
       <c r="T41" t="n">
         <v>38.88348622483628</v>
       </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3472,6 +3677,11 @@
       <c r="T42" t="n">
         <v>0</v>
       </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3544,6 +3754,11 @@
       <c r="T43" t="n">
         <v>37.25549928137975</v>
       </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3616,6 +3831,11 @@
       <c r="T44" t="n">
         <v>28.29811256526354</v>
       </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3688,6 +3908,11 @@
       <c r="T45" t="n">
         <v>31.1195526044811</v>
       </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3760,6 +3985,11 @@
       <c r="T46" t="n">
         <v>31.1195526044811</v>
       </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3832,6 +4062,11 @@
       <c r="T47" t="n">
         <v>27.31090890939526</v>
       </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3904,6 +4139,11 @@
       <c r="T48" t="n">
         <v>35.69938430494975</v>
       </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3976,6 +4216,11 @@
       <c r="T49" t="n">
         <v>35.66872639569743</v>
       </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4048,6 +4293,11 @@
       <c r="T50" t="n">
         <v>37.80206187604055</v>
       </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4120,6 +4370,11 @@
       <c r="T51" t="n">
         <v>27.27328331517984</v>
       </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4192,6 +4447,11 @@
       <c r="T52" t="n">
         <v>32.61034635295254</v>
       </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4264,6 +4524,11 @@
       <c r="T53" t="n">
         <v>33.05552903157839</v>
       </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4336,6 +4601,11 @@
       <c r="T54" t="n">
         <v>32.94869791238239</v>
       </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4408,6 +4678,11 @@
       <c r="T55" t="n">
         <v>37.9223596053432</v>
       </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4480,6 +4755,11 @@
       <c r="T56" t="n">
         <v>22.77184097144083</v>
       </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4552,6 +4832,11 @@
       <c r="T57" t="n">
         <v>29.37688020749116</v>
       </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4624,6 +4909,11 @@
       <c r="T58" t="n">
         <v>41.04519345454099</v>
       </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4696,6 +4986,11 @@
       <c r="T59" t="n">
         <v>41.04519345454099</v>
       </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4768,6 +5063,11 @@
       <c r="T60" t="n">
         <v>22.77184097144083</v>
       </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4840,6 +5140,11 @@
       <c r="T61" t="n">
         <v>5.932218397323056</v>
       </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4912,6 +5217,11 @@
       <c r="T62" t="n">
         <v>36.2494911237218</v>
       </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4984,6 +5294,11 @@
       <c r="T63" t="n">
         <v>22.68334623615863</v>
       </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5056,6 +5371,11 @@
       <c r="T64" t="n">
         <v>21.4270352236767</v>
       </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5128,6 +5448,11 @@
       <c r="T65" t="n">
         <v>44.6018161614268</v>
       </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5200,6 +5525,11 @@
       <c r="T66" t="n">
         <v>32.86013969936226</v>
       </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5272,6 +5602,11 @@
       <c r="T67" t="n">
         <v>23.94292818163721</v>
       </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5344,6 +5679,11 @@
       <c r="T68" t="n">
         <v>32.07007888525862</v>
       </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5416,6 +5756,11 @@
       <c r="T69" t="n">
         <v>40.77401073165723</v>
       </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5488,6 +5833,11 @@
       <c r="T70" t="n">
         <v>22.54608821295353</v>
       </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5560,6 +5910,11 @@
       <c r="T71" t="n">
         <v>30.66559632295112</v>
       </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5632,6 +5987,11 @@
       <c r="T72" t="n">
         <v>36.78868115922425</v>
       </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5704,6 +6064,11 @@
       <c r="T73" t="n">
         <v>35.61726580577677</v>
       </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5776,6 +6141,11 @@
       <c r="T74" t="n">
         <v>35.98502691473605</v>
       </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5848,6 +6218,11 @@
       <c r="T75" t="n">
         <v>37.28961843891066</v>
       </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5920,6 +6295,11 @@
       <c r="T76" t="n">
         <v>37.15197798132769</v>
       </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5992,6 +6372,11 @@
       <c r="T77" t="n">
         <v>27.89060114459023</v>
       </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -6064,6 +6449,11 @@
       <c r="T78" t="n">
         <v>26.24450967504827</v>
       </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -6136,6 +6526,11 @@
       <c r="T79" t="n">
         <v>32.27511536018605</v>
       </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -6208,6 +6603,11 @@
       <c r="T80" t="n">
         <v>33.05232270520634</v>
       </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -6280,6 +6680,11 @@
       <c r="T81" t="n">
         <v>37.91380773744524</v>
       </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -6352,6 +6757,11 @@
       <c r="T82" t="n">
         <v>21.69298224001026</v>
       </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6424,6 +6834,11 @@
       <c r="T83" t="n">
         <v>38.9287987021165</v>
       </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6496,6 +6911,11 @@
       <c r="T84" t="n">
         <v>29.76221372731837</v>
       </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -6568,6 +6988,11 @@
       <c r="T85" t="n">
         <v>41.09995843088404</v>
       </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -6640,6 +7065,11 @@
       <c r="T86" t="n">
         <v>33.02120064349632</v>
       </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6712,6 +7142,11 @@
       <c r="T87" t="n">
         <v>29.65910939016912</v>
       </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6784,6 +7219,11 @@
       <c r="T88" t="n">
         <v>30.11506256205754</v>
       </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6856,6 +7296,11 @@
       <c r="T89" t="n">
         <v>37.16291925265281</v>
       </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -6928,6 +7373,11 @@
       <c r="T90" t="n">
         <v>39.37405917893729</v>
       </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -7000,6 +7450,11 @@
       <c r="T91" t="n">
         <v>28.15365666098232</v>
       </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -7072,6 +7527,11 @@
       <c r="T92" t="n">
         <v>36.02324033101383</v>
       </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -7144,6 +7604,11 @@
       <c r="T93" t="n">
         <v>36.02324033101383</v>
       </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -7216,6 +7681,11 @@
       <c r="T94" t="n">
         <v>42.04655497189034</v>
       </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -7288,6 +7758,11 @@
       <c r="T95" t="n">
         <v>42.04655497189034</v>
       </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7360,6 +7835,11 @@
       <c r="T96" t="n">
         <v>28.55569977185347</v>
       </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7432,6 +7912,11 @@
       <c r="T97" t="n">
         <v>25.08352199801356</v>
       </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -7504,6 +7989,11 @@
       <c r="T98" t="n">
         <v>32.10890210100942</v>
       </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -7576,6 +8066,11 @@
       <c r="T99" t="n">
         <v>35.24787868406799</v>
       </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -7645,7 +8140,14 @@
       <c r="S100" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T100" t="inlineStr"/>
+      <c r="T100" t="n">
+        <v>26.40099503999025</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -7715,7 +8217,14 @@
       <c r="S101" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T101" t="inlineStr"/>
+      <c r="T101" t="n">
+        <v>24.30590653746043</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -7785,7 +8294,14 @@
       <c r="S102" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T102" t="inlineStr"/>
+      <c r="T102" t="n">
+        <v>28.70858223280479</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -7855,7 +8371,14 @@
       <c r="S103" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T103" t="inlineStr"/>
+      <c r="T103" t="n">
+        <v>16.66960532839994</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -7928,6 +8451,11 @@
       <c r="T104" t="n">
         <v>41.69927347902058</v>
       </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -8000,6 +8528,11 @@
       <c r="T105" t="n">
         <v>33.65194007901309</v>
       </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -8069,7 +8602,14 @@
       <c r="S106" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T106" t="inlineStr"/>
+      <c r="T106" t="n">
+        <v>19.81466091885927</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -8139,7 +8679,14 @@
       <c r="S107" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T107" t="inlineStr"/>
+      <c r="T107" t="n">
+        <v>27.76297519301385</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -8209,7 +8756,14 @@
       <c r="S108" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T108" t="inlineStr"/>
+      <c r="T108" t="n">
+        <v>24.99403917041211</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -8279,7 +8833,14 @@
       <c r="S109" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T109" t="inlineStr"/>
+      <c r="T109" t="n">
+        <v>11.77376306918397</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -8352,6 +8913,11 @@
       <c r="T110" t="n">
         <v>27.55312813747785</v>
       </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -8424,6 +8990,11 @@
       <c r="T111" t="n">
         <v>30.50735045245302</v>
       </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -8496,6 +9067,11 @@
       <c r="T112" t="n">
         <v>30.35488466805121</v>
       </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -8568,6 +9144,11 @@
       <c r="T113" t="n">
         <v>36.95209972476533</v>
       </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -8640,6 +9221,11 @@
       <c r="T114" t="n">
         <v>38.28643206145068</v>
       </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -8712,6 +9298,11 @@
       <c r="T115" t="n">
         <v>31.30521510351421</v>
       </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -8784,6 +9375,11 @@
       <c r="T116" t="n">
         <v>31.30521510351421</v>
       </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -8856,6 +9452,11 @@
       <c r="T117" t="n">
         <v>39.32170888326723</v>
       </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -8928,6 +9529,11 @@
       <c r="T118" t="n">
         <v>25.9641771671566</v>
       </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -9000,6 +9606,11 @@
       <c r="T119" t="n">
         <v>47.34216650991087</v>
       </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -9072,6 +9683,11 @@
       <c r="T120" t="n">
         <v>27.33787097916291</v>
       </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -9144,6 +9760,11 @@
       <c r="T121" t="n">
         <v>30.76737122817728</v>
       </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -9216,6 +9837,11 @@
       <c r="T122" t="n">
         <v>35.66874734664732</v>
       </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -9288,6 +9914,11 @@
       <c r="T123" t="n">
         <v>17.70668971733859</v>
       </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -9360,6 +9991,11 @@
       <c r="T124" t="n">
         <v>33.17591760582172</v>
       </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -9432,6 +10068,11 @@
       <c r="T125" t="n">
         <v>43.44318443566831</v>
       </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -9504,6 +10145,11 @@
       <c r="T126" t="n">
         <v>30.54452112120853</v>
       </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -9576,6 +10222,11 @@
       <c r="T127" t="n">
         <v>34.7428440738251</v>
       </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -9648,6 +10299,11 @@
       <c r="T128" t="n">
         <v>33.38487950600774</v>
       </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -9720,6 +10376,11 @@
       <c r="T129" t="n">
         <v>31.42351786084434</v>
       </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -9792,6 +10453,11 @@
       <c r="T130" t="n">
         <v>44.99084352523037</v>
       </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>1\carapace\right</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -9861,7 +10527,14 @@
       <c r="S131" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T131" t="inlineStr"/>
+      <c r="T131" t="n">
+        <v>30.8850707256197</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -9931,7 +10604,14 @@
       <c r="S132" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T132" t="inlineStr"/>
+      <c r="T132" t="n">
+        <v>30.8850707256197</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -10001,7 +10681,14 @@
       <c r="S133" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T133" t="inlineStr"/>
+      <c r="T133" t="n">
+        <v>23.40085017798146</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -10071,7 +10758,14 @@
       <c r="S134" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T134" t="inlineStr"/>
+      <c r="T134" t="n">
+        <v>26.13822724578434</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -10141,7 +10835,14 @@
       <c r="S135" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T135" t="inlineStr"/>
+      <c r="T135" t="n">
+        <v>37.24854587790906</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -10211,7 +10912,14 @@
       <c r="S136" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T136" t="inlineStr"/>
+      <c r="T136" t="n">
+        <v>22.2617911969999</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -10281,7 +10989,14 @@
       <c r="S137" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T137" t="inlineStr"/>
+      <c r="T137" t="n">
+        <v>36.05057799982835</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>1\carapace\left</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -10351,7 +11066,14 @@
       <c r="S138" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T138" t="inlineStr"/>
+      <c r="T138" t="n">
+        <v>30.27586619575271</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -10421,7 +11143,14 @@
       <c r="S139" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T139" t="inlineStr"/>
+      <c r="T139" t="n">
+        <v>23.8040416050937</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -10492,6 +11221,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -10561,7 +11295,14 @@
       <c r="S141" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T141" t="inlineStr"/>
+      <c r="T141" t="n">
+        <v>27.39537848272629</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -10631,7 +11372,14 @@
       <c r="S142" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T142" t="inlineStr"/>
+      <c r="T142" t="n">
+        <v>19.41279162135829</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -10702,6 +11450,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -10771,7 +11524,14 @@
       <c r="S144" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T144" t="inlineStr"/>
+      <c r="T144" t="n">
+        <v>21.98143793600146</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -10842,6 +11602,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -10912,6 +11677,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -10981,7 +11751,14 @@
       <c r="S147" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T147" t="inlineStr"/>
+      <c r="T147" t="n">
+        <v>23.14597641820976</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -11051,7 +11828,14 @@
       <c r="S148" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T148" t="inlineStr"/>
+      <c r="T148" t="n">
+        <v>17.79713683116967</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -11122,6 +11906,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -11191,7 +11980,14 @@
       <c r="S150" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T150" t="inlineStr"/>
+      <c r="T150" t="n">
+        <v>25.04892547497485</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -11261,7 +12057,14 @@
       <c r="S151" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T151" t="inlineStr"/>
+      <c r="T151" t="n">
+        <v>27.05850836230622</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -11332,6 +12135,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -11402,6 +12210,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -11472,6 +12285,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -11542,6 +12360,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -11611,7 +12434,14 @@
       <c r="S156" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T156" t="inlineStr"/>
+      <c r="T156" t="n">
+        <v>23.12833107893655</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -11682,6 +12512,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -11751,7 +12586,14 @@
       <c r="S158" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T158" t="inlineStr"/>
+      <c r="T158" t="n">
+        <v>27.78774076759526</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -11822,6 +12664,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -11892,6 +12739,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -11962,6 +12814,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -12032,6 +12889,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -12102,6 +12964,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -12172,6 +13039,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -12242,6 +13114,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -12312,6 +13189,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -12381,7 +13263,14 @@
       <c r="S167" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T167" t="inlineStr"/>
+      <c r="T167" t="n">
+        <v>18.72514150278435</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -12452,6 +13341,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -12521,7 +13415,14 @@
       <c r="S169" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T169" t="inlineStr"/>
+      <c r="T169" t="n">
+        <v>25.66336607697898</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -12592,6 +13493,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -12662,6 +13568,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -12732,6 +13643,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -12801,7 +13717,14 @@
       <c r="S173" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T173" t="inlineStr"/>
+      <c r="T173" t="n">
+        <v>20.72879710116599</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -12872,6 +13795,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -12942,6 +13870,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -13011,7 +13944,14 @@
       <c r="S176" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T176" t="inlineStr"/>
+      <c r="T176" t="n">
+        <v>29.50987122758694</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -13081,7 +14021,14 @@
       <c r="S177" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T177" t="inlineStr"/>
+      <c r="T177" t="n">
+        <v>36.6961879814906</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -13152,6 +14099,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -13222,6 +14174,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -13291,7 +14248,14 @@
       <c r="S180" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T180" t="inlineStr"/>
+      <c r="T180" t="n">
+        <v>34.75777233444975</v>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -13361,7 +14325,14 @@
       <c r="S181" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T181" t="inlineStr"/>
+      <c r="T181" t="n">
+        <v>36.81721752698016</v>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -13431,7 +14402,14 @@
       <c r="S182" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T182" t="inlineStr"/>
+      <c r="T182" t="n">
+        <v>40.96445744820848</v>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -13502,6 +14480,11 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -13571,7 +14554,14 @@
       <c r="S184" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T184" t="inlineStr"/>
+      <c r="T184" t="n">
+        <v>27.65755095028403</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -13641,7 +14631,14 @@
       <c r="S185" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T185" t="inlineStr"/>
+      <c r="T185" t="n">
+        <v>24.35291569010893</v>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -13711,7 +14708,14 @@
       <c r="S186" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T186" t="inlineStr"/>
+      <c r="T186" t="n">
+        <v>31.84121364436432</v>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -13781,7 +14785,14 @@
       <c r="S187" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T187" t="inlineStr"/>
+      <c r="T187" t="n">
+        <v>27.09033845939206</v>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -13851,7 +14862,14 @@
       <c r="S188" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T188" t="inlineStr"/>
+      <c r="T188" t="n">
+        <v>26.85434647658429</v>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -13921,7 +14939,14 @@
       <c r="S189" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T189" t="inlineStr"/>
+      <c r="T189" t="n">
+        <v>25.37199194564089</v>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -13991,7 +15016,14 @@
       <c r="S190" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T190" t="inlineStr"/>
+      <c r="T190" t="n">
+        <v>25.69913381714493</v>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -14061,7 +15093,14 @@
       <c r="S191" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T191" t="inlineStr"/>
+      <c r="T191" t="n">
+        <v>27.16742242664481</v>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -14131,7 +15170,14 @@
       <c r="S192" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T192" t="inlineStr"/>
+      <c r="T192" t="n">
+        <v>28.13082497565271</v>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -14201,7 +15247,14 @@
       <c r="S193" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T193" t="inlineStr"/>
+      <c r="T193" t="n">
+        <v>19.9533022666929</v>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>1\carapace\car</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fifty_one/measurements/Updated_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_Filtered_Data_with_real_length.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U193"/>
+  <dimension ref="A1:V193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,10 +531,15 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>Length_fov(mm)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>RealLength(cm)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Pond_Type</t>
         </is>
@@ -609,9 +614,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T2" t="n">
-        <v>38.4633237865796</v>
-      </c>
-      <c r="U2" t="inlineStr">
+        <v>37.54470511578233</v>
+      </c>
+      <c r="U2" t="n">
+        <v>37.68534393652742</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -686,9 +694,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T3" t="n">
-        <v>28.90841249553062</v>
-      </c>
-      <c r="U3" t="inlineStr">
+        <v>28.21799354970958</v>
+      </c>
+      <c r="U3" t="n">
+        <v>28.32369541431034</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -763,9 +774,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T4" t="n">
-        <v>39.58479455863773</v>
-      </c>
-      <c r="U4" t="inlineStr">
+        <v>38.63939182737593</v>
+      </c>
+      <c r="U4" t="n">
+        <v>38.78413123827693</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -840,9 +854,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T5" t="n">
-        <v>25.08731753405586</v>
-      </c>
-      <c r="U5" t="inlineStr">
+        <v>24.48815771066471</v>
+      </c>
+      <c r="U5" t="n">
+        <v>24.57988797228289</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -917,9 +934,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T6" t="n">
-        <v>22.56153606765636</v>
-      </c>
-      <c r="U6" t="inlineStr">
+        <v>22.02269942450471</v>
+      </c>
+      <c r="U6" t="n">
+        <v>22.10519431871509</v>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -994,9 +1014,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T7" t="n">
-        <v>25.0324391292011</v>
-      </c>
-      <c r="U7" t="inlineStr">
+        <v>24.43458996548156</v>
+      </c>
+      <c r="U7" t="n">
+        <v>24.52611956752632</v>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -1071,9 +1094,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T8" t="n">
-        <v>35.92035186635304</v>
-      </c>
-      <c r="U8" t="inlineStr">
+        <v>35.06246693500572</v>
+      </c>
+      <c r="U8" t="n">
+        <v>35.19380753248667</v>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -1148,9 +1174,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T9" t="n">
-        <v>33.25101619038021</v>
-      </c>
-      <c r="U9" t="inlineStr">
+        <v>32.45688294113347</v>
+      </c>
+      <c r="U9" t="n">
+        <v>32.57846327390812</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -1225,9 +1254,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T10" t="n">
-        <v>25.66259612043985</v>
-      </c>
-      <c r="U10" t="inlineStr">
+        <v>25.04969693189933</v>
+      </c>
+      <c r="U10" t="n">
+        <v>25.14353066492934</v>
+      </c>
+      <c r="V10" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -1302,9 +1334,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T11" t="n">
-        <v>29.99930527034374</v>
-      </c>
-      <c r="U11" t="inlineStr">
+        <v>29.28283255765788</v>
+      </c>
+      <c r="U11" t="n">
+        <v>29.39252320581413</v>
+      </c>
+      <c r="V11" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -1379,9 +1414,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T12" t="n">
-        <v>36.77899511119482</v>
-      </c>
-      <c r="U12" t="inlineStr">
+        <v>35.90060322312576</v>
+      </c>
+      <c r="U12" t="n">
+        <v>36.03508339778069</v>
+      </c>
+      <c r="V12" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -1456,9 +1494,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T13" t="n">
-        <v>29.85513969827502</v>
-      </c>
-      <c r="U13" t="inlineStr">
+        <v>29.14211008860656</v>
+      </c>
+      <c r="U13" t="n">
+        <v>29.25127360405425</v>
+      </c>
+      <c r="V13" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -1533,9 +1574,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T14" t="n">
-        <v>30.6454209858543</v>
-      </c>
-      <c r="U14" t="inlineStr">
+        <v>29.91351710650545</v>
+      </c>
+      <c r="U14" t="n">
+        <v>30.02557023775854</v>
+      </c>
+      <c r="V14" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -1610,9 +1654,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T15" t="n">
-        <v>33.6003689178345</v>
-      </c>
-      <c r="U15" t="inlineStr">
+        <v>32.7978920854925</v>
+      </c>
+      <c r="U15" t="n">
+        <v>32.92074980541876</v>
+      </c>
+      <c r="V15" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -1687,9 +1734,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T16" t="n">
-        <v>14.88120358976283</v>
-      </c>
-      <c r="U16" t="inlineStr">
+        <v>14.52579614922694</v>
+      </c>
+      <c r="U16" t="n">
+        <v>14.58020837152329</v>
+      </c>
+      <c r="V16" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -1764,9 +1814,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T17" t="n">
-        <v>26.3800861266348</v>
-      </c>
-      <c r="U17" t="inlineStr">
+        <v>25.75005114090062</v>
+      </c>
+      <c r="U17" t="n">
+        <v>25.84650833281128</v>
+      </c>
+      <c r="V17" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -1841,9 +1894,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T18" t="n">
-        <v>35.82629067865172</v>
-      </c>
-      <c r="U18" t="inlineStr">
+        <v>34.97065220847087</v>
+      </c>
+      <c r="U18" t="n">
+        <v>35.10164887689906</v>
+      </c>
+      <c r="V18" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -1918,9 +1974,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T19" t="n">
-        <v>29.95368238432675</v>
-      </c>
-      <c r="U19" t="inlineStr">
+        <v>29.23829928197056</v>
+      </c>
+      <c r="U19" t="n">
+        <v>29.34782311279911</v>
+      </c>
+      <c r="V19" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -1995,9 +2054,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T20" t="n">
-        <v>40.83064690332304</v>
-      </c>
-      <c r="U20" t="inlineStr">
+        <v>39.85548950937959</v>
+      </c>
+      <c r="U20" t="n">
+        <v>40.00478430414579</v>
+      </c>
+      <c r="V20" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -2072,9 +2134,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T21" t="n">
-        <v>31.81792909839421</v>
-      </c>
-      <c r="U21" t="inlineStr">
+        <v>31.05802223496066</v>
+      </c>
+      <c r="U21" t="n">
+        <v>31.17436257132313</v>
+      </c>
+      <c r="V21" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -2149,9 +2214,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T22" t="n">
-        <v>39.09854501863349</v>
-      </c>
-      <c r="U22" t="inlineStr">
+        <v>38.16475537386918</v>
+      </c>
+      <c r="U22" t="n">
+        <v>38.30771684269025</v>
+      </c>
+      <c r="V22" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -2226,9 +2294,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T23" t="n">
-        <v>32.60443710561533</v>
-      </c>
-      <c r="U23" t="inlineStr">
+        <v>31.82574608966876</v>
+      </c>
+      <c r="U23" t="n">
+        <v>31.94496224506486</v>
+      </c>
+      <c r="V23" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -2303,9 +2374,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T24" t="n">
-        <v>33.74812852721058</v>
-      </c>
-      <c r="U24" t="inlineStr">
+        <v>32.94212275554145</v>
+      </c>
+      <c r="U24" t="n">
+        <v>33.06552074955665</v>
+      </c>
+      <c r="V24" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -2380,9 +2454,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T25" t="n">
-        <v>13.4375697239241</v>
-      </c>
-      <c r="U25" t="inlineStr">
+        <v>13.11664055755694</v>
+      </c>
+      <c r="U25" t="n">
+        <v>13.16577421979942</v>
+      </c>
+      <c r="V25" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -2457,9 +2534,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T26" t="n">
-        <v>40.86265353499343</v>
-      </c>
-      <c r="U26" t="inlineStr">
+        <v>39.88673172740741</v>
+      </c>
+      <c r="U26" t="n">
+        <v>40.03614355248952</v>
+      </c>
+      <c r="V26" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -2534,9 +2614,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T27" t="n">
-        <v>26.71088638279051</v>
-      </c>
-      <c r="U27" t="inlineStr">
+        <v>26.07295090220322</v>
+      </c>
+      <c r="U27" t="n">
+        <v>26.17061764527452</v>
+      </c>
+      <c r="V27" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -2611,7 +2694,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2686,7 +2770,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2761,7 +2846,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2836,7 +2922,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2911,7 +2998,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -2986,7 +3074,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -3061,7 +3150,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -3136,9 +3226,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T35" t="n">
-        <v>29.66716495857016</v>
-      </c>
-      <c r="U35" t="inlineStr">
+        <v>28.95862474525468</v>
+      </c>
+      <c r="U35" t="n">
+        <v>29.06710094241785</v>
+      </c>
+      <c r="V35" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -3213,9 +3306,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T36" t="n">
-        <v>38.57159027353561</v>
-      </c>
-      <c r="U36" t="inlineStr">
+        <v>37.65038587673889</v>
+      </c>
+      <c r="U36" t="n">
+        <v>37.79142056735568</v>
+      </c>
+      <c r="V36" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -3290,9 +3386,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T37" t="n">
-        <v>25.38946462654251</v>
-      </c>
-      <c r="U37" t="inlineStr">
+        <v>24.78308863114227</v>
+      </c>
+      <c r="U37" t="n">
+        <v>24.8759236753584</v>
+      </c>
+      <c r="V37" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -3367,9 +3466,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T38" t="n">
-        <v>41.82014928176122</v>
-      </c>
-      <c r="U38" t="inlineStr">
+        <v>40.82135962544037</v>
+      </c>
+      <c r="U38" t="n">
+        <v>40.97427247590035</v>
+      </c>
+      <c r="V38" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -3444,9 +3546,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T39" t="n">
-        <v>40.6362236076846</v>
-      </c>
-      <c r="U39" t="inlineStr">
+        <v>39.66570962080609</v>
+      </c>
+      <c r="U39" t="n">
+        <v>39.8142935185324</v>
+      </c>
+      <c r="V39" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -3521,9 +3626,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T40" t="n">
-        <v>24.59366620671134</v>
-      </c>
-      <c r="U40" t="inlineStr">
+        <v>24.00629624653322</v>
+      </c>
+      <c r="U40" t="n">
+        <v>24.09622150188304</v>
+      </c>
+      <c r="V40" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -3598,9 +3706,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T41" t="n">
-        <v>38.88348622483628</v>
-      </c>
-      <c r="U41" t="inlineStr">
+        <v>37.95483282426131</v>
+      </c>
+      <c r="U41" t="n">
+        <v>38.0970079435896</v>
+      </c>
+      <c r="V41" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -3677,7 +3788,10 @@
       <c r="T42" t="n">
         <v>0</v>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -3752,9 +3866,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T43" t="n">
-        <v>37.25549928137975</v>
-      </c>
-      <c r="U43" t="inlineStr">
+        <v>36.36572705525479</v>
+      </c>
+      <c r="U43" t="n">
+        <v>36.5019495386334</v>
+      </c>
+      <c r="V43" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -3829,9 +3946,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T44" t="n">
-        <v>28.29811256526354</v>
-      </c>
-      <c r="U44" t="inlineStr">
+        <v>27.62226939853638</v>
+      </c>
+      <c r="U44" t="n">
+        <v>27.72573973829624</v>
+      </c>
+      <c r="V44" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -3906,9 +4026,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T45" t="n">
-        <v>31.1195526044811</v>
-      </c>
-      <c r="U45" t="inlineStr">
+        <v>30.37632505067024</v>
+      </c>
+      <c r="U45" t="n">
+        <v>30.49011181555551</v>
+      </c>
+      <c r="V45" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -3983,9 +4106,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T46" t="n">
-        <v>31.1195526044811</v>
-      </c>
-      <c r="U46" t="inlineStr">
+        <v>30.37632505067024</v>
+      </c>
+      <c r="U46" t="n">
+        <v>30.49011181555551</v>
+      </c>
+      <c r="V46" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -4060,9 +4186,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T47" t="n">
-        <v>27.31090890939526</v>
-      </c>
-      <c r="U47" t="inlineStr">
+        <v>26.65864310470764</v>
+      </c>
+      <c r="U47" t="n">
+        <v>26.75850379391397</v>
+      </c>
+      <c r="V47" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -4137,9 +4266,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T48" t="n">
-        <v>35.69938430494975</v>
-      </c>
-      <c r="U48" t="inlineStr">
+        <v>34.84677673675159</v>
+      </c>
+      <c r="U48" t="n">
+        <v>34.97730937968782</v>
+      </c>
+      <c r="V48" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -4214,9 +4346,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T49" t="n">
-        <v>35.66872639569743</v>
-      </c>
-      <c r="U49" t="inlineStr">
+        <v>34.81685102963561</v>
+      </c>
+      <c r="U49" t="n">
+        <v>34.94727157377799</v>
+      </c>
+      <c r="V49" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -4291,9 +4426,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T50" t="n">
-        <v>37.80206187604055</v>
-      </c>
-      <c r="U50" t="inlineStr">
+        <v>36.89923610813118</v>
+      </c>
+      <c r="U50" t="n">
+        <v>37.03745706463196</v>
+      </c>
+      <c r="V50" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -4368,9 +4506,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T51" t="n">
-        <v>27.27328331517984</v>
-      </c>
-      <c r="U51" t="inlineStr">
+        <v>26.62191612168707</v>
+      </c>
+      <c r="U51" t="n">
+        <v>26.72163923518025</v>
+      </c>
+      <c r="V51" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -4445,9 +4586,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T52" t="n">
-        <v>32.61034635295254</v>
-      </c>
-      <c r="U52" t="inlineStr">
+        <v>31.83151420658873</v>
+      </c>
+      <c r="U52" t="n">
+        <v>31.95075196879088</v>
+      </c>
+      <c r="V52" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -4522,9 +4666,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T53" t="n">
-        <v>33.05552903157839</v>
-      </c>
-      <c r="U53" t="inlineStr">
+        <v>32.26606459761587</v>
+      </c>
+      <c r="U53" t="n">
+        <v>32.38693014339922</v>
+      </c>
+      <c r="V53" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -4599,9 +4746,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T54" t="n">
-        <v>32.94869791238239</v>
-      </c>
-      <c r="U54" t="inlineStr">
+        <v>32.16178492356434</v>
+      </c>
+      <c r="U54" t="n">
+        <v>32.28225984781155</v>
+      </c>
+      <c r="V54" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -4676,9 +4826,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T55" t="n">
-        <v>37.9223596053432</v>
-      </c>
-      <c r="U55" t="inlineStr">
+        <v>37.01666076955221</v>
+      </c>
+      <c r="U55" t="n">
+        <v>37.15532158743577</v>
+      </c>
+      <c r="V55" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -4753,9 +4906,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T56" t="n">
-        <v>22.77184097144083</v>
-      </c>
-      <c r="U56" t="inlineStr">
+        <v>22.22798162114488</v>
+      </c>
+      <c r="U56" t="n">
+        <v>22.31124548253629</v>
+      </c>
+      <c r="V56" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -4830,9 +4986,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T57" t="n">
-        <v>29.37688020749116</v>
-      </c>
-      <c r="U57" t="inlineStr">
+        <v>28.67527285815979</v>
+      </c>
+      <c r="U57" t="n">
+        <v>28.78268764666003</v>
+      </c>
+      <c r="V57" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -4907,9 +5066,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T58" t="n">
-        <v>41.04519345454099</v>
-      </c>
-      <c r="U58" t="inlineStr">
+        <v>40.06491205028588</v>
+      </c>
+      <c r="U58" t="n">
+        <v>40.2149913215608</v>
+      </c>
+      <c r="V58" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -4984,9 +5146,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T59" t="n">
-        <v>41.04519345454099</v>
-      </c>
-      <c r="U59" t="inlineStr">
+        <v>40.06491205028588</v>
+      </c>
+      <c r="U59" t="n">
+        <v>40.2149913215608</v>
+      </c>
+      <c r="V59" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -5061,9 +5226,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T60" t="n">
-        <v>22.77184097144083</v>
-      </c>
-      <c r="U60" t="inlineStr">
+        <v>22.22798162114488</v>
+      </c>
+      <c r="U60" t="n">
+        <v>22.31124548253629</v>
+      </c>
+      <c r="V60" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -5138,9 +5306,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T61" t="n">
-        <v>5.932218397323056</v>
-      </c>
-      <c r="U61" t="inlineStr">
+        <v>5.790539362789659</v>
+      </c>
+      <c r="U61" t="n">
+        <v>5.812230161131247</v>
+      </c>
+      <c r="V61" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -5215,9 +5386,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T62" t="n">
-        <v>36.2494911237218</v>
-      </c>
-      <c r="U62" t="inlineStr">
+        <v>35.38374536711692</v>
+      </c>
+      <c r="U62" t="n">
+        <v>35.51628944241674</v>
+      </c>
+      <c r="V62" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -5292,9 +5466,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T63" t="n">
-        <v>22.68334623615863</v>
-      </c>
-      <c r="U63" t="inlineStr">
+        <v>22.141600403575</v>
+      </c>
+      <c r="U63" t="n">
+        <v>22.22454068931076</v>
+      </c>
+      <c r="V63" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -5369,9 +5546,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T64" t="n">
-        <v>21.4270352236767</v>
-      </c>
-      <c r="U64" t="inlineStr">
+        <v>20.91529383789537</v>
+      </c>
+      <c r="U64" t="n">
+        <v>20.99364049827871</v>
+      </c>
+      <c r="V64" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -5446,9 +5626,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T65" t="n">
-        <v>44.6018161614268</v>
-      </c>
-      <c r="U65" t="inlineStr">
+        <v>43.53659201947029</v>
+      </c>
+      <c r="U65" t="n">
+        <v>43.69967586689955</v>
+      </c>
+      <c r="V65" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -5523,9 +5706,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T66" t="n">
-        <v>32.86013969936226</v>
-      </c>
-      <c r="U66" t="inlineStr">
+        <v>32.07534174429387</v>
+      </c>
+      <c r="U66" t="n">
+        <v>32.19549286078293</v>
+      </c>
+      <c r="V66" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -5600,9 +5786,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T67" t="n">
-        <v>23.94292818163721</v>
-      </c>
-      <c r="U67" t="inlineStr">
+        <v>23.3710997826343</v>
+      </c>
+      <c r="U67" t="n">
+        <v>23.45864565369147</v>
+      </c>
+      <c r="V67" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -5677,9 +5866,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T68" t="n">
-        <v>32.07007888525862</v>
-      </c>
-      <c r="U68" t="inlineStr">
+        <v>31.3041499343077</v>
+      </c>
+      <c r="U68" t="n">
+        <v>31.42141224113931</v>
+      </c>
+      <c r="V68" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -5754,9 +5946,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T69" t="n">
-        <v>40.77401073165723</v>
-      </c>
-      <c r="U69" t="inlineStr">
+        <v>39.80020597808942</v>
+      </c>
+      <c r="U69" t="n">
+        <v>39.949293686114</v>
+      </c>
+      <c r="V69" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -5831,9 +6026,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T70" t="n">
-        <v>22.54608821295353</v>
-      </c>
-      <c r="U70" t="inlineStr">
+        <v>22.00762051055782</v>
+      </c>
+      <c r="U70" t="n">
+        <v>22.09005892062033</v>
+      </c>
+      <c r="V70" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -5908,9 +6106,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T71" t="n">
-        <v>30.66559632295112</v>
-      </c>
-      <c r="U71" t="inlineStr">
+        <v>29.93321059649385</v>
+      </c>
+      <c r="U71" t="n">
+        <v>30.04533749764872</v>
+      </c>
+      <c r="V71" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -5985,9 +6186,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T72" t="n">
-        <v>36.78868115922425</v>
-      </c>
-      <c r="U72" t="inlineStr">
+        <v>35.91005793949454</v>
+      </c>
+      <c r="U72" t="n">
+        <v>36.04457353059917</v>
+      </c>
+      <c r="V72" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -6062,9 +6266,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T73" t="n">
-        <v>35.61726580577677</v>
-      </c>
-      <c r="U73" t="inlineStr">
+        <v>34.76661947179167</v>
+      </c>
+      <c r="U73" t="n">
+        <v>34.89685185339456</v>
+      </c>
+      <c r="V73" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -6139,9 +6346,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T74" t="n">
-        <v>35.98502691473605</v>
-      </c>
-      <c r="U74" t="inlineStr">
+        <v>35.12559735070672</v>
+      </c>
+      <c r="U74" t="n">
+        <v>35.25717442859657</v>
+      </c>
+      <c r="V74" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -6216,9 +6426,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T75" t="n">
-        <v>37.28961843891066</v>
-      </c>
-      <c r="U75" t="inlineStr">
+        <v>36.39903134573694</v>
+      </c>
+      <c r="U75" t="n">
+        <v>36.5353785837547</v>
+      </c>
+      <c r="V75" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -6293,9 +6506,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T76" t="n">
-        <v>37.15197798132769</v>
-      </c>
-      <c r="U76" t="inlineStr">
+        <v>36.26467815201328</v>
+      </c>
+      <c r="U76" t="n">
+        <v>36.40052211600958</v>
+      </c>
+      <c r="V76" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -6370,9 +6586,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T77" t="n">
-        <v>27.89060114459023</v>
-      </c>
-      <c r="U77" t="inlineStr">
+        <v>27.22449056368094</v>
+      </c>
+      <c r="U77" t="n">
+        <v>27.32647086253946</v>
+      </c>
+      <c r="V77" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -6447,9 +6666,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T78" t="n">
-        <v>26.24450967504827</v>
-      </c>
-      <c r="U78" t="inlineStr">
+        <v>25.61771265856601</v>
+      </c>
+      <c r="U78" t="n">
+        <v>25.7136741233685</v>
+      </c>
+      <c r="V78" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -6524,9 +6746,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T79" t="n">
-        <v>32.27511536018605</v>
-      </c>
-      <c r="U79" t="inlineStr">
+        <v>31.50428952785515</v>
+      </c>
+      <c r="U79" t="n">
+        <v>31.62230153817581</v>
+      </c>
+      <c r="V79" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -6601,9 +6826,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T80" t="n">
-        <v>33.05232270520634</v>
-      </c>
-      <c r="U80" t="inlineStr">
+        <v>32.26293484786228</v>
+      </c>
+      <c r="U80" t="n">
+        <v>32.38378866990686</v>
+      </c>
+      <c r="V80" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -6678,9 +6906,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T81" t="n">
-        <v>37.91380773744524</v>
-      </c>
-      <c r="U81" t="inlineStr">
+        <v>37.00831314571712</v>
+      </c>
+      <c r="U81" t="n">
+        <v>37.14694269421212</v>
+      </c>
+      <c r="V81" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -6755,9 +6986,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T82" t="n">
-        <v>21.69298224001026</v>
-      </c>
-      <c r="U82" t="inlineStr">
+        <v>21.17488924779984</v>
+      </c>
+      <c r="U82" t="n">
+        <v>21.2542083273887</v>
+      </c>
+      <c r="V82" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -6832,9 +7066,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T83" t="n">
-        <v>38.9287987021165</v>
-      </c>
-      <c r="U83" t="inlineStr">
+        <v>37.99906310469654</v>
+      </c>
+      <c r="U83" t="n">
+        <v>38.14140390636172</v>
+      </c>
+      <c r="V83" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -6909,9 +7146,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T84" t="n">
-        <v>29.76221372731837</v>
-      </c>
-      <c r="U84" t="inlineStr">
+        <v>29.05140346646117</v>
+      </c>
+      <c r="U84" t="n">
+        <v>29.16022720370756</v>
+      </c>
+      <c r="V84" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -6986,9 +7226,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T85" t="n">
-        <v>41.09995843088404</v>
-      </c>
-      <c r="U85" t="inlineStr">
+        <v>40.11836907596783</v>
+      </c>
+      <c r="U85" t="n">
+        <v>40.26864859207166</v>
+      </c>
+      <c r="V85" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -7063,9 +7306,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T86" t="n">
-        <v>33.02120064349632</v>
-      </c>
-      <c r="U86" t="inlineStr">
+        <v>32.23255607363096</v>
+      </c>
+      <c r="U86" t="n">
+        <v>32.35329609973628</v>
+      </c>
+      <c r="V86" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -7140,9 +7386,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T87" t="n">
-        <v>29.65910939016912</v>
-      </c>
-      <c r="U87" t="inlineStr">
+        <v>28.95076156780713</v>
+      </c>
+      <c r="U87" t="n">
+        <v>29.05920831027088</v>
+      </c>
+      <c r="V87" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -7217,9 +7466,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T88" t="n">
-        <v>30.11506256205754</v>
-      </c>
-      <c r="U88" t="inlineStr">
+        <v>29.39582522065579</v>
+      </c>
+      <c r="U88" t="n">
+        <v>29.50593912835896</v>
+      </c>
+      <c r="V88" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -7294,9 +7546,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T89" t="n">
-        <v>37.16291925265281</v>
-      </c>
-      <c r="U89" t="inlineStr">
+        <v>36.27535811320885</v>
+      </c>
+      <c r="U89" t="n">
+        <v>36.41124208330304</v>
+      </c>
+      <c r="V89" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -7371,9 +7626,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T90" t="n">
-        <v>39.37405917893729</v>
-      </c>
-      <c r="U90" t="inlineStr">
+        <v>38.43368943586612</v>
+      </c>
+      <c r="U90" t="n">
+        <v>38.5776583055769</v>
+      </c>
+      <c r="V90" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -7448,9 +7706,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T91" t="n">
-        <v>28.15365666098232</v>
-      </c>
-      <c r="U91" t="inlineStr">
+        <v>27.48126353127006</v>
+      </c>
+      <c r="U91" t="n">
+        <v>27.58420567673915</v>
+      </c>
+      <c r="V91" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -7525,9 +7786,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T92" t="n">
-        <v>36.02324033101383</v>
-      </c>
-      <c r="U92" t="inlineStr">
+        <v>35.16289811684894</v>
+      </c>
+      <c r="U92" t="n">
+        <v>35.29461491978782</v>
+      </c>
+      <c r="V92" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -7602,9 +7866,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T93" t="n">
-        <v>36.02324033101383</v>
-      </c>
-      <c r="U93" t="inlineStr">
+        <v>35.16289811684894</v>
+      </c>
+      <c r="U93" t="n">
+        <v>35.29461491978782</v>
+      </c>
+      <c r="V93" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -7679,9 +7946,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T94" t="n">
-        <v>42.04655497189034</v>
-      </c>
-      <c r="U94" t="inlineStr">
+        <v>41.04235807371798</v>
+      </c>
+      <c r="U94" t="n">
+        <v>41.19609876291198</v>
+      </c>
+      <c r="V94" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -7756,9 +8026,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T95" t="n">
-        <v>42.04655497189034</v>
-      </c>
-      <c r="U95" t="inlineStr">
+        <v>41.04235807371798</v>
+      </c>
+      <c r="U95" t="n">
+        <v>41.19609876291198</v>
+      </c>
+      <c r="V95" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -7833,9 +8106,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T96" t="n">
-        <v>28.55569977185347</v>
-      </c>
-      <c r="U96" t="inlineStr">
+        <v>27.87370465583963</v>
+      </c>
+      <c r="U96" t="n">
+        <v>27.9781168476655</v>
+      </c>
+      <c r="V96" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -7910,9 +8186,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T97" t="n">
-        <v>25.08352199801356</v>
-      </c>
-      <c r="U97" t="inlineStr">
+        <v>24.48445282332177</v>
+      </c>
+      <c r="U97" t="n">
+        <v>24.5761692067916</v>
+      </c>
+      <c r="V97" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -7987,9 +8266,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T98" t="n">
-        <v>32.10890210100942</v>
-      </c>
-      <c r="U98" t="inlineStr">
+        <v>31.34204593609627</v>
+      </c>
+      <c r="U98" t="n">
+        <v>31.45945019767185</v>
+      </c>
+      <c r="V98" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -8064,9 +8346,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T99" t="n">
-        <v>35.24787868406799</v>
-      </c>
-      <c r="U99" t="inlineStr">
+        <v>34.40605441415193</v>
+      </c>
+      <c r="U99" t="n">
+        <v>34.53493615405043</v>
+      </c>
+      <c r="V99" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -8141,9 +8426,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T100" t="n">
-        <v>26.40099503999025</v>
-      </c>
-      <c r="U100" t="inlineStr">
+        <v>25.77046068716286</v>
+      </c>
+      <c r="U100" t="n">
+        <v>25.86699433125258</v>
+      </c>
+      <c r="V100" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
@@ -8218,9 +8506,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T101" t="n">
-        <v>24.30590653746043</v>
-      </c>
-      <c r="U101" t="inlineStr">
+        <v>23.72540913479563</v>
+      </c>
+      <c r="U101" t="n">
+        <v>23.81428221429173</v>
+      </c>
+      <c r="V101" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
@@ -8295,9 +8586,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T102" t="n">
-        <v>28.70858223280479</v>
-      </c>
-      <c r="U102" t="inlineStr">
+        <v>28.02293582851836</v>
+      </c>
+      <c r="U102" t="n">
+        <v>28.12790702583059</v>
+      </c>
+      <c r="V102" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
@@ -8372,9 +8666,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T103" t="n">
-        <v>16.66960532839994</v>
-      </c>
-      <c r="U103" t="inlineStr">
+        <v>16.27148553057756</v>
+      </c>
+      <c r="U103" t="n">
+        <v>16.33243693583522</v>
+      </c>
+      <c r="V103" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
@@ -8449,9 +8746,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T104" t="n">
-        <v>41.69927347902058</v>
-      </c>
-      <c r="U104" t="inlineStr">
+        <v>40.70337069669589</v>
+      </c>
+      <c r="U104" t="n">
+        <v>40.85584157208247</v>
+      </c>
+      <c r="V104" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -8526,9 +8826,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T105" t="n">
-        <v>33.65194007901309</v>
-      </c>
-      <c r="U105" t="inlineStr">
+        <v>32.84823157382357</v>
+      </c>
+      <c r="U105" t="n">
+        <v>32.97127786058645</v>
+      </c>
+      <c r="V105" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -8603,9 +8906,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T106" t="n">
-        <v>19.81466091885927</v>
-      </c>
-      <c r="U106" t="inlineStr">
+        <v>19.34142783124108</v>
+      </c>
+      <c r="U106" t="n">
+        <v>19.41387894234513</v>
+      </c>
+      <c r="V106" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
@@ -8680,9 +8986,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T107" t="n">
-        <v>27.76297519301385</v>
-      </c>
-      <c r="U107" t="inlineStr">
+        <v>27.09991269974896</v>
+      </c>
+      <c r="U107" t="n">
+        <v>27.20142634202247</v>
+      </c>
+      <c r="V107" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
@@ -8757,9 +9066,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T108" t="n">
-        <v>24.99403917041211</v>
-      </c>
-      <c r="U108" t="inlineStr">
+        <v>24.39710711201861</v>
+      </c>
+      <c r="U108" t="n">
+        <v>24.48849630693291</v>
+      </c>
+      <c r="V108" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
@@ -8834,9 +9146,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T109" t="n">
-        <v>11.77376306918397</v>
-      </c>
-      <c r="U109" t="inlineStr">
+        <v>11.49257055860147</v>
+      </c>
+      <c r="U109" t="n">
+        <v>11.535620612283</v>
+      </c>
+      <c r="V109" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
@@ -8911,9 +9226,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T110" t="n">
-        <v>27.55312813747785</v>
-      </c>
-      <c r="U110" t="inlineStr">
+        <v>26.89507741657816</v>
+      </c>
+      <c r="U110" t="n">
+        <v>26.9958237657651</v>
+      </c>
+      <c r="V110" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -8988,9 +9306,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T111" t="n">
-        <v>30.50735045245302</v>
-      </c>
-      <c r="U111" t="inlineStr">
+        <v>29.7787441084543</v>
+      </c>
+      <c r="U111" t="n">
+        <v>29.89029239313965</v>
+      </c>
+      <c r="V111" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -9065,9 +9386,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T112" t="n">
-        <v>30.35488466805121</v>
-      </c>
-      <c r="U112" t="inlineStr">
+        <v>29.62991966084871</v>
+      </c>
+      <c r="U112" t="n">
+        <v>29.74091046360033</v>
+      </c>
+      <c r="V112" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -9142,9 +9466,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T113" t="n">
-        <v>36.95209972476533</v>
-      </c>
-      <c r="U113" t="inlineStr">
+        <v>36.0695735832212</v>
+      </c>
+      <c r="U113" t="n">
+        <v>36.2046867044424</v>
+      </c>
+      <c r="V113" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -9219,9 +9546,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T114" t="n">
-        <v>38.28643206145068</v>
-      </c>
-      <c r="U114" t="inlineStr">
+        <v>37.37203809162606</v>
+      </c>
+      <c r="U114" t="n">
+        <v>37.51203011846017</v>
+      </c>
+      <c r="V114" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -9296,9 +9626,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T115" t="n">
-        <v>31.30521510351421</v>
-      </c>
-      <c r="U115" t="inlineStr">
+        <v>30.55755337654076</v>
+      </c>
+      <c r="U115" t="n">
+        <v>30.67201900514216</v>
+      </c>
+      <c r="V115" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -9373,9 +9706,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T116" t="n">
-        <v>31.30521510351421</v>
-      </c>
-      <c r="U116" t="inlineStr">
+        <v>30.55755337654076</v>
+      </c>
+      <c r="U116" t="n">
+        <v>30.67201900514216</v>
+      </c>
+      <c r="V116" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -9450,9 +9786,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T117" t="n">
-        <v>39.32170888326723</v>
-      </c>
-      <c r="U117" t="inlineStr">
+        <v>38.38258942109459</v>
+      </c>
+      <c r="U117" t="n">
+        <v>38.52636687511053</v>
+      </c>
+      <c r="V117" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -9527,9 +9866,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T118" t="n">
-        <v>25.9641771671566</v>
-      </c>
-      <c r="U118" t="inlineStr">
+        <v>25.344075325465</v>
+      </c>
+      <c r="U118" t="n">
+        <v>25.43901177138077</v>
+      </c>
+      <c r="V118" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -9604,9 +9946,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T119" t="n">
-        <v>47.34216650991087</v>
-      </c>
-      <c r="U119" t="inlineStr">
+        <v>46.21149464407561</v>
+      </c>
+      <c r="U119" t="n">
+        <v>46.38459841707287</v>
+      </c>
+      <c r="V119" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -9681,9 +10026,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T120" t="n">
-        <v>27.33787097916291</v>
-      </c>
-      <c r="U120" t="inlineStr">
+        <v>26.68496123998773</v>
+      </c>
+      <c r="U120" t="n">
+        <v>26.78492051437401</v>
+      </c>
+      <c r="V120" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -9758,9 +10106,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T121" t="n">
-        <v>30.76737122817728</v>
-      </c>
-      <c r="U121" t="inlineStr">
+        <v>30.03255481401662</v>
+      </c>
+      <c r="U121" t="n">
+        <v>30.14505384896658</v>
+      </c>
+      <c r="V121" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -9835,9 +10186,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T122" t="n">
-        <v>35.66874734664732</v>
-      </c>
-      <c r="U122" t="inlineStr">
+        <v>34.81687148021443</v>
+      </c>
+      <c r="U122" t="n">
+        <v>34.94729210096271</v>
+      </c>
+      <c r="V122" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -9912,9 +10266,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T123" t="n">
-        <v>17.70668971733859</v>
-      </c>
-      <c r="U123" t="inlineStr">
+        <v>17.28380125708449</v>
+      </c>
+      <c r="U123" t="n">
+        <v>17.348544698784</v>
+      </c>
+      <c r="V123" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -9989,9 +10346,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T124" t="n">
-        <v>33.17591760582172</v>
-      </c>
-      <c r="U124" t="inlineStr">
+        <v>32.38357793432995</v>
+      </c>
+      <c r="U124" t="n">
+        <v>32.50488367366513</v>
+      </c>
+      <c r="V124" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -10066,9 +10426,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T125" t="n">
-        <v>43.44318443566831</v>
-      </c>
-      <c r="U125" t="inlineStr">
+        <v>42.40563186837252</v>
+      </c>
+      <c r="U125" t="n">
+        <v>42.56447924886272</v>
+      </c>
+      <c r="V125" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -10143,9 +10506,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T126" t="n">
-        <v>30.54452112120853</v>
-      </c>
-      <c r="U126" t="inlineStr">
+        <v>29.81502703098916</v>
+      </c>
+      <c r="U126" t="n">
+        <v>29.9267112279802</v>
+      </c>
+      <c r="V126" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -10220,9 +10586,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T127" t="n">
-        <v>34.7428440738251</v>
-      </c>
-      <c r="U127" t="inlineStr">
+        <v>33.9130815338038</v>
+      </c>
+      <c r="U127" t="n">
+        <v>34.04011664514741</v>
+      </c>
+      <c r="V127" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -10297,9 +10666,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T128" t="n">
-        <v>33.38487950600774</v>
-      </c>
-      <c r="U128" t="inlineStr">
+        <v>32.58754920229548</v>
+      </c>
+      <c r="U128" t="n">
+        <v>32.70961899820013</v>
+      </c>
+      <c r="V128" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -10374,9 +10746,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T129" t="n">
-        <v>31.42351786084434</v>
-      </c>
-      <c r="U129" t="inlineStr">
+        <v>30.67303071185865</v>
+      </c>
+      <c r="U129" t="n">
+        <v>30.7879289073483</v>
+      </c>
+      <c r="V129" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -10451,9 +10826,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T130" t="n">
-        <v>44.99084352523037</v>
-      </c>
-      <c r="U130" t="inlineStr">
+        <v>43.91632825175793</v>
+      </c>
+      <c r="U130" t="n">
+        <v>44.08083455425079</v>
+      </c>
+      <c r="V130" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
@@ -10528,9 +10906,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T131" t="n">
-        <v>30.8850707256197</v>
-      </c>
-      <c r="U131" t="inlineStr">
+        <v>30.14744329708874</v>
+      </c>
+      <c r="U131" t="n">
+        <v>30.26037269314357</v>
+      </c>
+      <c r="V131" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
@@ -10605,9 +10986,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T132" t="n">
-        <v>30.8850707256197</v>
-      </c>
-      <c r="U132" t="inlineStr">
+        <v>30.14744329708874</v>
+      </c>
+      <c r="U132" t="n">
+        <v>30.26037269314357</v>
+      </c>
+      <c r="V132" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
@@ -10682,9 +11066,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T133" t="n">
-        <v>23.40085017798146</v>
-      </c>
-      <c r="U133" t="inlineStr">
+        <v>22.84196821537988</v>
+      </c>
+      <c r="U133" t="n">
+        <v>22.92753201095109</v>
+      </c>
+      <c r="V133" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
@@ -10759,9 +11146,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T134" t="n">
-        <v>26.13822724578434</v>
-      </c>
-      <c r="U134" t="inlineStr">
+        <v>25.51396857009762</v>
+      </c>
+      <c r="U134" t="n">
+        <v>25.60954141961557</v>
+      </c>
+      <c r="V134" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
@@ -10836,9 +11226,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T135" t="n">
-        <v>37.24854587790906</v>
-      </c>
-      <c r="U135" t="inlineStr">
+        <v>36.35893971975808</v>
+      </c>
+      <c r="U135" t="n">
+        <v>36.49513677843679</v>
+      </c>
+      <c r="V135" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
@@ -10913,9 +11306,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T136" t="n">
-        <v>22.2617911969999</v>
-      </c>
-      <c r="U136" t="inlineStr">
+        <v>21.73011335364903</v>
+      </c>
+      <c r="U136" t="n">
+        <v>21.81151224884051</v>
+      </c>
+      <c r="V136" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
@@ -10990,9 +11386,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T137" t="n">
-        <v>36.05057799982835</v>
-      </c>
-      <c r="U137" t="inlineStr">
+        <v>35.18958288075258</v>
+      </c>
+      <c r="U137" t="n">
+        <v>35.32139964222664</v>
+      </c>
+      <c r="V137" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
@@ -11067,9 +11466,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T138" t="n">
-        <v>30.27586619575271</v>
-      </c>
-      <c r="U138" t="inlineStr">
+        <v>29.55278838489326</v>
+      </c>
+      <c r="U138" t="n">
+        <v>29.6634902613726</v>
+      </c>
+      <c r="V138" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -11144,9 +11546,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T139" t="n">
-        <v>23.8040416050937</v>
-      </c>
-      <c r="U139" t="inlineStr">
+        <v>23.23553023098038</v>
+      </c>
+      <c r="U139" t="n">
+        <v>23.32256827165734</v>
+      </c>
+      <c r="V139" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -11221,7 +11626,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr">
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -11296,9 +11702,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T141" t="n">
-        <v>27.39537848272629</v>
-      </c>
-      <c r="U141" t="inlineStr">
+        <v>26.74109529317596</v>
+      </c>
+      <c r="U141" t="n">
+        <v>26.84126484027632</v>
+      </c>
+      <c r="V141" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -11373,9 +11782,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T142" t="n">
-        <v>19.41279162135829</v>
-      </c>
-      <c r="U142" t="inlineStr">
+        <v>18.94915636886098</v>
+      </c>
+      <c r="U142" t="n">
+        <v>19.02013806914635</v>
+      </c>
+      <c r="V142" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -11450,7 +11862,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr">
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -11525,9 +11938,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T144" t="n">
-        <v>21.98143793600146</v>
-      </c>
-      <c r="U144" t="inlineStr">
+        <v>21.45645576308721</v>
+      </c>
+      <c r="U144" t="n">
+        <v>21.53682956350952</v>
+      </c>
+      <c r="V144" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -11602,7 +12018,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr">
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -11677,7 +12094,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T146" t="inlineStr"/>
-      <c r="U146" t="inlineStr">
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -11752,9 +12170,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T147" t="n">
-        <v>23.14597641820976</v>
-      </c>
-      <c r="U147" t="inlineStr">
+        <v>22.59318159970737</v>
+      </c>
+      <c r="U147" t="n">
+        <v>22.677813464767</v>
+      </c>
+      <c r="V147" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -11829,9 +12250,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T148" t="n">
-        <v>17.79713683116967</v>
-      </c>
-      <c r="U148" t="inlineStr">
+        <v>17.37208822459161</v>
+      </c>
+      <c r="U148" t="n">
+        <v>17.43716238070103</v>
+      </c>
+      <c r="V148" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -11906,7 +12330,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T149" t="inlineStr"/>
-      <c r="U149" t="inlineStr">
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -11981,9 +12406,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T150" t="n">
-        <v>25.04892547497485</v>
-      </c>
-      <c r="U150" t="inlineStr">
+        <v>24.45068256824119</v>
+      </c>
+      <c r="U150" t="n">
+        <v>24.54227245161371</v>
+      </c>
+      <c r="V150" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -12058,9 +12486,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T151" t="n">
-        <v>27.05850836230622</v>
-      </c>
-      <c r="U151" t="inlineStr">
+        <v>26.41227063403658</v>
+      </c>
+      <c r="U151" t="n">
+        <v>26.51120843588416</v>
+      </c>
+      <c r="V151" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -12135,7 +12566,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T152" t="inlineStr"/>
-      <c r="U152" t="inlineStr">
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -12210,7 +12642,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T153" t="inlineStr"/>
-      <c r="U153" t="inlineStr">
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -12285,7 +12718,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T154" t="inlineStr"/>
-      <c r="U154" t="inlineStr">
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -12360,7 +12794,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T155" t="inlineStr"/>
-      <c r="U155" t="inlineStr">
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -12435,9 +12870,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T156" t="n">
-        <v>23.12833107893655</v>
-      </c>
-      <c r="U156" t="inlineStr">
+        <v>22.57595768366318</v>
+      </c>
+      <c r="U156" t="n">
+        <v>22.66052502960531</v>
+      </c>
+      <c r="V156" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -12512,7 +12950,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T157" t="inlineStr"/>
-      <c r="U157" t="inlineStr">
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -12587,9 +13026,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T158" t="n">
-        <v>27.78774076759526</v>
-      </c>
-      <c r="U158" t="inlineStr">
+        <v>27.12408679868646</v>
+      </c>
+      <c r="U158" t="n">
+        <v>27.22569099478791</v>
+      </c>
+      <c r="V158" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -12664,7 +13106,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T159" t="inlineStr"/>
-      <c r="U159" t="inlineStr">
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -12739,7 +13182,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T160" t="inlineStr"/>
-      <c r="U160" t="inlineStr">
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -12814,7 +13258,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T161" t="inlineStr"/>
-      <c r="U161" t="inlineStr">
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -12889,7 +13334,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T162" t="inlineStr"/>
-      <c r="U162" t="inlineStr">
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -12964,7 +13410,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T163" t="inlineStr"/>
-      <c r="U163" t="inlineStr">
+      <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -13039,7 +13486,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T164" t="inlineStr"/>
-      <c r="U164" t="inlineStr">
+      <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -13114,7 +13562,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T165" t="inlineStr"/>
-      <c r="U165" t="inlineStr">
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -13189,7 +13638,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T166" t="inlineStr"/>
-      <c r="U166" t="inlineStr">
+      <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -13264,9 +13714,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T167" t="n">
-        <v>18.72514150278435</v>
-      </c>
-      <c r="U167" t="inlineStr">
+        <v>18.27792938213604</v>
+      </c>
+      <c r="U167" t="n">
+        <v>18.3463967312879</v>
+      </c>
+      <c r="V167" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -13341,7 +13794,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T168" t="inlineStr"/>
-      <c r="U168" t="inlineStr">
+      <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -13416,9 +13870,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T169" t="n">
-        <v>25.66336607697898</v>
-      </c>
-      <c r="U169" t="inlineStr">
+        <v>25.05044849958428</v>
+      </c>
+      <c r="U169" t="n">
+        <v>25.14428504791387</v>
+      </c>
+      <c r="V169" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -13493,7 +13950,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T170" t="inlineStr"/>
-      <c r="U170" t="inlineStr">
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -13568,7 +14026,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T171" t="inlineStr"/>
-      <c r="U171" t="inlineStr">
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -13643,7 +14102,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T172" t="inlineStr"/>
-      <c r="U172" t="inlineStr">
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -13718,9 +14178,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T173" t="n">
-        <v>20.72879710116599</v>
-      </c>
-      <c r="U173" t="inlineStr">
+        <v>20.23373172028637</v>
+      </c>
+      <c r="U173" t="n">
+        <v>20.30952531513918</v>
+      </c>
+      <c r="V173" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -13795,7 +14258,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T174" t="inlineStr"/>
-      <c r="U174" t="inlineStr">
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -13870,7 +14334,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T175" t="inlineStr"/>
-      <c r="U175" t="inlineStr">
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -13945,9 +14410,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T176" t="n">
-        <v>29.50987122758694</v>
-      </c>
-      <c r="U176" t="inlineStr">
+        <v>28.80508765680403</v>
+      </c>
+      <c r="U176" t="n">
+        <v>28.91298871893834</v>
+      </c>
+      <c r="V176" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -14022,9 +14490,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T177" t="n">
-        <v>36.6961879814906</v>
-      </c>
-      <c r="U177" t="inlineStr">
+        <v>35.81977377418161</v>
+      </c>
+      <c r="U177" t="n">
+        <v>35.95395116956725</v>
+      </c>
+      <c r="V177" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -14099,7 +14570,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T178" t="inlineStr"/>
-      <c r="U178" t="inlineStr">
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -14174,7 +14646,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T179" t="inlineStr"/>
-      <c r="U179" t="inlineStr">
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -14249,9 +14722,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T180" t="n">
-        <v>34.75777233444975</v>
-      </c>
-      <c r="U180" t="inlineStr">
+        <v>33.92765326312583</v>
+      </c>
+      <c r="U180" t="n">
+        <v>34.05474295875295</v>
+      </c>
+      <c r="V180" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -14326,9 +14802,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T181" t="n">
-        <v>36.81721752698016</v>
-      </c>
-      <c r="U181" t="inlineStr">
+        <v>35.93791277384051</v>
+      </c>
+      <c r="U181" t="n">
+        <v>36.07253270645062</v>
+      </c>
+      <c r="V181" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -14403,9 +14882,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T182" t="n">
-        <v>40.96445744820848</v>
-      </c>
-      <c r="U182" t="inlineStr">
+        <v>39.98610426012193</v>
+      </c>
+      <c r="U182" t="n">
+        <v>40.1358883250651</v>
+      </c>
+      <c r="V182" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -14480,7 +14962,8 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T183" t="inlineStr"/>
-      <c r="U183" t="inlineStr">
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
@@ -14555,9 +15038,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T184" t="n">
-        <v>27.65755095028403</v>
-      </c>
-      <c r="U184" t="inlineStr">
+        <v>26.99700630176557</v>
+      </c>
+      <c r="U184" t="n">
+        <v>27.09813446666178</v>
+      </c>
+      <c r="V184" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -14632,9 +15118,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T185" t="n">
-        <v>24.35291569010893</v>
-      </c>
-      <c r="U185" t="inlineStr">
+        <v>23.77129556894063</v>
+      </c>
+      <c r="U185" t="n">
+        <v>23.86034053456466</v>
+      </c>
+      <c r="V185" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -14709,9 +15198,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T186" t="n">
-        <v>31.84121364436432</v>
-      </c>
-      <c r="U186" t="inlineStr">
+        <v>31.08075067665886</v>
+      </c>
+      <c r="U186" t="n">
+        <v>31.1971761515576</v>
+      </c>
+      <c r="V186" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -14786,9 +15278,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T187" t="n">
-        <v>27.09033845939206</v>
-      </c>
-      <c r="U187" t="inlineStr">
+        <v>26.44334053365124</v>
+      </c>
+      <c r="U187" t="n">
+        <v>26.54239472032669</v>
+      </c>
+      <c r="V187" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -14863,9 +15358,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T188" t="n">
-        <v>26.85434647658429</v>
-      </c>
-      <c r="U188" t="inlineStr">
+        <v>26.2129847419009</v>
+      </c>
+      <c r="U188" t="n">
+        <v>26.31117603814205</v>
+      </c>
+      <c r="V188" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -14940,9 +15438,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T189" t="n">
-        <v>25.37199194564089</v>
-      </c>
-      <c r="U189" t="inlineStr">
+        <v>24.76603324987378</v>
+      </c>
+      <c r="U189" t="n">
+        <v>24.85880440628731</v>
+      </c>
+      <c r="V189" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -15017,9 +15518,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T190" t="n">
-        <v>25.69913381714493</v>
-      </c>
-      <c r="U190" t="inlineStr">
+        <v>25.08536199964059</v>
+      </c>
+      <c r="U190" t="n">
+        <v>25.17932933055219</v>
+      </c>
+      <c r="V190" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -15094,9 +15598,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T191" t="n">
-        <v>27.16742242664481</v>
-      </c>
-      <c r="U191" t="inlineStr">
+        <v>26.51858350630011</v>
+      </c>
+      <c r="U191" t="n">
+        <v>26.61791954584698</v>
+      </c>
+      <c r="V191" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -15171,9 +15678,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T192" t="n">
-        <v>28.13082497565271</v>
-      </c>
-      <c r="U192" t="inlineStr">
+        <v>27.45897713455216</v>
+      </c>
+      <c r="U192" t="n">
+        <v>27.56183579734259</v>
+      </c>
+      <c r="V192" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
@@ -15248,9 +15758,12 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T193" t="n">
-        <v>19.9533022666929</v>
-      </c>
-      <c r="U193" t="inlineStr">
+        <v>19.47675801097673</v>
+      </c>
+      <c r="U193" t="n">
+        <v>19.54971605579701</v>
+      </c>
+      <c r="V193" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>

--- a/fifty_one/measurements/Updated_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_Filtered_Data_with_real_length.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V193"/>
+  <dimension ref="A1:X193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,12 +536,22 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>Height(mm)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>RealLength(cm)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Pond_Type</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Euclidean_Distance</t>
         </is>
       </c>
     </row>
@@ -614,15 +624,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T2" t="n">
-        <v>37.54470511578233</v>
+        <v>35.65629336023974</v>
       </c>
       <c r="U2" t="n">
-        <v>37.68534393652742</v>
-      </c>
-      <c r="V2" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V2" t="n">
+        <v>35.78985837386445</v>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X2" t="n">
+        <v>189.8761577997937</v>
       </c>
     </row>
     <row r="3">
@@ -694,15 +710,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T3" t="n">
-        <v>28.21799354970958</v>
+        <v>29.5067468902647</v>
       </c>
       <c r="U3" t="n">
-        <v>28.32369541431034</v>
-      </c>
-      <c r="V3" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V3" t="n">
+        <v>29.61727629977461</v>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X3" t="n">
+        <v>157.1287198052378</v>
       </c>
     </row>
     <row r="4">
@@ -774,15 +796,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T4" t="n">
-        <v>38.63939182737593</v>
+        <v>44.58746170645963</v>
       </c>
       <c r="U4" t="n">
-        <v>38.78413123827693</v>
-      </c>
-      <c r="V4" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V4" t="n">
+        <v>44.75448200972412</v>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X4" t="n">
+        <v>237.436231223869</v>
       </c>
     </row>
     <row r="5">
@@ -854,15 +882,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T5" t="n">
-        <v>24.48815771066471</v>
+        <v>27.0395424748037</v>
       </c>
       <c r="U5" t="n">
-        <v>24.57988797228289</v>
-      </c>
-      <c r="V5" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V5" t="n">
+        <v>27.14082997607495</v>
+      </c>
+      <c r="W5" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X5" t="n">
+        <v>143.9904137513393</v>
       </c>
     </row>
     <row r="6">
@@ -934,15 +968,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T6" t="n">
-        <v>22.02269942450471</v>
+        <v>29.43806617317741</v>
       </c>
       <c r="U6" t="n">
-        <v>22.10519431871509</v>
-      </c>
-      <c r="V6" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V6" t="n">
+        <v>29.54833831138822</v>
+      </c>
+      <c r="W6" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X6" t="n">
+        <v>156.7629826675125</v>
       </c>
     </row>
     <row r="7">
@@ -1014,15 +1054,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T7" t="n">
-        <v>24.43458996548156</v>
+        <v>33.19833679188262</v>
       </c>
       <c r="U7" t="n">
-        <v>24.52611956752632</v>
-      </c>
-      <c r="V7" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V7" t="n">
+        <v>33.32269453880621</v>
+      </c>
+      <c r="W7" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X7" t="n">
+        <v>176.7870981905063</v>
       </c>
     </row>
     <row r="8">
@@ -1094,15 +1140,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T8" t="n">
-        <v>35.06246693500572</v>
+        <v>33.93713902292457</v>
       </c>
       <c r="U8" t="n">
-        <v>35.19380753248667</v>
-      </c>
-      <c r="V8" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V8" t="n">
+        <v>34.06426425128707</v>
+      </c>
+      <c r="W8" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X8" t="n">
+        <v>180.7213525894952</v>
       </c>
     </row>
     <row r="9">
@@ -1174,15 +1226,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T9" t="n">
-        <v>32.45688294113347</v>
+        <v>36.2425776485282</v>
       </c>
       <c r="U9" t="n">
-        <v>32.57846327390812</v>
-      </c>
-      <c r="V9" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V9" t="n">
+        <v>36.37833882618382</v>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X9" t="n">
+        <v>192.9982267965316</v>
       </c>
     </row>
     <row r="10">
@@ -1254,15 +1312,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T10" t="n">
-        <v>25.04969693189933</v>
+        <v>33.55433449961946</v>
       </c>
       <c r="U10" t="n">
-        <v>25.14353066492934</v>
-      </c>
-      <c r="V10" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V10" t="n">
+        <v>33.68002577939807</v>
+      </c>
+      <c r="W10" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X10" t="n">
+        <v>178.6828498393858</v>
       </c>
     </row>
     <row r="11">
@@ -1334,15 +1398,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T11" t="n">
-        <v>29.28283255765788</v>
+        <v>30.12241600347453</v>
       </c>
       <c r="U11" t="n">
-        <v>29.39252320581413</v>
-      </c>
-      <c r="V11" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V11" t="n">
+        <v>30.23525164971699</v>
+      </c>
+      <c r="W11" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X11" t="n">
+        <v>160.4072682654275</v>
       </c>
     </row>
     <row r="12">
@@ -1414,15 +1484,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T12" t="n">
-        <v>35.90060322312576</v>
+        <v>33.47784115253302</v>
       </c>
       <c r="U12" t="n">
-        <v>36.03508339778069</v>
-      </c>
-      <c r="V12" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V12" t="n">
+        <v>33.60324589565897</v>
+      </c>
+      <c r="W12" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X12" t="n">
+        <v>178.2755090455663</v>
       </c>
     </row>
     <row r="13">
@@ -1494,15 +1570,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T13" t="n">
-        <v>29.14211008860656</v>
+        <v>25.50750331480199</v>
       </c>
       <c r="U13" t="n">
-        <v>29.25127360405425</v>
-      </c>
-      <c r="V13" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V13" t="n">
+        <v>25.60305194610121</v>
+      </c>
+      <c r="W13" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X13" t="n">
+        <v>135.832030423017</v>
       </c>
     </row>
     <row r="14">
@@ -1574,15 +1656,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T14" t="n">
-        <v>29.91351710650545</v>
+        <v>31.77098416836987</v>
       </c>
       <c r="U14" t="n">
-        <v>30.02557023775854</v>
-      </c>
-      <c r="V14" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V14" t="n">
+        <v>31.88999519092475</v>
+      </c>
+      <c r="W14" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X14" t="n">
+        <v>169.1861894465741</v>
       </c>
     </row>
     <row r="15">
@@ -1654,15 +1742,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T15" t="n">
-        <v>32.7978920854925</v>
+        <v>36.54546242165697</v>
       </c>
       <c r="U15" t="n">
-        <v>32.92074980541876</v>
-      </c>
-      <c r="V15" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V15" t="n">
+        <v>36.68235817627047</v>
+      </c>
+      <c r="W15" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X15" t="n">
+        <v>194.6111425417752</v>
       </c>
     </row>
     <row r="16">
@@ -1734,15 +1828,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T16" t="n">
-        <v>14.52579614922694</v>
+        <v>38.06699820919684</v>
       </c>
       <c r="U16" t="n">
-        <v>14.58020837152329</v>
-      </c>
-      <c r="V16" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V16" t="n">
+        <v>38.20959348916874</v>
+      </c>
+      <c r="W16" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X16" t="n">
+        <v>202.713593527752</v>
       </c>
     </row>
     <row r="17">
@@ -1814,15 +1914,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T17" t="n">
-        <v>25.75005114090062</v>
+        <v>37.92391881925307</v>
       </c>
       <c r="U17" t="n">
-        <v>25.84650833281128</v>
-      </c>
-      <c r="V17" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V17" t="n">
+        <v>38.06597813771953</v>
+      </c>
+      <c r="W17" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X17" t="n">
+        <v>201.9516701122027</v>
       </c>
     </row>
     <row r="18">
@@ -1894,15 +2000,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T18" t="n">
-        <v>34.97065220847087</v>
+        <v>33.29580917010842</v>
       </c>
       <c r="U18" t="n">
-        <v>35.10164887689906</v>
-      </c>
-      <c r="V18" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V18" t="n">
+        <v>33.42053203909879</v>
+      </c>
+      <c r="W18" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X18" t="n">
+        <v>177.3061560881441</v>
       </c>
     </row>
     <row r="19">
@@ -1974,15 +2086,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T19" t="n">
-        <v>29.23829928197056</v>
+        <v>25.34157664432986</v>
       </c>
       <c r="U19" t="n">
-        <v>29.34782311279911</v>
-      </c>
-      <c r="V19" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V19" t="n">
+        <v>25.43650373042867</v>
+      </c>
+      <c r="W19" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X19" t="n">
+        <v>134.9484411405457</v>
       </c>
     </row>
     <row r="20">
@@ -2054,15 +2172,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T20" t="n">
-        <v>39.85548950937959</v>
+        <v>40.11069539287472</v>
       </c>
       <c r="U20" t="n">
-        <v>40.00478430414579</v>
-      </c>
-      <c r="V20" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V20" t="n">
+        <v>40.2609461641066</v>
+      </c>
+      <c r="W20" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X20" t="n">
+        <v>213.5966476080656</v>
       </c>
     </row>
     <row r="21">
@@ -2134,15 +2258,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T21" t="n">
-        <v>31.05802223496066</v>
+        <v>37.44226990552668</v>
       </c>
       <c r="U21" t="n">
-        <v>31.17436257132313</v>
-      </c>
-      <c r="V21" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V21" t="n">
+        <v>37.58252501391797</v>
+      </c>
+      <c r="W21" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X21" t="n">
+        <v>199.3868032534172</v>
       </c>
     </row>
     <row r="22">
@@ -2214,15 +2344,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T22" t="n">
-        <v>38.16475537386918</v>
+        <v>33.79080734790776</v>
       </c>
       <c r="U22" t="n">
-        <v>38.30771684269025</v>
-      </c>
-      <c r="V22" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V22" t="n">
+        <v>33.91738443202067</v>
+      </c>
+      <c r="W22" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X22" t="n">
+        <v>179.9421101725707</v>
       </c>
     </row>
     <row r="23">
@@ -2294,15 +2430,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T23" t="n">
-        <v>31.82574608966876</v>
+        <v>31.1470820165331</v>
       </c>
       <c r="U23" t="n">
-        <v>31.94496224506486</v>
-      </c>
-      <c r="V23" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V23" t="n">
+        <v>31.26375596219195</v>
+      </c>
+      <c r="W23" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X23" t="n">
+        <v>165.8637985789387</v>
       </c>
     </row>
     <row r="24">
@@ -2374,15 +2516,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T24" t="n">
-        <v>32.94212275554145</v>
+        <v>25.67877154443551</v>
       </c>
       <c r="U24" t="n">
-        <v>33.06552074955665</v>
-      </c>
-      <c r="V24" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V24" t="n">
+        <v>25.77496172989722</v>
+      </c>
+      <c r="W24" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X24" t="n">
+        <v>136.7440644661362</v>
       </c>
     </row>
     <row r="25">
@@ -2454,15 +2602,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T25" t="n">
-        <v>13.11664055755694</v>
+        <v>28.74998403766801</v>
       </c>
       <c r="U25" t="n">
-        <v>13.16577421979942</v>
-      </c>
-      <c r="V25" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V25" t="n">
+        <v>28.85767868699416</v>
+      </c>
+      <c r="W25" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X25" t="n">
+        <v>153.0988218748797</v>
       </c>
     </row>
     <row r="26">
@@ -2534,15 +2688,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T26" t="n">
-        <v>39.88673172740741</v>
+        <v>37.4294814745727</v>
       </c>
       <c r="U26" t="n">
-        <v>40.03614355248952</v>
-      </c>
-      <c r="V26" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V26" t="n">
+        <v>37.56968867874306</v>
+      </c>
+      <c r="W26" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X26" t="n">
+        <v>199.318702564731</v>
       </c>
     </row>
     <row r="27">
@@ -2614,15 +2774,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T27" t="n">
-        <v>26.07295090220322</v>
+        <v>36.27964173180828</v>
       </c>
       <c r="U27" t="n">
-        <v>26.17061764527452</v>
-      </c>
-      <c r="V27" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V27" t="n">
+        <v>36.41554174792191</v>
+      </c>
+      <c r="W27" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X27" t="n">
+        <v>193.1955996881694</v>
       </c>
     </row>
     <row r="28">
@@ -2695,11 +2861,13 @@
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr">
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2771,11 +2939,13 @@
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr">
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2847,11 +3017,13 @@
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2923,11 +3095,13 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2999,11 +3173,13 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3075,11 +3251,13 @@
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3151,11 +3329,13 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3226,15 +3406,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T35" t="n">
-        <v>28.95862474525468</v>
+        <v>29.61588400661413</v>
       </c>
       <c r="U35" t="n">
-        <v>29.06710094241785</v>
-      </c>
-      <c r="V35" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V35" t="n">
+        <v>29.72682223316749</v>
+      </c>
+      <c r="W35" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X35" t="n">
+        <v>157.7098945256838</v>
       </c>
     </row>
     <row r="36">
@@ -3306,15 +3492,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T36" t="n">
-        <v>37.65038587673889</v>
+        <v>38.47485428525623</v>
       </c>
       <c r="U36" t="n">
-        <v>37.79142056735568</v>
-      </c>
-      <c r="V36" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V36" t="n">
+        <v>38.61897735449678</v>
+      </c>
+      <c r="W36" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X36" t="n">
+        <v>204.8855002897659</v>
       </c>
     </row>
     <row r="37">
@@ -3386,15 +3578,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T37" t="n">
-        <v>24.78308863114227</v>
+        <v>38.19643441274033</v>
       </c>
       <c r="U37" t="n">
-        <v>24.8759236753584</v>
-      </c>
-      <c r="V37" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V37" t="n">
+        <v>38.3395145481658</v>
+      </c>
+      <c r="W37" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X37" t="n">
+        <v>203.4028645285464</v>
       </c>
     </row>
     <row r="38">
@@ -3466,15 +3664,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T38" t="n">
-        <v>40.82135962544037</v>
+        <v>34.25802593185207</v>
       </c>
       <c r="U38" t="n">
-        <v>40.97427247590035</v>
-      </c>
-      <c r="V38" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V38" t="n">
+        <v>34.38635317142561</v>
+      </c>
+      <c r="W38" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X38" t="n">
+        <v>182.4301329369036</v>
       </c>
     </row>
     <row r="39">
@@ -3546,15 +3750,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T39" t="n">
-        <v>39.66570962080609</v>
+        <v>37.14405639044286</v>
       </c>
       <c r="U39" t="n">
-        <v>39.8142935185324</v>
-      </c>
-      <c r="V39" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V39" t="n">
+        <v>37.28319441995546</v>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X39" t="n">
+        <v>197.798762795145</v>
       </c>
     </row>
     <row r="40">
@@ -3626,15 +3836,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T40" t="n">
-        <v>24.00629624653322</v>
+        <v>30.54883830091041</v>
       </c>
       <c r="U40" t="n">
-        <v>24.09622150188304</v>
-      </c>
-      <c r="V40" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V40" t="n">
+        <v>30.66327128368451</v>
+      </c>
+      <c r="W40" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X40" t="n">
+        <v>162.6780434864878</v>
       </c>
     </row>
     <row r="41">
@@ -3706,15 +3922,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T41" t="n">
-        <v>37.95483282426131</v>
+        <v>37.02135481953834</v>
       </c>
       <c r="U41" t="n">
-        <v>38.0970079435896</v>
-      </c>
-      <c r="V41" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V41" t="n">
+        <v>37.16003322087747</v>
+      </c>
+      <c r="W41" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X41" t="n">
+        <v>197.1453549211417</v>
       </c>
     </row>
     <row r="42">
@@ -3789,12 +4011,18 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>650</v>
+      </c>
+      <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="V42" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3866,15 +4094,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T43" t="n">
-        <v>36.36572705525479</v>
+        <v>22.90324502548262</v>
       </c>
       <c r="U43" t="n">
-        <v>36.5019495386334</v>
-      </c>
-      <c r="V43" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V43" t="n">
+        <v>22.98903835803608</v>
+      </c>
+      <c r="W43" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X43" t="n">
+        <v>121.9638879075186</v>
       </c>
     </row>
     <row r="44">
@@ -3946,15 +4180,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T44" t="n">
-        <v>27.62226939853638</v>
+        <v>34.60294677812494</v>
       </c>
       <c r="U44" t="n">
-        <v>27.72573973829624</v>
-      </c>
-      <c r="V44" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V44" t="n">
+        <v>34.73256605770573</v>
+      </c>
+      <c r="W44" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X44" t="n">
+        <v>184.2668983116347</v>
       </c>
     </row>
     <row r="45">
@@ -4026,15 +4266,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T45" t="n">
-        <v>30.37632505067024</v>
+        <v>34.53410895850308</v>
       </c>
       <c r="U45" t="n">
-        <v>30.49011181555551</v>
-      </c>
-      <c r="V45" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V45" t="n">
+        <v>34.66347037829393</v>
+      </c>
+      <c r="W45" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X45" t="n">
+        <v>183.9003245747333</v>
       </c>
     </row>
     <row r="46">
@@ -4106,15 +4352,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T46" t="n">
-        <v>30.37632505067024</v>
+        <v>40.48562173429669</v>
       </c>
       <c r="U46" t="n">
-        <v>30.49011181555551</v>
-      </c>
-      <c r="V46" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V46" t="n">
+        <v>40.6372769432079</v>
+      </c>
+      <c r="W46" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X46" t="n">
+        <v>215.5931976265406</v>
       </c>
     </row>
     <row r="47">
@@ -4186,15 +4438,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T47" t="n">
-        <v>26.65864310470764</v>
+        <v>34.2056036182568</v>
       </c>
       <c r="U47" t="n">
-        <v>26.75850379391397</v>
-      </c>
-      <c r="V47" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V47" t="n">
+        <v>34.33373448893246</v>
+      </c>
+      <c r="W47" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X47" t="n">
+        <v>182.1509747140372</v>
       </c>
     </row>
     <row r="48">
@@ -4266,15 +4524,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T48" t="n">
-        <v>34.84677673675159</v>
+        <v>34.77711361281273</v>
       </c>
       <c r="U48" t="n">
-        <v>34.97730937968782</v>
-      </c>
-      <c r="V48" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V48" t="n">
+        <v>34.90738530444916</v>
+      </c>
+      <c r="W48" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X48" t="n">
+        <v>185.1943679465897</v>
       </c>
     </row>
     <row r="49">
@@ -4346,15 +4610,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T49" t="n">
-        <v>34.81685102963561</v>
+        <v>31.1184853586363</v>
       </c>
       <c r="U49" t="n">
-        <v>34.94727157377799</v>
-      </c>
-      <c r="V49" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V49" t="n">
+        <v>31.23505218399066</v>
+      </c>
+      <c r="W49" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X49" t="n">
+        <v>165.711516246266</v>
       </c>
     </row>
     <row r="50">
@@ -4426,15 +4696,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T50" t="n">
-        <v>36.89923610813118</v>
+        <v>36.94050222851699</v>
       </c>
       <c r="U50" t="n">
-        <v>37.03745706463196</v>
-      </c>
-      <c r="V50" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V50" t="n">
+        <v>37.07887776389885</v>
+      </c>
+      <c r="W50" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X50" t="n">
+        <v>196.7148003714529</v>
       </c>
     </row>
     <row r="51">
@@ -4506,15 +4782,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T51" t="n">
-        <v>26.62191612168707</v>
+        <v>30.34837840971787</v>
       </c>
       <c r="U51" t="n">
-        <v>26.72163923518025</v>
-      </c>
-      <c r="V51" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V51" t="n">
+        <v>30.46206048919902</v>
+      </c>
+      <c r="W51" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X51" t="n">
+        <v>161.6105586094689</v>
       </c>
     </row>
     <row r="52">
@@ -4586,15 +4868,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T52" t="n">
-        <v>31.83151420658873</v>
+        <v>30.2709041265482</v>
       </c>
       <c r="U52" t="n">
-        <v>31.95075196879088</v>
-      </c>
-      <c r="V52" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V52" t="n">
+        <v>30.38429599488534</v>
+      </c>
+      <c r="W52" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X52" t="n">
+        <v>161.1979941550561</v>
       </c>
     </row>
     <row r="53">
@@ -4666,15 +4954,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T53" t="n">
-        <v>32.26606459761587</v>
+        <v>32.50266548017449</v>
       </c>
       <c r="U53" t="n">
-        <v>32.38693014339922</v>
-      </c>
-      <c r="V53" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V53" t="n">
+        <v>32.62441730989609</v>
+      </c>
+      <c r="W53" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X53" t="n">
+        <v>173.0825236733475</v>
       </c>
     </row>
     <row r="54">
@@ -4746,15 +5040,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T54" t="n">
-        <v>32.16178492356434</v>
+        <v>31.99705485740782</v>
       </c>
       <c r="U54" t="n">
-        <v>32.28225984781155</v>
-      </c>
-      <c r="V54" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V54" t="n">
+        <v>32.11691271881823</v>
+      </c>
+      <c r="W54" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X54" t="n">
+        <v>170.3900564159194</v>
       </c>
     </row>
     <row r="55">
@@ -4826,15 +5126,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T55" t="n">
-        <v>37.01666076955221</v>
+        <v>38.17982343613131</v>
       </c>
       <c r="U55" t="n">
-        <v>37.15532158743577</v>
-      </c>
-      <c r="V55" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V55" t="n">
+        <v>38.3228413484509</v>
+      </c>
+      <c r="W55" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X55" t="n">
+        <v>203.3144080985985</v>
       </c>
     </row>
     <row r="56">
@@ -4906,15 +5212,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T56" t="n">
-        <v>22.22798162114488</v>
+        <v>25.18817424552747</v>
       </c>
       <c r="U56" t="n">
-        <v>22.31124548253629</v>
-      </c>
-      <c r="V56" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V56" t="n">
+        <v>25.28252670113176</v>
+      </c>
+      <c r="W56" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X56" t="n">
+        <v>134.1315458511898</v>
       </c>
     </row>
     <row r="57">
@@ -4986,15 +5298,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T57" t="n">
-        <v>28.67527285815979</v>
+        <v>32.6056860333404</v>
       </c>
       <c r="U57" t="n">
-        <v>28.78268764666003</v>
-      </c>
-      <c r="V57" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V57" t="n">
+        <v>32.72782376805353</v>
+      </c>
+      <c r="W57" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X57" t="n">
+        <v>173.6311265977155</v>
       </c>
     </row>
     <row r="58">
@@ -5066,15 +5384,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T58" t="n">
-        <v>40.06491205028588</v>
+        <v>38.39706358501503</v>
       </c>
       <c r="U58" t="n">
-        <v>40.2149913215608</v>
-      </c>
-      <c r="V58" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V58" t="n">
+        <v>38.54089525784394</v>
+      </c>
+      <c r="W58" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X58" t="n">
+        <v>204.4712508576917</v>
       </c>
     </row>
     <row r="59">
@@ -5146,15 +5470,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T59" t="n">
-        <v>40.06491205028588</v>
+        <v>34.94861881721709</v>
       </c>
       <c r="U59" t="n">
-        <v>40.2149913215608</v>
-      </c>
-      <c r="V59" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V59" t="n">
+        <v>35.07953295070052</v>
+      </c>
+      <c r="W59" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X59" t="n">
+        <v>186.1076639228698</v>
       </c>
     </row>
     <row r="60">
@@ -5226,15 +5556,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T60" t="n">
-        <v>22.22798162114488</v>
+        <v>25.18817424552747</v>
       </c>
       <c r="U60" t="n">
-        <v>22.31124548253629</v>
-      </c>
-      <c r="V60" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V60" t="n">
+        <v>25.28252670113176</v>
+      </c>
+      <c r="W60" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X60" t="n">
+        <v>134.1315458511898</v>
       </c>
     </row>
     <row r="61">
@@ -5306,15 +5642,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T61" t="n">
-        <v>5.790539362789659</v>
+        <v>18.75992576283629</v>
       </c>
       <c r="U61" t="n">
-        <v>5.812230161131247</v>
-      </c>
-      <c r="V61" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V61" t="n">
+        <v>18.83019862364089</v>
+      </c>
+      <c r="W61" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X61" t="n">
+        <v>99.89996964824076</v>
       </c>
     </row>
     <row r="62">
@@ -5386,15 +5728,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T62" t="n">
-        <v>35.38374536711692</v>
+        <v>40.64800498832212</v>
       </c>
       <c r="U62" t="n">
-        <v>35.51628944241674</v>
-      </c>
-      <c r="V62" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V62" t="n">
+        <v>40.8002684691397</v>
+      </c>
+      <c r="W62" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X62" t="n">
+        <v>216.4579175808519</v>
       </c>
     </row>
     <row r="63">
@@ -5466,15 +5814,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T63" t="n">
-        <v>22.141600403575</v>
+        <v>17.22080775011093</v>
       </c>
       <c r="U63" t="n">
-        <v>22.22454068931076</v>
-      </c>
-      <c r="V63" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V63" t="n">
+        <v>17.28531522424836</v>
+      </c>
+      <c r="W63" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X63" t="n">
+        <v>91.70389015943378</v>
       </c>
     </row>
     <row r="64">
@@ -5546,15 +5900,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T64" t="n">
-        <v>20.91529383789537</v>
+        <v>26.03786709942989</v>
       </c>
       <c r="U64" t="n">
-        <v>20.99364049827871</v>
-      </c>
-      <c r="V64" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V64" t="n">
+        <v>26.13540242198173</v>
+      </c>
+      <c r="W64" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X64" t="n">
+        <v>138.6563127073219</v>
       </c>
     </row>
     <row r="65">
@@ -5626,15 +5986,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T65" t="n">
-        <v>43.53659201947029</v>
+        <v>44.81496374240414</v>
       </c>
       <c r="U65" t="n">
-        <v>43.69967586689955</v>
-      </c>
-      <c r="V65" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V65" t="n">
+        <v>44.98283624621072</v>
+      </c>
+      <c r="W65" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X65" t="n">
+        <v>238.6477203722318</v>
       </c>
     </row>
     <row r="66">
@@ -5706,15 +6072,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T66" t="n">
-        <v>32.07534174429387</v>
+        <v>34.22142159008289</v>
       </c>
       <c r="U66" t="n">
-        <v>32.19549286078293</v>
-      </c>
-      <c r="V66" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V66" t="n">
+        <v>34.3496117133455</v>
+      </c>
+      <c r="W66" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X66" t="n">
+        <v>182.2352082512751</v>
       </c>
     </row>
     <row r="67">
@@ -5786,15 +6158,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T67" t="n">
-        <v>23.3710997826343</v>
+        <v>23.54817194222358</v>
       </c>
       <c r="U67" t="n">
-        <v>23.45864565369147</v>
-      </c>
-      <c r="V67" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V67" t="n">
+        <v>23.63638110840145</v>
+      </c>
+      <c r="W67" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X67" t="n">
+        <v>125.3982394194733</v>
       </c>
     </row>
     <row r="68">
@@ -5866,15 +6244,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T68" t="n">
-        <v>31.3041499343077</v>
+        <v>36.47806466122064</v>
       </c>
       <c r="U68" t="n">
-        <v>31.42141224113931</v>
-      </c>
-      <c r="V68" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V68" t="n">
+        <v>36.61470795036612</v>
+      </c>
+      <c r="W68" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X68" t="n">
+        <v>194.2522373783397</v>
       </c>
     </row>
     <row r="69">
@@ -5946,15 +6330,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T69" t="n">
-        <v>39.80020597808942</v>
+        <v>40.20863551341646</v>
       </c>
       <c r="U69" t="n">
-        <v>39.949293686114</v>
-      </c>
-      <c r="V69" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V69" t="n">
+        <v>40.35925315883244</v>
+      </c>
+      <c r="W69" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X69" t="n">
+        <v>214.1181963174346</v>
       </c>
     </row>
     <row r="70">
@@ -6026,15 +6416,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T70" t="n">
-        <v>22.00762051055782</v>
+        <v>720.6852392290749</v>
       </c>
       <c r="U70" t="n">
-        <v>22.09005892062033</v>
-      </c>
-      <c r="V70" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V70" t="n">
+        <v>723.384856175353</v>
+      </c>
+      <c r="W70" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X70" t="n">
+        <v>3837.778167947006</v>
       </c>
     </row>
     <row r="71">
@@ -6106,15 +6502,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T71" t="n">
-        <v>29.93321059649385</v>
+        <v>27.63437601507865</v>
       </c>
       <c r="U71" t="n">
-        <v>30.04533749764872</v>
-      </c>
-      <c r="V71" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V71" t="n">
+        <v>27.73789170504883</v>
+      </c>
+      <c r="W71" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X71" t="n">
+        <v>147.1580090483816</v>
       </c>
     </row>
     <row r="72">
@@ -6186,15 +6588,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T72" t="n">
-        <v>35.91005793949454</v>
+        <v>35.45101533781928</v>
       </c>
       <c r="U72" t="n">
-        <v>36.04457353059917</v>
-      </c>
-      <c r="V72" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V72" t="n">
+        <v>35.58381139989918</v>
+      </c>
+      <c r="W72" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X72" t="n">
+        <v>188.7830155097596</v>
       </c>
     </row>
     <row r="73">
@@ -6266,15 +6674,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T73" t="n">
-        <v>34.76661947179167</v>
+        <v>27.69340546006872</v>
       </c>
       <c r="U73" t="n">
-        <v>34.89685185339456</v>
-      </c>
-      <c r="V73" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V73" t="n">
+        <v>27.7971422686096</v>
+      </c>
+      <c r="W73" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X73" t="n">
+        <v>147.472351431044</v>
       </c>
     </row>
     <row r="74">
@@ -6346,15 +6760,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T74" t="n">
-        <v>35.12559735070672</v>
+        <v>31.90215102192248</v>
       </c>
       <c r="U74" t="n">
-        <v>35.25717442859657</v>
-      </c>
-      <c r="V74" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V74" t="n">
+        <v>32.02165338277787</v>
+      </c>
+      <c r="W74" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X74" t="n">
+        <v>169.8846764690931</v>
       </c>
     </row>
     <row r="75">
@@ -6426,15 +6846,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T75" t="n">
-        <v>36.39903134573694</v>
+        <v>39.49972816498818</v>
       </c>
       <c r="U75" t="n">
-        <v>36.5353785837547</v>
-      </c>
-      <c r="V75" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V75" t="n">
+        <v>39.6476903122935</v>
+      </c>
+      <c r="W75" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X75" t="n">
+        <v>210.3431375305979</v>
       </c>
     </row>
     <row r="76">
@@ -6506,15 +6932,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T76" t="n">
-        <v>36.26467815201328</v>
+        <v>31.20719338576937</v>
       </c>
       <c r="U76" t="n">
-        <v>36.40052211600958</v>
-      </c>
-      <c r="V76" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V76" t="n">
+        <v>31.32409250278212</v>
+      </c>
+      <c r="W76" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X76" t="n">
+        <v>166.1839024022766</v>
       </c>
     </row>
     <row r="77">
@@ -6586,15 +7018,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T77" t="n">
-        <v>27.22449056368094</v>
+        <v>33.18565006145266</v>
       </c>
       <c r="U77" t="n">
-        <v>27.32647086253946</v>
-      </c>
-      <c r="V77" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V77" t="n">
+        <v>33.3099602851156</v>
+      </c>
+      <c r="W77" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X77" t="n">
+        <v>176.7195390753525</v>
       </c>
     </row>
     <row r="78">
@@ -6666,15 +7104,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T78" t="n">
-        <v>25.61771265856601</v>
+        <v>27.17107686019878</v>
       </c>
       <c r="U78" t="n">
-        <v>25.7136741233685</v>
-      </c>
-      <c r="V78" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V78" t="n">
+        <v>27.27285707650913</v>
+      </c>
+      <c r="W78" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X78" t="n">
+        <v>144.6908579468434</v>
       </c>
     </row>
     <row r="79">
@@ -6746,15 +7190,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T79" t="n">
-        <v>31.50428952785515</v>
+        <v>28.14738652198939</v>
       </c>
       <c r="U79" t="n">
-        <v>31.62230153817581</v>
-      </c>
-      <c r="V79" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V79" t="n">
+        <v>28.25282389951842</v>
+      </c>
+      <c r="W79" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X79" t="n">
+        <v>149.8898820161914</v>
       </c>
     </row>
     <row r="80">
@@ -6826,15 +7276,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T80" t="n">
-        <v>32.26293484786228</v>
+        <v>28.87276247934048</v>
       </c>
       <c r="U80" t="n">
-        <v>32.38378866990686</v>
-      </c>
-      <c r="V80" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V80" t="n">
+        <v>28.98091704479054</v>
+      </c>
+      <c r="W80" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X80" t="n">
+        <v>153.7526390995106</v>
       </c>
     </row>
     <row r="81">
@@ -6906,15 +7362,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T81" t="n">
-        <v>37.00831314571712</v>
+        <v>35.90855307198103</v>
       </c>
       <c r="U81" t="n">
-        <v>37.14694269421212</v>
-      </c>
-      <c r="V81" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V81" t="n">
+        <v>36.04306302599804</v>
+      </c>
+      <c r="W81" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X81" t="n">
+        <v>191.2194860125498</v>
       </c>
     </row>
     <row r="82">
@@ -6986,15 +7448,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T82" t="n">
-        <v>21.17488924779984</v>
+        <v>27.56046520274</v>
       </c>
       <c r="U82" t="n">
-        <v>21.2542083273887</v>
-      </c>
-      <c r="V82" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V82" t="n">
+        <v>27.66370402998199</v>
+      </c>
+      <c r="W82" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X82" t="n">
+        <v>146.7644207153224</v>
       </c>
     </row>
     <row r="83">
@@ -7066,15 +7534,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T83" t="n">
-        <v>37.99906310469654</v>
+        <v>37.65784722704902</v>
       </c>
       <c r="U83" t="n">
-        <v>38.14140390636172</v>
-      </c>
-      <c r="V83" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V83" t="n">
+        <v>37.79890986715975</v>
+      </c>
+      <c r="W83" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X83" t="n">
+        <v>200.5347911585503</v>
       </c>
     </row>
     <row r="84">
@@ -7146,15 +7620,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T84" t="n">
-        <v>29.05140346646117</v>
+        <v>23.31856441802687</v>
       </c>
       <c r="U84" t="n">
-        <v>29.16022720370756</v>
-      </c>
-      <c r="V84" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V84" t="n">
+        <v>23.40591349670805</v>
+      </c>
+      <c r="W84" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X84" t="n">
+        <v>124.1755381685068</v>
       </c>
     </row>
     <row r="85">
@@ -7226,15 +7706,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T85" t="n">
-        <v>40.11836907596783</v>
+        <v>33.81969559807325</v>
       </c>
       <c r="U85" t="n">
-        <v>40.26864859207166</v>
-      </c>
-      <c r="V85" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V85" t="n">
+        <v>33.94638089476697</v>
+      </c>
+      <c r="W85" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X85" t="n">
+        <v>180.095945286377</v>
       </c>
     </row>
     <row r="86">
@@ -7306,15 +7792,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T86" t="n">
-        <v>32.23255607363096</v>
+        <v>34.43709137065853</v>
       </c>
       <c r="U86" t="n">
-        <v>32.35329609973628</v>
-      </c>
-      <c r="V86" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V86" t="n">
+        <v>34.56608937198322</v>
+      </c>
+      <c r="W86" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X86" t="n">
+        <v>183.3836885174513</v>
       </c>
     </row>
     <row r="87">
@@ -7386,15 +7878,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T87" t="n">
-        <v>28.95076156780713</v>
+        <v>26.12245422037721</v>
       </c>
       <c r="U87" t="n">
-        <v>29.05920831027088</v>
-      </c>
-      <c r="V87" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V87" t="n">
+        <v>26.22030639807291</v>
+      </c>
+      <c r="W87" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X87" t="n">
+        <v>139.1067542987279</v>
       </c>
     </row>
     <row r="88">
@@ -7466,15 +7964,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T88" t="n">
-        <v>29.39582522065579</v>
+        <v>32.00131144392533</v>
       </c>
       <c r="U88" t="n">
-        <v>29.50593912835896</v>
-      </c>
-      <c r="V88" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V88" t="n">
+        <v>32.12118525009564</v>
+      </c>
+      <c r="W88" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X88" t="n">
+        <v>170.4127235026276</v>
       </c>
     </row>
     <row r="89">
@@ -7546,15 +8050,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T89" t="n">
-        <v>36.27535811320885</v>
+        <v>29.09084225006887</v>
       </c>
       <c r="U89" t="n">
-        <v>36.41124208330304</v>
-      </c>
-      <c r="V89" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V89" t="n">
+        <v>29.19981372117017</v>
+      </c>
+      <c r="W89" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X89" t="n">
+        <v>154.9139529955293</v>
       </c>
     </row>
     <row r="90">
@@ -7626,15 +8136,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T90" t="n">
-        <v>38.43368943586612</v>
+        <v>38.24889385118438</v>
       </c>
       <c r="U90" t="n">
-        <v>38.5776583055769</v>
-      </c>
-      <c r="V90" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V90" t="n">
+        <v>38.3921704945738</v>
+      </c>
+      <c r="W90" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X90" t="n">
+        <v>203.6822204478916</v>
       </c>
     </row>
     <row r="91">
@@ -7706,15 +8222,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T91" t="n">
-        <v>27.48126353127006</v>
+        <v>29.80188112747747</v>
       </c>
       <c r="U91" t="n">
-        <v>27.58420567673915</v>
-      </c>
-      <c r="V91" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V91" t="n">
+        <v>29.91351608119009</v>
+      </c>
+      <c r="W91" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X91" t="n">
+        <v>158.7003625565178</v>
       </c>
     </row>
     <row r="92">
@@ -7786,15 +8308,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T92" t="n">
-        <v>35.16289811684894</v>
+        <v>29.80188112747747</v>
       </c>
       <c r="U92" t="n">
-        <v>35.29461491978782</v>
-      </c>
-      <c r="V92" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V92" t="n">
+        <v>29.91351608119009</v>
+      </c>
+      <c r="W92" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X92" t="n">
+        <v>158.7003625565178</v>
       </c>
     </row>
     <row r="93">
@@ -7866,15 +8394,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T93" t="n">
-        <v>35.16289811684894</v>
+        <v>33.28458104920256</v>
       </c>
       <c r="U93" t="n">
-        <v>35.29461491978782</v>
-      </c>
-      <c r="V93" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V93" t="n">
+        <v>33.40926185874198</v>
+      </c>
+      <c r="W93" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X93" t="n">
+        <v>177.2463643303364</v>
       </c>
     </row>
     <row r="94">
@@ -7946,15 +8480,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T94" t="n">
-        <v>41.04235807371798</v>
+        <v>30.17585224364338</v>
       </c>
       <c r="U94" t="n">
-        <v>41.19609876291198</v>
-      </c>
-      <c r="V94" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V94" t="n">
+        <v>30.28888805685424</v>
+      </c>
+      <c r="W94" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X94" t="n">
+        <v>160.6918258291659</v>
       </c>
     </row>
     <row r="95">
@@ -8026,15 +8566,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T95" t="n">
-        <v>41.04235807371798</v>
+        <v>30.17585224364338</v>
       </c>
       <c r="U95" t="n">
-        <v>41.19609876291198</v>
-      </c>
-      <c r="V95" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V95" t="n">
+        <v>30.28888805685424</v>
+      </c>
+      <c r="W95" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X95" t="n">
+        <v>160.6918258291659</v>
       </c>
     </row>
     <row r="96">
@@ -8106,15 +8652,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T96" t="n">
-        <v>27.87370465583963</v>
+        <v>32.35610654904479</v>
       </c>
       <c r="U96" t="n">
-        <v>27.9781168476655</v>
-      </c>
-      <c r="V96" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V96" t="n">
+        <v>32.47730938323745</v>
+      </c>
+      <c r="W96" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X96" t="n">
+        <v>172.3020710768591</v>
       </c>
     </row>
     <row r="97">
@@ -8186,15 +8738,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T97" t="n">
-        <v>24.48445282332177</v>
+        <v>27.3954991693473</v>
       </c>
       <c r="U97" t="n">
-        <v>24.5761692067916</v>
-      </c>
-      <c r="V97" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V97" t="n">
+        <v>27.49812004984213</v>
+      </c>
+      <c r="W97" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X97" t="n">
+        <v>145.8859469976082</v>
       </c>
     </row>
     <row r="98">
@@ -8266,15 +8824,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T98" t="n">
-        <v>31.34204593609627</v>
+        <v>30.69476197247838</v>
       </c>
       <c r="U98" t="n">
-        <v>31.45945019767185</v>
-      </c>
-      <c r="V98" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V98" t="n">
+        <v>30.80974157116076</v>
+      </c>
+      <c r="W98" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X98" t="n">
+        <v>163.4551132118637</v>
       </c>
     </row>
     <row r="99">
@@ -8346,15 +8910,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T99" t="n">
-        <v>34.40605441415193</v>
+        <v>31.14053540532404</v>
       </c>
       <c r="U99" t="n">
-        <v>34.53493615405043</v>
-      </c>
-      <c r="V99" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V99" t="n">
+        <v>31.25718482801281</v>
+      </c>
+      <c r="W99" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X99" t="n">
+        <v>165.8289366999872</v>
       </c>
     </row>
     <row r="100">
@@ -8429,12 +8999,18 @@
         <v>25.77046068716286</v>
       </c>
       <c r="U100" t="n">
+        <v>700</v>
+      </c>
+      <c r="V100" t="n">
         <v>25.86699433125258</v>
       </c>
-      <c r="V100" t="inlineStr">
+      <c r="W100" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
+      </c>
+      <c r="X100" t="n">
+        <v>127.4300166261645</v>
       </c>
     </row>
     <row r="101">
@@ -8509,12 +9085,18 @@
         <v>23.72540913479563</v>
       </c>
       <c r="U101" t="n">
+        <v>700</v>
+      </c>
+      <c r="V101" t="n">
         <v>23.81428221429173</v>
       </c>
-      <c r="V101" t="inlineStr">
+      <c r="W101" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
+      </c>
+      <c r="X101" t="n">
+        <v>117.3176264565416</v>
       </c>
     </row>
     <row r="102">
@@ -8589,12 +9171,18 @@
         <v>28.02293582851836</v>
       </c>
       <c r="U102" t="n">
+        <v>700</v>
+      </c>
+      <c r="V102" t="n">
         <v>28.12790702583059</v>
       </c>
-      <c r="V102" t="inlineStr">
+      <c r="W102" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
+      </c>
+      <c r="X102" t="n">
+        <v>138.5680769114404</v>
       </c>
     </row>
     <row r="103">
@@ -8669,12 +9257,18 @@
         <v>16.27148553057756</v>
       </c>
       <c r="U103" t="n">
+        <v>700</v>
+      </c>
+      <c r="V103" t="n">
         <v>16.33243693583522</v>
       </c>
-      <c r="V103" t="inlineStr">
+      <c r="W103" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
+      </c>
+      <c r="X103" t="n">
+        <v>80.45939484220247</v>
       </c>
     </row>
     <row r="104">
@@ -8746,15 +9340,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T104" t="n">
-        <v>40.70337069669589</v>
+        <v>37.17255965457814</v>
       </c>
       <c r="U104" t="n">
-        <v>40.85584157208247</v>
-      </c>
-      <c r="V104" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V104" t="n">
+        <v>37.31180445455126</v>
+      </c>
+      <c r="W104" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X104" t="n">
+        <v>197.9505477892856</v>
       </c>
     </row>
     <row r="105">
@@ -8826,15 +9426,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T105" t="n">
-        <v>32.84823157382357</v>
+        <v>27.60081961969069</v>
       </c>
       <c r="U105" t="n">
-        <v>32.97127786058645</v>
-      </c>
-      <c r="V105" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V105" t="n">
+        <v>27.70420961066121</v>
+      </c>
+      <c r="W105" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X105" t="n">
+        <v>146.9793152239421</v>
       </c>
     </row>
     <row r="106">
@@ -8909,12 +9515,18 @@
         <v>19.34142783124108</v>
       </c>
       <c r="U106" t="n">
+        <v>700</v>
+      </c>
+      <c r="V106" t="n">
         <v>19.41387894234513</v>
       </c>
-      <c r="V106" t="inlineStr">
+      <c r="W106" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
+      </c>
+      <c r="X106" t="n">
+        <v>95.63967443300506</v>
       </c>
     </row>
     <row r="107">
@@ -8989,12 +9601,18 @@
         <v>27.09991269974896</v>
       </c>
       <c r="U107" t="n">
+        <v>700</v>
+      </c>
+      <c r="V107" t="n">
         <v>27.20142634202247</v>
       </c>
-      <c r="V107" t="inlineStr">
+      <c r="W107" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
+      </c>
+      <c r="X107" t="n">
+        <v>134.003903454347</v>
       </c>
     </row>
     <row r="108">
@@ -9069,12 +9687,18 @@
         <v>24.39710711201861</v>
       </c>
       <c r="U108" t="n">
+        <v>700</v>
+      </c>
+      <c r="V108" t="n">
         <v>24.48849630693291</v>
       </c>
-      <c r="V108" t="inlineStr">
+      <c r="W108" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
+      </c>
+      <c r="X108" t="n">
+        <v>120.6390449381259</v>
       </c>
     </row>
     <row r="109">
@@ -9149,12 +9773,18 @@
         <v>11.49257055860147</v>
       </c>
       <c r="U109" t="n">
+        <v>700</v>
+      </c>
+      <c r="V109" t="n">
         <v>11.535620612283</v>
       </c>
-      <c r="V109" t="inlineStr">
+      <c r="W109" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
+      </c>
+      <c r="X109" t="n">
+        <v>56.82857109688655</v>
       </c>
     </row>
     <row r="110">
@@ -9226,15 +9856,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T110" t="n">
-        <v>26.89507741657816</v>
+        <v>26.31181758647499</v>
       </c>
       <c r="U110" t="n">
-        <v>26.9958237657651</v>
-      </c>
-      <c r="V110" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V110" t="n">
+        <v>26.4103791009578</v>
+      </c>
+      <c r="W110" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X110" t="n">
+        <v>140.1151481892373</v>
       </c>
     </row>
     <row r="111">
@@ -9306,15 +9942,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T111" t="n">
-        <v>29.7787441084543</v>
+        <v>30.59898536438358</v>
       </c>
       <c r="U111" t="n">
-        <v>29.89029239313965</v>
-      </c>
-      <c r="V111" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V111" t="n">
+        <v>30.71360619318946</v>
+      </c>
+      <c r="W111" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X111" t="n">
+        <v>162.9450855943431</v>
       </c>
     </row>
     <row r="112">
@@ -9386,15 +10028,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T112" t="n">
-        <v>29.62991966084871</v>
+        <v>25.94365069834919</v>
       </c>
       <c r="U112" t="n">
-        <v>29.74091046360033</v>
-      </c>
-      <c r="V112" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V112" t="n">
+        <v>26.04083309540856</v>
+      </c>
+      <c r="W112" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X112" t="n">
+        <v>138.1545934720052</v>
       </c>
     </row>
     <row r="113">
@@ -9466,15 +10114,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T113" t="n">
-        <v>36.0695735832212</v>
+        <v>40.39233748245271</v>
       </c>
       <c r="U113" t="n">
-        <v>36.2046867044424</v>
-      </c>
-      <c r="V113" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V113" t="n">
+        <v>40.543643257612</v>
+      </c>
+      <c r="W113" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X113" t="n">
+        <v>215.0964422531087</v>
       </c>
     </row>
     <row r="114">
@@ -9546,15 +10200,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T114" t="n">
-        <v>37.37203809162606</v>
+        <v>31.12259262350033</v>
       </c>
       <c r="U114" t="n">
-        <v>37.51203011846017</v>
-      </c>
-      <c r="V114" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V114" t="n">
+        <v>31.23917483427016</v>
+      </c>
+      <c r="W114" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X114" t="n">
+        <v>165.7333881683856</v>
       </c>
     </row>
     <row r="115">
@@ -9626,15 +10286,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T115" t="n">
-        <v>30.55755337654076</v>
+        <v>32.51464391026734</v>
       </c>
       <c r="U115" t="n">
-        <v>30.67201900514216</v>
-      </c>
-      <c r="V115" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V115" t="n">
+        <v>32.63644061002527</v>
+      </c>
+      <c r="W115" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X115" t="n">
+        <v>173.1463109621586</v>
       </c>
     </row>
     <row r="116">
@@ -9706,15 +10372,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T116" t="n">
-        <v>30.55755337654076</v>
+        <v>32.51464391026734</v>
       </c>
       <c r="U116" t="n">
-        <v>30.67201900514216</v>
-      </c>
-      <c r="V116" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V116" t="n">
+        <v>32.63644061002527</v>
+      </c>
+      <c r="W116" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X116" t="n">
+        <v>173.1463109621586</v>
       </c>
     </row>
     <row r="117">
@@ -9786,15 +10458,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T117" t="n">
-        <v>38.38258942109459</v>
+        <v>34.7887299259696</v>
       </c>
       <c r="U117" t="n">
-        <v>38.52636687511053</v>
-      </c>
-      <c r="V117" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V117" t="n">
+        <v>34.91904513118748</v>
+      </c>
+      <c r="W117" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X117" t="n">
+        <v>185.256226897764</v>
       </c>
     </row>
     <row r="118">
@@ -9866,15 +10544,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T118" t="n">
-        <v>25.344075325465</v>
+        <v>27.98497503754851</v>
       </c>
       <c r="U118" t="n">
-        <v>25.43901177138077</v>
-      </c>
-      <c r="V118" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V118" t="n">
+        <v>28.08980403742278</v>
+      </c>
+      <c r="W118" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X118" t="n">
+        <v>149.0250117298541</v>
       </c>
     </row>
     <row r="119">
@@ -9946,15 +10630,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T119" t="n">
-        <v>46.21149464407561</v>
+        <v>41.40357526770869</v>
       </c>
       <c r="U119" t="n">
-        <v>46.38459841707287</v>
-      </c>
-      <c r="V119" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V119" t="n">
+        <v>41.55866904144655</v>
+      </c>
+      <c r="W119" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X119" t="n">
+        <v>220.4814648449547</v>
       </c>
     </row>
     <row r="120">
@@ -10026,15 +10716,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T120" t="n">
-        <v>26.68496123998773</v>
+        <v>27.15196483295231</v>
       </c>
       <c r="U120" t="n">
-        <v>26.78492051437401</v>
-      </c>
-      <c r="V120" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V120" t="n">
+        <v>27.25367345746388</v>
+      </c>
+      <c r="W120" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X120" t="n">
+        <v>144.5890829736385</v>
       </c>
     </row>
     <row r="121">
@@ -10106,15 +10802,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T121" t="n">
-        <v>30.03255481401662</v>
+        <v>35.35633553972792</v>
       </c>
       <c r="U121" t="n">
-        <v>30.14505384896658</v>
-      </c>
-      <c r="V121" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V121" t="n">
+        <v>35.48877694047513</v>
+      </c>
+      <c r="W121" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X121" t="n">
+        <v>188.2788286022418</v>
       </c>
     </row>
     <row r="122">
@@ -10186,15 +10888,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T122" t="n">
-        <v>34.81687148021443</v>
+        <v>34.18511222202059</v>
       </c>
       <c r="U122" t="n">
-        <v>34.94729210096271</v>
-      </c>
-      <c r="V122" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V122" t="n">
+        <v>34.31316633391513</v>
+      </c>
+      <c r="W122" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X122" t="n">
+        <v>182.041854353545</v>
       </c>
     </row>
     <row r="123">
@@ -10266,15 +10974,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T123" t="n">
-        <v>17.28380125708449</v>
+        <v>19.98882882035274</v>
       </c>
       <c r="U123" t="n">
-        <v>17.348544698784</v>
-      </c>
-      <c r="V123" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V123" t="n">
+        <v>20.06370503271613</v>
+      </c>
+      <c r="W123" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X123" t="n">
+        <v>106.4440988574153</v>
       </c>
     </row>
     <row r="124">
@@ -10346,15 +11060,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T124" t="n">
-        <v>32.38357793432995</v>
+        <v>37.66746239949668</v>
       </c>
       <c r="U124" t="n">
-        <v>32.50488367366513</v>
-      </c>
-      <c r="V124" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V124" t="n">
+        <v>37.80856105711003</v>
+      </c>
+      <c r="W124" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X124" t="n">
+        <v>200.5859936765042</v>
       </c>
     </row>
     <row r="125">
@@ -10426,15 +11146,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T125" t="n">
-        <v>42.40563186837252</v>
+        <v>42.73180437701733</v>
       </c>
       <c r="U125" t="n">
-        <v>42.56447924886272</v>
-      </c>
-      <c r="V125" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V125" t="n">
+        <v>42.891873568062</v>
+      </c>
+      <c r="W125" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X125" t="n">
+        <v>227.5545230960008</v>
       </c>
     </row>
     <row r="126">
@@ -10506,15 +11232,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T126" t="n">
-        <v>29.81502703098916</v>
+        <v>31.61206828891292</v>
       </c>
       <c r="U126" t="n">
-        <v>29.9267112279802</v>
-      </c>
-      <c r="V126" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V126" t="n">
+        <v>31.73048402800997</v>
+      </c>
+      <c r="W126" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X126" t="n">
+        <v>168.3399338837817</v>
       </c>
     </row>
     <row r="127">
@@ -10586,15 +11318,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T127" t="n">
-        <v>33.9130815338038</v>
+        <v>37.28083168591255</v>
       </c>
       <c r="U127" t="n">
-        <v>34.04011664514741</v>
-      </c>
-      <c r="V127" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V127" t="n">
+        <v>37.42048206240464</v>
+      </c>
+      <c r="W127" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X127" t="n">
+        <v>198.5271157768566</v>
       </c>
     </row>
     <row r="128">
@@ -10666,15 +11404,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T128" t="n">
-        <v>32.58754920229548</v>
+        <v>31.97209094429089</v>
       </c>
       <c r="U128" t="n">
-        <v>32.70961899820013</v>
-      </c>
-      <c r="V128" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V128" t="n">
+        <v>32.09185529330612</v>
+      </c>
+      <c r="W128" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X128" t="n">
+        <v>170.2571191008037</v>
       </c>
     </row>
     <row r="129">
@@ -10746,15 +11490,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T129" t="n">
-        <v>30.67303071185865</v>
+        <v>29.12422221077623</v>
       </c>
       <c r="U129" t="n">
-        <v>30.7879289073483</v>
-      </c>
-      <c r="V129" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V129" t="n">
+        <v>29.23331871997001</v>
+      </c>
+      <c r="W129" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X129" t="n">
+        <v>155.0917072736475</v>
       </c>
     </row>
     <row r="130">
@@ -10826,15 +11576,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T130" t="n">
-        <v>43.91632825175793</v>
+        <v>35.46536054561535</v>
       </c>
       <c r="U130" t="n">
-        <v>44.08083455425079</v>
-      </c>
-      <c r="V130" t="inlineStr">
+        <v>650</v>
+      </c>
+      <c r="V130" t="n">
+        <v>35.59821034345112</v>
+      </c>
+      <c r="W130" t="inlineStr">
         <is>
           <t>1\carapace\right</t>
         </is>
+      </c>
+      <c r="X130" t="n">
+        <v>188.8594063143685</v>
       </c>
     </row>
     <row r="131">
@@ -10909,12 +11665,18 @@
         <v>30.14744329708874</v>
       </c>
       <c r="U131" t="n">
+        <v>760</v>
+      </c>
+      <c r="V131" t="n">
         <v>30.26037269314357</v>
       </c>
-      <c r="V131" t="inlineStr">
+      <c r="W131" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
+      </c>
+      <c r="X131" t="n">
+        <v>137.3044118559065</v>
       </c>
     </row>
     <row r="132">
@@ -10989,12 +11751,18 @@
         <v>30.14744329708874</v>
       </c>
       <c r="U132" t="n">
+        <v>760</v>
+      </c>
+      <c r="V132" t="n">
         <v>30.26037269314357</v>
       </c>
-      <c r="V132" t="inlineStr">
+      <c r="W132" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
+      </c>
+      <c r="X132" t="n">
+        <v>137.3044118559065</v>
       </c>
     </row>
     <row r="133">
@@ -11069,12 +11837,18 @@
         <v>22.84196821537988</v>
       </c>
       <c r="U133" t="n">
+        <v>760</v>
+      </c>
+      <c r="V133" t="n">
         <v>22.92753201095109</v>
       </c>
-      <c r="V133" t="inlineStr">
+      <c r="W133" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
+      </c>
+      <c r="X133" t="n">
+        <v>104.0321389955781</v>
       </c>
     </row>
     <row r="134">
@@ -11149,12 +11923,18 @@
         <v>25.51396857009762</v>
       </c>
       <c r="U134" t="n">
+        <v>760</v>
+      </c>
+      <c r="V134" t="n">
         <v>25.60954141961557</v>
       </c>
-      <c r="V134" t="inlineStr">
+      <c r="W134" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
+      </c>
+      <c r="X134" t="n">
+        <v>116.2015768337354</v>
       </c>
     </row>
     <row r="135">
@@ -11229,12 +12009,18 @@
         <v>36.35893971975808</v>
       </c>
       <c r="U135" t="n">
+        <v>760</v>
+      </c>
+      <c r="V135" t="n">
         <v>36.49513677843679</v>
       </c>
-      <c r="V135" t="inlineStr">
+      <c r="W135" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
+      </c>
+      <c r="X135" t="n">
+        <v>165.5942357940459</v>
       </c>
     </row>
     <row r="136">
@@ -11309,12 +12095,18 @@
         <v>21.73011335364903</v>
       </c>
       <c r="U136" t="n">
+        <v>760</v>
+      </c>
+      <c r="V136" t="n">
         <v>21.81151224884051</v>
       </c>
-      <c r="V136" t="inlineStr">
+      <c r="W136" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
+      </c>
+      <c r="X136" t="n">
+        <v>98.96827416449881</v>
       </c>
     </row>
     <row r="137">
@@ -11389,12 +12181,18 @@
         <v>35.18958288075258</v>
       </c>
       <c r="U137" t="n">
+        <v>760</v>
+      </c>
+      <c r="V137" t="n">
         <v>35.32139964222664</v>
       </c>
-      <c r="V137" t="inlineStr">
+      <c r="W137" t="inlineStr">
         <is>
           <t>1\carapace\left</t>
         </is>
+      </c>
+      <c r="X137" t="n">
+        <v>160.2684822484762</v>
       </c>
     </row>
     <row r="138">
@@ -11469,12 +12267,18 @@
         <v>29.55278838489326</v>
       </c>
       <c r="U138" t="n">
+        <v>415</v>
+      </c>
+      <c r="V138" t="n">
         <v>29.6634902613726</v>
       </c>
-      <c r="V138" t="inlineStr">
+      <c r="W138" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X138" t="n">
+        <v>246.4892394329585</v>
       </c>
     </row>
     <row r="139">
@@ -11546,15 +12350,21 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T139" t="n">
-        <v>23.23553023098038</v>
+        <v>23.94186581055633</v>
       </c>
       <c r="U139" t="n">
-        <v>23.32256827165734</v>
-      </c>
-      <c r="V139" t="inlineStr">
+        <v>415</v>
+      </c>
+      <c r="V139" t="n">
+        <v>24.0315497157475</v>
+      </c>
+      <c r="W139" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X139" t="n">
+        <v>199.6905407838489</v>
       </c>
     </row>
     <row r="140">
@@ -11627,11 +12437,13 @@
       </c>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr">
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -11705,12 +12517,18 @@
         <v>26.74109529317596</v>
       </c>
       <c r="U141" t="n">
+        <v>415</v>
+      </c>
+      <c r="V141" t="n">
         <v>26.84126484027632</v>
       </c>
-      <c r="V141" t="inlineStr">
+      <c r="W141" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X141" t="n">
+        <v>223.0379128552412</v>
       </c>
     </row>
     <row r="142">
@@ -11785,12 +12603,18 @@
         <v>18.94915636886098</v>
       </c>
       <c r="U142" t="n">
+        <v>415</v>
+      </c>
+      <c r="V142" t="n">
         <v>19.02013806914635</v>
       </c>
-      <c r="V142" t="inlineStr">
+      <c r="W142" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X142" t="n">
+        <v>158.048136792545</v>
       </c>
     </row>
     <row r="143">
@@ -11863,11 +12687,13 @@
       </c>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr">
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -11941,12 +12767,18 @@
         <v>21.45645576308721</v>
       </c>
       <c r="U144" t="n">
+        <v>415</v>
+      </c>
+      <c r="V144" t="n">
         <v>21.53682956350952</v>
       </c>
-      <c r="V144" t="inlineStr">
+      <c r="W144" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X144" t="n">
+        <v>178.9606243948811</v>
       </c>
     </row>
     <row r="145">
@@ -12019,11 +12851,13 @@
       </c>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
-      <c r="V145" t="inlineStr">
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -12095,11 +12929,13 @@
       </c>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr">
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -12173,12 +13009,18 @@
         <v>22.59318159970737</v>
       </c>
       <c r="U147" t="n">
+        <v>415</v>
+      </c>
+      <c r="V147" t="n">
         <v>22.677813464767</v>
       </c>
-      <c r="V147" t="inlineStr">
+      <c r="W147" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X147" t="n">
+        <v>188.4416480892653</v>
       </c>
     </row>
     <row r="148">
@@ -12253,12 +13095,18 @@
         <v>17.37208822459161</v>
       </c>
       <c r="U148" t="n">
+        <v>415</v>
+      </c>
+      <c r="V148" t="n">
         <v>17.43716238070103</v>
       </c>
-      <c r="V148" t="inlineStr">
+      <c r="W148" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X148" t="n">
+        <v>144.8943753825518</v>
       </c>
     </row>
     <row r="149">
@@ -12331,11 +13179,13 @@
       </c>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr">
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -12409,12 +13259,18 @@
         <v>24.45068256824119</v>
       </c>
       <c r="U150" t="n">
+        <v>415</v>
+      </c>
+      <c r="V150" t="n">
         <v>24.54227245161371</v>
       </c>
-      <c r="V150" t="inlineStr">
+      <c r="W150" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X150" t="n">
+        <v>203.9343993997958</v>
       </c>
     </row>
     <row r="151">
@@ -12489,12 +13345,18 @@
         <v>26.41227063403658</v>
       </c>
       <c r="U151" t="n">
+        <v>415</v>
+      </c>
+      <c r="V151" t="n">
         <v>26.51120843588416</v>
       </c>
-      <c r="V151" t="inlineStr">
+      <c r="W151" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X151" t="n">
+        <v>220.2953039656009</v>
       </c>
     </row>
     <row r="152">
@@ -12567,11 +13429,13 @@
       </c>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
-      <c r="V152" t="inlineStr">
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -12643,11 +13507,13 @@
       </c>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
-      <c r="V153" t="inlineStr">
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -12719,11 +13585,13 @@
       </c>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr">
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -12795,11 +13663,13 @@
       </c>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr">
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -12873,12 +13743,18 @@
         <v>22.57595768366318</v>
       </c>
       <c r="U156" t="n">
+        <v>400</v>
+      </c>
+      <c r="V156" t="n">
         <v>22.66052502960531</v>
       </c>
-      <c r="V156" t="inlineStr">
+      <c r="W156" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X156" t="n">
+        <v>195.3591641737405</v>
       </c>
     </row>
     <row r="157">
@@ -12951,11 +13827,13 @@
       </c>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr"/>
-      <c r="V157" t="inlineStr">
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -13029,12 +13907,18 @@
         <v>27.12408679868646</v>
       </c>
       <c r="U158" t="n">
+        <v>400</v>
+      </c>
+      <c r="V158" t="n">
         <v>27.22569099478791</v>
       </c>
-      <c r="V158" t="inlineStr">
+      <c r="W158" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X158" t="n">
+        <v>234.7160195911374</v>
       </c>
     </row>
     <row r="159">
@@ -13107,11 +13991,13 @@
       </c>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
-      <c r="V159" t="inlineStr">
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -13183,11 +14069,13 @@
       </c>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr"/>
-      <c r="V160" t="inlineStr">
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -13259,11 +14147,13 @@
       </c>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
-      <c r="V161" t="inlineStr">
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -13335,11 +14225,13 @@
       </c>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
-      <c r="V162" t="inlineStr">
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -13411,11 +14303,13 @@
       </c>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr"/>
-      <c r="V163" t="inlineStr">
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -13487,11 +14381,13 @@
       </c>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr"/>
-      <c r="V164" t="inlineStr">
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -13563,11 +14459,13 @@
       </c>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
-      <c r="V165" t="inlineStr">
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -13639,11 +14537,13 @@
       </c>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr"/>
-      <c r="V166" t="inlineStr">
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -13717,12 +14617,18 @@
         <v>18.27792938213604</v>
       </c>
       <c r="U167" t="n">
+        <v>370</v>
+      </c>
+      <c r="V167" t="n">
         <v>18.3463967312879</v>
       </c>
-      <c r="V167" t="inlineStr">
+      <c r="W167" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X167" t="n">
+        <v>170.9908489258686</v>
       </c>
     </row>
     <row r="168">
@@ -13795,11 +14701,13 @@
       </c>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr"/>
-      <c r="V168" t="inlineStr">
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -13873,12 +14781,18 @@
         <v>25.05044849958428</v>
       </c>
       <c r="U169" t="n">
+        <v>370</v>
+      </c>
+      <c r="V169" t="n">
         <v>25.14428504791387</v>
       </c>
-      <c r="V169" t="inlineStr">
+      <c r="W169" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X169" t="n">
+        <v>234.3480689395842</v>
       </c>
     </row>
     <row r="170">
@@ -13951,11 +14865,13 @@
       </c>
       <c r="T170" t="inlineStr"/>
       <c r="U170" t="inlineStr"/>
-      <c r="V170" t="inlineStr">
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -14027,11 +14943,13 @@
       </c>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr"/>
-      <c r="V171" t="inlineStr">
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -14103,11 +15021,13 @@
       </c>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr"/>
-      <c r="V172" t="inlineStr">
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -14181,12 +15101,18 @@
         <v>20.23373172028637</v>
       </c>
       <c r="U173" t="n">
+        <v>385</v>
+      </c>
+      <c r="V173" t="n">
         <v>20.30952531513918</v>
       </c>
-      <c r="V173" t="inlineStr">
+      <c r="W173" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X173" t="n">
+        <v>181.9126310987261</v>
       </c>
     </row>
     <row r="174">
@@ -14259,11 +15185,13 @@
       </c>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="inlineStr"/>
-      <c r="V174" t="inlineStr">
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -14335,11 +15263,13 @@
       </c>
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="inlineStr"/>
-      <c r="V175" t="inlineStr">
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -14413,12 +15343,18 @@
         <v>28.80508765680403</v>
       </c>
       <c r="U176" t="n">
+        <v>455</v>
+      </c>
+      <c r="V176" t="n">
         <v>28.91298871893834</v>
       </c>
-      <c r="V176" t="inlineStr">
+      <c r="W176" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X176" t="n">
+        <v>219.1317979009934</v>
       </c>
     </row>
     <row r="177">
@@ -14493,12 +15429,18 @@
         <v>35.81977377418161</v>
       </c>
       <c r="U177" t="n">
+        <v>455</v>
+      </c>
+      <c r="V177" t="n">
         <v>35.95395116956725</v>
       </c>
-      <c r="V177" t="inlineStr">
+      <c r="W177" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X177" t="n">
+        <v>272.4953147535103</v>
       </c>
     </row>
     <row r="178">
@@ -14571,11 +15513,13 @@
       </c>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="inlineStr"/>
-      <c r="V178" t="inlineStr">
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -14647,11 +15591,13 @@
       </c>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="inlineStr"/>
-      <c r="V179" t="inlineStr">
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -14725,12 +15671,18 @@
         <v>33.92765326312583</v>
       </c>
       <c r="U180" t="n">
+        <v>455</v>
+      </c>
+      <c r="V180" t="n">
         <v>34.05474295875295</v>
       </c>
-      <c r="V180" t="inlineStr">
+      <c r="W180" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X180" t="n">
+        <v>258.101198881585</v>
       </c>
     </row>
     <row r="181">
@@ -14805,12 +15757,18 @@
         <v>35.93791277384051</v>
       </c>
       <c r="U181" t="n">
+        <v>455</v>
+      </c>
+      <c r="V181" t="n">
         <v>36.07253270645062</v>
       </c>
-      <c r="V181" t="inlineStr">
+      <c r="W181" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X181" t="n">
+        <v>273.3940452731296</v>
       </c>
     </row>
     <row r="182">
@@ -14885,12 +15843,18 @@
         <v>39.98610426012193</v>
       </c>
       <c r="U182" t="n">
+        <v>455</v>
+      </c>
+      <c r="V182" t="n">
         <v>40.1358883250651</v>
       </c>
-      <c r="V182" t="inlineStr">
+      <c r="W182" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X182" t="n">
+        <v>304.1902535404148</v>
       </c>
     </row>
     <row r="183">
@@ -14963,11 +15927,13 @@
       </c>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr"/>
-      <c r="V183" t="inlineStr">
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
+      <c r="X183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -15041,12 +16007,18 @@
         <v>26.99700630176557</v>
       </c>
       <c r="U184" t="n">
+        <v>455</v>
+      </c>
+      <c r="V184" t="n">
         <v>27.09813446666178</v>
       </c>
-      <c r="V184" t="inlineStr">
+      <c r="W184" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X184" t="n">
+        <v>205.3770014288759</v>
       </c>
     </row>
     <row r="185">
@@ -15121,12 +16093,18 @@
         <v>23.77129556894063</v>
       </c>
       <c r="U185" t="n">
+        <v>455</v>
+      </c>
+      <c r="V185" t="n">
         <v>23.86034053456466</v>
       </c>
-      <c r="V185" t="inlineStr">
+      <c r="W185" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X185" t="n">
+        <v>180.8377325047803</v>
       </c>
     </row>
     <row r="186">
@@ -15201,12 +16179,18 @@
         <v>31.08075067665886</v>
       </c>
       <c r="U186" t="n">
+        <v>455</v>
+      </c>
+      <c r="V186" t="n">
         <v>31.1971761515576</v>
       </c>
-      <c r="V186" t="inlineStr">
+      <c r="W186" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X186" t="n">
+        <v>236.4436747089712</v>
       </c>
     </row>
     <row r="187">
@@ -15281,12 +16265,18 @@
         <v>26.44334053365124</v>
       </c>
       <c r="U187" t="n">
+        <v>455</v>
+      </c>
+      <c r="V187" t="n">
         <v>26.54239472032669</v>
       </c>
-      <c r="V187" t="inlineStr">
+      <c r="W187" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X187" t="n">
+        <v>201.1650449631066</v>
       </c>
     </row>
     <row r="188">
@@ -15361,12 +16351,18 @@
         <v>26.2129847419009</v>
       </c>
       <c r="U188" t="n">
+        <v>455</v>
+      </c>
+      <c r="V188" t="n">
         <v>26.31117603814205</v>
       </c>
-      <c r="V188" t="inlineStr">
+      <c r="W188" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X188" t="n">
+        <v>199.4126365203836</v>
       </c>
     </row>
     <row r="189">
@@ -15441,12 +16437,18 @@
         <v>24.76603324987378</v>
       </c>
       <c r="U189" t="n">
+        <v>455</v>
+      </c>
+      <c r="V189" t="n">
         <v>24.85880440628731</v>
       </c>
-      <c r="V189" t="inlineStr">
+      <c r="W189" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X189" t="n">
+        <v>188.4050990429362</v>
       </c>
     </row>
     <row r="190">
@@ -15521,12 +16523,18 @@
         <v>25.08536199964059</v>
       </c>
       <c r="U190" t="n">
+        <v>455</v>
+      </c>
+      <c r="V190" t="n">
         <v>25.17932933055219</v>
       </c>
-      <c r="V190" t="inlineStr">
+      <c r="W190" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X190" t="n">
+        <v>190.8343602863523</v>
       </c>
     </row>
     <row r="191">
@@ -15601,12 +16609,18 @@
         <v>26.51858350630011</v>
       </c>
       <c r="U191" t="n">
+        <v>455</v>
+      </c>
+      <c r="V191" t="n">
         <v>26.61791954584698</v>
       </c>
-      <c r="V191" t="inlineStr">
+      <c r="W191" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X191" t="n">
+        <v>201.7374482854783</v>
       </c>
     </row>
     <row r="192">
@@ -15681,12 +16695,18 @@
         <v>27.45897713455216</v>
       </c>
       <c r="U192" t="n">
+        <v>455</v>
+      </c>
+      <c r="V192" t="n">
         <v>27.56183579734259</v>
       </c>
-      <c r="V192" t="inlineStr">
+      <c r="W192" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X192" t="n">
+        <v>208.8913979262055</v>
       </c>
     </row>
     <row r="193">
@@ -15761,12 +16781,18 @@
         <v>19.47675801097673</v>
       </c>
       <c r="U193" t="n">
+        <v>455</v>
+      </c>
+      <c r="V193" t="n">
         <v>19.54971605579701</v>
       </c>
-      <c r="V193" t="inlineStr">
+      <c r="W193" t="inlineStr">
         <is>
           <t>1\carapace\car</t>
         </is>
+      </c>
+      <c r="X193" t="n">
+        <v>148.167471353616</v>
       </c>
     </row>
   </sheetData>

--- a/fifty_one/measurements/Updated_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_Filtered_Data_with_real_length.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X193"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,25 +531,45 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>Length_fov(mm)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Height(mm)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>RealLength(cm)</t>
-        </is>
-      </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>focal_RealLength(cm)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Length_1_pixels</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Length_2_pixels</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Length_3_pixels</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
           <t>Pond_Type</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Euclidean_Distance</t>
         </is>
@@ -623,22 +643,36 @@
       <c r="S2" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T2" t="n">
-        <v>35.65629336023974</v>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>66f57dee6e41de5c74ce9c99</t>
+        </is>
       </c>
       <c r="U2" t="n">
+        <v>37.35521605470905</v>
+      </c>
+      <c r="V2" t="n">
         <v>650</v>
       </c>
-      <c r="V2" t="n">
-        <v>35.78985837386445</v>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W2" t="n">
+        <v>39.42425685964275</v>
       </c>
       <c r="X2" t="n">
-        <v>189.8761577997937</v>
+        <v>229.1411175</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>226.5569642</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>263.1799467</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB2" t="n">
+        <v>200.0197944927734</v>
       </c>
     </row>
     <row r="3">
@@ -709,22 +743,36 @@
       <c r="S3" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T3" t="n">
-        <v>29.5067468902647</v>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>66f57dee6e41de5c74ce9c9f</t>
+        </is>
       </c>
       <c r="U3" t="n">
+        <v>26.80072332128652</v>
+      </c>
+      <c r="V3" t="n">
         <v>650</v>
       </c>
-      <c r="V3" t="n">
-        <v>29.61727629977461</v>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W3" t="n">
+        <v>28.31005693306384</v>
       </c>
       <c r="X3" t="n">
-        <v>157.1287198052378</v>
+        <v>163.3568115</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>138.6197113</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>155.5919706</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
+        <v>143.6316679345381</v>
       </c>
     </row>
     <row r="4">
@@ -795,22 +843,36 @@
       <c r="S4" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T4" t="n">
-        <v>44.58746170645963</v>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>66f57dee6e41de5c74ce9c9b</t>
+        </is>
       </c>
       <c r="U4" t="n">
+        <v>42.86306662213475</v>
+      </c>
+      <c r="V4" t="n">
         <v>650</v>
       </c>
-      <c r="V4" t="n">
-        <v>44.75448200972412</v>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W4" t="n">
+        <v>44.89569952533149</v>
       </c>
       <c r="X4" t="n">
-        <v>237.436231223869</v>
+        <v>292.3325481</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>230.2682134</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>270.8825768</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
+        <v>227.7792736750012</v>
       </c>
     </row>
     <row r="5">
@@ -881,22 +943,36 @@
       <c r="S5" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T5" t="n">
-        <v>27.0395424748037</v>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>66f57dee6e41de5c74ce9c9d</t>
+        </is>
       </c>
       <c r="U5" t="n">
+        <v>22.39472788197207</v>
+      </c>
+      <c r="V5" t="n">
         <v>650</v>
       </c>
-      <c r="V5" t="n">
-        <v>27.14082997607495</v>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W5" t="n">
+        <v>23.4284502799093</v>
       </c>
       <c r="X5" t="n">
-        <v>143.9904137513393</v>
+        <v>139.9982877</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>140.0598126</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>136.0026371</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>118.8647341395716</v>
       </c>
     </row>
     <row r="6">
@@ -967,22 +1043,36 @@
       <c r="S6" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T6" t="n">
-        <v>29.43806617317741</v>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9cba</t>
+        </is>
       </c>
       <c r="U6" t="n">
+        <v>29.47740342877551</v>
+      </c>
+      <c r="V6" t="n">
         <v>650</v>
       </c>
-      <c r="V6" t="n">
-        <v>29.54833831138822</v>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W6" t="n">
+        <v>31.11121125845315</v>
       </c>
       <c r="X6" t="n">
-        <v>156.7629826675125</v>
+        <v>209.3075476</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>152.7362976</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>189.6947448</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
+        <v>157.8433831864357</v>
       </c>
     </row>
     <row r="7">
@@ -1053,22 +1143,36 @@
       <c r="S7" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T7" t="n">
-        <v>33.19833679188262</v>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9cbc</t>
+        </is>
       </c>
       <c r="U7" t="n">
+        <v>29.82192527774654</v>
+      </c>
+      <c r="V7" t="n">
         <v>650</v>
       </c>
-      <c r="V7" t="n">
-        <v>33.32269453880621</v>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W7" t="n">
+        <v>31.29484491414642</v>
       </c>
       <c r="X7" t="n">
-        <v>176.7870981905063</v>
+        <v>204.4323003</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>155.7958704</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>202.4247324</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB7" t="n">
+        <v>158.7750523921354</v>
       </c>
     </row>
     <row r="8">
@@ -1139,22 +1243,36 @@
       <c r="S8" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T8" t="n">
-        <v>33.93713902292457</v>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9cbe</t>
+        </is>
       </c>
       <c r="U8" t="n">
+        <v>33.89214728786699</v>
+      </c>
+      <c r="V8" t="n">
         <v>650</v>
       </c>
-      <c r="V8" t="n">
-        <v>34.06426425128707</v>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W8" t="n">
+        <v>35.50906007624683</v>
       </c>
       <c r="X8" t="n">
-        <v>180.7213525894952</v>
+        <v>182.1684791</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>177.08666</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>172.3248044</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>180.1559614520733</v>
       </c>
     </row>
     <row r="9">
@@ -1225,22 +1343,36 @@
       <c r="S9" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T9" t="n">
-        <v>36.2425776485282</v>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9cd5</t>
+        </is>
       </c>
       <c r="U9" t="n">
+        <v>35.0331607019719</v>
+      </c>
+      <c r="V9" t="n">
         <v>650</v>
       </c>
-      <c r="V9" t="n">
-        <v>36.37833882618382</v>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W9" t="n">
+        <v>36.64018363432859</v>
       </c>
       <c r="X9" t="n">
-        <v>192.9982267965316</v>
+        <v>204.349878</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>180.3984194</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>192.6635198</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>185.8947405605528</v>
       </c>
     </row>
     <row r="10">
@@ -1311,22 +1443,36 @@
       <c r="S10" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T10" t="n">
-        <v>33.55433449961946</v>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9cd3</t>
+        </is>
       </c>
       <c r="U10" t="n">
+        <v>32.34806322190212</v>
+      </c>
+      <c r="V10" t="n">
         <v>650</v>
       </c>
-      <c r="V10" t="n">
-        <v>33.68002577939807</v>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W10" t="n">
+        <v>33.99896784113986</v>
       </c>
       <c r="X10" t="n">
-        <v>178.6828498393858</v>
+        <v>163.875312</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>155.6371088</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>203.9626565</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>172.4944768080742</v>
       </c>
     </row>
     <row r="11">
@@ -1397,22 +1543,36 @@
       <c r="S11" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T11" t="n">
-        <v>30.12241600347453</v>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9ce6</t>
+        </is>
       </c>
       <c r="U11" t="n">
+        <v>32.24545998329052</v>
+      </c>
+      <c r="V11" t="n">
         <v>650</v>
       </c>
-      <c r="V11" t="n">
-        <v>30.23525164971699</v>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W11" t="n">
+        <v>34.3013568051794</v>
       </c>
       <c r="X11" t="n">
-        <v>160.4072682654275</v>
+        <v>193.20712</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>157.579749</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>181.1058168</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>174.0286535627408</v>
       </c>
     </row>
     <row r="12">
@@ -1483,22 +1643,36 @@
       <c r="S12" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T12" t="n">
-        <v>33.47784115253302</v>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9ce4</t>
+        </is>
       </c>
       <c r="U12" t="n">
+        <v>32.06152817148222</v>
+      </c>
+      <c r="V12" t="n">
         <v>650</v>
       </c>
-      <c r="V12" t="n">
-        <v>33.60324589565897</v>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W12" t="n">
+        <v>33.7572687874512</v>
       </c>
       <c r="X12" t="n">
-        <v>178.2755090455663</v>
+        <v>194.4023968</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>170.5513644</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>188.8089812</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>171.2682115871464</v>
       </c>
     </row>
     <row r="13">
@@ -1569,22 +1743,36 @@
       <c r="S13" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T13" t="n">
-        <v>25.50750331480199</v>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9cea</t>
+        </is>
       </c>
       <c r="U13" t="n">
+        <v>29.43992546221428</v>
+      </c>
+      <c r="V13" t="n">
         <v>650</v>
       </c>
-      <c r="V13" t="n">
-        <v>25.60305194610121</v>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W13" t="n">
+        <v>30.81975914013957</v>
       </c>
       <c r="X13" t="n">
-        <v>135.832030423017</v>
+        <v>155.3332512</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>164.9263194</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>141.7638246</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>156.3646947480687</v>
       </c>
     </row>
     <row r="14">
@@ -1655,22 +1843,36 @@
       <c r="S14" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T14" t="n">
-        <v>31.77098416836987</v>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9ce8</t>
+        </is>
       </c>
       <c r="U14" t="n">
+        <v>30.2646244461032</v>
+      </c>
+      <c r="V14" t="n">
         <v>650</v>
       </c>
-      <c r="V14" t="n">
-        <v>31.88999519092475</v>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W14" t="n">
+        <v>31.66776903609522</v>
       </c>
       <c r="X14" t="n">
-        <v>169.1861894465741</v>
+        <v>178.8872352</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>153.3099474</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>197.466314</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
+        <v>160.6670907506303</v>
       </c>
     </row>
     <row r="15">
@@ -1741,22 +1943,36 @@
       <c r="S15" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T15" t="n">
-        <v>36.54546242165697</v>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9d09</t>
+        </is>
       </c>
       <c r="U15" t="n">
+        <v>33.0920665552018</v>
+      </c>
+      <c r="V15" t="n">
         <v>650</v>
       </c>
-      <c r="V15" t="n">
-        <v>36.68235817627047</v>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W15" t="n">
+        <v>34.61219926399735</v>
       </c>
       <c r="X15" t="n">
-        <v>194.6111425417752</v>
+        <v>223.9994979</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>232.0364225</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>243.9989376</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>175.6057193005618</v>
       </c>
     </row>
     <row r="16">
@@ -1827,22 +2043,36 @@
       <c r="S16" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T16" t="n">
-        <v>38.06699820919684</v>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9d0b</t>
+        </is>
       </c>
       <c r="U16" t="n">
+        <v>37.36076442625708</v>
+      </c>
+      <c r="V16" t="n">
         <v>650</v>
       </c>
-      <c r="V16" t="n">
-        <v>38.20959348916874</v>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W16" t="n">
+        <v>39.25517822225937</v>
       </c>
       <c r="X16" t="n">
-        <v>202.713593527752</v>
+        <v>227.4374997</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>182.7804175</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>202.7801592</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
+        <v>199.161970477905</v>
       </c>
     </row>
     <row r="17">
@@ -1913,22 +2143,36 @@
       <c r="S17" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T17" t="n">
-        <v>37.92391881925307</v>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9d1a</t>
+        </is>
       </c>
       <c r="U17" t="n">
+        <v>30.59340120621066</v>
+      </c>
+      <c r="V17" t="n">
         <v>650</v>
       </c>
-      <c r="V17" t="n">
-        <v>38.06597813771953</v>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W17" t="n">
+        <v>32.18633966463919</v>
       </c>
       <c r="X17" t="n">
-        <v>201.9516701122027</v>
+        <v>232.0342897</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>227.436704</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>216.3295016</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB17" t="n">
+        <v>163.2980697167178</v>
       </c>
     </row>
     <row r="18">
@@ -1999,22 +2243,36 @@
       <c r="S18" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T18" t="n">
-        <v>33.29580917010842</v>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9d1c</t>
+        </is>
       </c>
       <c r="U18" t="n">
+        <v>33.37558782284649</v>
+      </c>
+      <c r="V18" t="n">
         <v>650</v>
       </c>
-      <c r="V18" t="n">
-        <v>33.42053203909879</v>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W18" t="n">
+        <v>34.90483802873019</v>
       </c>
       <c r="X18" t="n">
-        <v>177.3061560881441</v>
+        <v>208.0398168</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>231.9975232</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>200.1587477</v>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
+        <v>177.0904282144386</v>
       </c>
     </row>
     <row r="19">
@@ -2085,22 +2343,36 @@
       <c r="S19" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T19" t="n">
-        <v>25.34157664432986</v>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9d2f</t>
+        </is>
       </c>
       <c r="U19" t="n">
+        <v>22.80639442943114</v>
+      </c>
+      <c r="V19" t="n">
         <v>650</v>
       </c>
-      <c r="V19" t="n">
-        <v>25.43650373042867</v>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W19" t="n">
+        <v>24.17720398744675</v>
       </c>
       <c r="X19" t="n">
-        <v>134.9484411405457</v>
+        <v>157.6351081</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>168.809508</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>131.024285</v>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB19" t="n">
+        <v>122.663551787309</v>
       </c>
     </row>
     <row r="20">
@@ -2171,22 +2443,36 @@
       <c r="S20" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T20" t="n">
-        <v>40.11069539287472</v>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9d2d</t>
+        </is>
       </c>
       <c r="U20" t="n">
+        <v>36.72052940623376</v>
+      </c>
+      <c r="V20" t="n">
         <v>650</v>
       </c>
-      <c r="V20" t="n">
-        <v>40.2609461641066</v>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W20" t="n">
+        <v>38.77907815764956</v>
       </c>
       <c r="X20" t="n">
-        <v>213.5966476080656</v>
+        <v>226.2764583</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>243.245592</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>266.1129968</v>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB20" t="n">
+        <v>196.7464668091793</v>
       </c>
     </row>
     <row r="21">
@@ -2257,22 +2543,36 @@
       <c r="S21" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T21" t="n">
-        <v>37.44226990552668</v>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9d33</t>
+        </is>
       </c>
       <c r="U21" t="n">
+        <v>28.17209487168396</v>
+      </c>
+      <c r="V21" t="n">
         <v>650</v>
       </c>
-      <c r="V21" t="n">
-        <v>37.58252501391797</v>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W21" t="n">
+        <v>29.47093211384655</v>
       </c>
       <c r="X21" t="n">
-        <v>199.3868032534172</v>
+        <v>181.419057</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>181.41975</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>168.2402484</v>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB21" t="n">
+        <v>149.5213925251267</v>
       </c>
     </row>
     <row r="22">
@@ -2343,22 +2643,36 @@
       <c r="S22" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T22" t="n">
-        <v>33.79080734790776</v>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9d4c</t>
+        </is>
       </c>
       <c r="U22" t="n">
+        <v>32.71482405445825</v>
+      </c>
+      <c r="V22" t="n">
         <v>650</v>
       </c>
-      <c r="V22" t="n">
-        <v>33.91738443202067</v>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W22" t="n">
+        <v>34.91505110102607</v>
       </c>
       <c r="X22" t="n">
-        <v>179.9421101725707</v>
+        <v>203.9987202</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>220.5815013</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>192.0427542</v>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>177.1422444510524</v>
       </c>
     </row>
     <row r="23">
@@ -2429,22 +2743,36 @@
       <c r="S23" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T23" t="n">
-        <v>31.1470820165331</v>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9d4a</t>
+        </is>
       </c>
       <c r="U23" t="n">
+        <v>28.34981445362558</v>
+      </c>
+      <c r="V23" t="n">
         <v>650</v>
       </c>
-      <c r="V23" t="n">
-        <v>31.26375596219195</v>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W23" t="n">
+        <v>29.65595454976624</v>
       </c>
       <c r="X23" t="n">
-        <v>165.8637985789387</v>
+        <v>208.6895877</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>176.0478003</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>240.8319054</v>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB23" t="n">
+        <v>150.4601077364486</v>
       </c>
     </row>
     <row r="24">
@@ -2515,22 +2843,36 @@
       <c r="S24" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T24" t="n">
-        <v>25.67877154443551</v>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9d4e</t>
+        </is>
       </c>
       <c r="U24" t="n">
+        <v>25.90241886313012</v>
+      </c>
+      <c r="V24" t="n">
         <v>650</v>
       </c>
-      <c r="V24" t="n">
-        <v>25.77496172989722</v>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W24" t="n">
+        <v>27.57969309058211</v>
       </c>
       <c r="X24" t="n">
-        <v>136.7440644661362</v>
+        <v>178.5713754</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>140.9138325</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>159.2457246</v>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB24" t="n">
+        <v>139.926151653071</v>
       </c>
     </row>
     <row r="25">
@@ -2601,22 +2943,36 @@
       <c r="S25" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T25" t="n">
-        <v>28.74998403766801</v>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9d6b</t>
+        </is>
       </c>
       <c r="U25" t="n">
+        <v>22.26988555380125</v>
+      </c>
+      <c r="V25" t="n">
         <v>650</v>
       </c>
-      <c r="V25" t="n">
-        <v>28.85767868699416</v>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W25" t="n">
+        <v>23.66276167937307</v>
       </c>
       <c r="X25" t="n">
-        <v>153.0988218748797</v>
+        <v>148.4863072</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>134.16483</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>136.059835</v>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB25" t="n">
+        <v>120.0535179417599</v>
       </c>
     </row>
     <row r="26">
@@ -2687,22 +3043,36 @@
       <c r="S26" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T26" t="n">
-        <v>37.4294814745727</v>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9d69</t>
+        </is>
       </c>
       <c r="U26" t="n">
+        <v>32.04944810612317</v>
+      </c>
+      <c r="V26" t="n">
         <v>650</v>
       </c>
-      <c r="V26" t="n">
-        <v>37.56968867874306</v>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W26" t="n">
+        <v>34.09538788866976</v>
       </c>
       <c r="X26" t="n">
-        <v>199.318702564731</v>
+        <v>191.5397904</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>186.4589643</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>196.979751</v>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB26" t="n">
+        <v>172.9836659425853</v>
       </c>
     </row>
     <row r="27">
@@ -2773,22 +3143,36 @@
       <c r="S27" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T27" t="n">
-        <v>36.27964173180828</v>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9d6d</t>
+        </is>
       </c>
       <c r="U27" t="n">
+        <v>28.31278584164456</v>
+      </c>
+      <c r="V27" t="n">
         <v>650</v>
       </c>
-      <c r="V27" t="n">
-        <v>36.41554174792191</v>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W27" t="n">
+        <v>30.21154856406327</v>
       </c>
       <c r="X27" t="n">
-        <v>193.1955996881694</v>
+        <v>190.0725344</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>176.4091643</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>181.10706</v>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB27" t="n">
+        <v>153.2789256270876</v>
       </c>
     </row>
     <row r="28">
@@ -2859,15 +3243,23 @@
       <c r="S28" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr">
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2937,15 +3329,23 @@
       <c r="S29" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr">
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3015,15 +3415,23 @@
       <c r="S30" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr">
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3093,15 +3501,23 @@
       <c r="S31" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr">
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3171,15 +3587,23 @@
       <c r="S32" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr">
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3249,15 +3673,23 @@
       <c r="S33" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr">
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3327,15 +3759,23 @@
       <c r="S34" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr">
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3405,22 +3845,36 @@
       <c r="S35" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T35" t="n">
-        <v>29.61588400661413</v>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9d86</t>
+        </is>
       </c>
       <c r="U35" t="n">
+        <v>31.6800074550035</v>
+      </c>
+      <c r="V35" t="n">
         <v>650</v>
       </c>
-      <c r="V35" t="n">
-        <v>29.72682223316749</v>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W35" t="n">
+        <v>33.24487782032969</v>
       </c>
       <c r="X35" t="n">
-        <v>157.7098945256838</v>
+        <v>189.7358605</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>162.4350375</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>170.5538484</v>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB35" t="n">
+        <v>168.6685852629655</v>
       </c>
     </row>
     <row r="36">
@@ -3491,22 +3945,36 @@
       <c r="S36" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T36" t="n">
-        <v>38.47485428525623</v>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9d8a</t>
+        </is>
       </c>
       <c r="U36" t="n">
+        <v>32.28028700814235</v>
+      </c>
+      <c r="V36" t="n">
         <v>650</v>
       </c>
-      <c r="V36" t="n">
-        <v>38.61897735449678</v>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W36" t="n">
+        <v>34.35740925599293</v>
       </c>
       <c r="X36" t="n">
-        <v>204.8855002897659</v>
+        <v>234.7749273</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>227.297475</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>207.5759814</v>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB36" t="n">
+        <v>174.3130368482002</v>
       </c>
     </row>
     <row r="37">
@@ -3577,22 +4045,36 @@
       <c r="S37" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T37" t="n">
-        <v>38.19643441274033</v>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9d8c</t>
+        </is>
       </c>
       <c r="U37" t="n">
+        <v>28.18934910182833</v>
+      </c>
+      <c r="V37" t="n">
         <v>650</v>
       </c>
-      <c r="V37" t="n">
-        <v>38.3395145481658</v>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W37" t="n">
+        <v>30.07437687099942</v>
       </c>
       <c r="X37" t="n">
-        <v>203.4028645285464</v>
+        <v>296.9739046</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>298.8225</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>263.4531768</v>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB37" t="n">
+        <v>152.5829821637894</v>
       </c>
     </row>
     <row r="38">
@@ -3663,22 +4145,36 @@
       <c r="S38" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T38" t="n">
-        <v>34.25802593185207</v>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9d82</t>
+        </is>
       </c>
       <c r="U38" t="n">
+        <v>32.49255593555194</v>
+      </c>
+      <c r="V38" t="n">
         <v>650</v>
       </c>
-      <c r="V38" t="n">
-        <v>34.38635317142561</v>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W38" t="n">
+        <v>34.33620567683121</v>
       </c>
       <c r="X38" t="n">
-        <v>182.4301329369036</v>
+        <v>235.2893990000001</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>229.9586625</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>227.4051312</v>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB38" t="n">
+        <v>174.2054600443675</v>
       </c>
     </row>
     <row r="39">
@@ -3749,22 +4245,36 @@
       <c r="S39" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T39" t="n">
-        <v>37.14405639044286</v>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9d88</t>
+        </is>
       </c>
       <c r="U39" t="n">
+        <v>32.20786892779799</v>
+      </c>
+      <c r="V39" t="n">
         <v>650</v>
       </c>
-      <c r="V39" t="n">
-        <v>37.28319441995546</v>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W39" t="n">
+        <v>34.29611036974219</v>
       </c>
       <c r="X39" t="n">
-        <v>197.798762795145</v>
+        <v>240.0303534</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>236.3711625</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>193.3325076</v>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB39" t="n">
+        <v>174.0020356624541</v>
       </c>
     </row>
     <row r="40">
@@ -3835,22 +4345,36 @@
       <c r="S40" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T40" t="n">
-        <v>30.54883830091041</v>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9db1</t>
+        </is>
       </c>
       <c r="U40" t="n">
+        <v>33.63960161324392</v>
+      </c>
+      <c r="V40" t="n">
         <v>650</v>
       </c>
-      <c r="V40" t="n">
-        <v>30.66327128368451</v>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W40" t="n">
+        <v>35.49222713542581</v>
       </c>
       <c r="X40" t="n">
-        <v>162.6780434864878</v>
+        <v>180.621</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>209.378884</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>203.6482786</v>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB40" t="n">
+        <v>180.0705591735797</v>
       </c>
     </row>
     <row r="41">
@@ -3921,22 +4445,36 @@
       <c r="S41" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T41" t="n">
-        <v>37.02135481953834</v>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9db5</t>
+        </is>
       </c>
       <c r="U41" t="n">
+        <v>34.22943164386134</v>
+      </c>
+      <c r="V41" t="n">
         <v>650</v>
       </c>
-      <c r="V41" t="n">
-        <v>37.16003322087747</v>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W41" t="n">
+        <v>36.47262796494356</v>
       </c>
       <c r="X41" t="n">
-        <v>197.1453549211417</v>
+        <v>235.3014</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>228.980642</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>251.8695894</v>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB41" t="n">
+        <v>185.0446433557834</v>
       </c>
     </row>
     <row r="42">
@@ -4007,21 +4545,35 @@
       <c r="S42" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T42" t="n">
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9dbf</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
         <v>0</v>
       </c>
-      <c r="U42" t="n">
+      <c r="V42" t="n">
         <v>650</v>
       </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
-      </c>
       <c r="X42" t="n">
+        <v>197.2008</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>174.9502216</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>183.5661776</v>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4093,22 +4645,36 @@
       <c r="S43" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T43" t="n">
-        <v>22.90324502548262</v>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>66f57def6e41de5c74ce9db3</t>
+        </is>
       </c>
       <c r="U43" t="n">
+        <v>29.59870102489949</v>
+      </c>
+      <c r="V43" t="n">
         <v>650</v>
       </c>
-      <c r="V43" t="n">
-        <v>22.98903835803608</v>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W43" t="n">
+        <v>31.43502512144142</v>
       </c>
       <c r="X43" t="n">
-        <v>121.9638879075186</v>
+        <v>238.5344</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>209.8760488</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>166.7057067</v>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB43" t="n">
+        <v>159.4862596155188</v>
       </c>
     </row>
     <row r="44">
@@ -4179,22 +4745,36 @@
       <c r="S44" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T44" t="n">
-        <v>34.60294677812494</v>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9de0</t>
+        </is>
       </c>
       <c r="U44" t="n">
+        <v>32.42200980001902</v>
+      </c>
+      <c r="V44" t="n">
         <v>650</v>
       </c>
-      <c r="V44" t="n">
-        <v>34.73256605770573</v>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W44" t="n">
+        <v>34.13433353781024</v>
       </c>
       <c r="X44" t="n">
-        <v>184.2668983116347</v>
+        <v>171.2053376</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>173.1108276</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>162.4316496</v>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB44" t="n">
+        <v>173.1812575107714</v>
       </c>
     </row>
     <row r="45">
@@ -4265,22 +4845,36 @@
       <c r="S45" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T45" t="n">
-        <v>34.53410895850308</v>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9de2</t>
+        </is>
       </c>
       <c r="U45" t="n">
+        <v>31.8667744488487</v>
+      </c>
+      <c r="V45" t="n">
         <v>650</v>
       </c>
-      <c r="V45" t="n">
-        <v>34.66347037829393</v>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W45" t="n">
+        <v>33.37995353067254</v>
       </c>
       <c r="X45" t="n">
-        <v>183.9003245747333</v>
+        <v>202.7786464</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>190.157481</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>170.177169</v>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB45" t="n">
+        <v>169.3538947139446</v>
       </c>
     </row>
     <row r="46">
@@ -4351,22 +4945,36 @@
       <c r="S46" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T46" t="n">
-        <v>40.48562173429669</v>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9de6</t>
+        </is>
       </c>
       <c r="U46" t="n">
+        <v>39.30502626083687</v>
+      </c>
+      <c r="V46" t="n">
         <v>650</v>
       </c>
-      <c r="V46" t="n">
-        <v>40.6372769432079</v>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W46" t="n">
+        <v>41.36051660906931</v>
       </c>
       <c r="X46" t="n">
-        <v>215.5931976265406</v>
+        <v>192.0861888</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>214.1369298</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>188.6813126</v>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB46" t="n">
+        <v>209.8434489637695</v>
       </c>
     </row>
     <row r="47">
@@ -4437,22 +5045,36 @@
       <c r="S47" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T47" t="n">
-        <v>34.2056036182568</v>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9e05</t>
+        </is>
       </c>
       <c r="U47" t="n">
+        <v>33.96142472086805</v>
+      </c>
+      <c r="V47" t="n">
         <v>650</v>
       </c>
-      <c r="V47" t="n">
-        <v>34.33373448893246</v>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W47" t="n">
+        <v>35.65029135835977</v>
       </c>
       <c r="X47" t="n">
-        <v>182.1509747140372</v>
+        <v>201.6904292</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>188.6793804</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>192.0811828</v>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB47" t="n">
+        <v>180.8725013256022</v>
       </c>
     </row>
     <row r="48">
@@ -4523,22 +5145,36 @@
       <c r="S48" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T48" t="n">
-        <v>34.77711361281273</v>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9e01</t>
+        </is>
       </c>
       <c r="U48" t="n">
+        <v>41.35811337821251</v>
+      </c>
+      <c r="V48" t="n">
         <v>650</v>
       </c>
-      <c r="V48" t="n">
-        <v>34.90738530444916</v>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W48" t="n">
+        <v>43.66020967603209</v>
       </c>
       <c r="X48" t="n">
-        <v>185.1943679465897</v>
+        <v>208.0195692</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>189.7357518</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>189.7339806</v>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB48" t="n">
+        <v>221.5109899979094</v>
       </c>
     </row>
     <row r="49">
@@ -4609,22 +5245,36 @@
       <c r="S49" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T49" t="n">
-        <v>31.1184853586363</v>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9e03</t>
+        </is>
       </c>
       <c r="U49" t="n">
+        <v>28.90995234584716</v>
+      </c>
+      <c r="V49" t="n">
         <v>650</v>
       </c>
-      <c r="V49" t="n">
-        <v>31.23505218399066</v>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W49" t="n">
+        <v>30.60693864680155</v>
       </c>
       <c r="X49" t="n">
-        <v>165.711516246266</v>
+        <v>174.7723216</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>175.4513208</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>149.9343009</v>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB49" t="n">
+        <v>155.2849455090945</v>
       </c>
     </row>
     <row r="50">
@@ -4695,22 +5345,36 @@
       <c r="S50" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T50" t="n">
-        <v>36.94050222851699</v>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9dff</t>
+        </is>
       </c>
       <c r="U50" t="n">
+        <v>34.25757885762052</v>
+      </c>
+      <c r="V50" t="n">
         <v>650</v>
       </c>
-      <c r="V50" t="n">
-        <v>37.07887776389885</v>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W50" t="n">
+        <v>36.09183244298664</v>
       </c>
       <c r="X50" t="n">
-        <v>196.7148003714529</v>
+        <v>178.2395896</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>200.8354572</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>212.600273</v>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB50" t="n">
+        <v>183.1126692841666</v>
       </c>
     </row>
     <row r="51">
@@ -4781,22 +5445,36 @@
       <c r="S51" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T51" t="n">
-        <v>30.34837840971787</v>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9e2e</t>
+        </is>
       </c>
       <c r="U51" t="n">
+        <v>30.85423689062636</v>
+      </c>
+      <c r="V51" t="n">
         <v>650</v>
       </c>
-      <c r="V51" t="n">
-        <v>30.46206048919902</v>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W51" t="n">
+        <v>32.38184892499495</v>
       </c>
       <c r="X51" t="n">
-        <v>161.6105586094689</v>
+        <v>194.1947604</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>216.334208</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>207.8843932</v>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB51" t="n">
+        <v>164.2899900518814</v>
       </c>
     </row>
     <row r="52">
@@ -4867,22 +5545,36 @@
       <c r="S52" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T52" t="n">
-        <v>30.2709041265482</v>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9e2c</t>
+        </is>
       </c>
       <c r="U52" t="n">
+        <v>37.75766475973374</v>
+      </c>
+      <c r="V52" t="n">
         <v>650</v>
       </c>
-      <c r="V52" t="n">
-        <v>30.38429599488534</v>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W52" t="n">
+        <v>39.72235375181543</v>
       </c>
       <c r="X52" t="n">
-        <v>161.1979941550561</v>
+        <v>202.1448852</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>213.350752</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>189.653709</v>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB52" t="n">
+        <v>201.5321953307547</v>
       </c>
     </row>
     <row r="53">
@@ -4953,22 +5645,36 @@
       <c r="S53" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T53" t="n">
-        <v>32.50266548017449</v>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9e34</t>
+        </is>
       </c>
       <c r="U53" t="n">
+        <v>29.37112660874637</v>
+      </c>
+      <c r="V53" t="n">
         <v>650</v>
       </c>
-      <c r="V53" t="n">
-        <v>32.62441730989609</v>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W53" t="n">
+        <v>31.31760972163682</v>
       </c>
       <c r="X53" t="n">
-        <v>173.0825236733475</v>
+        <v>237.2183298</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>200.996328</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>193.0396564</v>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB53" t="n">
+        <v>158.8905501206559</v>
       </c>
     </row>
     <row r="54">
@@ -5039,22 +5745,36 @@
       <c r="S54" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T54" t="n">
-        <v>31.99705485740782</v>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9e30</t>
+        </is>
       </c>
       <c r="U54" t="n">
+        <v>31.26630668964022</v>
+      </c>
+      <c r="V54" t="n">
         <v>650</v>
       </c>
-      <c r="V54" t="n">
-        <v>32.11691271881823</v>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W54" t="n">
+        <v>33.26655763354914</v>
       </c>
       <c r="X54" t="n">
-        <v>170.3900564159194</v>
+        <v>183.522582</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>214.848088</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>213.2449926</v>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB54" t="n">
+        <v>168.7785782502837</v>
       </c>
     </row>
     <row r="55">
@@ -5125,22 +5845,36 @@
       <c r="S55" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T55" t="n">
-        <v>38.17982343613131</v>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9e2a</t>
+        </is>
       </c>
       <c r="U55" t="n">
+        <v>35.93591371347527</v>
+      </c>
+      <c r="V55" t="n">
         <v>650</v>
       </c>
-      <c r="V55" t="n">
-        <v>38.3228413484509</v>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W55" t="n">
+        <v>37.8374520489627</v>
       </c>
       <c r="X55" t="n">
-        <v>203.3144080985985</v>
+        <v>198.0672057</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>179.28776</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>178.7524684</v>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB55" t="n">
+        <v>191.969106986796</v>
       </c>
     </row>
     <row r="56">
@@ -5211,22 +5945,36 @@
       <c r="S56" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T56" t="n">
-        <v>25.18817424552747</v>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9eb0</t>
+        </is>
       </c>
       <c r="U56" t="n">
+        <v>26.75159642829821</v>
+      </c>
+      <c r="V56" t="n">
         <v>650</v>
       </c>
-      <c r="V56" t="n">
-        <v>25.28252670113176</v>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W56" t="n">
+        <v>27.98827875242617</v>
       </c>
       <c r="X56" t="n">
-        <v>134.1315458511898</v>
+        <v>186.074408</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>200.636169</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>176.0464584</v>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB56" t="n">
+        <v>141.9991195825794</v>
       </c>
     </row>
     <row r="57">
@@ -5297,22 +6045,36 @@
       <c r="S57" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T57" t="n">
-        <v>32.6056860333404</v>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9eac</t>
+        </is>
       </c>
       <c r="U57" t="n">
+        <v>38.40391965831266</v>
+      </c>
+      <c r="V57" t="n">
         <v>650</v>
       </c>
-      <c r="V57" t="n">
-        <v>32.72782376805353</v>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W57" t="n">
+        <v>40.49156779534093</v>
       </c>
       <c r="X57" t="n">
-        <v>173.6311265977155</v>
+        <v>206.45495</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>179.998743</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>180.8886672</v>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB57" t="n">
+        <v>205.4348189224862</v>
       </c>
     </row>
     <row r="58">
@@ -5383,22 +6145,36 @@
       <c r="S58" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T58" t="n">
-        <v>38.39706358501503</v>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9eae</t>
+        </is>
       </c>
       <c r="U58" t="n">
+        <v>32.16334363604162</v>
+      </c>
+      <c r="V58" t="n">
         <v>650</v>
       </c>
-      <c r="V58" t="n">
-        <v>38.54089525784394</v>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W58" t="n">
+        <v>34.23085162185648</v>
       </c>
       <c r="X58" t="n">
-        <v>204.4712508576917</v>
+        <v>220.036024</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>193.494339</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>203.959704</v>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB58" t="n">
+        <v>173.6709440356055</v>
       </c>
     </row>
     <row r="59">
@@ -5469,22 +6245,36 @@
       <c r="S59" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T59" t="n">
-        <v>34.94861881721709</v>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9eb4</t>
+        </is>
       </c>
       <c r="U59" t="n">
+        <v>32.09378189939193</v>
+      </c>
+      <c r="V59" t="n">
         <v>650</v>
       </c>
-      <c r="V59" t="n">
-        <v>35.07953295070052</v>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W59" t="n">
+        <v>34.18766031910848</v>
       </c>
       <c r="X59" t="n">
-        <v>186.1076639228698</v>
+        <v>213.951036</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>193.863744</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>199.9188864</v>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB59" t="n">
+        <v>173.4518120547469</v>
       </c>
     </row>
     <row r="60">
@@ -5555,22 +6345,36 @@
       <c r="S60" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T60" t="n">
-        <v>25.18817424552747</v>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9eb0</t>
+        </is>
       </c>
       <c r="U60" t="n">
+        <v>26.75159642829821</v>
+      </c>
+      <c r="V60" t="n">
         <v>650</v>
       </c>
-      <c r="V60" t="n">
-        <v>25.28252670113176</v>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W60" t="n">
+        <v>27.98827875242617</v>
       </c>
       <c r="X60" t="n">
-        <v>134.1315458511898</v>
+        <v>157.27491</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>142.0386852</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>140.9094048</v>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB60" t="n">
+        <v>141.9991195825794</v>
       </c>
     </row>
     <row r="61">
@@ -5641,22 +6445,36 @@
       <c r="S61" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T61" t="n">
-        <v>18.75992576283629</v>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9eb6</t>
+        </is>
       </c>
       <c r="U61" t="n">
+        <v>24.93367827849588</v>
+      </c>
+      <c r="V61" t="n">
         <v>650</v>
       </c>
-      <c r="V61" t="n">
-        <v>18.83019862364089</v>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W61" t="n">
+        <v>26.12262468519387</v>
       </c>
       <c r="X61" t="n">
-        <v>99.89996964824076</v>
+        <v>145.60507</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>124.0609752</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>143.3869452</v>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB61" t="n">
+        <v>132.5336845218514</v>
       </c>
     </row>
     <row r="62">
@@ -5727,22 +6545,36 @@
       <c r="S62" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T62" t="n">
-        <v>40.64800498832212</v>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9e84</t>
+        </is>
       </c>
       <c r="U62" t="n">
+        <v>40.67925184789009</v>
+      </c>
+      <c r="V62" t="n">
         <v>650</v>
       </c>
-      <c r="V62" t="n">
-        <v>40.8002684691397</v>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W62" t="n">
+        <v>43.39585243653489</v>
       </c>
       <c r="X62" t="n">
-        <v>216.4579175808519</v>
+        <v>210.4465</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>203.2142634</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>207.1496</v>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB62" t="n">
+        <v>220.1697679958014</v>
       </c>
     </row>
     <row r="63">
@@ -5813,22 +6645,36 @@
       <c r="S63" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T63" t="n">
-        <v>17.22080775011093</v>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9e82</t>
+        </is>
       </c>
       <c r="U63" t="n">
+        <v>22.54187142791142</v>
+      </c>
+      <c r="V63" t="n">
         <v>650</v>
       </c>
-      <c r="V63" t="n">
-        <v>17.28531522424836</v>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W63" t="n">
+        <v>23.69980835184827</v>
       </c>
       <c r="X63" t="n">
-        <v>91.70389015943378</v>
+        <v>138.677</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>91.30221450000001</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>118.7256</v>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB63" t="n">
+        <v>120.2414750119848</v>
       </c>
     </row>
     <row r="64">
@@ -5899,22 +6745,36 @@
       <c r="S64" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T64" t="n">
-        <v>26.03786709942989</v>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9e93</t>
+        </is>
       </c>
       <c r="U64" t="n">
+        <v>29.08019406234924</v>
+      </c>
+      <c r="V64" t="n">
         <v>650</v>
       </c>
-      <c r="V64" t="n">
-        <v>26.13540242198173</v>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W64" t="n">
+        <v>30.66578121490211</v>
       </c>
       <c r="X64" t="n">
-        <v>138.6563127073219</v>
+        <v>148.0542308</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>147.515963</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>160.897167</v>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB64" t="n">
+        <v>155.58348451316</v>
       </c>
     </row>
     <row r="65">
@@ -5985,22 +6845,36 @@
       <c r="S65" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T65" t="n">
-        <v>44.81496374240414</v>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9e97</t>
+        </is>
       </c>
       <c r="U65" t="n">
+        <v>43.38638418527958</v>
+      </c>
+      <c r="V65" t="n">
         <v>650</v>
       </c>
-      <c r="V65" t="n">
-        <v>44.98283624621072</v>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W65" t="n">
+        <v>46.29831620342251</v>
       </c>
       <c r="X65" t="n">
-        <v>238.6477203722318</v>
+        <v>236.3077148</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>252.50855</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>254.023302</v>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB65" t="n">
+        <v>234.8954788251125</v>
       </c>
     </row>
     <row r="66">
@@ -6071,22 +6945,36 @@
       <c r="S66" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T66" t="n">
-        <v>34.22142159008289</v>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9e95</t>
+        </is>
       </c>
       <c r="U66" t="n">
+        <v>33.32622323966425</v>
+      </c>
+      <c r="V66" t="n">
         <v>650</v>
       </c>
-      <c r="V66" t="n">
-        <v>34.3496117133455</v>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W66" t="n">
+        <v>34.86079677150205</v>
       </c>
       <c r="X66" t="n">
-        <v>182.2352082512751</v>
+        <v>196.041336</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>192.374588</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>212.0383212</v>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB66" t="n">
+        <v>176.8669839716888</v>
       </c>
     </row>
     <row r="67">
@@ -6157,22 +7045,36 @@
       <c r="S67" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T67" t="n">
-        <v>23.54817194222358</v>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9e61</t>
+        </is>
       </c>
       <c r="U67" t="n">
+        <v>24.10461459579914</v>
+      </c>
+      <c r="V67" t="n">
         <v>650</v>
       </c>
-      <c r="V67" t="n">
-        <v>23.63638110840145</v>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W67" t="n">
+        <v>25.24244905317495</v>
       </c>
       <c r="X67" t="n">
-        <v>125.3982394194733</v>
+        <v>113.773372</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>105.2225832</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>145.3838103</v>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB67" t="n">
+        <v>128.068094982377</v>
       </c>
     </row>
     <row r="68">
@@ -6243,22 +7145,36 @@
       <c r="S68" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T68" t="n">
-        <v>36.47806466122064</v>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9e65</t>
+        </is>
       </c>
       <c r="U68" t="n">
+        <v>36.60183566358501</v>
+      </c>
+      <c r="V68" t="n">
         <v>650</v>
       </c>
-      <c r="V68" t="n">
-        <v>36.61470795036612</v>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W68" t="n">
+        <v>38.28575134014226</v>
       </c>
       <c r="X68" t="n">
-        <v>194.2522373783397</v>
+        <v>178.211388</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>194.031663</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>197.0165439</v>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB68" t="n">
+        <v>194.243562848126</v>
       </c>
     </row>
     <row r="69">
@@ -6329,22 +7245,36 @@
       <c r="S69" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T69" t="n">
-        <v>40.20863551341646</v>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9e5f</t>
+        </is>
       </c>
       <c r="U69" t="n">
+        <v>37.17551157320088</v>
+      </c>
+      <c r="V69" t="n">
         <v>650</v>
       </c>
-      <c r="V69" t="n">
-        <v>40.35925315883244</v>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W69" t="n">
+        <v>39.24645461442449</v>
       </c>
       <c r="X69" t="n">
-        <v>214.1181963174346</v>
+        <v>220.68932</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>231.9967118</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>217.8043428</v>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB69" t="n">
+        <v>199.1177110704904</v>
       </c>
     </row>
     <row r="70">
@@ -6415,22 +7345,36 @@
       <c r="S70" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T70" t="n">
-        <v>720.6852392290749</v>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9e67</t>
+        </is>
       </c>
       <c r="U70" t="n">
+        <v>20.90913542262717</v>
+      </c>
+      <c r="V70" t="n">
         <v>650</v>
       </c>
-      <c r="V70" t="n">
-        <v>723.384856175353</v>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W70" t="n">
+        <v>21.94392189345892</v>
       </c>
       <c r="X70" t="n">
-        <v>3837.778167947006</v>
+        <v>131.02578</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>120.066443</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>106.5088608</v>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB70" t="n">
+        <v>111.3329482181873</v>
       </c>
     </row>
     <row r="71">
@@ -6501,22 +7445,36 @@
       <c r="S71" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T71" t="n">
-        <v>27.63437601507865</v>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9f17</t>
+        </is>
       </c>
       <c r="U71" t="n">
+        <v>23.45561017631241</v>
+      </c>
+      <c r="V71" t="n">
         <v>650</v>
       </c>
-      <c r="V71" t="n">
-        <v>27.73789170504883</v>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W71" t="n">
+        <v>24.74788904089393</v>
       </c>
       <c r="X71" t="n">
-        <v>147.1580090483816</v>
+        <v>149.934981</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>198.0706965</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>155.7928064</v>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB71" t="n">
+        <v>125.5589343817607</v>
       </c>
     </row>
     <row r="72">
@@ -6587,22 +7545,36 @@
       <c r="S72" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T72" t="n">
-        <v>35.45101533781928</v>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9f1b</t>
+        </is>
       </c>
       <c r="U72" t="n">
+        <v>29.34282427226523</v>
+      </c>
+      <c r="V72" t="n">
         <v>650</v>
       </c>
-      <c r="V72" t="n">
-        <v>35.58381139989918</v>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W72" t="n">
+        <v>31.3067430059759</v>
       </c>
       <c r="X72" t="n">
-        <v>188.7830155097596</v>
+        <v>168.808755</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>169.184835</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>181.1057721</v>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB72" t="n">
+        <v>158.8354176107129</v>
       </c>
     </row>
     <row r="73">
@@ -6673,22 +7645,36 @@
       <c r="S73" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T73" t="n">
-        <v>27.69340546006872</v>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9f13</t>
+        </is>
       </c>
       <c r="U73" t="n">
+        <v>29.16230452194101</v>
+      </c>
+      <c r="V73" t="n">
         <v>650</v>
       </c>
-      <c r="V73" t="n">
-        <v>27.7971422686096</v>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W73" t="n">
+        <v>30.71324904255253</v>
       </c>
       <c r="X73" t="n">
-        <v>147.472351431044</v>
+        <v>184.391871</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>196.8157104</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>161.4409687</v>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB73" t="n">
+        <v>155.8243135328536</v>
       </c>
     </row>
     <row r="74">
@@ -6759,22 +7745,36 @@
       <c r="S74" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T74" t="n">
-        <v>31.90215102192248</v>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9f15</t>
+        </is>
       </c>
       <c r="U74" t="n">
+        <v>29.64478300219904</v>
+      </c>
+      <c r="V74" t="n">
         <v>650</v>
       </c>
-      <c r="V74" t="n">
-        <v>32.02165338277787</v>
-      </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W74" t="n">
+        <v>31.43136992710871</v>
       </c>
       <c r="X74" t="n">
-        <v>169.8846764690931</v>
+        <v>189.527898</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>190.0324311</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>196.1600597</v>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB74" t="n">
+        <v>159.4677149103678</v>
       </c>
     </row>
     <row r="75">
@@ -6845,22 +7845,36 @@
       <c r="S75" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T75" t="n">
-        <v>39.49972816498818</v>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9f19</t>
+        </is>
       </c>
       <c r="U75" t="n">
+        <v>30.07532710309617</v>
+      </c>
+      <c r="V75" t="n">
         <v>650</v>
       </c>
-      <c r="V75" t="n">
-        <v>39.6476903122935</v>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W75" t="n">
+        <v>32.0676294562499</v>
       </c>
       <c r="X75" t="n">
-        <v>210.3431375305979</v>
+        <v>194.028798</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>164.0007363</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>172.698031</v>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB75" t="n">
+        <v>162.695790983329</v>
       </c>
     </row>
     <row r="76">
@@ -6931,22 +7945,36 @@
       <c r="S76" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T76" t="n">
-        <v>31.20719338576937</v>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9edf</t>
+        </is>
       </c>
       <c r="U76" t="n">
+        <v>29.18439320775132</v>
+      </c>
+      <c r="V76" t="n">
         <v>650</v>
       </c>
-      <c r="V76" t="n">
-        <v>31.32409250278212</v>
-      </c>
-      <c r="W76" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W76" t="n">
+        <v>30.6435079454619</v>
       </c>
       <c r="X76" t="n">
-        <v>166.1839024022766</v>
+        <v>191.040336</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>163.4123205</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>182.77805</v>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB76" t="n">
+        <v>155.4704806132521</v>
       </c>
     </row>
     <row r="77">
@@ -7017,22 +8045,36 @@
       <c r="S77" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T77" t="n">
-        <v>33.18565006145266</v>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9ee3</t>
+        </is>
       </c>
       <c r="U77" t="n">
+        <v>35.4713803561117</v>
+      </c>
+      <c r="V77" t="n">
         <v>650</v>
       </c>
-      <c r="V77" t="n">
-        <v>33.3099602851156</v>
-      </c>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W77" t="n">
+        <v>37.24803453586532</v>
       </c>
       <c r="X77" t="n">
-        <v>176.7195390753525</v>
+        <v>212.9399484</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>209.3014858</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>198.9535912</v>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB77" t="n">
+        <v>188.9786848652096</v>
       </c>
     </row>
     <row r="78">
@@ -7103,22 +8145,36 @@
       <c r="S78" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T78" t="n">
-        <v>27.17107686019878</v>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9ee5</t>
+        </is>
       </c>
       <c r="U78" t="n">
+        <v>25.49833861629317</v>
+      </c>
+      <c r="V78" t="n">
         <v>650</v>
       </c>
-      <c r="V78" t="n">
-        <v>27.27285707650913</v>
-      </c>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W78" t="n">
+        <v>26.70852705715236</v>
       </c>
       <c r="X78" t="n">
-        <v>144.6908579468434</v>
+        <v>168.8070048</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>145.6034228</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>127.12245</v>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB78" t="n">
+        <v>135.5062725011046</v>
       </c>
     </row>
     <row r="79">
@@ -7189,22 +8245,36 @@
       <c r="S79" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T79" t="n">
-        <v>28.14738652198939</v>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9ee1</t>
+        </is>
       </c>
       <c r="U79" t="n">
+        <v>28.504458265815</v>
+      </c>
+      <c r="V79" t="n">
         <v>650</v>
       </c>
-      <c r="V79" t="n">
-        <v>28.25282389951842</v>
-      </c>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W79" t="n">
+        <v>30.37328768699431</v>
       </c>
       <c r="X79" t="n">
-        <v>149.8898820161914</v>
+        <v>203.842008</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>184.9533477</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>204.9745152</v>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB79" t="n">
+        <v>154.0995124613628</v>
       </c>
     </row>
     <row r="80">
@@ -7275,22 +8345,36 @@
       <c r="S80" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T80" t="n">
-        <v>28.87276247934048</v>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9f02</t>
+        </is>
       </c>
       <c r="U80" t="n">
+        <v>34.92883069854791</v>
+      </c>
+      <c r="V80" t="n">
         <v>650</v>
       </c>
-      <c r="V80" t="n">
-        <v>28.98091704479054</v>
-      </c>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W80" t="n">
+        <v>36.5452183595065</v>
       </c>
       <c r="X80" t="n">
-        <v>153.7526390995106</v>
+        <v>250.5981162</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>278.8856137</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>319.0506036</v>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB80" t="n">
+        <v>185.412932245903</v>
       </c>
     </row>
     <row r="81">
@@ -7361,22 +8445,36 @@
       <c r="S81" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T81" t="n">
-        <v>35.90855307198103</v>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9f00</t>
+        </is>
       </c>
       <c r="U81" t="n">
+        <v>38.37429191068769</v>
+      </c>
+      <c r="V81" t="n">
         <v>650</v>
       </c>
-      <c r="V81" t="n">
-        <v>36.04306302599804</v>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W81" t="n">
+        <v>40.14711373068555</v>
       </c>
       <c r="X81" t="n">
-        <v>191.2194860125498</v>
+        <v>247.933308</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>240.8330991</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>275.5380104</v>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB81" t="n">
+        <v>203.6872239971118</v>
       </c>
     </row>
     <row r="82">
@@ -7447,22 +8545,36 @@
       <c r="S82" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T82" t="n">
-        <v>27.56046520274</v>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9f40</t>
+        </is>
       </c>
       <c r="U82" t="n">
+        <v>35.07836596889597</v>
+      </c>
+      <c r="V82" t="n">
         <v>650</v>
       </c>
-      <c r="V82" t="n">
-        <v>27.66370402998199</v>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W82" t="n">
+        <v>37.22514379611263</v>
       </c>
       <c r="X82" t="n">
-        <v>146.7644207153224</v>
+        <v>194.812695</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>140.0544524</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>229.5389558</v>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB82" t="n">
+        <v>188.8625482167137</v>
       </c>
     </row>
     <row r="83">
@@ -7533,22 +8645,36 @@
       <c r="S83" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T83" t="n">
-        <v>37.65784722704902</v>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9f40</t>
+        </is>
       </c>
       <c r="U83" t="n">
+        <v>35.07836596889597</v>
+      </c>
+      <c r="V83" t="n">
         <v>650</v>
       </c>
-      <c r="V83" t="n">
-        <v>37.79890986715975</v>
-      </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W83" t="n">
+        <v>37.22514379611263</v>
       </c>
       <c r="X83" t="n">
-        <v>200.5347911585503</v>
+        <v>187.4868381</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>255.8095128</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>193.0430411</v>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB83" t="n">
+        <v>188.8625482167137</v>
       </c>
     </row>
     <row r="84">
@@ -7619,22 +8745,36 @@
       <c r="S84" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T84" t="n">
-        <v>23.31856441802687</v>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>66f57df06e41de5c74ce9f44</t>
+        </is>
       </c>
       <c r="U84" t="n">
+        <v>22.75836596460734</v>
+      </c>
+      <c r="V84" t="n">
         <v>650</v>
       </c>
-      <c r="V84" t="n">
-        <v>23.40591349670805</v>
-      </c>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W84" t="n">
+        <v>23.92613145938843</v>
       </c>
       <c r="X84" t="n">
-        <v>124.1755381685068</v>
+        <v>192.6649764</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>179.996578</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>154.3515579</v>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB84" t="n">
+        <v>121.389730047465</v>
       </c>
     </row>
     <row r="85">
@@ -7705,22 +8845,36 @@
       <c r="S85" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T85" t="n">
-        <v>33.81969559807325</v>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9f5b</t>
+        </is>
       </c>
       <c r="U85" t="n">
+        <v>33.35784632264981</v>
+      </c>
+      <c r="V85" t="n">
         <v>650</v>
       </c>
-      <c r="V85" t="n">
-        <v>33.94638089476697</v>
-      </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W85" t="n">
+        <v>35.46748611602736</v>
       </c>
       <c r="X85" t="n">
-        <v>180.095945286377</v>
+        <v>227.43788</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>211.2059622</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>214.8492135</v>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB85" t="n">
+        <v>179.945035092473</v>
       </c>
     </row>
     <row r="86">
@@ -7791,22 +8945,36 @@
       <c r="S86" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T86" t="n">
-        <v>34.43709137065853</v>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9f5f</t>
+        </is>
       </c>
       <c r="U86" t="n">
+        <v>31.04787705045162</v>
+      </c>
+      <c r="V86" t="n">
         <v>650</v>
       </c>
-      <c r="V86" t="n">
-        <v>34.56608937198322</v>
-      </c>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W86" t="n">
+        <v>33.13368738475587</v>
       </c>
       <c r="X86" t="n">
-        <v>183.3836885174513</v>
+        <v>216.92006</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>213.357303</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>221.77578</v>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB86" t="n">
+        <v>168.1044582547578</v>
       </c>
     </row>
     <row r="87">
@@ -7877,22 +9045,36 @@
       <c r="S87" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T87" t="n">
-        <v>26.12245422037721</v>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9f5d</t>
+        </is>
       </c>
       <c r="U87" t="n">
+        <v>23.7487084593461</v>
+      </c>
+      <c r="V87" t="n">
         <v>650</v>
       </c>
-      <c r="V87" t="n">
-        <v>26.22030639807291</v>
-      </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W87" t="n">
+        <v>24.92495337039063</v>
       </c>
       <c r="X87" t="n">
-        <v>139.1067542987279</v>
+        <v>209.30032</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>204.3149487</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>193.2056565</v>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB87" t="n">
+        <v>126.4572739731452</v>
       </c>
     </row>
     <row r="88">
@@ -7963,22 +9145,36 @@
       <c r="S88" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T88" t="n">
-        <v>32.00131144392533</v>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9f78</t>
+        </is>
       </c>
       <c r="U88" t="n">
+        <v>26.82585122829034</v>
+      </c>
+      <c r="V88" t="n">
         <v>650</v>
       </c>
-      <c r="V88" t="n">
-        <v>32.12118525009564</v>
-      </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W88" t="n">
+        <v>28.62969295236623</v>
       </c>
       <c r="X88" t="n">
-        <v>170.4127235026276</v>
+        <v>200.0373</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>216.0380712</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>204.0411248</v>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB88" t="n">
+        <v>145.2533479860091</v>
       </c>
     </row>
     <row r="89">
@@ -8049,22 +9245,36 @@
       <c r="S89" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T89" t="n">
-        <v>29.09084225006887</v>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9f76</t>
+        </is>
       </c>
       <c r="U89" t="n">
+        <v>29.99725348006667</v>
+      </c>
+      <c r="V89" t="n">
         <v>650</v>
       </c>
-      <c r="V89" t="n">
-        <v>29.19981372117017</v>
-      </c>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W89" t="n">
+        <v>31.81175183768788</v>
       </c>
       <c r="X89" t="n">
-        <v>154.9139529955293</v>
+        <v>227.7557</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>200.880792</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>205.2503952</v>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB89" t="n">
+        <v>161.39759051598</v>
       </c>
     </row>
     <row r="90">
@@ -8135,22 +9345,36 @@
       <c r="S90" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T90" t="n">
-        <v>38.24889385118438</v>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9f8f</t>
+        </is>
       </c>
       <c r="U90" t="n">
+        <v>32.32488457947977</v>
+      </c>
+      <c r="V90" t="n">
         <v>650</v>
       </c>
-      <c r="V90" t="n">
-        <v>38.3921704945738</v>
-      </c>
-      <c r="W90" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W90" t="n">
+        <v>34.49344494185626</v>
       </c>
       <c r="X90" t="n">
-        <v>203.6822204478916</v>
+        <v>212.6408115</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>216.5177712</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>226.0625328</v>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB90" t="n">
+        <v>175.0032167551275</v>
       </c>
     </row>
     <row r="91">
@@ -8221,22 +9445,36 @@
       <c r="S91" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T91" t="n">
-        <v>29.80188112747747</v>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9f97</t>
+        </is>
       </c>
       <c r="U91" t="n">
+        <v>15.49633590386625</v>
+      </c>
+      <c r="V91" t="n">
         <v>650</v>
       </c>
-      <c r="V91" t="n">
-        <v>29.91351608119009</v>
-      </c>
-      <c r="W91" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W91" t="n">
+        <v>16.40557708244201</v>
       </c>
       <c r="X91" t="n">
-        <v>158.7003625565178</v>
+        <v>168.7624641</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>179.7764928</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>166.7104608</v>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB91" t="n">
+        <v>83.23403959770008</v>
       </c>
     </row>
     <row r="92">
@@ -8307,22 +9545,36 @@
       <c r="S92" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T92" t="n">
-        <v>29.80188112747747</v>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9f8b</t>
+        </is>
       </c>
       <c r="U92" t="n">
+        <v>30.67128068848474</v>
+      </c>
+      <c r="V92" t="n">
         <v>650</v>
       </c>
-      <c r="V92" t="n">
-        <v>29.91351608119009</v>
-      </c>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W92" t="n">
+        <v>32.69973564604175</v>
       </c>
       <c r="X92" t="n">
-        <v>158.7003625565178</v>
+        <v>200.0035059</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>193.0796304</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>226.4509824</v>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB92" t="n">
+        <v>165.9027950019438</v>
       </c>
     </row>
     <row r="93">
@@ -8393,22 +9645,36 @@
       <c r="S93" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T93" t="n">
-        <v>33.28458104920256</v>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9f8d</t>
+        </is>
       </c>
       <c r="U93" t="n">
+        <v>31.20122325344679</v>
+      </c>
+      <c r="V93" t="n">
         <v>650</v>
       </c>
-      <c r="V93" t="n">
-        <v>33.40926185874198</v>
-      </c>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W93" t="n">
+        <v>33.29506172779579</v>
       </c>
       <c r="X93" t="n">
-        <v>177.2463643303364</v>
+        <v>219.6745821</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>214.404</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>225.7447104</v>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB93" t="n">
+        <v>168.9231943706006</v>
       </c>
     </row>
     <row r="94">
@@ -8479,22 +9745,36 @@
       <c r="S94" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T94" t="n">
-        <v>30.17585224364338</v>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9f95</t>
+        </is>
       </c>
       <c r="U94" t="n">
+        <v>31.03798128868186</v>
+      </c>
+      <c r="V94" t="n">
         <v>650</v>
       </c>
-      <c r="V94" t="n">
-        <v>30.28888805685424</v>
-      </c>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W94" t="n">
+        <v>32.50383048039939</v>
       </c>
       <c r="X94" t="n">
-        <v>160.6918258291659</v>
+        <v>226.062612</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>195.057192</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>213.4656672</v>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB94" t="n">
+        <v>164.9088660330005</v>
       </c>
     </row>
     <row r="95">
@@ -8565,22 +9845,36 @@
       <c r="S95" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T95" t="n">
-        <v>30.17585224364338</v>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9f95</t>
+        </is>
       </c>
       <c r="U95" t="n">
+        <v>31.03798128868186</v>
+      </c>
+      <c r="V95" t="n">
         <v>650</v>
       </c>
-      <c r="V95" t="n">
-        <v>30.28888805685424</v>
-      </c>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W95" t="n">
+        <v>32.50383048039939</v>
       </c>
       <c r="X95" t="n">
-        <v>160.6918258291659</v>
+        <v>246.8704053</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>211.0946112</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>220.0339968</v>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB95" t="n">
+        <v>164.9088660330005</v>
       </c>
     </row>
     <row r="96">
@@ -8651,22 +9945,36 @@
       <c r="S96" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T96" t="n">
-        <v>32.35610654904479</v>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9fc2</t>
+        </is>
       </c>
       <c r="U96" t="n">
+        <v>30.82746318723289</v>
+      </c>
+      <c r="V96" t="n">
         <v>650</v>
       </c>
-      <c r="V96" t="n">
-        <v>32.47730938323745</v>
-      </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W96" t="n">
+        <v>32.24953325016637</v>
       </c>
       <c r="X96" t="n">
-        <v>172.3020710768591</v>
+        <v>172.0446765</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>204.0424953</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>212.3388432</v>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB96" t="n">
+        <v>163.618683699003</v>
       </c>
     </row>
     <row r="97">
@@ -8737,22 +10045,36 @@
       <c r="S97" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T97" t="n">
-        <v>27.3954991693473</v>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9fbc</t>
+        </is>
       </c>
       <c r="U97" t="n">
+        <v>31.43238906973906</v>
+      </c>
+      <c r="V97" t="n">
         <v>650</v>
       </c>
-      <c r="V97" t="n">
-        <v>27.49812004984213</v>
-      </c>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W97" t="n">
+        <v>33.19033600120699</v>
       </c>
       <c r="X97" t="n">
-        <v>145.8859469976082</v>
+        <v>196.1592537</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>193.6608894</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>190.0315475</v>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB97" t="n">
+        <v>168.3918661990901</v>
       </c>
     </row>
     <row r="98">
@@ -8823,22 +10145,36 @@
       <c r="S98" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T98" t="n">
-        <v>30.69476197247838</v>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9fc0</t>
+        </is>
       </c>
       <c r="U98" t="n">
+        <v>28.95420891043583</v>
+      </c>
+      <c r="V98" t="n">
         <v>650</v>
       </c>
-      <c r="V98" t="n">
-        <v>30.80974157116076</v>
-      </c>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W98" t="n">
+        <v>30.70416500133623</v>
       </c>
       <c r="X98" t="n">
-        <v>163.4551132118637</v>
+        <v>198.7140579</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>213.6545417</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>191.2082288</v>
+      </c>
+      <c r="AA98" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB98" t="n">
+        <v>155.7782254591147</v>
       </c>
     </row>
     <row r="99">
@@ -8909,22 +10245,36 @@
       <c r="S99" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T99" t="n">
-        <v>31.14053540532404</v>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9fbe</t>
+        </is>
       </c>
       <c r="U99" t="n">
+        <v>32.42998690417172</v>
+      </c>
+      <c r="V99" t="n">
         <v>650</v>
       </c>
-      <c r="V99" t="n">
-        <v>31.25718482801281</v>
-      </c>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W99" t="n">
+        <v>34.42751726106706</v>
       </c>
       <c r="X99" t="n">
-        <v>165.8289366999872</v>
+        <v>225.2100363</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>214.1411019</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>229.7159932</v>
+      </c>
+      <c r="AA99" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB99" t="n">
+        <v>174.6687312831556</v>
       </c>
     </row>
     <row r="100">
@@ -8995,22 +10345,36 @@
       <c r="S100" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T100" t="n">
-        <v>25.77046068716286</v>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea0c0</t>
+        </is>
       </c>
       <c r="U100" t="n">
+        <v>21.18274896942842</v>
+      </c>
+      <c r="V100" t="n">
         <v>700</v>
       </c>
-      <c r="V100" t="n">
-        <v>25.86699433125258</v>
-      </c>
-      <c r="W100" t="inlineStr">
-        <is>
-          <t>1\carapace\left</t>
-        </is>
+      <c r="W100" t="n">
+        <v>22.47277084777525</v>
       </c>
       <c r="X100" t="n">
-        <v>127.4300166261645</v>
+        <v>168.236982</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>157.426414</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>143.3857494</v>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>test-left</t>
+        </is>
+      </c>
+      <c r="AB100" t="n">
+        <v>105.8720691653587</v>
       </c>
     </row>
     <row r="101">
@@ -9081,22 +10445,36 @@
       <c r="S101" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T101" t="n">
-        <v>23.72540913479563</v>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea0c4</t>
+        </is>
       </c>
       <c r="U101" t="n">
+        <v>19.24639092669706</v>
+      </c>
+      <c r="V101" t="n">
         <v>700</v>
       </c>
-      <c r="V101" t="n">
-        <v>23.81428221429173</v>
-      </c>
-      <c r="W101" t="inlineStr">
-        <is>
-          <t>1\carapace\left</t>
-        </is>
+      <c r="W101" t="n">
+        <v>20.33514796235023</v>
       </c>
       <c r="X101" t="n">
-        <v>117.3176264565416</v>
+        <v>124.96209</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>124.576628</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>136.2347754</v>
+      </c>
+      <c r="AA101" t="inlineStr">
+        <is>
+          <t>test-left</t>
+        </is>
+      </c>
+      <c r="AB101" t="n">
+        <v>95.80145706735945</v>
       </c>
     </row>
     <row r="102">
@@ -9167,22 +10545,36 @@
       <c r="S102" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T102" t="n">
-        <v>28.02293582851836</v>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea0c6</t>
+        </is>
       </c>
       <c r="U102" t="n">
+        <v>28.29512337747494</v>
+      </c>
+      <c r="V102" t="n">
         <v>700</v>
       </c>
-      <c r="V102" t="n">
-        <v>28.12790702583059</v>
-      </c>
-      <c r="W102" t="inlineStr">
-        <is>
-          <t>1\carapace\left</t>
-        </is>
+      <c r="W102" t="n">
+        <v>30.12159256229596</v>
       </c>
       <c r="X102" t="n">
-        <v>138.5680769114404</v>
+        <v>174.9522345</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>149.44967</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>129.5547192</v>
+      </c>
+      <c r="AA102" t="inlineStr">
+        <is>
+          <t>test-left</t>
+        </is>
+      </c>
+      <c r="AB102" t="n">
+        <v>141.9066368240861</v>
       </c>
     </row>
     <row r="103">
@@ -9253,22 +10645,36 @@
       <c r="S103" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T103" t="n">
-        <v>16.27148553057756</v>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea0c2</t>
+        </is>
       </c>
       <c r="U103" t="n">
+        <v>14.52472606642554</v>
+      </c>
+      <c r="V103" t="n">
         <v>700</v>
       </c>
-      <c r="V103" t="n">
-        <v>16.33243693583522</v>
-      </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>1\carapace\left</t>
-        </is>
+      <c r="W103" t="n">
+        <v>15.35938791303568</v>
       </c>
       <c r="X103" t="n">
-        <v>80.45939484220247</v>
+        <v>101.9815935</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>116.82273</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>90.50923839999999</v>
+      </c>
+      <c r="AA103" t="inlineStr">
+        <is>
+          <t>test-left</t>
+        </is>
+      </c>
+      <c r="AB103" t="n">
+        <v>72.36002140018577</v>
       </c>
     </row>
     <row r="104">
@@ -9339,22 +10745,36 @@
       <c r="S104" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T104" t="n">
-        <v>37.17255965457814</v>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9fe1</t>
+        </is>
       </c>
       <c r="U104" t="n">
+        <v>36.00133121454743</v>
+      </c>
+      <c r="V104" t="n">
         <v>650</v>
       </c>
-      <c r="V104" t="n">
-        <v>37.31180445455126</v>
-      </c>
-      <c r="W104" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W104" t="n">
+        <v>37.79926054079385</v>
       </c>
       <c r="X104" t="n">
-        <v>197.9505477892856</v>
+        <v>190.1555026</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>209.989208</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>204.31464</v>
+      </c>
+      <c r="AA104" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB104" t="n">
+        <v>191.7753415686551</v>
       </c>
     </row>
     <row r="105">
@@ -9425,22 +10845,36 @@
       <c r="S105" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T105" t="n">
-        <v>27.60081961969069</v>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9fe3</t>
+        </is>
       </c>
       <c r="U105" t="n">
+        <v>30.78152631601422</v>
+      </c>
+      <c r="V105" t="n">
         <v>650</v>
       </c>
-      <c r="V105" t="n">
-        <v>27.70420961066121</v>
-      </c>
-      <c r="W105" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W105" t="n">
+        <v>32.84905992026926</v>
       </c>
       <c r="X105" t="n">
-        <v>146.9793152239421</v>
+        <v>232.1395678</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>211.9974208</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>212.60364</v>
+      </c>
+      <c r="AA105" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB105" t="n">
+        <v>166.6603948407969</v>
       </c>
     </row>
     <row r="106">
@@ -9511,22 +10945,36 @@
       <c r="S106" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T106" t="n">
-        <v>19.34142783124108</v>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea0e7</t>
+        </is>
       </c>
       <c r="U106" t="n">
+        <v>18.8742515094507</v>
+      </c>
+      <c r="V106" t="n">
         <v>700</v>
       </c>
-      <c r="V106" t="n">
-        <v>19.41387894234513</v>
-      </c>
-      <c r="W106" t="inlineStr">
-        <is>
-          <t>1\carapace\left</t>
-        </is>
+      <c r="W106" t="n">
+        <v>19.78908098266481</v>
       </c>
       <c r="X106" t="n">
-        <v>95.63967443300506</v>
+        <v>106.731455</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>126.4913339</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>91.216542</v>
+      </c>
+      <c r="AA106" t="inlineStr">
+        <is>
+          <t>test-left</t>
+        </is>
+      </c>
+      <c r="AB106" t="n">
+        <v>93.228866378219</v>
       </c>
     </row>
     <row r="107">
@@ -9597,22 +11045,36 @@
       <c r="S107" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T107" t="n">
-        <v>27.09991269974896</v>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea0e3</t>
+        </is>
       </c>
       <c r="U107" t="n">
+        <v>28.04953265479184</v>
+      </c>
+      <c r="V107" t="n">
         <v>700</v>
       </c>
-      <c r="V107" t="n">
-        <v>27.20142634202247</v>
-      </c>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t>1\carapace\left</t>
-        </is>
+      <c r="W107" t="n">
+        <v>29.93586524038823</v>
       </c>
       <c r="X107" t="n">
-        <v>134.003903454347</v>
+        <v>168.4305065</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>180.7115606</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>164.7808935</v>
+      </c>
+      <c r="AA107" t="inlineStr">
+        <is>
+          <t>test-left</t>
+        </is>
+      </c>
+      <c r="AB107" t="n">
+        <v>141.0316518921387</v>
       </c>
     </row>
     <row r="108">
@@ -9683,22 +11145,36 @@
       <c r="S108" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T108" t="n">
-        <v>24.39710711201861</v>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea0eb</t>
+        </is>
       </c>
       <c r="U108" t="n">
+        <v>24.39720304665796</v>
+      </c>
+      <c r="V108" t="n">
         <v>700</v>
       </c>
-      <c r="V108" t="n">
-        <v>24.48849630693291</v>
-      </c>
-      <c r="W108" t="inlineStr">
-        <is>
-          <t>1\carapace\left</t>
-        </is>
+      <c r="W108" t="n">
+        <v>25.5491145106465</v>
       </c>
       <c r="X108" t="n">
-        <v>120.6390449381259</v>
+        <v>142.7709875</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>158.4929261</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>157.8339024</v>
+      </c>
+      <c r="AA108" t="inlineStr">
+        <is>
+          <t>test-left</t>
+        </is>
+      </c>
+      <c r="AB108" t="n">
+        <v>120.3651137150548</v>
       </c>
     </row>
     <row r="109">
@@ -9769,22 +11245,36 @@
       <c r="S109" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T109" t="n">
-        <v>11.49257055860147</v>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea0e5</t>
+        </is>
       </c>
       <c r="U109" t="n">
+        <v>2.756198976735239</v>
+      </c>
+      <c r="V109" t="n">
         <v>700</v>
       </c>
-      <c r="V109" t="n">
-        <v>11.535620612283</v>
-      </c>
-      <c r="W109" t="inlineStr">
-        <is>
-          <t>1\carapace\left</t>
-        </is>
+      <c r="W109" t="n">
+        <v>2.893592324685713</v>
       </c>
       <c r="X109" t="n">
-        <v>56.82857109688655</v>
+        <v>53.664094</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>64.4988092</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>68.0002509</v>
+      </c>
+      <c r="AA109" t="inlineStr">
+        <is>
+          <t>test-left</t>
+        </is>
+      </c>
+      <c r="AB109" t="n">
+        <v>13.63207985390929</v>
       </c>
     </row>
     <row r="110">
@@ -9855,22 +11345,36 @@
       <c r="S110" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T110" t="n">
-        <v>26.31181758647499</v>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74cea029</t>
+        </is>
       </c>
       <c r="U110" t="n">
+        <v>25.27710124569929</v>
+      </c>
+      <c r="V110" t="n">
         <v>650</v>
       </c>
-      <c r="V110" t="n">
-        <v>26.4103791009578</v>
-      </c>
-      <c r="W110" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W110" t="n">
+        <v>26.65919426663017</v>
       </c>
       <c r="X110" t="n">
-        <v>140.1151481892373</v>
+        <v>143.221483</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>148.8056624</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>143.2183496</v>
+      </c>
+      <c r="AA110" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB110" t="n">
+        <v>135.255981553145</v>
       </c>
     </row>
     <row r="111">
@@ -9941,22 +11445,36 @@
       <c r="S111" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T111" t="n">
-        <v>30.59898536438358</v>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74cea02b</t>
+        </is>
       </c>
       <c r="U111" t="n">
+        <v>33.93345802718223</v>
+      </c>
+      <c r="V111" t="n">
         <v>650</v>
       </c>
-      <c r="V111" t="n">
-        <v>30.71360619318946</v>
-      </c>
-      <c r="W111" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W111" t="n">
+        <v>36.1858353563842</v>
       </c>
       <c r="X111" t="n">
-        <v>162.9450855943431</v>
+        <v>206.6491235</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>228.0338328</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>164.0006028</v>
+      </c>
+      <c r="AA111" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB111" t="n">
+        <v>183.5895950379339</v>
       </c>
     </row>
     <row r="112">
@@ -10027,22 +11545,36 @@
       <c r="S112" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T112" t="n">
-        <v>25.94365069834919</v>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9fff</t>
+        </is>
       </c>
       <c r="U112" t="n">
+        <v>30.06012200057793</v>
+      </c>
+      <c r="V112" t="n">
         <v>650</v>
       </c>
-      <c r="V112" t="n">
-        <v>26.04083309540856</v>
-      </c>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W112" t="n">
+        <v>31.48508151402518</v>
       </c>
       <c r="X112" t="n">
-        <v>138.1545934720052</v>
+        <v>176.0459527</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>187.2755142</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>196.1638793</v>
+      </c>
+      <c r="AA112" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB112" t="n">
+        <v>159.7402217737225</v>
       </c>
     </row>
     <row r="113">
@@ -10113,22 +11645,36 @@
       <c r="S113" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T113" t="n">
-        <v>40.39233748245271</v>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9ffd</t>
+        </is>
       </c>
       <c r="U113" t="n">
+        <v>30.76993382729556</v>
+      </c>
+      <c r="V113" t="n">
         <v>650</v>
       </c>
-      <c r="V113" t="n">
-        <v>40.543643257612</v>
-      </c>
-      <c r="W113" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W113" t="n">
+        <v>32.42200632811969</v>
       </c>
       <c r="X113" t="n">
-        <v>215.0964422531087</v>
+        <v>178.7487063</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>218.6865729</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>188.804305</v>
+      </c>
+      <c r="AA113" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB113" t="n">
+        <v>164.4937294793351</v>
       </c>
     </row>
     <row r="114">
@@ -10199,22 +11745,36 @@
       <c r="S114" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T114" t="n">
-        <v>31.12259262350033</v>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74cea001</t>
+        </is>
       </c>
       <c r="U114" t="n">
+        <v>28.02396906225675</v>
+      </c>
+      <c r="V114" t="n">
         <v>650</v>
       </c>
-      <c r="V114" t="n">
-        <v>31.23917483427016</v>
-      </c>
-      <c r="W114" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W114" t="n">
+        <v>29.35090551531473</v>
       </c>
       <c r="X114" t="n">
-        <v>165.7333881683856</v>
+        <v>148.4301018</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>228.0346512</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>190.1583266</v>
+      </c>
+      <c r="AA114" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB114" t="n">
+        <v>148.9124350587254</v>
       </c>
     </row>
     <row r="115">
@@ -10285,22 +11845,36 @@
       <c r="S115" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T115" t="n">
-        <v>32.51464391026734</v>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74cea01a</t>
+        </is>
       </c>
       <c r="U115" t="n">
+        <v>29.23929648221075</v>
+      </c>
+      <c r="V115" t="n">
         <v>650</v>
       </c>
-      <c r="V115" t="n">
-        <v>32.63644061002527</v>
-      </c>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W115" t="n">
+        <v>31.10957845456883</v>
       </c>
       <c r="X115" t="n">
-        <v>173.1463109621586</v>
+        <v>157.2778817</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>150.6221584</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>181.5914828</v>
+      </c>
+      <c r="AA115" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB115" t="n">
+        <v>157.8350991216643</v>
       </c>
     </row>
     <row r="116">
@@ -10371,22 +11945,36 @@
       <c r="S116" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T116" t="n">
-        <v>32.51464391026734</v>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74cea01a</t>
+        </is>
       </c>
       <c r="U116" t="n">
+        <v>29.23929648221075</v>
+      </c>
+      <c r="V116" t="n">
         <v>650</v>
       </c>
-      <c r="V116" t="n">
-        <v>32.63644061002527</v>
-      </c>
-      <c r="W116" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W116" t="n">
+        <v>31.10957845456883</v>
       </c>
       <c r="X116" t="n">
-        <v>173.1463109621586</v>
+        <v>173.8480469</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>199.0799048</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>227.6830436</v>
+      </c>
+      <c r="AA116" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB116" t="n">
+        <v>157.8350991216643</v>
       </c>
     </row>
     <row r="117">
@@ -10457,22 +12045,36 @@
       <c r="S117" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T117" t="n">
-        <v>34.7887299259696</v>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74ce9ff4</t>
+        </is>
       </c>
       <c r="U117" t="n">
+        <v>36.55261870461946</v>
+      </c>
+      <c r="V117" t="n">
         <v>650</v>
       </c>
-      <c r="V117" t="n">
-        <v>34.91904513118748</v>
-      </c>
-      <c r="W117" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W117" t="n">
+        <v>38.53289537952889</v>
       </c>
       <c r="X117" t="n">
-        <v>185.256226897764</v>
+        <v>209.9122332</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>216.8138592</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>177.1797744</v>
+      </c>
+      <c r="AA117" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB117" t="n">
+        <v>195.4974533182551</v>
       </c>
     </row>
     <row r="118">
@@ -10543,22 +12145,36 @@
       <c r="S118" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T118" t="n">
-        <v>27.98497503754851</v>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74cea03c</t>
+        </is>
       </c>
       <c r="U118" t="n">
+        <v>28.25267746259269</v>
+      </c>
+      <c r="V118" t="n">
         <v>650</v>
       </c>
-      <c r="V118" t="n">
-        <v>28.08980403742278</v>
-      </c>
-      <c r="W118" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W118" t="n">
+        <v>30.02183995254137</v>
       </c>
       <c r="X118" t="n">
-        <v>149.0250117298541</v>
+        <v>211.3567476</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>193.4924778</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>188.040992</v>
+      </c>
+      <c r="AA118" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB118" t="n">
+        <v>152.3164350055088</v>
       </c>
     </row>
     <row r="119">
@@ -10629,22 +12245,36 @@
       <c r="S119" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T119" t="n">
-        <v>41.40357526770869</v>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74cea083</t>
+        </is>
       </c>
       <c r="U119" t="n">
+        <v>34.02814308821208</v>
+      </c>
+      <c r="V119" t="n">
         <v>650</v>
       </c>
-      <c r="V119" t="n">
-        <v>41.55866904144655</v>
-      </c>
-      <c r="W119" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W119" t="n">
+        <v>35.72791017045907</v>
       </c>
       <c r="X119" t="n">
-        <v>220.4814648449547</v>
+        <v>240.0307184</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>233.4622835</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>264.8457301</v>
+      </c>
+      <c r="AA119" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB119" t="n">
+        <v>181.2663019976136</v>
       </c>
     </row>
     <row r="120">
@@ -10715,22 +12345,36 @@
       <c r="S120" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T120" t="n">
-        <v>27.15196483295231</v>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74cea081</t>
+        </is>
       </c>
       <c r="U120" t="n">
+        <v>27.58935275327094</v>
+      </c>
+      <c r="V120" t="n">
         <v>650</v>
       </c>
-      <c r="V120" t="n">
-        <v>27.25367345746388</v>
-      </c>
-      <c r="W120" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W120" t="n">
+        <v>28.94169780106563</v>
       </c>
       <c r="X120" t="n">
-        <v>144.5890829736385</v>
+        <v>148.4303326</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>201.6913085</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>178.3945822</v>
+      </c>
+      <c r="AA120" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB120" t="n">
+        <v>146.8363111332863</v>
       </c>
     </row>
     <row r="121">
@@ -10801,22 +12445,36 @@
       <c r="S121" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T121" t="n">
-        <v>35.35633553972792</v>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74cea085</t>
+        </is>
       </c>
       <c r="U121" t="n">
+        <v>30.90395386582069</v>
+      </c>
+      <c r="V121" t="n">
         <v>650</v>
       </c>
-      <c r="V121" t="n">
-        <v>35.48877694047513</v>
-      </c>
-      <c r="W121" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W121" t="n">
+        <v>32.33594531718474</v>
       </c>
       <c r="X121" t="n">
-        <v>188.2788286022418</v>
+        <v>172.0451392</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>153.794417</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>169.5161616</v>
+      </c>
+      <c r="AA121" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB121" t="n">
+        <v>164.0570971343722</v>
       </c>
     </row>
     <row r="122">
@@ -10887,22 +12545,36 @@
       <c r="S122" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T122" t="n">
-        <v>34.18511222202059</v>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea09e</t>
+        </is>
       </c>
       <c r="U122" t="n">
+        <v>36.47365228664646</v>
+      </c>
+      <c r="V122" t="n">
         <v>650</v>
       </c>
-      <c r="V122" t="n">
-        <v>34.31316633391513</v>
-      </c>
-      <c r="W122" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W122" t="n">
+        <v>38.14511459072778</v>
       </c>
       <c r="X122" t="n">
-        <v>182.041854353545</v>
+        <v>224.5681905</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>181.5946027</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>220.1453856</v>
+      </c>
+      <c r="AA122" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB122" t="n">
+        <v>193.5300393487189</v>
       </c>
     </row>
     <row r="123">
@@ -10973,22 +12645,36 @@
       <c r="S123" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T123" t="n">
-        <v>19.98882882035274</v>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea09c</t>
+        </is>
       </c>
       <c r="U123" t="n">
+        <v>22.83265829128433</v>
+      </c>
+      <c r="V123" t="n">
         <v>650</v>
       </c>
-      <c r="V123" t="n">
-        <v>20.06370503271613</v>
-      </c>
-      <c r="W123" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W123" t="n">
+        <v>24.07545816828272</v>
       </c>
       <c r="X123" t="n">
-        <v>106.4440988574153</v>
+        <v>131.026965</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>189.733096</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>139.9991256</v>
+      </c>
+      <c r="AA123" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB123" t="n">
+        <v>122.1473422386511</v>
       </c>
     </row>
     <row r="124">
@@ -11059,22 +12745,36 @@
       <c r="S124" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T124" t="n">
-        <v>37.66746239949668</v>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74cea04d</t>
+        </is>
       </c>
       <c r="U124" t="n">
+        <v>33.7767406365772</v>
+      </c>
+      <c r="V124" t="n">
         <v>650</v>
       </c>
-      <c r="V124" t="n">
-        <v>37.80856105711003</v>
-      </c>
-      <c r="W124" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W124" t="n">
+        <v>35.33965083552826</v>
       </c>
       <c r="X124" t="n">
-        <v>200.5859936765042</v>
+        <v>212.6014068</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>215.4163896</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>229.9587306</v>
+      </c>
+      <c r="AA124" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB124" t="n">
+        <v>179.2964601142461</v>
       </c>
     </row>
     <row r="125">
@@ -11145,22 +12845,36 @@
       <c r="S125" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T125" t="n">
-        <v>42.73180437701733</v>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74cea049</t>
+        </is>
       </c>
       <c r="U125" t="n">
+        <v>39.43814501353985</v>
+      </c>
+      <c r="V125" t="n">
         <v>650</v>
       </c>
-      <c r="V125" t="n">
-        <v>42.891873568062</v>
-      </c>
-      <c r="W125" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W125" t="n">
+        <v>41.37254738455533</v>
       </c>
       <c r="X125" t="n">
-        <v>227.5545230960008</v>
+        <v>258.1479508</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>261.3952026</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>250.3466028</v>
+      </c>
+      <c r="AA125" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB125" t="n">
+        <v>209.9044873556628</v>
       </c>
     </row>
     <row r="126">
@@ -11231,22 +12945,36 @@
       <c r="S126" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T126" t="n">
-        <v>31.61206828891292</v>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74cea04b</t>
+        </is>
       </c>
       <c r="U126" t="n">
+        <v>29.59931537645023</v>
+      </c>
+      <c r="V126" t="n">
         <v>650</v>
       </c>
-      <c r="V126" t="n">
-        <v>31.73048402800997</v>
-      </c>
-      <c r="W126" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W126" t="n">
+        <v>30.96576907477481</v>
       </c>
       <c r="X126" t="n">
-        <v>168.3399338837817</v>
+        <v>196.654247</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>194.3303751</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>185.083932</v>
+      </c>
+      <c r="AA126" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB126" t="n">
+        <v>157.1054792154492</v>
       </c>
     </row>
     <row r="127">
@@ -11317,22 +13045,36 @@
       <c r="S127" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T127" t="n">
-        <v>37.28083168591255</v>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74cea04f</t>
+        </is>
       </c>
       <c r="U127" t="n">
+        <v>33.65493498468531</v>
+      </c>
+      <c r="V127" t="n">
         <v>650</v>
       </c>
-      <c r="V127" t="n">
-        <v>37.42048206240464</v>
-      </c>
-      <c r="W127" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W127" t="n">
+        <v>35.20049656528234</v>
       </c>
       <c r="X127" t="n">
-        <v>198.5271157768566</v>
+        <v>172.7423114</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>186.3837135</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>176.044533</v>
+      </c>
+      <c r="AA127" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB127" t="n">
+        <v>178.5904580040104</v>
       </c>
     </row>
     <row r="128">
@@ -11403,22 +13145,36 @@
       <c r="S128" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T128" t="n">
-        <v>31.97209094429089</v>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74cea072</t>
+        </is>
       </c>
       <c r="U128" t="n">
+        <v>31.27557840245549</v>
+      </c>
+      <c r="V128" t="n">
         <v>650</v>
       </c>
-      <c r="V128" t="n">
-        <v>32.09185529330612</v>
-      </c>
-      <c r="W128" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W128" t="n">
+        <v>32.74897516307074</v>
       </c>
       <c r="X128" t="n">
-        <v>170.2571191008037</v>
+        <v>196.121622</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>145.9845113</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>188.3005732</v>
+      </c>
+      <c r="AA128" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB128" t="n">
+        <v>166.1526127248783</v>
       </c>
     </row>
     <row r="129">
@@ -11489,22 +13245,36 @@
       <c r="S129" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T129" t="n">
-        <v>29.12422221077623</v>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>66f57df16e41de5c74cea070</t>
+        </is>
       </c>
       <c r="U129" t="n">
+        <v>26.50248278265459</v>
+      </c>
+      <c r="V129" t="n">
         <v>650</v>
       </c>
-      <c r="V129" t="n">
-        <v>29.23331871997001</v>
-      </c>
-      <c r="W129" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W129" t="n">
+        <v>28.08298514634632</v>
       </c>
       <c r="X129" t="n">
-        <v>155.0917072736475</v>
+        <v>174.402708</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>193.0410159</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>196.3649174</v>
+      </c>
+      <c r="AA129" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB129" t="n">
+        <v>142.4796144595406</v>
       </c>
     </row>
     <row r="130">
@@ -11575,22 +13345,36 @@
       <c r="S130" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T130" t="n">
-        <v>35.46536054561535</v>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea0b7</t>
+        </is>
       </c>
       <c r="U130" t="n">
+        <v>43.57818014760628</v>
+      </c>
+      <c r="V130" t="n">
         <v>650</v>
       </c>
-      <c r="V130" t="n">
-        <v>35.59821034345112</v>
-      </c>
-      <c r="W130" t="inlineStr">
-        <is>
-          <t>1\carapace\right</t>
-        </is>
+      <c r="W130" t="n">
+        <v>45.79704356692451</v>
       </c>
       <c r="X130" t="n">
-        <v>188.8594063143685</v>
+        <v>230.756371</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>219.6716358</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>241.34472</v>
+      </c>
+      <c r="AA130" t="inlineStr">
+        <is>
+          <t>test-right</t>
+        </is>
+      </c>
+      <c r="AB130" t="n">
+        <v>232.3522615846674</v>
       </c>
     </row>
     <row r="131">
@@ -11661,22 +13445,36 @@
       <c r="S131" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T131" t="n">
-        <v>30.14744329708874</v>
+      <c r="T131" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea11d</t>
+        </is>
       </c>
       <c r="U131" t="n">
+        <v>23.90918049639193</v>
+      </c>
+      <c r="V131" t="n">
         <v>760</v>
       </c>
-      <c r="V131" t="n">
-        <v>30.26037269314357</v>
-      </c>
-      <c r="W131" t="inlineStr">
-        <is>
-          <t>1\carapace\left</t>
-        </is>
+      <c r="W131" t="n">
+        <v>25.36034771760088</v>
       </c>
       <c r="X131" t="n">
-        <v>137.3044118559065</v>
+        <v>157.066</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>142.2408</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>139.9440672</v>
+      </c>
+      <c r="AA131" t="inlineStr">
+        <is>
+          <t>test-left</t>
+        </is>
+      </c>
+      <c r="AB131" t="n">
+        <v>110.0435087036636</v>
       </c>
     </row>
     <row r="132">
@@ -11747,22 +13545,36 @@
       <c r="S132" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T132" t="n">
-        <v>30.14744329708874</v>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea11f</t>
+        </is>
       </c>
       <c r="U132" t="n">
+        <v>21.42705264198886</v>
+      </c>
+      <c r="V132" t="n">
         <v>760</v>
       </c>
-      <c r="V132" t="n">
-        <v>30.26037269314357</v>
-      </c>
-      <c r="W132" t="inlineStr">
-        <is>
-          <t>1\carapace\left</t>
-        </is>
+      <c r="W132" t="n">
+        <v>22.83252117200171</v>
       </c>
       <c r="X132" t="n">
-        <v>137.3044118559065</v>
+        <v>93.38159999999999</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>126.568</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>100.078902</v>
+      </c>
+      <c r="AA132" t="inlineStr">
+        <is>
+          <t>test-left</t>
+        </is>
+      </c>
+      <c r="AB132" t="n">
+        <v>99.07477493196795</v>
       </c>
     </row>
     <row r="133">
@@ -11833,22 +13645,36 @@
       <c r="S133" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T133" t="n">
-        <v>22.84196821537988</v>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea119</t>
+        </is>
       </c>
       <c r="U133" t="n">
+        <v>21.5428152062824</v>
+      </c>
+      <c r="V133" t="n">
         <v>760</v>
       </c>
-      <c r="V133" t="n">
-        <v>22.92753201095109</v>
-      </c>
-      <c r="W133" t="inlineStr">
-        <is>
-          <t>1\carapace\left</t>
-        </is>
+      <c r="W133" t="n">
+        <v>22.76857451628019</v>
       </c>
       <c r="X133" t="n">
-        <v>104.0321389955781</v>
+        <v>99.03400000000002</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>114.6288</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>99.03758760000001</v>
+      </c>
+      <c r="AA133" t="inlineStr">
+        <is>
+          <t>test-left</t>
+        </is>
+      </c>
+      <c r="AB133" t="n">
+        <v>98.79729788615532</v>
       </c>
     </row>
     <row r="134">
@@ -11919,22 +13745,36 @@
       <c r="S134" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T134" t="n">
-        <v>25.51396857009762</v>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea11b</t>
+        </is>
       </c>
       <c r="U134" t="n">
+        <v>20.05796905035209</v>
+      </c>
+      <c r="V134" t="n">
         <v>760</v>
       </c>
-      <c r="V134" t="n">
-        <v>25.60954141961557</v>
-      </c>
-      <c r="W134" t="inlineStr">
-        <is>
-          <t>1\carapace\left</t>
-        </is>
+      <c r="W134" t="n">
+        <v>21.24085529754919</v>
       </c>
       <c r="X134" t="n">
-        <v>116.2015768337354</v>
+        <v>104.9932</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>123.6924</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>116.2729512</v>
+      </c>
+      <c r="AA134" t="inlineStr">
+        <is>
+          <t>test-left</t>
+        </is>
+      </c>
+      <c r="AB134" t="n">
+        <v>92.16822540595024</v>
       </c>
     </row>
     <row r="135">
@@ -12005,22 +13845,36 @@
       <c r="S135" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T135" t="n">
-        <v>36.35893971975808</v>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea10c</t>
+        </is>
       </c>
       <c r="U135" t="n">
+        <v>34.51446176618487</v>
+      </c>
+      <c r="V135" t="n">
         <v>760</v>
       </c>
-      <c r="V135" t="n">
-        <v>36.49513677843679</v>
-      </c>
-      <c r="W135" t="inlineStr">
-        <is>
-          <t>1\carapace\left</t>
-        </is>
+      <c r="W135" t="n">
+        <v>36.26653580881793</v>
       </c>
       <c r="X135" t="n">
-        <v>165.5942357940459</v>
+        <v>155.3339284</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>190.5917126</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>184.1717185</v>
+      </c>
+      <c r="AA135" t="inlineStr">
+        <is>
+          <t>test-left</t>
+        </is>
+      </c>
+      <c r="AB135" t="n">
+        <v>157.3675918552007</v>
       </c>
     </row>
     <row r="136">
@@ -12091,22 +13945,36 @@
       <c r="S136" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T136" t="n">
-        <v>21.73011335364903</v>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea142</t>
+        </is>
       </c>
       <c r="U136" t="n">
+        <v>17.82214718937066</v>
+      </c>
+      <c r="V136" t="n">
         <v>760</v>
       </c>
-      <c r="V136" t="n">
-        <v>21.81151224884051</v>
-      </c>
-      <c r="W136" t="inlineStr">
-        <is>
-          <t>1\carapace\left</t>
-        </is>
+      <c r="W136" t="n">
+        <v>18.78341469261274</v>
       </c>
       <c r="X136" t="n">
-        <v>98.96827416449881</v>
+        <v>82.0718925</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>129.4181549</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>107.6296065</v>
+      </c>
+      <c r="AA136" t="inlineStr">
+        <is>
+          <t>test-left</t>
+        </is>
+      </c>
+      <c r="AB136" t="n">
+        <v>81.50490999681742</v>
       </c>
     </row>
     <row r="137">
@@ -12177,22 +14045,36 @@
       <c r="S137" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T137" t="n">
-        <v>35.18958288075258</v>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea140</t>
+        </is>
       </c>
       <c r="U137" t="n">
+        <v>29.78057741862015</v>
+      </c>
+      <c r="V137" t="n">
         <v>760</v>
       </c>
-      <c r="V137" t="n">
-        <v>35.32139964222664</v>
-      </c>
-      <c r="W137" t="inlineStr">
-        <is>
-          <t>1\carapace\left</t>
-        </is>
+      <c r="W137" t="n">
+        <v>31.39703645419367</v>
       </c>
       <c r="X137" t="n">
-        <v>160.2684822484762</v>
+        <v>133.2087575</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>169.7023996</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>144.49878</v>
+      </c>
+      <c r="AA137" t="inlineStr">
+        <is>
+          <t>test-left</t>
+        </is>
+      </c>
+      <c r="AB137" t="n">
+        <v>136.2378817826066</v>
       </c>
     </row>
     <row r="138">
@@ -12263,22 +14145,36 @@
       <c r="S138" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T138" t="n">
-        <v>29.55278838489326</v>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea157</t>
+        </is>
       </c>
       <c r="U138" t="n">
+        <v>28.35187641740393</v>
+      </c>
+      <c r="V138" t="n">
         <v>415</v>
       </c>
-      <c r="V138" t="n">
-        <v>29.6634902613726</v>
-      </c>
-      <c r="W138" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W138" t="n">
+        <v>28.88577660030482</v>
       </c>
       <c r="X138" t="n">
-        <v>246.4892394329585</v>
+        <v>294.1815303</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>296.9876682</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>296.9875773</v>
+      </c>
+      <c r="AA138" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB138" t="n">
+        <v>240.0268155197871</v>
       </c>
     </row>
     <row r="139">
@@ -12349,22 +14245,36 @@
       <c r="S139" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T139" t="n">
-        <v>23.94186581055633</v>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea153</t>
+        </is>
       </c>
       <c r="U139" t="n">
+        <v>26.23537504940931</v>
+      </c>
+      <c r="V139" t="n">
         <v>415</v>
       </c>
-      <c r="V139" t="n">
-        <v>24.0315497157475</v>
-      </c>
-      <c r="W139" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W139" t="n">
+        <v>26.42481755062565</v>
       </c>
       <c r="X139" t="n">
-        <v>199.6905407838489</v>
+        <v>322.0176414</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>267.9285294</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>337.7628072</v>
+      </c>
+      <c r="AA139" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB139" t="n">
+        <v>219.5774375441623</v>
       </c>
     </row>
     <row r="140">
@@ -12435,15 +14345,23 @@
       <c r="S140" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T140" t="inlineStr"/>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr"/>
-      <c r="W140" t="inlineStr">
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X140" t="inlineStr"/>
+      <c r="AB140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -12513,22 +14431,36 @@
       <c r="S141" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T141" t="n">
-        <v>26.74109529317596</v>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>66f57df26e41de5c74cea16a</t>
+        </is>
       </c>
       <c r="U141" t="n">
+        <v>26.1066921487481</v>
+      </c>
+      <c r="V141" t="n">
         <v>415</v>
       </c>
-      <c r="V141" t="n">
-        <v>26.84126484027632</v>
-      </c>
-      <c r="W141" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W141" t="n">
+        <v>26.63733511906634</v>
       </c>
       <c r="X141" t="n">
-        <v>223.0379128552412</v>
+        <v>30.762</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>332.2159092</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>270.0644546</v>
+      </c>
+      <c r="AA141" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB141" t="n">
+        <v>221.3433556255993</v>
       </c>
     </row>
     <row r="142">
@@ -12599,22 +14531,36 @@
       <c r="S142" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T142" t="n">
-        <v>18.94915636886098</v>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea17d</t>
+        </is>
       </c>
       <c r="U142" t="n">
+        <v>25.06729003009563</v>
+      </c>
+      <c r="V142" t="n">
         <v>415</v>
       </c>
-      <c r="V142" t="n">
-        <v>19.02013806914635</v>
-      </c>
-      <c r="W142" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W142" t="n">
+        <v>25.22527182170814</v>
       </c>
       <c r="X142" t="n">
-        <v>158.048136792545</v>
+        <v>245.1782208</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>306.1519483999999</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>288.128673</v>
+      </c>
+      <c r="AA142" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB142" t="n">
+        <v>209.6097934206738</v>
       </c>
     </row>
     <row r="143">
@@ -12685,15 +14631,23 @@
       <c r="S143" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T143" t="inlineStr"/>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr">
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X143" t="inlineStr"/>
+      <c r="AB143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -12763,22 +14717,36 @@
       <c r="S144" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T144" t="n">
-        <v>21.45645576308721</v>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea1ab</t>
+        </is>
       </c>
       <c r="U144" t="n">
+        <v>17.7911812911664</v>
+      </c>
+      <c r="V144" t="n">
         <v>415</v>
       </c>
-      <c r="V144" t="n">
-        <v>21.53682956350952</v>
-      </c>
-      <c r="W144" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W144" t="n">
+        <v>18.14622085111023</v>
       </c>
       <c r="X144" t="n">
-        <v>178.9606243948811</v>
+        <v>240.0003692</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>259.9954544</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>215.0771974</v>
+      </c>
+      <c r="AA144" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB144" t="n">
+        <v>150.7863079078437</v>
       </c>
     </row>
     <row r="145">
@@ -12849,15 +14817,23 @@
       <c r="S145" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T145" t="inlineStr"/>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr"/>
-      <c r="W145" t="inlineStr">
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
+      <c r="AA145" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X145" t="inlineStr"/>
+      <c r="AB145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -12927,15 +14903,23 @@
       <c r="S146" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T146" t="inlineStr"/>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr"/>
-      <c r="W146" t="inlineStr">
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X146" t="inlineStr"/>
+      <c r="AB146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -13005,22 +14989,36 @@
       <c r="S147" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T147" t="n">
-        <v>22.59318159970737</v>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea186</t>
+        </is>
       </c>
       <c r="U147" t="n">
+        <v>22.07199194778374</v>
+      </c>
+      <c r="V147" t="n">
         <v>415</v>
       </c>
-      <c r="V147" t="n">
-        <v>22.677813464767</v>
-      </c>
-      <c r="W147" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W147" t="n">
+        <v>22.23286535323977</v>
       </c>
       <c r="X147" t="n">
-        <v>188.4416480892653</v>
+        <v>237.622665</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>237.743748</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>225.223446</v>
+      </c>
+      <c r="AA147" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB147" t="n">
+        <v>184.7443447500053</v>
       </c>
     </row>
     <row r="148">
@@ -13091,22 +15089,36 @@
       <c r="S148" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T148" t="n">
-        <v>17.37208822459161</v>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea188</t>
+        </is>
       </c>
       <c r="U148" t="n">
+        <v>15.17330055264671</v>
+      </c>
+      <c r="V148" t="n">
         <v>415</v>
       </c>
-      <c r="V148" t="n">
-        <v>17.43716238070103</v>
-      </c>
-      <c r="W148" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W148" t="n">
+        <v>15.34258262381278</v>
       </c>
       <c r="X148" t="n">
-        <v>144.8943753825518</v>
+        <v>268.8092505</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>279.8859096</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>296.4422940000001</v>
+      </c>
+      <c r="AA148" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB148" t="n">
+        <v>127.4894319096874</v>
       </c>
     </row>
     <row r="149">
@@ -13177,15 +15189,23 @@
       <c r="S149" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T149" t="inlineStr"/>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr"/>
-      <c r="W149" t="inlineStr">
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X149" t="inlineStr"/>
+      <c r="AB149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -13255,22 +15275,36 @@
       <c r="S150" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T150" t="n">
-        <v>24.45068256824119</v>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea197</t>
+        </is>
       </c>
       <c r="U150" t="n">
+        <v>25.20374870651977</v>
+      </c>
+      <c r="V150" t="n">
         <v>415</v>
       </c>
-      <c r="V150" t="n">
-        <v>24.54227245161371</v>
-      </c>
-      <c r="W150" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W150" t="n">
+        <v>25.20945894183832</v>
       </c>
       <c r="X150" t="n">
-        <v>203.9343993997958</v>
+        <v>261.9645777</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>290.237934</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>288.562176</v>
+      </c>
+      <c r="AA150" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB150" t="n">
+        <v>209.4783960463926</v>
       </c>
     </row>
     <row r="151">
@@ -13341,22 +15375,36 @@
       <c r="S151" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T151" t="n">
-        <v>26.41227063403658</v>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea1a2</t>
+        </is>
       </c>
       <c r="U151" t="n">
+        <v>25.78593396164096</v>
+      </c>
+      <c r="V151" t="n">
         <v>415</v>
       </c>
-      <c r="V151" t="n">
-        <v>26.51120843588416</v>
-      </c>
-      <c r="W151" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W151" t="n">
+        <v>26.31400534123903</v>
       </c>
       <c r="X151" t="n">
-        <v>220.2953039656009</v>
+        <v>276.5841824</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>277.9500447</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>276.489294</v>
+      </c>
+      <c r="AA151" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB151" t="n">
+        <v>218.6566417453226</v>
       </c>
     </row>
     <row r="152">
@@ -13427,15 +15475,23 @@
       <c r="S152" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T152" t="inlineStr"/>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U152" t="inlineStr"/>
       <c r="V152" t="inlineStr"/>
-      <c r="W152" t="inlineStr">
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X152" t="inlineStr"/>
+      <c r="AB152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -13505,15 +15561,23 @@
       <c r="S153" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T153" t="inlineStr"/>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr"/>
-      <c r="W153" t="inlineStr">
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
+      <c r="AA153" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X153" t="inlineStr"/>
+      <c r="AB153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -13583,15 +15647,23 @@
       <c r="S154" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T154" t="inlineStr"/>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr"/>
-      <c r="W154" t="inlineStr">
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X154" t="inlineStr"/>
+      <c r="AB154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -13661,15 +15733,23 @@
       <c r="S155" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T155" t="inlineStr"/>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr"/>
-      <c r="W155" t="inlineStr">
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X155" t="inlineStr"/>
+      <c r="AB155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -13739,22 +15819,36 @@
       <c r="S156" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T156" t="n">
-        <v>22.57595768366318</v>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea1b4</t>
+        </is>
       </c>
       <c r="U156" t="n">
+        <v>25.14110091453718</v>
+      </c>
+      <c r="V156" t="n">
         <v>400</v>
       </c>
-      <c r="V156" t="n">
-        <v>22.66052502960531</v>
-      </c>
-      <c r="W156" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W156" t="n">
+        <v>25.51644585360476</v>
       </c>
       <c r="X156" t="n">
-        <v>195.3591641737405</v>
+        <v>292.2475556</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>292.9535976</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>297.890068</v>
+      </c>
+      <c r="AA156" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB156" t="n">
+        <v>219.9804076971802</v>
       </c>
     </row>
     <row r="157">
@@ -13825,15 +15919,37 @@
       <c r="S157" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T157" t="inlineStr"/>
-      <c r="U157" t="inlineStr"/>
-      <c r="V157" t="inlineStr"/>
-      <c r="W157" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="X157" t="inlineStr"/>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea264</t>
+        </is>
+      </c>
+      <c r="U157" t="n">
+        <v>27.2070784594051</v>
+      </c>
+      <c r="V157" t="n">
+        <v>400</v>
+      </c>
+      <c r="W157" t="n">
+        <v>27.31676919520205</v>
+      </c>
+      <c r="X157" t="n">
+        <v>355.4606972</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>356.7825548</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>394.6883814</v>
+      </c>
+      <c r="AA157" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB157" t="n">
+        <v>235.501215921942</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -13903,22 +16019,36 @@
       <c r="S158" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T158" t="n">
-        <v>27.12408679868646</v>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea1bd</t>
+        </is>
       </c>
       <c r="U158" t="n">
+        <v>24.64922597509153</v>
+      </c>
+      <c r="V158" t="n">
         <v>400</v>
       </c>
-      <c r="V158" t="n">
-        <v>27.22569099478791</v>
-      </c>
-      <c r="W158" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W158" t="n">
+        <v>24.66331307283585</v>
       </c>
       <c r="X158" t="n">
-        <v>234.7160195911374</v>
+        <v>216.9204948</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>227.130058</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>211.096188</v>
+      </c>
+      <c r="AA158" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB158" t="n">
+        <v>212.6254454108921</v>
       </c>
     </row>
     <row r="159">
@@ -13989,15 +16119,23 @@
       <c r="S159" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T159" t="inlineStr"/>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="inlineStr"/>
-      <c r="W159" t="inlineStr">
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr"/>
+      <c r="AA159" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X159" t="inlineStr"/>
+      <c r="AB159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -14067,15 +16205,23 @@
       <c r="S160" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T160" t="inlineStr"/>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr"/>
-      <c r="W160" t="inlineStr">
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr"/>
+      <c r="AA160" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X160" t="inlineStr"/>
+      <c r="AB160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -14145,15 +16291,23 @@
       <c r="S161" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T161" t="inlineStr"/>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr"/>
-      <c r="W161" t="inlineStr">
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr"/>
+      <c r="Z161" t="inlineStr"/>
+      <c r="AA161" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X161" t="inlineStr"/>
+      <c r="AB161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -14223,15 +16377,23 @@
       <c r="S162" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T162" t="inlineStr"/>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="inlineStr"/>
-      <c r="W162" t="inlineStr">
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr"/>
+      <c r="Z162" t="inlineStr"/>
+      <c r="AA162" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X162" t="inlineStr"/>
+      <c r="AB162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -14301,15 +16463,23 @@
       <c r="S163" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T163" t="inlineStr"/>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U163" t="inlineStr"/>
       <c r="V163" t="inlineStr"/>
-      <c r="W163" t="inlineStr">
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr"/>
+      <c r="Z163" t="inlineStr"/>
+      <c r="AA163" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X163" t="inlineStr"/>
+      <c r="AB163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -14379,15 +16549,23 @@
       <c r="S164" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T164" t="inlineStr"/>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U164" t="inlineStr"/>
       <c r="V164" t="inlineStr"/>
-      <c r="W164" t="inlineStr">
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr"/>
+      <c r="AA164" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X164" t="inlineStr"/>
+      <c r="AB164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -14457,15 +16635,37 @@
       <c r="S165" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T165" t="inlineStr"/>
-      <c r="U165" t="inlineStr"/>
-      <c r="V165" t="inlineStr"/>
-      <c r="W165" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="X165" t="inlineStr"/>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea26d</t>
+        </is>
+      </c>
+      <c r="U165" t="n">
+        <v>26.16952050096042</v>
+      </c>
+      <c r="V165" t="n">
+        <v>370</v>
+      </c>
+      <c r="W165" t="n">
+        <v>26.28642264188944</v>
+      </c>
+      <c r="X165" t="n">
+        <v>302.3635499000001</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>341.1531</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>313.7413026</v>
+      </c>
+      <c r="AA165" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB165" t="n">
+        <v>244.9929426793402</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -14535,15 +16735,23 @@
       <c r="S166" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T166" t="inlineStr"/>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U166" t="inlineStr"/>
       <c r="V166" t="inlineStr"/>
-      <c r="W166" t="inlineStr">
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr"/>
+      <c r="AA166" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X166" t="inlineStr"/>
+      <c r="AB166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -14613,22 +16821,36 @@
       <c r="S167" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T167" t="n">
-        <v>18.27792938213604</v>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea1c6</t>
+        </is>
       </c>
       <c r="U167" t="n">
+        <v>19.2865037317477</v>
+      </c>
+      <c r="V167" t="n">
         <v>370</v>
       </c>
-      <c r="V167" t="n">
-        <v>18.3463967312879</v>
-      </c>
-      <c r="W167" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W167" t="n">
+        <v>19.60425047518709</v>
       </c>
       <c r="X167" t="n">
-        <v>170.9908489258686</v>
+        <v>311.517318</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>295.4667366</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>276.927594</v>
+      </c>
+      <c r="AA167" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB167" t="n">
+        <v>182.7142125184102</v>
       </c>
     </row>
     <row r="168">
@@ -14699,15 +16921,37 @@
       <c r="S168" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T168" t="inlineStr"/>
-      <c r="U168" t="inlineStr"/>
-      <c r="V168" t="inlineStr"/>
-      <c r="W168" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="X168" t="inlineStr"/>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea278</t>
+        </is>
+      </c>
+      <c r="U168" t="n">
+        <v>29.45309826298016</v>
+      </c>
+      <c r="V168" t="n">
+        <v>370</v>
+      </c>
+      <c r="W168" t="n">
+        <v>30.00269418526771</v>
+      </c>
+      <c r="X168" t="n">
+        <v>352.4795928</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>332.7510090000001</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>344.805472</v>
+      </c>
+      <c r="AA168" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB168" t="n">
+        <v>279.6290859694068</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -14777,22 +17021,36 @@
       <c r="S169" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T169" t="n">
-        <v>25.05044849958428</v>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea1cf</t>
+        </is>
       </c>
       <c r="U169" t="n">
+        <v>28.69179918175906</v>
+      </c>
+      <c r="V169" t="n">
         <v>370</v>
       </c>
-      <c r="V169" t="n">
-        <v>25.14428504791387</v>
-      </c>
-      <c r="W169" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W169" t="n">
+        <v>28.73836432228059</v>
       </c>
       <c r="X169" t="n">
-        <v>234.3480689395842</v>
+        <v>291.97632</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>288.313062</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>295.4630438999999</v>
+      </c>
+      <c r="AA169" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB169" t="n">
+        <v>267.845364088706</v>
       </c>
     </row>
     <row r="170">
@@ -14863,15 +17121,23 @@
       <c r="S170" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T170" t="inlineStr"/>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U170" t="inlineStr"/>
       <c r="V170" t="inlineStr"/>
-      <c r="W170" t="inlineStr">
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr"/>
+      <c r="AA170" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X170" t="inlineStr"/>
+      <c r="AB170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -14941,15 +17207,23 @@
       <c r="S171" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T171" t="inlineStr"/>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr"/>
-      <c r="W171" t="inlineStr">
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr"/>
+      <c r="AA171" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="X171" t="inlineStr"/>
+      <c r="AB171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -15019,15 +17293,37 @@
       <c r="S172" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T172" t="inlineStr"/>
-      <c r="U172" t="inlineStr"/>
-      <c r="V172" t="inlineStr"/>
-      <c r="W172" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="X172" t="inlineStr"/>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea28a</t>
+        </is>
+      </c>
+      <c r="U172" t="n">
+        <v>31.08360158907979</v>
+      </c>
+      <c r="V172" t="n">
+        <v>385</v>
+      </c>
+      <c r="W172" t="n">
+        <v>31.11989486994812</v>
+      </c>
+      <c r="X172" t="n">
+        <v>276.1992822</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>269.8756461</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>247.9383657</v>
+      </c>
+      <c r="AA172" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB172" t="n">
+        <v>278.7412244976547</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -15097,22 +17393,36 @@
       <c r="S173" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T173" t="n">
-        <v>20.23373172028637</v>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea1d8</t>
+        </is>
       </c>
       <c r="U173" t="n">
+        <v>22.96461698712408</v>
+      </c>
+      <c r="V173" t="n">
         <v>385</v>
       </c>
-      <c r="V173" t="n">
-        <v>20.30952531513918</v>
-      </c>
-      <c r="W173" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W173" t="n">
+        <v>22.97512836817724</v>
       </c>
       <c r="X173" t="n">
-        <v>181.9126310987261</v>
+        <v>298.691358</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>377.463464</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>282.303714</v>
+      </c>
+      <c r="AA173" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB173" t="n">
+        <v>205.7884655812528</v>
       </c>
     </row>
     <row r="174">
@@ -15183,15 +17493,37 @@
       <c r="S174" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T174" t="inlineStr"/>
-      <c r="U174" t="inlineStr"/>
-      <c r="V174" t="inlineStr"/>
-      <c r="W174" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="X174" t="inlineStr"/>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea281</t>
+        </is>
+      </c>
+      <c r="U174" t="n">
+        <v>29.69751548329342</v>
+      </c>
+      <c r="V174" t="n">
+        <v>385</v>
+      </c>
+      <c r="W174" t="n">
+        <v>29.78070345543679</v>
+      </c>
+      <c r="X174" t="n">
+        <v>243.5120226</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>286.2702114</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>345.3896488</v>
+      </c>
+      <c r="AA174" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB174" t="n">
+        <v>266.7460729626759</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -15261,15 +17593,37 @@
       <c r="S175" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T175" t="inlineStr"/>
-      <c r="U175" t="inlineStr"/>
-      <c r="V175" t="inlineStr"/>
-      <c r="W175" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="X175" t="inlineStr"/>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea293</t>
+        </is>
+      </c>
+      <c r="U175" t="n">
+        <v>41.11430780126948</v>
+      </c>
+      <c r="V175" t="n">
+        <v>385</v>
+      </c>
+      <c r="W175" t="n">
+        <v>41.94821215100872</v>
+      </c>
+      <c r="X175" t="n">
+        <v>386.9919396</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>325.5774892</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>369.1343909</v>
+      </c>
+      <c r="AA175" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB175" t="n">
+        <v>375.7305758687179</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -15339,22 +17693,36 @@
       <c r="S176" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T176" t="n">
-        <v>28.80508765680403</v>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea1e1</t>
+        </is>
       </c>
       <c r="U176" t="n">
+        <v>23.77857530160091</v>
+      </c>
+      <c r="V176" t="n">
         <v>455</v>
       </c>
-      <c r="V176" t="n">
-        <v>28.91298871893834</v>
-      </c>
-      <c r="W176" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W176" t="n">
+        <v>24.16105877713304</v>
       </c>
       <c r="X176" t="n">
-        <v>219.1317979009934</v>
+        <v>299.8627465999999</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>305.4655784</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>260.764338</v>
+      </c>
+      <c r="AA176" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB176" t="n">
+        <v>183.1168787319731</v>
       </c>
     </row>
     <row r="177">
@@ -15425,22 +17793,36 @@
       <c r="S177" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T177" t="n">
-        <v>35.81977377418161</v>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea1e3</t>
+        </is>
       </c>
       <c r="U177" t="n">
+        <v>35.28290170703388</v>
+      </c>
+      <c r="V177" t="n">
         <v>455</v>
       </c>
-      <c r="V177" t="n">
-        <v>35.95395116956725</v>
-      </c>
-      <c r="W177" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W177" t="n">
+        <v>35.96522251994786</v>
       </c>
       <c r="X177" t="n">
-        <v>272.4953147535103</v>
+        <v>320.3959288</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>282.2527864</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>316.026021</v>
+      </c>
+      <c r="AA177" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB177" t="n">
+        <v>272.5807404179992</v>
       </c>
     </row>
     <row r="178">
@@ -15511,15 +17893,37 @@
       <c r="S178" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T178" t="inlineStr"/>
-      <c r="U178" t="inlineStr"/>
-      <c r="V178" t="inlineStr"/>
-      <c r="W178" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="X178" t="inlineStr"/>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea29e</t>
+        </is>
+      </c>
+      <c r="U178" t="n">
+        <v>44.28545648745536</v>
+      </c>
+      <c r="V178" t="n">
+        <v>455</v>
+      </c>
+      <c r="W178" t="n">
+        <v>44.35540633050358</v>
+      </c>
+      <c r="X178" t="n">
+        <v>325.5767928</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>375.89904</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>365.6473623</v>
+      </c>
+      <c r="AA178" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB178" t="n">
+        <v>336.1700179222859</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -15589,15 +17993,37 @@
       <c r="S179" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T179" t="inlineStr"/>
-      <c r="U179" t="inlineStr"/>
-      <c r="V179" t="inlineStr"/>
-      <c r="W179" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="X179" t="inlineStr"/>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea2a7</t>
+        </is>
+      </c>
+      <c r="U179" t="n">
+        <v>36.96849705192815</v>
+      </c>
+      <c r="V179" t="n">
+        <v>455</v>
+      </c>
+      <c r="W179" t="n">
+        <v>36.97319264490816</v>
+      </c>
+      <c r="X179" t="n">
+        <v>304.4191248</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>330.87267</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>315.995796</v>
+      </c>
+      <c r="AA179" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB179" t="n">
+        <v>280.2201549337446</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -15667,22 +18093,36 @@
       <c r="S180" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T180" t="n">
-        <v>33.92765326312583</v>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea1f2</t>
+        </is>
       </c>
       <c r="U180" t="n">
+        <v>28.19025564935648</v>
+      </c>
+      <c r="V180" t="n">
         <v>455</v>
       </c>
-      <c r="V180" t="n">
-        <v>34.05474295875295</v>
-      </c>
-      <c r="W180" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W180" t="n">
+        <v>28.721920765215</v>
       </c>
       <c r="X180" t="n">
-        <v>258.101198881585</v>
+        <v>295.0284678</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>269.070432</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>276.925374</v>
+      </c>
+      <c r="AA180" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB180" t="n">
+        <v>217.683692185335</v>
       </c>
     </row>
     <row r="181">
@@ -15753,22 +18193,36 @@
       <c r="S181" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T181" t="n">
-        <v>35.93791277384051</v>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea1f4</t>
+        </is>
       </c>
       <c r="U181" t="n">
+        <v>36.49694014156258</v>
+      </c>
+      <c r="V181" t="n">
         <v>455</v>
       </c>
-      <c r="V181" t="n">
-        <v>36.07253270645062</v>
-      </c>
-      <c r="W181" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W181" t="n">
+        <v>37.2397192482389</v>
       </c>
       <c r="X181" t="n">
-        <v>273.3940452731296</v>
+        <v>328.0271394</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>308.2294559999999</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>328.0929388</v>
+      </c>
+      <c r="AA181" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB181" t="n">
+        <v>282.2401624239441</v>
       </c>
     </row>
     <row r="182">
@@ -15839,22 +18293,36 @@
       <c r="S182" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T182" t="n">
-        <v>39.98610426012193</v>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea203</t>
+        </is>
       </c>
       <c r="U182" t="n">
+        <v>34.76991273781095</v>
+      </c>
+      <c r="V182" t="n">
         <v>455</v>
       </c>
-      <c r="V182" t="n">
-        <v>40.1358883250651</v>
-      </c>
-      <c r="W182" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W182" t="n">
+        <v>35.47065066958163</v>
       </c>
       <c r="X182" t="n">
-        <v>304.1902535404148</v>
+        <v>329.506425</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>295.9235188</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>314.5583444</v>
+      </c>
+      <c r="AA182" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB182" t="n">
+        <v>268.8323759782143</v>
       </c>
     </row>
     <row r="183">
@@ -15925,15 +18393,37 @@
       <c r="S183" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T183" t="inlineStr"/>
-      <c r="U183" t="inlineStr"/>
-      <c r="V183" t="inlineStr"/>
-      <c r="W183" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="X183" t="inlineStr"/>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea2b0</t>
+        </is>
+      </c>
+      <c r="U183" t="n">
+        <v>39.02577693215903</v>
+      </c>
+      <c r="V183" t="n">
+        <v>455</v>
+      </c>
+      <c r="W183" t="n">
+        <v>39.18930317492293</v>
+      </c>
+      <c r="X183" t="n">
+        <v>368.7182572999999</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>292.5236922</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>289.802604</v>
+      </c>
+      <c r="AA183" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB183" t="n">
+        <v>297.0160762931775</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -16003,22 +18493,36 @@
       <c r="S184" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T184" t="n">
-        <v>26.99700630176557</v>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea20c</t>
+        </is>
       </c>
       <c r="U184" t="n">
+        <v>26.73027614391297</v>
+      </c>
+      <c r="V184" t="n">
         <v>455</v>
       </c>
-      <c r="V184" t="n">
-        <v>27.09813446666178</v>
-      </c>
-      <c r="W184" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W184" t="n">
+        <v>26.85293956664093</v>
       </c>
       <c r="X184" t="n">
-        <v>205.3770014288759</v>
+        <v>288.0534417</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>287.1221985</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>313.1726089</v>
+      </c>
+      <c r="AA184" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB184" t="n">
+        <v>203.5186671072314</v>
       </c>
     </row>
     <row r="185">
@@ -16089,22 +18593,36 @@
       <c r="S185" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T185" t="n">
-        <v>23.77129556894063</v>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea217</t>
+        </is>
       </c>
       <c r="U185" t="n">
+        <v>31.48189304740949</v>
+      </c>
+      <c r="V185" t="n">
         <v>455</v>
       </c>
-      <c r="V185" t="n">
-        <v>23.86034053456466</v>
-      </c>
-      <c r="W185" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W185" t="n">
+        <v>32.10811877198707</v>
       </c>
       <c r="X185" t="n">
-        <v>180.8377325047803</v>
+        <v>313.63626</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>296.9822878000001</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>241.197336</v>
+      </c>
+      <c r="AA185" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB185" t="n">
+        <v>243.3477169074382</v>
       </c>
     </row>
     <row r="186">
@@ -16175,22 +18693,36 @@
       <c r="S186" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T186" t="n">
-        <v>31.08075067665886</v>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea222</t>
+        </is>
       </c>
       <c r="U186" t="n">
+        <v>26.48666992296654</v>
+      </c>
+      <c r="V186" t="n">
         <v>455</v>
       </c>
-      <c r="V186" t="n">
-        <v>31.1971761515576</v>
-      </c>
-      <c r="W186" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W186" t="n">
+        <v>27.01565766881514</v>
       </c>
       <c r="X186" t="n">
-        <v>236.4436747089712</v>
+        <v>290.9265835</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>292.218712</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>294.241125</v>
+      </c>
+      <c r="AA186" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB186" t="n">
+        <v>204.7519090465927</v>
       </c>
     </row>
     <row r="187">
@@ -16261,22 +18793,36 @@
       <c r="S187" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T187" t="n">
-        <v>26.44334053365124</v>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea23c</t>
+        </is>
       </c>
       <c r="U187" t="n">
+        <v>20.70811262507129</v>
+      </c>
+      <c r="V187" t="n">
         <v>455</v>
       </c>
-      <c r="V187" t="n">
-        <v>26.54239472032669</v>
-      </c>
-      <c r="W187" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W187" t="n">
+        <v>21.06409936106715</v>
       </c>
       <c r="X187" t="n">
-        <v>201.1650449631066</v>
+        <v>236.3749416</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>249.774364</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>251.0789309</v>
+      </c>
+      <c r="AA187" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB187" t="n">
+        <v>159.6449958537977</v>
       </c>
     </row>
     <row r="188">
@@ -16347,22 +18893,36 @@
       <c r="S188" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T188" t="n">
-        <v>26.2129847419009</v>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea23e</t>
+        </is>
       </c>
       <c r="U188" t="n">
+        <v>26.18106917291921</v>
+      </c>
+      <c r="V188" t="n">
         <v>455</v>
       </c>
-      <c r="V188" t="n">
-        <v>26.31117603814205</v>
-      </c>
-      <c r="W188" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W188" t="n">
+        <v>26.71135133448309</v>
       </c>
       <c r="X188" t="n">
-        <v>199.4126365203836</v>
+        <v>174.2600979</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>176.5689079</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>222.1706655</v>
+      </c>
+      <c r="AA188" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB188" t="n">
+        <v>202.4455686401038</v>
       </c>
     </row>
     <row r="189">
@@ -16433,22 +18993,36 @@
       <c r="S189" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T189" t="n">
-        <v>24.76603324987378</v>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea240</t>
+        </is>
       </c>
       <c r="U189" t="n">
+        <v>20.47870766047297</v>
+      </c>
+      <c r="V189" t="n">
         <v>455</v>
       </c>
-      <c r="V189" t="n">
-        <v>24.85880440628731</v>
-      </c>
-      <c r="W189" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W189" t="n">
+        <v>20.65706647850809</v>
       </c>
       <c r="X189" t="n">
-        <v>188.4050990429362</v>
+        <v>278.1062319</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>261.6000289</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>305.5230689</v>
+      </c>
+      <c r="AA189" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB189" t="n">
+        <v>156.5600900273181</v>
       </c>
     </row>
     <row r="190">
@@ -16519,22 +19093,36 @@
       <c r="S190" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T190" t="n">
-        <v>25.08536199964059</v>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea255</t>
+        </is>
       </c>
       <c r="U190" t="n">
+        <v>30.30305244923433</v>
+      </c>
+      <c r="V190" t="n">
         <v>455</v>
       </c>
-      <c r="V190" t="n">
-        <v>25.17932933055219</v>
-      </c>
-      <c r="W190" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W190" t="n">
+        <v>30.31719375076593</v>
       </c>
       <c r="X190" t="n">
-        <v>190.8343602863523</v>
+        <v>321.646494</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>296.8619483</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>316.3064695</v>
+      </c>
+      <c r="AA190" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB190" t="n">
+        <v>229.774280289694</v>
       </c>
     </row>
     <row r="191">
@@ -16605,22 +19193,36 @@
       <c r="S191" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T191" t="n">
-        <v>26.51858350630011</v>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea255</t>
+        </is>
       </c>
       <c r="U191" t="n">
+        <v>30.30305244923433</v>
+      </c>
+      <c r="V191" t="n">
         <v>455</v>
       </c>
-      <c r="V191" t="n">
-        <v>26.61791954584698</v>
-      </c>
-      <c r="W191" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W191" t="n">
+        <v>30.31719375076593</v>
       </c>
       <c r="X191" t="n">
-        <v>201.7374482854783</v>
+        <v>264.5162804</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>274.1665738</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>306.1503096</v>
+      </c>
+      <c r="AA191" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB191" t="n">
+        <v>229.774280289694</v>
       </c>
     </row>
     <row r="192">
@@ -16691,22 +19293,36 @@
       <c r="S192" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T192" t="n">
-        <v>27.45897713455216</v>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea22d</t>
+        </is>
       </c>
       <c r="U192" t="n">
+        <v>23.27731262873623</v>
+      </c>
+      <c r="V192" t="n">
         <v>455</v>
       </c>
-      <c r="V192" t="n">
-        <v>27.56183579734259</v>
-      </c>
-      <c r="W192" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W192" t="n">
+        <v>23.28027321029692</v>
       </c>
       <c r="X192" t="n">
-        <v>208.8913979262055</v>
+        <v>266.5960134000001</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>250.714436</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>234.776375</v>
+      </c>
+      <c r="AA192" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB192" t="n">
+        <v>176.4413971101227</v>
       </c>
     </row>
     <row r="193">
@@ -16777,22 +19393,36 @@
       <c r="S193" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T193" t="n">
-        <v>19.47675801097673</v>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>66f57df36e41de5c74cea22d</t>
+        </is>
       </c>
       <c r="U193" t="n">
+        <v>23.27731262873623</v>
+      </c>
+      <c r="V193" t="n">
         <v>455</v>
       </c>
-      <c r="V193" t="n">
-        <v>19.54971605579701</v>
-      </c>
-      <c r="W193" t="inlineStr">
-        <is>
-          <t>1\carapace\car</t>
-        </is>
+      <c r="W193" t="n">
+        <v>23.28027321029692</v>
       </c>
       <c r="X193" t="n">
-        <v>148.167471353616</v>
+        <v>193.4912926</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>228.712288</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>232.86175</v>
+      </c>
+      <c r="AA193" t="inlineStr">
+        <is>
+          <t>test-car</t>
+        </is>
+      </c>
+      <c r="AB193" t="n">
+        <v>176.4413971101227</v>
       </c>
     </row>
   </sheetData>

--- a/fifty_one/measurements/Updated_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_Filtered_Data_with_real_length.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB193"/>
+  <dimension ref="A1:AC193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,45 +531,50 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>Length_ground_truth_annotation(mm)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Length_fov(mm)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Height(mm)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>focal_RealLength(cm)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Length_1_pixels</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Length_2_pixels</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Length_3_pixels</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Pond_Type</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Euclidean_Distance</t>
         </is>
@@ -643,35 +648,38 @@
       <c r="S2" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>66f57dee6e41de5c74ce9c99</t>
-        </is>
-      </c>
-      <c r="U2" t="n">
+      <c r="T2" t="n">
+        <v>34.97814060596691</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>66f5aaff14f9f3f112e9cfcc</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
         <v>37.35521605470905</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>650</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>39.42425685964275</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>229.1411175</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>226.5569642</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>263.1799467</v>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>200.0197944927734</v>
       </c>
     </row>
@@ -743,35 +751,38 @@
       <c r="S3" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>66f57dee6e41de5c74ce9c9f</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
+      <c r="T3" t="n">
+        <v>23.84082212602392</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>66f5aaff14f9f3f112e9cfd2</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
         <v>26.80072332128652</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>650</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>28.31005693306384</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>163.3568115</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>138.6197113</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>155.5919706</v>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>143.6316679345381</v>
       </c>
     </row>
@@ -843,35 +854,38 @@
       <c r="S4" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>66f57dee6e41de5c74ce9c9b</t>
-        </is>
-      </c>
-      <c r="U4" t="n">
+      <c r="T4" t="n">
+        <v>43.97226548406323</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>66f5aaff14f9f3f112e9cfce</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
         <v>42.86306662213475</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>650</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>44.89569952533149</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>292.3325481</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>230.2682134</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>270.8825768</v>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>227.7792736750012</v>
       </c>
     </row>
@@ -943,35 +957,38 @@
       <c r="S5" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>66f57dee6e41de5c74ce9c9d</t>
-        </is>
-      </c>
-      <c r="U5" t="n">
+      <c r="T5" t="n">
+        <v>27.34325831016603</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>66f5aaff14f9f3f112e9cfd0</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
         <v>22.39472788197207</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>650</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>23.4284502799093</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>139.9982877</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>140.0598126</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>136.0026371</v>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>118.8647341395716</v>
       </c>
     </row>
@@ -1043,35 +1060,38 @@
       <c r="S6" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9cba</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
+      <c r="T6" t="n">
+        <v>30.34465457628419</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9cfed</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
         <v>29.47740342877551</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>650</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>31.11121125845315</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>209.3075476</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>152.7362976</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>189.6947448</v>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>157.8433831864357</v>
       </c>
     </row>
@@ -1143,35 +1163,38 @@
       <c r="S7" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9cbc</t>
-        </is>
-      </c>
-      <c r="U7" t="n">
+      <c r="T7" t="n">
+        <v>31.98529083715453</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9cfef</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
         <v>29.82192527774654</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>650</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>31.29484491414642</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>204.4323003</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>155.7958704</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>202.4247324</v>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>158.7750523921354</v>
       </c>
     </row>
@@ -1243,35 +1266,38 @@
       <c r="S8" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9cbe</t>
-        </is>
-      </c>
-      <c r="U8" t="n">
+      <c r="T8" t="n">
+        <v>31.81939576891721</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9cff1</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
         <v>33.89214728786699</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>650</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>35.50906007624683</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>182.1684791</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>177.08666</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>172.3248044</v>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>180.1559614520733</v>
       </c>
     </row>
@@ -1343,35 +1369,38 @@
       <c r="S9" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9cd5</t>
-        </is>
-      </c>
-      <c r="U9" t="n">
+      <c r="T9" t="n">
+        <v>32.99458496737289</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d008</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
         <v>35.0331607019719</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>650</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>36.64018363432859</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>204.349878</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>180.3984194</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>192.6635198</v>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>185.8947405605528</v>
       </c>
     </row>
@@ -1443,35 +1472,38 @@
       <c r="S10" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9cd3</t>
-        </is>
-      </c>
-      <c r="U10" t="n">
+      <c r="T10" t="n">
+        <v>32.73587997591925</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d006</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
         <v>32.34806322190212</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>650</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>33.99896784113986</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>163.875312</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="n">
         <v>155.6371088</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>203.9626565</v>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>172.4944768080742</v>
       </c>
     </row>
@@ -1543,35 +1575,38 @@
       <c r="S11" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9ce6</t>
-        </is>
-      </c>
-      <c r="U11" t="n">
+      <c r="T11" t="n">
+        <v>29.06797452139072</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d019</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
         <v>32.24545998329052</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>650</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>34.3013568051794</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>193.20712</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="n">
         <v>157.579749</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>181.1058168</v>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>174.0286535627408</v>
       </c>
     </row>
@@ -1643,35 +1678,38 @@
       <c r="S12" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9ce4</t>
-        </is>
-      </c>
-      <c r="U12" t="n">
+      <c r="T12" t="n">
+        <v>27.1586762310402</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d017</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
         <v>32.06152817148222</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>650</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>33.7572687874512</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>194.4023968</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
         <v>170.5513644</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>188.8089812</v>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>171.2682115871464</v>
       </c>
     </row>
@@ -1743,35 +1781,38 @@
       <c r="S13" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9cea</t>
-        </is>
-      </c>
-      <c r="U13" t="n">
+      <c r="T13" t="n">
+        <v>30.50606190790112</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d01d</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
         <v>29.43992546221428</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>650</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>30.81975914013957</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>155.3332512</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
         <v>164.9263194</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
         <v>141.7638246</v>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>156.3646947480687</v>
       </c>
     </row>
@@ -1843,35 +1884,38 @@
       <c r="S14" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9ce8</t>
-        </is>
-      </c>
-      <c r="U14" t="n">
+      <c r="T14" t="n">
+        <v>33.30324564756067</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d01b</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
         <v>30.2646244461032</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>650</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>31.66776903609522</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>178.8872352</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
         <v>153.3099474</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
         <v>197.466314</v>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
         <v>160.6670907506303</v>
       </c>
     </row>
@@ -1943,35 +1987,38 @@
       <c r="S15" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d09</t>
-        </is>
-      </c>
-      <c r="U15" t="n">
+      <c r="T15" t="n">
+        <v>28.2850719090355</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d03c</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
         <v>33.0920665552018</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>650</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>34.61219926399735</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>223.9994979</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Z15" t="n">
         <v>232.0364225</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AA15" t="n">
         <v>243.9989376</v>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB15" t="n">
+      <c r="AC15" t="n">
         <v>175.6057193005618</v>
       </c>
     </row>
@@ -2043,35 +2090,38 @@
       <c r="S16" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d0b</t>
-        </is>
-      </c>
-      <c r="U16" t="n">
+      <c r="T16" t="n">
+        <v>35.67819506241886</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d03e</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
         <v>37.36076442625708</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>650</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>39.25517822225937</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>227.4374997</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
         <v>182.7804175</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AA16" t="n">
         <v>202.7801592</v>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB16" t="n">
+      <c r="AC16" t="n">
         <v>199.161970477905</v>
       </c>
     </row>
@@ -2143,35 +2193,38 @@
       <c r="S17" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d1a</t>
-        </is>
-      </c>
-      <c r="U17" t="n">
+      <c r="T17" t="n">
+        <v>32.33585772498071</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d04d</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
         <v>30.59340120621066</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>650</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>32.18633966463919</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
         <v>232.0342897</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Z17" t="n">
         <v>227.436704</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AA17" t="n">
         <v>216.3295016</v>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB17" t="n">
+      <c r="AC17" t="n">
         <v>163.2980697167178</v>
       </c>
     </row>
@@ -2243,35 +2296,38 @@
       <c r="S18" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d1c</t>
-        </is>
-      </c>
-      <c r="U18" t="n">
+      <c r="T18" t="n">
+        <v>26.44988057585963</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d04f</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
         <v>33.37558782284649</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>650</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>34.90483802873019</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
         <v>208.0398168</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Z18" t="n">
         <v>231.9975232</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AA18" t="n">
         <v>200.1587477</v>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB18" t="n">
+      <c r="AC18" t="n">
         <v>177.0904282144386</v>
       </c>
     </row>
@@ -2343,35 +2399,38 @@
       <c r="S19" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d2f</t>
-        </is>
-      </c>
-      <c r="U19" t="n">
+      <c r="T19" t="n">
+        <v>22.16144197842825</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d062</t>
+        </is>
+      </c>
+      <c r="V19" t="n">
         <v>22.80639442943114</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>650</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>24.17720398744675</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Y19" t="n">
         <v>157.6351081</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Z19" t="n">
         <v>168.809508</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AA19" t="n">
         <v>131.024285</v>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB19" t="n">
+      <c r="AC19" t="n">
         <v>122.663551787309</v>
       </c>
     </row>
@@ -2443,35 +2502,38 @@
       <c r="S20" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d2d</t>
-        </is>
-      </c>
-      <c r="U20" t="n">
+      <c r="T20" t="n">
+        <v>50.13464669125212</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d060</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
         <v>36.72052940623376</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>650</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>38.77907815764956</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Y20" t="n">
         <v>226.2764583</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Z20" t="n">
         <v>243.245592</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AA20" t="n">
         <v>266.1129968</v>
       </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB20" t="n">
+      <c r="AC20" t="n">
         <v>196.7464668091793</v>
       </c>
     </row>
@@ -2543,35 +2605,38 @@
       <c r="S21" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d33</t>
-        </is>
-      </c>
-      <c r="U21" t="n">
+      <c r="T21" t="n">
+        <v>29.21920718153235</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d066</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
         <v>28.17209487168396</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>650</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>29.47093211384655</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
         <v>181.419057</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Z21" t="n">
         <v>181.41975</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AA21" t="n">
         <v>168.2402484</v>
       </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AB21" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB21" t="n">
+      <c r="AC21" t="n">
         <v>149.5213925251267</v>
       </c>
     </row>
@@ -2643,35 +2708,38 @@
       <c r="S22" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d4c</t>
-        </is>
-      </c>
-      <c r="U22" t="n">
+      <c r="T22" t="n">
+        <v>36.45331453954083</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d07f</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
         <v>32.71482405445825</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>650</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>34.91505110102607</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Y22" t="n">
         <v>203.9987202</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Z22" t="n">
         <v>220.5815013</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AA22" t="n">
         <v>192.0427542</v>
       </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB22" t="n">
+      <c r="AC22" t="n">
         <v>177.1422444510524</v>
       </c>
     </row>
@@ -2743,35 +2811,38 @@
       <c r="S23" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d4a</t>
-        </is>
-      </c>
-      <c r="U23" t="n">
+      <c r="T23" t="n">
+        <v>30.15466186856121</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d07d</t>
+        </is>
+      </c>
+      <c r="V23" t="n">
         <v>28.34981445362558</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>650</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>29.65595454976624</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
         <v>208.6895877</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Z23" t="n">
         <v>176.0478003</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
         <v>240.8319054</v>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB23" t="n">
+      <c r="AC23" t="n">
         <v>150.4601077364486</v>
       </c>
     </row>
@@ -2843,35 +2914,38 @@
       <c r="S24" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d4e</t>
-        </is>
-      </c>
-      <c r="U24" t="n">
+      <c r="T24" t="n">
+        <v>26.28070058307332</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d081</t>
+        </is>
+      </c>
+      <c r="V24" t="n">
         <v>25.90241886313012</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>650</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>27.57969309058211</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Y24" t="n">
         <v>178.5713754</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Z24" t="n">
         <v>140.9138325</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AA24" t="n">
         <v>159.2457246</v>
       </c>
-      <c r="AA24" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB24" t="n">
+      <c r="AC24" t="n">
         <v>139.926151653071</v>
       </c>
     </row>
@@ -2943,35 +3017,38 @@
       <c r="S25" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d6b</t>
-        </is>
-      </c>
-      <c r="U25" t="n">
+      <c r="T25" t="n">
+        <v>17.03540515214701</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d09e</t>
+        </is>
+      </c>
+      <c r="V25" t="n">
         <v>22.26988555380125</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>650</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>23.66276167937307</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
         <v>148.4863072</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Z25" t="n">
         <v>134.16483</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AA25" t="n">
         <v>136.059835</v>
       </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AB25" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB25" t="n">
+      <c r="AC25" t="n">
         <v>120.0535179417599</v>
       </c>
     </row>
@@ -3043,35 +3120,38 @@
       <c r="S26" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d69</t>
-        </is>
-      </c>
-      <c r="U26" t="n">
+      <c r="T26" t="n">
+        <v>34.56245758580358</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d09c</t>
+        </is>
+      </c>
+      <c r="V26" t="n">
         <v>32.04944810612317</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>650</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>34.09538788866976</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
         <v>191.5397904</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Z26" t="n">
         <v>186.4589643</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AA26" t="n">
         <v>196.979751</v>
       </c>
-      <c r="AA26" t="inlineStr">
+      <c r="AB26" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB26" t="n">
+      <c r="AC26" t="n">
         <v>172.9836659425853</v>
       </c>
     </row>
@@ -3143,35 +3223,38 @@
       <c r="S27" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d6d</t>
-        </is>
-      </c>
-      <c r="U27" t="n">
+      <c r="T27" t="n">
+        <v>34.28215253980245</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d0a0</t>
+        </is>
+      </c>
+      <c r="V27" t="n">
         <v>28.31278584164456</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>650</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>30.21154856406327</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
         <v>190.0725344</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Z27" t="n">
         <v>176.4091643</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AA27" t="n">
         <v>181.10706</v>
       </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AB27" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB27" t="n">
+      <c r="AC27" t="n">
         <v>153.2789256270876</v>
       </c>
     </row>
@@ -3243,23 +3326,24 @@
       <c r="S28" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr">
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3329,23 +3413,24 @@
       <c r="S29" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr">
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3415,23 +3500,24 @@
       <c r="S30" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr">
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3501,23 +3587,24 @@
       <c r="S31" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr">
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3587,23 +3674,24 @@
       <c r="S32" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr">
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3673,23 +3761,24 @@
       <c r="S33" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr">
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3759,23 +3848,24 @@
       <c r="S34" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr">
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3845,35 +3935,38 @@
       <c r="S35" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d86</t>
-        </is>
-      </c>
-      <c r="U35" t="n">
+      <c r="T35" t="n">
+        <v>34.81197932375229</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d0b9</t>
+        </is>
+      </c>
+      <c r="V35" t="n">
         <v>31.6800074550035</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>650</v>
       </c>
-      <c r="W35" t="n">
+      <c r="X35" t="n">
         <v>33.24487782032969</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Y35" t="n">
         <v>189.7358605</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="Z35" t="n">
         <v>162.4350375</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AA35" t="n">
         <v>170.5538484</v>
       </c>
-      <c r="AA35" t="inlineStr">
+      <c r="AB35" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB35" t="n">
+      <c r="AC35" t="n">
         <v>168.6685852629655</v>
       </c>
     </row>
@@ -3945,35 +4038,38 @@
       <c r="S36" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d8a</t>
-        </is>
-      </c>
-      <c r="U36" t="n">
+      <c r="T36" t="n">
+        <v>44.78751797629256</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d0bd</t>
+        </is>
+      </c>
+      <c r="V36" t="n">
         <v>32.28028700814235</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>650</v>
       </c>
-      <c r="W36" t="n">
+      <c r="X36" t="n">
         <v>34.35740925599293</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Y36" t="n">
         <v>234.7749273</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Z36" t="n">
         <v>227.297475</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AA36" t="n">
         <v>207.5759814</v>
       </c>
-      <c r="AA36" t="inlineStr">
+      <c r="AB36" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB36" t="n">
+      <c r="AC36" t="n">
         <v>174.3130368482002</v>
       </c>
     </row>
@@ -4045,35 +4141,38 @@
       <c r="S37" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d8c</t>
-        </is>
-      </c>
-      <c r="U37" t="n">
+      <c r="T37" t="n">
+        <v>60.78169938864213</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d0bf</t>
+        </is>
+      </c>
+      <c r="V37" t="n">
         <v>28.18934910182833</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>650</v>
       </c>
-      <c r="W37" t="n">
+      <c r="X37" t="n">
         <v>30.07437687099942</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Y37" t="n">
         <v>296.9739046</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="Z37" t="n">
         <v>298.8225</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AA37" t="n">
         <v>263.4531768</v>
       </c>
-      <c r="AA37" t="inlineStr">
+      <c r="AB37" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB37" t="n">
+      <c r="AC37" t="n">
         <v>152.5829821637894</v>
       </c>
     </row>
@@ -4145,35 +4244,38 @@
       <c r="S38" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d82</t>
-        </is>
-      </c>
-      <c r="U38" t="n">
+      <c r="T38" t="n">
+        <v>34.97814060596683</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d0b5</t>
+        </is>
+      </c>
+      <c r="V38" t="n">
         <v>32.49255593555194</v>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>650</v>
       </c>
-      <c r="W38" t="n">
+      <c r="X38" t="n">
         <v>34.33620567683121</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Y38" t="n">
         <v>235.2893990000001</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="Z38" t="n">
         <v>229.9586625</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AA38" t="n">
         <v>227.4051312</v>
       </c>
-      <c r="AA38" t="inlineStr">
+      <c r="AB38" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB38" t="n">
+      <c r="AC38" t="n">
         <v>174.2054600443675</v>
       </c>
     </row>
@@ -4245,35 +4347,38 @@
       <c r="S39" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9d88</t>
-        </is>
-      </c>
-      <c r="U39" t="n">
+      <c r="T39" t="n">
+        <v>27.57875847580103</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>66f5ab0014f9f3f112e9d0bb</t>
+        </is>
+      </c>
+      <c r="V39" t="n">
         <v>32.20786892779799</v>
       </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
         <v>650</v>
       </c>
-      <c r="W39" t="n">
+      <c r="X39" t="n">
         <v>34.29611036974219</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Y39" t="n">
         <v>240.0303534</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="Z39" t="n">
         <v>236.3711625</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AA39" t="n">
         <v>193.3325076</v>
       </c>
-      <c r="AA39" t="inlineStr">
+      <c r="AB39" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB39" t="n">
+      <c r="AC39" t="n">
         <v>174.0020356624541</v>
       </c>
     </row>
@@ -4345,35 +4450,38 @@
       <c r="S40" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9db1</t>
-        </is>
-      </c>
-      <c r="U40" t="n">
+      <c r="T40" t="n">
+        <v>25.12875710334353</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d0e4</t>
+        </is>
+      </c>
+      <c r="V40" t="n">
         <v>33.63960161324392</v>
       </c>
-      <c r="V40" t="n">
+      <c r="W40" t="n">
         <v>650</v>
       </c>
-      <c r="W40" t="n">
+      <c r="X40" t="n">
         <v>35.49222713542581</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Y40" t="n">
         <v>180.621</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="Z40" t="n">
         <v>209.378884</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AA40" t="n">
         <v>203.6482786</v>
       </c>
-      <c r="AA40" t="inlineStr">
+      <c r="AB40" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB40" t="n">
+      <c r="AC40" t="n">
         <v>180.0705591735797</v>
       </c>
     </row>
@@ -4445,35 +4553,38 @@
       <c r="S41" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9db5</t>
-        </is>
-      </c>
-      <c r="U41" t="n">
+      <c r="T41" t="n">
+        <v>37.51995689988488</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d0e8</t>
+        </is>
+      </c>
+      <c r="V41" t="n">
         <v>34.22943164386134</v>
       </c>
-      <c r="V41" t="n">
+      <c r="W41" t="n">
         <v>650</v>
       </c>
-      <c r="W41" t="n">
+      <c r="X41" t="n">
         <v>36.47262796494356</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Y41" t="n">
         <v>235.3014</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="Z41" t="n">
         <v>228.980642</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AA41" t="n">
         <v>251.8695894</v>
       </c>
-      <c r="AA41" t="inlineStr">
+      <c r="AB41" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB41" t="n">
+      <c r="AC41" t="n">
         <v>185.0446433557834</v>
       </c>
     </row>
@@ -4545,35 +4656,38 @@
       <c r="S42" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9dbf</t>
-        </is>
-      </c>
-      <c r="U42" t="n">
+      <c r="T42" t="n">
+        <v>30.084522069939</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d0f2</t>
+        </is>
+      </c>
+      <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
         <v>650</v>
       </c>
-      <c r="W42" t="n">
+      <c r="X42" t="n">
         <v>0</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Y42" t="n">
         <v>197.2008</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="Z42" t="n">
         <v>174.9502216</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AA42" t="n">
         <v>183.5661776</v>
       </c>
-      <c r="AA42" t="inlineStr">
+      <c r="AB42" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB42" t="n">
+      <c r="AC42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4645,35 +4759,38 @@
       <c r="S43" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>66f57def6e41de5c74ce9db3</t>
-        </is>
-      </c>
-      <c r="U43" t="n">
+      <c r="T43" t="n">
+        <v>26.53790402452263</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d0e6</t>
+        </is>
+      </c>
+      <c r="V43" t="n">
         <v>29.59870102489949</v>
       </c>
-      <c r="V43" t="n">
+      <c r="W43" t="n">
         <v>650</v>
       </c>
-      <c r="W43" t="n">
+      <c r="X43" t="n">
         <v>31.43502512144142</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Y43" t="n">
         <v>238.5344</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="Z43" t="n">
         <v>209.8760488</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="AA43" t="n">
         <v>166.7057067</v>
       </c>
-      <c r="AA43" t="inlineStr">
+      <c r="AB43" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB43" t="n">
+      <c r="AC43" t="n">
         <v>159.4862596155188</v>
       </c>
     </row>
@@ -4745,35 +4862,38 @@
       <c r="S44" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9de0</t>
-        </is>
-      </c>
-      <c r="U44" t="n">
+      <c r="T44" t="n">
+        <v>32.33585772498069</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d113</t>
+        </is>
+      </c>
+      <c r="V44" t="n">
         <v>32.42200980001902</v>
       </c>
-      <c r="V44" t="n">
+      <c r="W44" t="n">
         <v>650</v>
       </c>
-      <c r="W44" t="n">
+      <c r="X44" t="n">
         <v>34.13433353781024</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Y44" t="n">
         <v>171.2053376</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="Z44" t="n">
         <v>173.1108276</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AA44" t="n">
         <v>162.4316496</v>
       </c>
-      <c r="AA44" t="inlineStr">
+      <c r="AB44" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB44" t="n">
+      <c r="AC44" t="n">
         <v>173.1812575107714</v>
       </c>
     </row>
@@ -4845,35 +4965,38 @@
       <c r="S45" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9de2</t>
-        </is>
-      </c>
-      <c r="U45" t="n">
+      <c r="T45" t="n">
+        <v>40.45752890901229</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d115</t>
+        </is>
+      </c>
+      <c r="V45" t="n">
         <v>31.8667744488487</v>
       </c>
-      <c r="V45" t="n">
+      <c r="W45" t="n">
         <v>650</v>
       </c>
-      <c r="W45" t="n">
+      <c r="X45" t="n">
         <v>33.37995353067254</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Y45" t="n">
         <v>202.7786464</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="Z45" t="n">
         <v>190.157481</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AA45" t="n">
         <v>170.177169</v>
       </c>
-      <c r="AA45" t="inlineStr">
+      <c r="AB45" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB45" t="n">
+      <c r="AC45" t="n">
         <v>169.3538947139446</v>
       </c>
     </row>
@@ -4945,35 +5068,38 @@
       <c r="S46" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9de6</t>
-        </is>
-      </c>
-      <c r="U46" t="n">
+      <c r="T46" t="n">
+        <v>30.2400939838035</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d119</t>
+        </is>
+      </c>
+      <c r="V46" t="n">
         <v>39.30502626083687</v>
       </c>
-      <c r="V46" t="n">
+      <c r="W46" t="n">
         <v>650</v>
       </c>
-      <c r="W46" t="n">
+      <c r="X46" t="n">
         <v>41.36051660906931</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Y46" t="n">
         <v>192.0861888</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="Z46" t="n">
         <v>214.1369298</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AA46" t="n">
         <v>188.6813126</v>
       </c>
-      <c r="AA46" t="inlineStr">
+      <c r="AB46" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB46" t="n">
+      <c r="AC46" t="n">
         <v>209.8434489637695</v>
       </c>
     </row>
@@ -5045,35 +5171,38 @@
       <c r="S47" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e05</t>
-        </is>
-      </c>
-      <c r="U47" t="n">
+      <c r="T47" t="n">
+        <v>33.60978799933261</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d138</t>
+        </is>
+      </c>
+      <c r="V47" t="n">
         <v>33.96142472086805</v>
       </c>
-      <c r="V47" t="n">
+      <c r="W47" t="n">
         <v>650</v>
       </c>
-      <c r="W47" t="n">
+      <c r="X47" t="n">
         <v>35.65029135835977</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Y47" t="n">
         <v>201.6904292</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="Z47" t="n">
         <v>188.6793804</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="AA47" t="n">
         <v>192.0811828</v>
       </c>
-      <c r="AA47" t="inlineStr">
+      <c r="AB47" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB47" t="n">
+      <c r="AC47" t="n">
         <v>180.8725013256022</v>
       </c>
     </row>
@@ -5145,35 +5274,38 @@
       <c r="S48" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e01</t>
-        </is>
-      </c>
-      <c r="U48" t="n">
+      <c r="T48" t="n">
+        <v>32.55806047294546</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d134</t>
+        </is>
+      </c>
+      <c r="V48" t="n">
         <v>41.35811337821251</v>
       </c>
-      <c r="V48" t="n">
+      <c r="W48" t="n">
         <v>650</v>
       </c>
-      <c r="W48" t="n">
+      <c r="X48" t="n">
         <v>43.66020967603209</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Y48" t="n">
         <v>208.0195692</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="Z48" t="n">
         <v>189.7357518</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="AA48" t="n">
         <v>189.7339806</v>
       </c>
-      <c r="AA48" t="inlineStr">
+      <c r="AB48" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB48" t="n">
+      <c r="AC48" t="n">
         <v>221.5109899979094</v>
       </c>
     </row>
@@ -5245,35 +5377,38 @@
       <c r="S49" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e03</t>
-        </is>
-      </c>
-      <c r="U49" t="n">
+      <c r="T49" t="n">
+        <v>23.84082212602404</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d136</t>
+        </is>
+      </c>
+      <c r="V49" t="n">
         <v>28.90995234584716</v>
       </c>
-      <c r="V49" t="n">
+      <c r="W49" t="n">
         <v>650</v>
       </c>
-      <c r="W49" t="n">
+      <c r="X49" t="n">
         <v>30.60693864680155</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Y49" t="n">
         <v>174.7723216</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="Z49" t="n">
         <v>175.4513208</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AA49" t="n">
         <v>149.9343009</v>
       </c>
-      <c r="AA49" t="inlineStr">
+      <c r="AB49" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB49" t="n">
+      <c r="AC49" t="n">
         <v>155.2849455090945</v>
       </c>
     </row>
@@ -5345,35 +5480,38 @@
       <c r="S50" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9dff</t>
-        </is>
-      </c>
-      <c r="U50" t="n">
+      <c r="T50" t="n">
+        <v>29.84792303435</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d132</t>
+        </is>
+      </c>
+      <c r="V50" t="n">
         <v>34.25757885762052</v>
       </c>
-      <c r="V50" t="n">
+      <c r="W50" t="n">
         <v>650</v>
       </c>
-      <c r="W50" t="n">
+      <c r="X50" t="n">
         <v>36.09183244298664</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Y50" t="n">
         <v>178.2395896</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="Z50" t="n">
         <v>200.8354572</v>
       </c>
-      <c r="Z50" t="n">
+      <c r="AA50" t="n">
         <v>212.600273</v>
       </c>
-      <c r="AA50" t="inlineStr">
+      <c r="AB50" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB50" t="n">
+      <c r="AC50" t="n">
         <v>183.1126692841666</v>
       </c>
     </row>
@@ -5445,35 +5583,38 @@
       <c r="S51" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e2e</t>
-        </is>
-      </c>
-      <c r="U51" t="n">
+      <c r="T51" t="n">
+        <v>27.3283830352178</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d161</t>
+        </is>
+      </c>
+      <c r="V51" t="n">
         <v>30.85423689062636</v>
       </c>
-      <c r="V51" t="n">
+      <c r="W51" t="n">
         <v>650</v>
       </c>
-      <c r="W51" t="n">
+      <c r="X51" t="n">
         <v>32.38184892499495</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Y51" t="n">
         <v>194.1947604</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="Z51" t="n">
         <v>216.334208</v>
       </c>
-      <c r="Z51" t="n">
+      <c r="AA51" t="n">
         <v>207.8843932</v>
       </c>
-      <c r="AA51" t="inlineStr">
+      <c r="AB51" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB51" t="n">
+      <c r="AC51" t="n">
         <v>164.2899900518814</v>
       </c>
     </row>
@@ -5545,35 +5686,38 @@
       <c r="S52" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e2c</t>
-        </is>
-      </c>
-      <c r="U52" t="n">
+      <c r="T52" t="n">
+        <v>27.70200954691511</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d15f</t>
+        </is>
+      </c>
+      <c r="V52" t="n">
         <v>37.75766475973374</v>
       </c>
-      <c r="V52" t="n">
+      <c r="W52" t="n">
         <v>650</v>
       </c>
-      <c r="W52" t="n">
+      <c r="X52" t="n">
         <v>39.72235375181543</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Y52" t="n">
         <v>202.1448852</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="Z52" t="n">
         <v>213.350752</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="AA52" t="n">
         <v>189.653709</v>
       </c>
-      <c r="AA52" t="inlineStr">
+      <c r="AB52" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB52" t="n">
+      <c r="AC52" t="n">
         <v>201.5321953307547</v>
       </c>
     </row>
@@ -5645,35 +5789,38 @@
       <c r="S53" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e34</t>
-        </is>
-      </c>
-      <c r="U53" t="n">
+      <c r="T53" t="n">
+        <v>41.93540680931516</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d167</t>
+        </is>
+      </c>
+      <c r="V53" t="n">
         <v>29.37112660874637</v>
       </c>
-      <c r="V53" t="n">
+      <c r="W53" t="n">
         <v>650</v>
       </c>
-      <c r="W53" t="n">
+      <c r="X53" t="n">
         <v>31.31760972163682</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Y53" t="n">
         <v>237.2183298</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="Z53" t="n">
         <v>200.996328</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="AA53" t="n">
         <v>193.0396564</v>
       </c>
-      <c r="AA53" t="inlineStr">
+      <c r="AB53" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB53" t="n">
+      <c r="AC53" t="n">
         <v>158.8905501206559</v>
       </c>
     </row>
@@ -5745,35 +5892,38 @@
       <c r="S54" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e30</t>
-        </is>
-      </c>
-      <c r="U54" t="n">
+      <c r="T54" t="n">
+        <v>30.68271344522816</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d163</t>
+        </is>
+      </c>
+      <c r="V54" t="n">
         <v>31.26630668964022</v>
       </c>
-      <c r="V54" t="n">
+      <c r="W54" t="n">
         <v>650</v>
       </c>
-      <c r="W54" t="n">
+      <c r="X54" t="n">
         <v>33.26655763354914</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Y54" t="n">
         <v>183.522582</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="Z54" t="n">
         <v>214.848088</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="AA54" t="n">
         <v>213.2449926</v>
       </c>
-      <c r="AA54" t="inlineStr">
+      <c r="AB54" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB54" t="n">
+      <c r="AC54" t="n">
         <v>168.7785782502837</v>
       </c>
     </row>
@@ -5845,35 +5995,38 @@
       <c r="S55" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e2a</t>
-        </is>
-      </c>
-      <c r="U55" t="n">
+      <c r="T55" t="n">
+        <v>33.27158390109972</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d15d</t>
+        </is>
+      </c>
+      <c r="V55" t="n">
         <v>35.93591371347527</v>
       </c>
-      <c r="V55" t="n">
+      <c r="W55" t="n">
         <v>650</v>
       </c>
-      <c r="W55" t="n">
+      <c r="X55" t="n">
         <v>37.8374520489627</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Y55" t="n">
         <v>198.0672057</v>
       </c>
-      <c r="Y55" t="n">
+      <c r="Z55" t="n">
         <v>179.28776</v>
       </c>
-      <c r="Z55" t="n">
+      <c r="AA55" t="n">
         <v>178.7524684</v>
       </c>
-      <c r="AA55" t="inlineStr">
+      <c r="AB55" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB55" t="n">
+      <c r="AC55" t="n">
         <v>191.969106986796</v>
       </c>
     </row>
@@ -5945,35 +6098,38 @@
       <c r="S56" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9eb0</t>
-        </is>
-      </c>
-      <c r="U56" t="n">
+      <c r="T56" t="n">
+        <v>21.98782479412865</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1e3</t>
+        </is>
+      </c>
+      <c r="V56" t="n">
         <v>26.75159642829821</v>
       </c>
-      <c r="V56" t="n">
+      <c r="W56" t="n">
         <v>650</v>
       </c>
-      <c r="W56" t="n">
+      <c r="X56" t="n">
         <v>27.98827875242617</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Y56" t="n">
         <v>186.074408</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="Z56" t="n">
         <v>200.636169</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="AA56" t="n">
         <v>176.0464584</v>
       </c>
-      <c r="AA56" t="inlineStr">
+      <c r="AB56" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB56" t="n">
+      <c r="AC56" t="n">
         <v>141.9991195825794</v>
       </c>
     </row>
@@ -6045,35 +6201,38 @@
       <c r="S57" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9eac</t>
-        </is>
-      </c>
-      <c r="U57" t="n">
+      <c r="T57" t="n">
+        <v>29.8958373713266</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1df</t>
+        </is>
+      </c>
+      <c r="V57" t="n">
         <v>38.40391965831266</v>
       </c>
-      <c r="V57" t="n">
+      <c r="W57" t="n">
         <v>650</v>
       </c>
-      <c r="W57" t="n">
+      <c r="X57" t="n">
         <v>40.49156779534093</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Y57" t="n">
         <v>206.45495</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="Z57" t="n">
         <v>179.998743</v>
       </c>
-      <c r="Z57" t="n">
+      <c r="AA57" t="n">
         <v>180.8886672</v>
       </c>
-      <c r="AA57" t="inlineStr">
+      <c r="AB57" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB57" t="n">
+      <c r="AC57" t="n">
         <v>205.4348189224862</v>
       </c>
     </row>
@@ -6145,35 +6304,38 @@
       <c r="S58" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9eae</t>
-        </is>
-      </c>
-      <c r="U58" t="n">
+      <c r="T58" t="n">
+        <v>27.37609638250515</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1e1</t>
+        </is>
+      </c>
+      <c r="V58" t="n">
         <v>32.16334363604162</v>
       </c>
-      <c r="V58" t="n">
+      <c r="W58" t="n">
         <v>650</v>
       </c>
-      <c r="W58" t="n">
+      <c r="X58" t="n">
         <v>34.23085162185648</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Y58" t="n">
         <v>220.036024</v>
       </c>
-      <c r="Y58" t="n">
+      <c r="Z58" t="n">
         <v>193.494339</v>
       </c>
-      <c r="Z58" t="n">
+      <c r="AA58" t="n">
         <v>203.959704</v>
       </c>
-      <c r="AA58" t="inlineStr">
+      <c r="AB58" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB58" t="n">
+      <c r="AC58" t="n">
         <v>173.6709440356055</v>
       </c>
     </row>
@@ -6245,35 +6407,38 @@
       <c r="S59" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9eb4</t>
-        </is>
-      </c>
-      <c r="U59" t="n">
+      <c r="T59" t="n">
+        <v>34.23979670876284</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1e7</t>
+        </is>
+      </c>
+      <c r="V59" t="n">
         <v>32.09378189939193</v>
       </c>
-      <c r="V59" t="n">
+      <c r="W59" t="n">
         <v>650</v>
       </c>
-      <c r="W59" t="n">
+      <c r="X59" t="n">
         <v>34.18766031910848</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Y59" t="n">
         <v>213.951036</v>
       </c>
-      <c r="Y59" t="n">
+      <c r="Z59" t="n">
         <v>193.863744</v>
       </c>
-      <c r="Z59" t="n">
+      <c r="AA59" t="n">
         <v>199.9188864</v>
       </c>
-      <c r="AA59" t="inlineStr">
+      <c r="AB59" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB59" t="n">
+      <c r="AC59" t="n">
         <v>173.4518120547469</v>
       </c>
     </row>
@@ -6345,35 +6510,38 @@
       <c r="S60" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9eb0</t>
-        </is>
-      </c>
-      <c r="U60" t="n">
+      <c r="T60" t="n">
+        <v>27.46770745525233</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1e3</t>
+        </is>
+      </c>
+      <c r="V60" t="n">
         <v>26.75159642829821</v>
       </c>
-      <c r="V60" t="n">
+      <c r="W60" t="n">
         <v>650</v>
       </c>
-      <c r="W60" t="n">
+      <c r="X60" t="n">
         <v>27.98827875242617</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Y60" t="n">
         <v>157.27491</v>
       </c>
-      <c r="Y60" t="n">
+      <c r="Z60" t="n">
         <v>142.0386852</v>
       </c>
-      <c r="Z60" t="n">
+      <c r="AA60" t="n">
         <v>140.9094048</v>
       </c>
-      <c r="AA60" t="inlineStr">
+      <c r="AB60" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB60" t="n">
+      <c r="AC60" t="n">
         <v>141.9991195825794</v>
       </c>
     </row>
@@ -6445,35 +6613,38 @@
       <c r="S61" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9eb6</t>
-        </is>
-      </c>
-      <c r="U61" t="n">
+      <c r="T61" t="n">
+        <v>22.37058286069859</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1e9</t>
+        </is>
+      </c>
+      <c r="V61" t="n">
         <v>24.93367827849588</v>
       </c>
-      <c r="V61" t="n">
+      <c r="W61" t="n">
         <v>650</v>
       </c>
-      <c r="W61" t="n">
+      <c r="X61" t="n">
         <v>26.12262468519387</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Y61" t="n">
         <v>145.60507</v>
       </c>
-      <c r="Y61" t="n">
+      <c r="Z61" t="n">
         <v>124.0609752</v>
       </c>
-      <c r="Z61" t="n">
+      <c r="AA61" t="n">
         <v>143.3869452</v>
       </c>
-      <c r="AA61" t="inlineStr">
+      <c r="AB61" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB61" t="n">
+      <c r="AC61" t="n">
         <v>132.5336845218514</v>
       </c>
     </row>
@@ -6545,35 +6716,38 @@
       <c r="S62" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e84</t>
-        </is>
-      </c>
-      <c r="U62" t="n">
+      <c r="T62" t="n">
+        <v>30.83395251891357</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1b7</t>
+        </is>
+      </c>
+      <c r="V62" t="n">
         <v>40.67925184789009</v>
       </c>
-      <c r="V62" t="n">
+      <c r="W62" t="n">
         <v>650</v>
       </c>
-      <c r="W62" t="n">
+      <c r="X62" t="n">
         <v>43.39585243653489</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Y62" t="n">
         <v>210.4465</v>
       </c>
-      <c r="Y62" t="n">
+      <c r="Z62" t="n">
         <v>203.2142634</v>
       </c>
-      <c r="Z62" t="n">
+      <c r="AA62" t="n">
         <v>207.1496</v>
       </c>
-      <c r="AA62" t="inlineStr">
+      <c r="AB62" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB62" t="n">
+      <c r="AC62" t="n">
         <v>220.1697679958014</v>
       </c>
     </row>
@@ -6645,35 +6819,38 @@
       <c r="S63" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e82</t>
-        </is>
-      </c>
-      <c r="U63" t="n">
+      <c r="T63" t="n">
+        <v>26.04999328378237</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1b5</t>
+        </is>
+      </c>
+      <c r="V63" t="n">
         <v>22.54187142791142</v>
       </c>
-      <c r="V63" t="n">
+      <c r="W63" t="n">
         <v>650</v>
       </c>
-      <c r="W63" t="n">
+      <c r="X63" t="n">
         <v>23.69980835184827</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Y63" t="n">
         <v>138.677</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="Z63" t="n">
         <v>91.30221450000001</v>
       </c>
-      <c r="Z63" t="n">
+      <c r="AA63" t="n">
         <v>118.7256</v>
       </c>
-      <c r="AA63" t="inlineStr">
+      <c r="AB63" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB63" t="n">
+      <c r="AC63" t="n">
         <v>120.2414750119848</v>
       </c>
     </row>
@@ -6745,35 +6922,38 @@
       <c r="S64" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e93</t>
-        </is>
-      </c>
-      <c r="U64" t="n">
+      <c r="T64" t="n">
+        <v>20.58515230206198</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1c6</t>
+        </is>
+      </c>
+      <c r="V64" t="n">
         <v>29.08019406234924</v>
       </c>
-      <c r="V64" t="n">
+      <c r="W64" t="n">
         <v>650</v>
       </c>
-      <c r="W64" t="n">
+      <c r="X64" t="n">
         <v>30.66578121490211</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Y64" t="n">
         <v>148.0542308</v>
       </c>
-      <c r="Y64" t="n">
+      <c r="Z64" t="n">
         <v>147.515963</v>
       </c>
-      <c r="Z64" t="n">
+      <c r="AA64" t="n">
         <v>160.897167</v>
       </c>
-      <c r="AA64" t="inlineStr">
+      <c r="AB64" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB64" t="n">
+      <c r="AC64" t="n">
         <v>155.58348451316</v>
       </c>
     </row>
@@ -6845,35 +7025,38 @@
       <c r="S65" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e97</t>
-        </is>
-      </c>
-      <c r="U65" t="n">
+      <c r="T65" t="n">
+        <v>36.98361168795843</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1ca</t>
+        </is>
+      </c>
+      <c r="V65" t="n">
         <v>43.38638418527958</v>
       </c>
-      <c r="V65" t="n">
+      <c r="W65" t="n">
         <v>650</v>
       </c>
-      <c r="W65" t="n">
+      <c r="X65" t="n">
         <v>46.29831620342251</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Y65" t="n">
         <v>236.3077148</v>
       </c>
-      <c r="Y65" t="n">
+      <c r="Z65" t="n">
         <v>252.50855</v>
       </c>
-      <c r="Z65" t="n">
+      <c r="AA65" t="n">
         <v>254.023302</v>
       </c>
-      <c r="AA65" t="inlineStr">
+      <c r="AB65" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB65" t="n">
+      <c r="AC65" t="n">
         <v>234.8954788251125</v>
       </c>
     </row>
@@ -6945,35 +7128,38 @@
       <c r="S66" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e95</t>
-        </is>
-      </c>
-      <c r="U66" t="n">
+      <c r="T66" t="n">
+        <v>30.21116054246656</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d1c8</t>
+        </is>
+      </c>
+      <c r="V66" t="n">
         <v>33.32622323966425</v>
       </c>
-      <c r="V66" t="n">
+      <c r="W66" t="n">
         <v>650</v>
       </c>
-      <c r="W66" t="n">
+      <c r="X66" t="n">
         <v>34.86079677150205</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Y66" t="n">
         <v>196.041336</v>
       </c>
-      <c r="Y66" t="n">
+      <c r="Z66" t="n">
         <v>192.374588</v>
       </c>
-      <c r="Z66" t="n">
+      <c r="AA66" t="n">
         <v>212.0383212</v>
       </c>
-      <c r="AA66" t="inlineStr">
+      <c r="AB66" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB66" t="n">
+      <c r="AC66" t="n">
         <v>176.8669839716888</v>
       </c>
     </row>
@@ -7045,35 +7231,38 @@
       <c r="S67" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e61</t>
-        </is>
-      </c>
-      <c r="U67" t="n">
+      <c r="T67" t="n">
+        <v>16.96199730106573</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d194</t>
+        </is>
+      </c>
+      <c r="V67" t="n">
         <v>24.10461459579914</v>
       </c>
-      <c r="V67" t="n">
+      <c r="W67" t="n">
         <v>650</v>
       </c>
-      <c r="W67" t="n">
+      <c r="X67" t="n">
         <v>25.24244905317495</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Y67" t="n">
         <v>113.773372</v>
       </c>
-      <c r="Y67" t="n">
+      <c r="Z67" t="n">
         <v>105.2225832</v>
       </c>
-      <c r="Z67" t="n">
+      <c r="AA67" t="n">
         <v>145.3838103</v>
       </c>
-      <c r="AA67" t="inlineStr">
+      <c r="AB67" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB67" t="n">
+      <c r="AC67" t="n">
         <v>128.068094982377</v>
       </c>
     </row>
@@ -7145,35 +7334,38 @@
       <c r="S68" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e65</t>
-        </is>
-      </c>
-      <c r="U68" t="n">
+      <c r="T68" t="n">
+        <v>37.03986706110714</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d198</t>
+        </is>
+      </c>
+      <c r="V68" t="n">
         <v>36.60183566358501</v>
       </c>
-      <c r="V68" t="n">
+      <c r="W68" t="n">
         <v>650</v>
       </c>
-      <c r="W68" t="n">
+      <c r="X68" t="n">
         <v>38.28575134014226</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Y68" t="n">
         <v>178.211388</v>
       </c>
-      <c r="Y68" t="n">
+      <c r="Z68" t="n">
         <v>194.031663</v>
       </c>
-      <c r="Z68" t="n">
+      <c r="AA68" t="n">
         <v>197.0165439</v>
       </c>
-      <c r="AA68" t="inlineStr">
+      <c r="AB68" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB68" t="n">
+      <c r="AC68" t="n">
         <v>194.243562848126</v>
       </c>
     </row>
@@ -7245,35 +7437,38 @@
       <c r="S69" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e5f</t>
-        </is>
-      </c>
-      <c r="U69" t="n">
+      <c r="T69" t="n">
+        <v>31.66398738394879</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d192</t>
+        </is>
+      </c>
+      <c r="V69" t="n">
         <v>37.17551157320088</v>
       </c>
-      <c r="V69" t="n">
+      <c r="W69" t="n">
         <v>650</v>
       </c>
-      <c r="W69" t="n">
+      <c r="X69" t="n">
         <v>39.24645461442449</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Y69" t="n">
         <v>220.68932</v>
       </c>
-      <c r="Y69" t="n">
+      <c r="Z69" t="n">
         <v>231.9967118</v>
       </c>
-      <c r="Z69" t="n">
+      <c r="AA69" t="n">
         <v>217.8043428</v>
       </c>
-      <c r="AA69" t="inlineStr">
+      <c r="AB69" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB69" t="n">
+      <c r="AC69" t="n">
         <v>199.1177110704904</v>
       </c>
     </row>
@@ -7345,35 +7540,38 @@
       <c r="S70" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9e67</t>
-        </is>
-      </c>
-      <c r="U70" t="n">
+      <c r="T70" t="n">
+        <v>16.96199730106573</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d19a</t>
+        </is>
+      </c>
+      <c r="V70" t="n">
         <v>20.90913542262717</v>
       </c>
-      <c r="V70" t="n">
+      <c r="W70" t="n">
         <v>650</v>
       </c>
-      <c r="W70" t="n">
+      <c r="X70" t="n">
         <v>21.94392189345892</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Y70" t="n">
         <v>131.02578</v>
       </c>
-      <c r="Y70" t="n">
+      <c r="Z70" t="n">
         <v>120.066443</v>
       </c>
-      <c r="Z70" t="n">
+      <c r="AA70" t="n">
         <v>106.5088608</v>
       </c>
-      <c r="AA70" t="inlineStr">
+      <c r="AB70" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB70" t="n">
+      <c r="AC70" t="n">
         <v>111.3329482181873</v>
       </c>
     </row>
@@ -7445,35 +7643,38 @@
       <c r="S71" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f17</t>
-        </is>
-      </c>
-      <c r="U71" t="n">
+      <c r="T71" t="n">
+        <v>28.38671296453755</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d24a</t>
+        </is>
+      </c>
+      <c r="V71" t="n">
         <v>23.45561017631241</v>
       </c>
-      <c r="V71" t="n">
+      <c r="W71" t="n">
         <v>650</v>
       </c>
-      <c r="W71" t="n">
+      <c r="X71" t="n">
         <v>24.74788904089393</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Y71" t="n">
         <v>149.934981</v>
       </c>
-      <c r="Y71" t="n">
+      <c r="Z71" t="n">
         <v>198.0706965</v>
       </c>
-      <c r="Z71" t="n">
+      <c r="AA71" t="n">
         <v>155.7928064</v>
       </c>
-      <c r="AA71" t="inlineStr">
+      <c r="AB71" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB71" t="n">
+      <c r="AC71" t="n">
         <v>125.5589343817607</v>
       </c>
     </row>
@@ -7545,35 +7746,38 @@
       <c r="S72" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f1b</t>
-        </is>
-      </c>
-      <c r="U72" t="n">
+      <c r="T72" t="n">
+        <v>33.4550247026566</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d24e</t>
+        </is>
+      </c>
+      <c r="V72" t="n">
         <v>29.34282427226523</v>
       </c>
-      <c r="V72" t="n">
+      <c r="W72" t="n">
         <v>650</v>
       </c>
-      <c r="W72" t="n">
+      <c r="X72" t="n">
         <v>31.3067430059759</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Y72" t="n">
         <v>168.808755</v>
       </c>
-      <c r="Y72" t="n">
+      <c r="Z72" t="n">
         <v>169.184835</v>
       </c>
-      <c r="Z72" t="n">
+      <c r="AA72" t="n">
         <v>181.1057721</v>
       </c>
-      <c r="AA72" t="inlineStr">
+      <c r="AB72" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB72" t="n">
+      <c r="AC72" t="n">
         <v>158.8354176107129</v>
       </c>
     </row>
@@ -7645,35 +7849,38 @@
       <c r="S73" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f13</t>
-        </is>
-      </c>
-      <c r="U73" t="n">
+      <c r="T73" t="n">
+        <v>33.1420643149842</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d246</t>
+        </is>
+      </c>
+      <c r="V73" t="n">
         <v>29.16230452194101</v>
       </c>
-      <c r="V73" t="n">
+      <c r="W73" t="n">
         <v>650</v>
       </c>
-      <c r="W73" t="n">
+      <c r="X73" t="n">
         <v>30.71324904255253</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Y73" t="n">
         <v>184.391871</v>
       </c>
-      <c r="Y73" t="n">
+      <c r="Z73" t="n">
         <v>196.8157104</v>
       </c>
-      <c r="Z73" t="n">
+      <c r="AA73" t="n">
         <v>161.4409687</v>
       </c>
-      <c r="AA73" t="inlineStr">
+      <c r="AB73" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB73" t="n">
+      <c r="AC73" t="n">
         <v>155.8243135328536</v>
       </c>
     </row>
@@ -7745,35 +7952,38 @@
       <c r="S74" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f15</t>
-        </is>
-      </c>
-      <c r="U74" t="n">
+      <c r="T74" t="n">
+        <v>33.14005842525147</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d248</t>
+        </is>
+      </c>
+      <c r="V74" t="n">
         <v>29.64478300219904</v>
       </c>
-      <c r="V74" t="n">
+      <c r="W74" t="n">
         <v>650</v>
       </c>
-      <c r="W74" t="n">
+      <c r="X74" t="n">
         <v>31.43136992710871</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Y74" t="n">
         <v>189.527898</v>
       </c>
-      <c r="Y74" t="n">
+      <c r="Z74" t="n">
         <v>190.0324311</v>
       </c>
-      <c r="Z74" t="n">
+      <c r="AA74" t="n">
         <v>196.1600597</v>
       </c>
-      <c r="AA74" t="inlineStr">
+      <c r="AB74" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB74" t="n">
+      <c r="AC74" t="n">
         <v>159.4677149103678</v>
       </c>
     </row>
@@ -7845,35 +8055,38 @@
       <c r="S75" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f19</t>
-        </is>
-      </c>
-      <c r="U75" t="n">
+      <c r="T75" t="n">
+        <v>28.87216403715156</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d24c</t>
+        </is>
+      </c>
+      <c r="V75" t="n">
         <v>30.07532710309617</v>
       </c>
-      <c r="V75" t="n">
+      <c r="W75" t="n">
         <v>650</v>
       </c>
-      <c r="W75" t="n">
+      <c r="X75" t="n">
         <v>32.0676294562499</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Y75" t="n">
         <v>194.028798</v>
       </c>
-      <c r="Y75" t="n">
+      <c r="Z75" t="n">
         <v>164.0007363</v>
       </c>
-      <c r="Z75" t="n">
+      <c r="AA75" t="n">
         <v>172.698031</v>
       </c>
-      <c r="AA75" t="inlineStr">
+      <c r="AB75" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB75" t="n">
+      <c r="AC75" t="n">
         <v>162.695790983329</v>
       </c>
     </row>
@@ -7945,35 +8158,38 @@
       <c r="S76" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9edf</t>
-        </is>
-      </c>
-      <c r="U76" t="n">
+      <c r="T76" t="n">
+        <v>29.46620218500994</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d212</t>
+        </is>
+      </c>
+      <c r="V76" t="n">
         <v>29.18439320775132</v>
       </c>
-      <c r="V76" t="n">
+      <c r="W76" t="n">
         <v>650</v>
       </c>
-      <c r="W76" t="n">
+      <c r="X76" t="n">
         <v>30.6435079454619</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Y76" t="n">
         <v>191.040336</v>
       </c>
-      <c r="Y76" t="n">
+      <c r="Z76" t="n">
         <v>163.4123205</v>
       </c>
-      <c r="Z76" t="n">
+      <c r="AA76" t="n">
         <v>182.77805</v>
       </c>
-      <c r="AA76" t="inlineStr">
+      <c r="AB76" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB76" t="n">
+      <c r="AC76" t="n">
         <v>155.4704806132521</v>
       </c>
     </row>
@@ -8045,35 +8261,38 @@
       <c r="S77" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9ee3</t>
-        </is>
-      </c>
-      <c r="U77" t="n">
+      <c r="T77" t="n">
+        <v>27.70200954691521</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d216</t>
+        </is>
+      </c>
+      <c r="V77" t="n">
         <v>35.4713803561117</v>
       </c>
-      <c r="V77" t="n">
+      <c r="W77" t="n">
         <v>650</v>
       </c>
-      <c r="W77" t="n">
+      <c r="X77" t="n">
         <v>37.24803453586532</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Y77" t="n">
         <v>212.9399484</v>
       </c>
-      <c r="Y77" t="n">
+      <c r="Z77" t="n">
         <v>209.3014858</v>
       </c>
-      <c r="Z77" t="n">
+      <c r="AA77" t="n">
         <v>198.9535912</v>
       </c>
-      <c r="AA77" t="inlineStr">
+      <c r="AB77" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB77" t="n">
+      <c r="AC77" t="n">
         <v>188.9786848652096</v>
       </c>
     </row>
@@ -8145,35 +8364,38 @@
       <c r="S78" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9ee5</t>
-        </is>
-      </c>
-      <c r="U78" t="n">
+      <c r="T78" t="n">
+        <v>29.21920718153239</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d218</t>
+        </is>
+      </c>
+      <c r="V78" t="n">
         <v>25.49833861629317</v>
       </c>
-      <c r="V78" t="n">
+      <c r="W78" t="n">
         <v>650</v>
       </c>
-      <c r="W78" t="n">
+      <c r="X78" t="n">
         <v>26.70852705715236</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Y78" t="n">
         <v>168.8070048</v>
       </c>
-      <c r="Y78" t="n">
+      <c r="Z78" t="n">
         <v>145.6034228</v>
       </c>
-      <c r="Z78" t="n">
+      <c r="AA78" t="n">
         <v>127.12245</v>
       </c>
-      <c r="AA78" t="inlineStr">
+      <c r="AB78" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB78" t="n">
+      <c r="AC78" t="n">
         <v>135.5062725011046</v>
       </c>
     </row>
@@ -8245,35 +8467,38 @@
       <c r="S79" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9ee1</t>
-        </is>
-      </c>
-      <c r="U79" t="n">
+      <c r="T79" t="n">
+        <v>25.79125257834085</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>66f5ab0114f9f3f112e9d214</t>
+        </is>
+      </c>
+      <c r="V79" t="n">
         <v>28.504458265815</v>
       </c>
-      <c r="V79" t="n">
+      <c r="W79" t="n">
         <v>650</v>
       </c>
-      <c r="W79" t="n">
+      <c r="X79" t="n">
         <v>30.37328768699431</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Y79" t="n">
         <v>203.842008</v>
       </c>
-      <c r="Y79" t="n">
+      <c r="Z79" t="n">
         <v>184.9533477</v>
       </c>
-      <c r="Z79" t="n">
+      <c r="AA79" t="n">
         <v>204.9745152</v>
       </c>
-      <c r="AA79" t="inlineStr">
+      <c r="AB79" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB79" t="n">
+      <c r="AC79" t="n">
         <v>154.0995124613628</v>
       </c>
     </row>
@@ -8345,35 +8570,38 @@
       <c r="S80" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f02</t>
-        </is>
-      </c>
-      <c r="U80" t="n">
+      <c r="T80" t="n">
+        <v>32.68483238424619</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d235</t>
+        </is>
+      </c>
+      <c r="V80" t="n">
         <v>34.92883069854791</v>
       </c>
-      <c r="V80" t="n">
+      <c r="W80" t="n">
         <v>650</v>
       </c>
-      <c r="W80" t="n">
+      <c r="X80" t="n">
         <v>36.5452183595065</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Y80" t="n">
         <v>250.5981162</v>
       </c>
-      <c r="Y80" t="n">
+      <c r="Z80" t="n">
         <v>278.8856137</v>
       </c>
-      <c r="Z80" t="n">
+      <c r="AA80" t="n">
         <v>319.0506036</v>
       </c>
-      <c r="AA80" t="inlineStr">
+      <c r="AB80" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB80" t="n">
+      <c r="AC80" t="n">
         <v>185.412932245903</v>
       </c>
     </row>
@@ -8445,35 +8673,38 @@
       <c r="S81" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f00</t>
-        </is>
-      </c>
-      <c r="U81" t="n">
+      <c r="T81" t="n">
+        <v>53.57244718260473</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d233</t>
+        </is>
+      </c>
+      <c r="V81" t="n">
         <v>38.37429191068769</v>
       </c>
-      <c r="V81" t="n">
+      <c r="W81" t="n">
         <v>650</v>
       </c>
-      <c r="W81" t="n">
+      <c r="X81" t="n">
         <v>40.14711373068555</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Y81" t="n">
         <v>247.933308</v>
       </c>
-      <c r="Y81" t="n">
+      <c r="Z81" t="n">
         <v>240.8330991</v>
       </c>
-      <c r="Z81" t="n">
+      <c r="AA81" t="n">
         <v>275.5380104</v>
       </c>
-      <c r="AA81" t="inlineStr">
+      <c r="AB81" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB81" t="n">
+      <c r="AC81" t="n">
         <v>203.6872239971118</v>
       </c>
     </row>
@@ -8545,35 +8776,38 @@
       <c r="S82" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f40</t>
-        </is>
-      </c>
-      <c r="U82" t="n">
+      <c r="T82" t="n">
+        <v>29.73982798464326</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d273</t>
+        </is>
+      </c>
+      <c r="V82" t="n">
         <v>35.07836596889597</v>
       </c>
-      <c r="V82" t="n">
+      <c r="W82" t="n">
         <v>650</v>
       </c>
-      <c r="W82" t="n">
+      <c r="X82" t="n">
         <v>37.22514379611263</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Y82" t="n">
         <v>194.812695</v>
       </c>
-      <c r="Y82" t="n">
+      <c r="Z82" t="n">
         <v>140.0544524</v>
       </c>
-      <c r="Z82" t="n">
+      <c r="AA82" t="n">
         <v>229.5389558</v>
       </c>
-      <c r="AA82" t="inlineStr">
+      <c r="AB82" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB82" t="n">
+      <c r="AC82" t="n">
         <v>188.8625482167137</v>
       </c>
     </row>
@@ -8645,35 +8879,38 @@
       <c r="S83" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f40</t>
-        </is>
-      </c>
-      <c r="U83" t="n">
+      <c r="T83" t="n">
+        <v>31.5389983048502</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d273</t>
+        </is>
+      </c>
+      <c r="V83" t="n">
         <v>35.07836596889597</v>
       </c>
-      <c r="V83" t="n">
+      <c r="W83" t="n">
         <v>650</v>
       </c>
-      <c r="W83" t="n">
+      <c r="X83" t="n">
         <v>37.22514379611263</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Y83" t="n">
         <v>187.4868381</v>
       </c>
-      <c r="Y83" t="n">
+      <c r="Z83" t="n">
         <v>255.8095128</v>
       </c>
-      <c r="Z83" t="n">
+      <c r="AA83" t="n">
         <v>193.0430411</v>
       </c>
-      <c r="AA83" t="inlineStr">
+      <c r="AB83" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB83" t="n">
+      <c r="AC83" t="n">
         <v>188.8625482167137</v>
       </c>
     </row>
@@ -8745,35 +8982,38 @@
       <c r="S84" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>66f57df06e41de5c74ce9f44</t>
-        </is>
-      </c>
-      <c r="U84" t="n">
+      <c r="T84" t="n">
+        <v>23.38893665607673</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d277</t>
+        </is>
+      </c>
+      <c r="V84" t="n">
         <v>22.75836596460734</v>
       </c>
-      <c r="V84" t="n">
+      <c r="W84" t="n">
         <v>650</v>
       </c>
-      <c r="W84" t="n">
+      <c r="X84" t="n">
         <v>23.92613145938843</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Y84" t="n">
         <v>192.6649764</v>
       </c>
-      <c r="Y84" t="n">
+      <c r="Z84" t="n">
         <v>179.996578</v>
       </c>
-      <c r="Z84" t="n">
+      <c r="AA84" t="n">
         <v>154.3515579</v>
       </c>
-      <c r="AA84" t="inlineStr">
+      <c r="AB84" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB84" t="n">
+      <c r="AC84" t="n">
         <v>121.389730047465</v>
       </c>
     </row>
@@ -8845,35 +9085,38 @@
       <c r="S85" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f5b</t>
-        </is>
-      </c>
-      <c r="U85" t="n">
+      <c r="T85" t="n">
+        <v>40.75549832200399</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d28e</t>
+        </is>
+      </c>
+      <c r="V85" t="n">
         <v>33.35784632264981</v>
       </c>
-      <c r="V85" t="n">
+      <c r="W85" t="n">
         <v>650</v>
       </c>
-      <c r="W85" t="n">
+      <c r="X85" t="n">
         <v>35.46748611602736</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Y85" t="n">
         <v>227.43788</v>
       </c>
-      <c r="Y85" t="n">
+      <c r="Z85" t="n">
         <v>211.2059622</v>
       </c>
-      <c r="Z85" t="n">
+      <c r="AA85" t="n">
         <v>214.8492135</v>
       </c>
-      <c r="AA85" t="inlineStr">
+      <c r="AB85" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB85" t="n">
+      <c r="AC85" t="n">
         <v>179.945035092473</v>
       </c>
     </row>
@@ -8945,35 +9188,38 @@
       <c r="S86" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f5f</t>
-        </is>
-      </c>
-      <c r="U86" t="n">
+      <c r="T86" t="n">
+        <v>25.18460827935449</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d292</t>
+        </is>
+      </c>
+      <c r="V86" t="n">
         <v>31.04787705045162</v>
       </c>
-      <c r="V86" t="n">
+      <c r="W86" t="n">
         <v>650</v>
       </c>
-      <c r="W86" t="n">
+      <c r="X86" t="n">
         <v>33.13368738475587</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Y86" t="n">
         <v>216.92006</v>
       </c>
-      <c r="Y86" t="n">
+      <c r="Z86" t="n">
         <v>213.357303</v>
       </c>
-      <c r="Z86" t="n">
+      <c r="AA86" t="n">
         <v>221.77578</v>
       </c>
-      <c r="AA86" t="inlineStr">
+      <c r="AB86" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB86" t="n">
+      <c r="AC86" t="n">
         <v>168.1044582547578</v>
       </c>
     </row>
@@ -9045,35 +9291,38 @@
       <c r="S87" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f5d</t>
-        </is>
-      </c>
-      <c r="U87" t="n">
+      <c r="T87" t="n">
+        <v>25.18460827935449</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d290</t>
+        </is>
+      </c>
+      <c r="V87" t="n">
         <v>23.7487084593461</v>
       </c>
-      <c r="V87" t="n">
+      <c r="W87" t="n">
         <v>650</v>
       </c>
-      <c r="W87" t="n">
+      <c r="X87" t="n">
         <v>24.92495337039063</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Y87" t="n">
         <v>209.30032</v>
       </c>
-      <c r="Y87" t="n">
+      <c r="Z87" t="n">
         <v>204.3149487</v>
       </c>
-      <c r="Z87" t="n">
+      <c r="AA87" t="n">
         <v>193.2056565</v>
       </c>
-      <c r="AA87" t="inlineStr">
+      <c r="AB87" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB87" t="n">
+      <c r="AC87" t="n">
         <v>126.4572739731452</v>
       </c>
     </row>
@@ -9145,35 +9394,38 @@
       <c r="S88" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f78</t>
-        </is>
-      </c>
-      <c r="U88" t="n">
+      <c r="T88" t="n">
+        <v>17.71824369658218</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2ab</t>
+        </is>
+      </c>
+      <c r="V88" t="n">
         <v>26.82585122829034</v>
       </c>
-      <c r="V88" t="n">
+      <c r="W88" t="n">
         <v>650</v>
       </c>
-      <c r="W88" t="n">
+      <c r="X88" t="n">
         <v>28.62969295236623</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Y88" t="n">
         <v>200.0373</v>
       </c>
-      <c r="Y88" t="n">
+      <c r="Z88" t="n">
         <v>216.0380712</v>
       </c>
-      <c r="Z88" t="n">
+      <c r="AA88" t="n">
         <v>204.0411248</v>
       </c>
-      <c r="AA88" t="inlineStr">
+      <c r="AB88" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB88" t="n">
+      <c r="AC88" t="n">
         <v>145.2533479860091</v>
       </c>
     </row>
@@ -9245,35 +9497,38 @@
       <c r="S89" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f76</t>
-        </is>
-      </c>
-      <c r="U89" t="n">
+      <c r="T89" t="n">
+        <v>20.03295143990844</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2a9</t>
+        </is>
+      </c>
+      <c r="V89" t="n">
         <v>29.99725348006667</v>
       </c>
-      <c r="V89" t="n">
+      <c r="W89" t="n">
         <v>650</v>
       </c>
-      <c r="W89" t="n">
+      <c r="X89" t="n">
         <v>31.81175183768788</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Y89" t="n">
         <v>227.7557</v>
       </c>
-      <c r="Y89" t="n">
+      <c r="Z89" t="n">
         <v>200.880792</v>
       </c>
-      <c r="Z89" t="n">
+      <c r="AA89" t="n">
         <v>205.2503952</v>
       </c>
-      <c r="AA89" t="inlineStr">
+      <c r="AB89" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB89" t="n">
+      <c r="AC89" t="n">
         <v>161.39759051598</v>
       </c>
     </row>
@@ -9345,35 +9600,38 @@
       <c r="S90" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f8f</t>
-        </is>
-      </c>
-      <c r="U90" t="n">
+      <c r="T90" t="n">
+        <v>24.66489879432554</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2c2</t>
+        </is>
+      </c>
+      <c r="V90" t="n">
         <v>32.32488457947977</v>
       </c>
-      <c r="V90" t="n">
+      <c r="W90" t="n">
         <v>650</v>
       </c>
-      <c r="W90" t="n">
+      <c r="X90" t="n">
         <v>34.49344494185626</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Y90" t="n">
         <v>212.6408115</v>
       </c>
-      <c r="Y90" t="n">
+      <c r="Z90" t="n">
         <v>216.5177712</v>
       </c>
-      <c r="Z90" t="n">
+      <c r="AA90" t="n">
         <v>226.0625328</v>
       </c>
-      <c r="AA90" t="inlineStr">
+      <c r="AB90" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB90" t="n">
+      <c r="AC90" t="n">
         <v>175.0032167551275</v>
       </c>
     </row>
@@ -9445,35 +9703,38 @@
       <c r="S91" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f97</t>
-        </is>
-      </c>
-      <c r="U91" t="n">
+      <c r="T91" t="n">
+        <v>35.88947025932993</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2ca</t>
+        </is>
+      </c>
+      <c r="V91" t="n">
         <v>15.49633590386625</v>
       </c>
-      <c r="V91" t="n">
+      <c r="W91" t="n">
         <v>650</v>
       </c>
-      <c r="W91" t="n">
+      <c r="X91" t="n">
         <v>16.40557708244201</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Y91" t="n">
         <v>168.7624641</v>
       </c>
-      <c r="Y91" t="n">
+      <c r="Z91" t="n">
         <v>179.7764928</v>
       </c>
-      <c r="Z91" t="n">
+      <c r="AA91" t="n">
         <v>166.7104608</v>
       </c>
-      <c r="AA91" t="inlineStr">
+      <c r="AB91" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB91" t="n">
+      <c r="AC91" t="n">
         <v>83.23403959770008</v>
       </c>
     </row>
@@ -9545,35 +9806,38 @@
       <c r="S92" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f8b</t>
-        </is>
-      </c>
-      <c r="U92" t="n">
+      <c r="T92" t="n">
+        <v>35.88947025932993</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2be</t>
+        </is>
+      </c>
+      <c r="V92" t="n">
         <v>30.67128068848474</v>
       </c>
-      <c r="V92" t="n">
+      <c r="W92" t="n">
         <v>650</v>
       </c>
-      <c r="W92" t="n">
+      <c r="X92" t="n">
         <v>32.69973564604175</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Y92" t="n">
         <v>200.0035059</v>
       </c>
-      <c r="Y92" t="n">
+      <c r="Z92" t="n">
         <v>193.0796304</v>
       </c>
-      <c r="Z92" t="n">
+      <c r="AA92" t="n">
         <v>226.4509824</v>
       </c>
-      <c r="AA92" t="inlineStr">
+      <c r="AB92" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB92" t="n">
+      <c r="AC92" t="n">
         <v>165.9027950019438</v>
       </c>
     </row>
@@ -9645,35 +9909,38 @@
       <c r="S93" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f8d</t>
-        </is>
-      </c>
-      <c r="U93" t="n">
+      <c r="T93" t="n">
+        <v>26.84452061004327</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2c0</t>
+        </is>
+      </c>
+      <c r="V93" t="n">
         <v>31.20122325344679</v>
       </c>
-      <c r="V93" t="n">
+      <c r="W93" t="n">
         <v>650</v>
       </c>
-      <c r="W93" t="n">
+      <c r="X93" t="n">
         <v>33.29506172779579</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Y93" t="n">
         <v>219.6745821</v>
       </c>
-      <c r="Y93" t="n">
+      <c r="Z93" t="n">
         <v>214.404</v>
       </c>
-      <c r="Z93" t="n">
+      <c r="AA93" t="n">
         <v>225.7447104</v>
       </c>
-      <c r="AA93" t="inlineStr">
+      <c r="AB93" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB93" t="n">
+      <c r="AC93" t="n">
         <v>168.9231943706006</v>
       </c>
     </row>
@@ -9745,35 +10012,38 @@
       <c r="S94" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f95</t>
-        </is>
-      </c>
-      <c r="U94" t="n">
+      <c r="T94" t="n">
+        <v>39.5193457598189</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2c8</t>
+        </is>
+      </c>
+      <c r="V94" t="n">
         <v>31.03798128868186</v>
       </c>
-      <c r="V94" t="n">
+      <c r="W94" t="n">
         <v>650</v>
       </c>
-      <c r="W94" t="n">
+      <c r="X94" t="n">
         <v>32.50383048039939</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Y94" t="n">
         <v>226.062612</v>
       </c>
-      <c r="Y94" t="n">
+      <c r="Z94" t="n">
         <v>195.057192</v>
       </c>
-      <c r="Z94" t="n">
+      <c r="AA94" t="n">
         <v>213.4656672</v>
       </c>
-      <c r="AA94" t="inlineStr">
+      <c r="AB94" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB94" t="n">
+      <c r="AC94" t="n">
         <v>164.9088660330005</v>
       </c>
     </row>
@@ -9845,35 +10115,38 @@
       <c r="S95" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9f95</t>
-        </is>
-      </c>
-      <c r="U95" t="n">
+      <c r="T95" t="n">
+        <v>39.5193457598189</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2c8</t>
+        </is>
+      </c>
+      <c r="V95" t="n">
         <v>31.03798128868186</v>
       </c>
-      <c r="V95" t="n">
+      <c r="W95" t="n">
         <v>650</v>
       </c>
-      <c r="W95" t="n">
+      <c r="X95" t="n">
         <v>32.50383048039939</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Y95" t="n">
         <v>246.8704053</v>
       </c>
-      <c r="Y95" t="n">
+      <c r="Z95" t="n">
         <v>211.0946112</v>
       </c>
-      <c r="Z95" t="n">
+      <c r="AA95" t="n">
         <v>220.0339968</v>
       </c>
-      <c r="AA95" t="inlineStr">
+      <c r="AB95" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB95" t="n">
+      <c r="AC95" t="n">
         <v>164.9088660330005</v>
       </c>
     </row>
@@ -9945,35 +10218,38 @@
       <c r="S96" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9fc2</t>
-        </is>
-      </c>
-      <c r="U96" t="n">
+      <c r="T96" t="n">
+        <v>33.97422550523956</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2f5</t>
+        </is>
+      </c>
+      <c r="V96" t="n">
         <v>30.82746318723289</v>
       </c>
-      <c r="V96" t="n">
+      <c r="W96" t="n">
         <v>650</v>
       </c>
-      <c r="W96" t="n">
+      <c r="X96" t="n">
         <v>32.24953325016637</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Y96" t="n">
         <v>172.0446765</v>
       </c>
-      <c r="Y96" t="n">
+      <c r="Z96" t="n">
         <v>204.0424953</v>
       </c>
-      <c r="Z96" t="n">
+      <c r="AA96" t="n">
         <v>212.3388432</v>
       </c>
-      <c r="AA96" t="inlineStr">
+      <c r="AB96" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB96" t="n">
+      <c r="AC96" t="n">
         <v>163.618683699003</v>
       </c>
     </row>
@@ -10045,35 +10321,38 @@
       <c r="S97" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9fbc</t>
-        </is>
-      </c>
-      <c r="U97" t="n">
+      <c r="T97" t="n">
+        <v>38.31015626559788</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2ef</t>
+        </is>
+      </c>
+      <c r="V97" t="n">
         <v>31.43238906973906</v>
       </c>
-      <c r="V97" t="n">
+      <c r="W97" t="n">
         <v>650</v>
       </c>
-      <c r="W97" t="n">
+      <c r="X97" t="n">
         <v>33.19033600120699</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Y97" t="n">
         <v>196.1592537</v>
       </c>
-      <c r="Y97" t="n">
+      <c r="Z97" t="n">
         <v>193.6608894</v>
       </c>
-      <c r="Z97" t="n">
+      <c r="AA97" t="n">
         <v>190.0315475</v>
       </c>
-      <c r="AA97" t="inlineStr">
+      <c r="AB97" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB97" t="n">
+      <c r="AC97" t="n">
         <v>168.3918661990901</v>
       </c>
     </row>
@@ -10145,35 +10424,38 @@
       <c r="S98" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9fc0</t>
-        </is>
-      </c>
-      <c r="U98" t="n">
+      <c r="T98" t="n">
+        <v>34.97814060596686</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2f3</t>
+        </is>
+      </c>
+      <c r="V98" t="n">
         <v>28.95420891043583</v>
       </c>
-      <c r="V98" t="n">
+      <c r="W98" t="n">
         <v>650</v>
       </c>
-      <c r="W98" t="n">
+      <c r="X98" t="n">
         <v>30.70416500133623</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Y98" t="n">
         <v>198.7140579</v>
       </c>
-      <c r="Y98" t="n">
+      <c r="Z98" t="n">
         <v>213.6545417</v>
       </c>
-      <c r="Z98" t="n">
+      <c r="AA98" t="n">
         <v>191.2082288</v>
       </c>
-      <c r="AA98" t="inlineStr">
+      <c r="AB98" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB98" t="n">
+      <c r="AC98" t="n">
         <v>155.7782254591147</v>
       </c>
     </row>
@@ -10245,35 +10527,38 @@
       <c r="S99" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9fbe</t>
-        </is>
-      </c>
-      <c r="U99" t="n">
+      <c r="T99" t="n">
+        <v>41.24282089962323</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d2f1</t>
+        </is>
+      </c>
+      <c r="V99" t="n">
         <v>32.42998690417172</v>
       </c>
-      <c r="V99" t="n">
+      <c r="W99" t="n">
         <v>650</v>
       </c>
-      <c r="W99" t="n">
+      <c r="X99" t="n">
         <v>34.42751726106706</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Y99" t="n">
         <v>225.2100363</v>
       </c>
-      <c r="Y99" t="n">
+      <c r="Z99" t="n">
         <v>214.1411019</v>
       </c>
-      <c r="Z99" t="n">
+      <c r="AA99" t="n">
         <v>229.7159932</v>
       </c>
-      <c r="AA99" t="inlineStr">
+      <c r="AB99" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB99" t="n">
+      <c r="AC99" t="n">
         <v>174.6687312831556</v>
       </c>
     </row>
@@ -10345,35 +10630,38 @@
       <c r="S100" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea0c0</t>
-        </is>
-      </c>
-      <c r="U100" t="n">
+      <c r="T100" t="n">
+        <v>19.97091471602626</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3f3</t>
+        </is>
+      </c>
+      <c r="V100" t="n">
         <v>21.18274896942842</v>
       </c>
-      <c r="V100" t="n">
+      <c r="W100" t="n">
         <v>700</v>
       </c>
-      <c r="W100" t="n">
+      <c r="X100" t="n">
         <v>22.47277084777525</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Y100" t="n">
         <v>168.236982</v>
       </c>
-      <c r="Y100" t="n">
+      <c r="Z100" t="n">
         <v>157.426414</v>
       </c>
-      <c r="Z100" t="n">
+      <c r="AA100" t="n">
         <v>143.3857494</v>
       </c>
-      <c r="AA100" t="inlineStr">
+      <c r="AB100" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB100" t="n">
+      <c r="AC100" t="n">
         <v>105.8720691653587</v>
       </c>
     </row>
@@ -10445,35 +10733,38 @@
       <c r="S101" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea0c4</t>
-        </is>
-      </c>
-      <c r="U101" t="n">
+      <c r="T101" t="n">
+        <v>19.97091471602626</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3f7</t>
+        </is>
+      </c>
+      <c r="V101" t="n">
         <v>19.24639092669706</v>
       </c>
-      <c r="V101" t="n">
+      <c r="W101" t="n">
         <v>700</v>
       </c>
-      <c r="W101" t="n">
+      <c r="X101" t="n">
         <v>20.33514796235023</v>
       </c>
-      <c r="X101" t="n">
+      <c r="Y101" t="n">
         <v>124.96209</v>
       </c>
-      <c r="Y101" t="n">
+      <c r="Z101" t="n">
         <v>124.576628</v>
       </c>
-      <c r="Z101" t="n">
+      <c r="AA101" t="n">
         <v>136.2347754</v>
       </c>
-      <c r="AA101" t="inlineStr">
+      <c r="AB101" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB101" t="n">
+      <c r="AC101" t="n">
         <v>95.80145706735945</v>
       </c>
     </row>
@@ -10545,35 +10836,38 @@
       <c r="S102" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea0c6</t>
-        </is>
-      </c>
-      <c r="U102" t="n">
+      <c r="T102" t="n">
+        <v>27.86221701734028</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3f9</t>
+        </is>
+      </c>
+      <c r="V102" t="n">
         <v>28.29512337747494</v>
       </c>
-      <c r="V102" t="n">
+      <c r="W102" t="n">
         <v>700</v>
       </c>
-      <c r="W102" t="n">
+      <c r="X102" t="n">
         <v>30.12159256229596</v>
       </c>
-      <c r="X102" t="n">
+      <c r="Y102" t="n">
         <v>174.9522345</v>
       </c>
-      <c r="Y102" t="n">
+      <c r="Z102" t="n">
         <v>149.44967</v>
       </c>
-      <c r="Z102" t="n">
+      <c r="AA102" t="n">
         <v>129.5547192</v>
       </c>
-      <c r="AA102" t="inlineStr">
+      <c r="AB102" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB102" t="n">
+      <c r="AC102" t="n">
         <v>141.9066368240861</v>
       </c>
     </row>
@@ -10645,35 +10939,38 @@
       <c r="S103" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea0c2</t>
-        </is>
-      </c>
-      <c r="U103" t="n">
+      <c r="T103" t="n">
+        <v>19.91425244736224</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3f5</t>
+        </is>
+      </c>
+      <c r="V103" t="n">
         <v>14.52472606642554</v>
       </c>
-      <c r="V103" t="n">
+      <c r="W103" t="n">
         <v>700</v>
       </c>
-      <c r="W103" t="n">
+      <c r="X103" t="n">
         <v>15.35938791303568</v>
       </c>
-      <c r="X103" t="n">
+      <c r="Y103" t="n">
         <v>101.9815935</v>
       </c>
-      <c r="Y103" t="n">
+      <c r="Z103" t="n">
         <v>116.82273</v>
       </c>
-      <c r="Z103" t="n">
+      <c r="AA103" t="n">
         <v>90.50923839999999</v>
       </c>
-      <c r="AA103" t="inlineStr">
+      <c r="AB103" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB103" t="n">
+      <c r="AC103" t="n">
         <v>72.36002140018577</v>
       </c>
     </row>
@@ -10745,35 +11042,38 @@
       <c r="S104" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9fe1</t>
-        </is>
-      </c>
-      <c r="U104" t="n">
+      <c r="T104" t="n">
+        <v>33.90132379019588</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d314</t>
+        </is>
+      </c>
+      <c r="V104" t="n">
         <v>36.00133121454743</v>
       </c>
-      <c r="V104" t="n">
+      <c r="W104" t="n">
         <v>650</v>
       </c>
-      <c r="W104" t="n">
+      <c r="X104" t="n">
         <v>37.79926054079385</v>
       </c>
-      <c r="X104" t="n">
+      <c r="Y104" t="n">
         <v>190.1555026</v>
       </c>
-      <c r="Y104" t="n">
+      <c r="Z104" t="n">
         <v>209.989208</v>
       </c>
-      <c r="Z104" t="n">
+      <c r="AA104" t="n">
         <v>204.31464</v>
       </c>
-      <c r="AA104" t="inlineStr">
+      <c r="AB104" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB104" t="n">
+      <c r="AC104" t="n">
         <v>191.7753415686551</v>
       </c>
     </row>
@@ -10845,35 +11145,38 @@
       <c r="S105" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9fe3</t>
-        </is>
-      </c>
-      <c r="U105" t="n">
+      <c r="T105" t="n">
+        <v>32.44202185140193</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d316</t>
+        </is>
+      </c>
+      <c r="V105" t="n">
         <v>30.78152631601422</v>
       </c>
-      <c r="V105" t="n">
+      <c r="W105" t="n">
         <v>650</v>
       </c>
-      <c r="W105" t="n">
+      <c r="X105" t="n">
         <v>32.84905992026926</v>
       </c>
-      <c r="X105" t="n">
+      <c r="Y105" t="n">
         <v>232.1395678</v>
       </c>
-      <c r="Y105" t="n">
+      <c r="Z105" t="n">
         <v>211.9974208</v>
       </c>
-      <c r="Z105" t="n">
+      <c r="AA105" t="n">
         <v>212.60364</v>
       </c>
-      <c r="AA105" t="inlineStr">
+      <c r="AB105" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB105" t="n">
+      <c r="AC105" t="n">
         <v>166.6603948407969</v>
       </c>
     </row>
@@ -10945,35 +11248,38 @@
       <c r="S106" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea0e7</t>
-        </is>
-      </c>
-      <c r="U106" t="n">
+      <c r="T106" t="n">
+        <v>23.11421206491405</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d41a</t>
+        </is>
+      </c>
+      <c r="V106" t="n">
         <v>18.8742515094507</v>
       </c>
-      <c r="V106" t="n">
+      <c r="W106" t="n">
         <v>700</v>
       </c>
-      <c r="W106" t="n">
+      <c r="X106" t="n">
         <v>19.78908098266481</v>
       </c>
-      <c r="X106" t="n">
+      <c r="Y106" t="n">
         <v>106.731455</v>
       </c>
-      <c r="Y106" t="n">
+      <c r="Z106" t="n">
         <v>126.4913339</v>
       </c>
-      <c r="Z106" t="n">
+      <c r="AA106" t="n">
         <v>91.216542</v>
       </c>
-      <c r="AA106" t="inlineStr">
+      <c r="AB106" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB106" t="n">
+      <c r="AC106" t="n">
         <v>93.228866378219</v>
       </c>
     </row>
@@ -11045,35 +11351,38 @@
       <c r="S107" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea0e3</t>
-        </is>
-      </c>
-      <c r="U107" t="n">
+      <c r="T107" t="n">
+        <v>23.22906484464457</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d416</t>
+        </is>
+      </c>
+      <c r="V107" t="n">
         <v>28.04953265479184</v>
       </c>
-      <c r="V107" t="n">
+      <c r="W107" t="n">
         <v>700</v>
       </c>
-      <c r="W107" t="n">
+      <c r="X107" t="n">
         <v>29.93586524038823</v>
       </c>
-      <c r="X107" t="n">
+      <c r="Y107" t="n">
         <v>168.4305065</v>
       </c>
-      <c r="Y107" t="n">
+      <c r="Z107" t="n">
         <v>180.7115606</v>
       </c>
-      <c r="Z107" t="n">
+      <c r="AA107" t="n">
         <v>164.7808935</v>
       </c>
-      <c r="AA107" t="inlineStr">
+      <c r="AB107" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB107" t="n">
+      <c r="AC107" t="n">
         <v>141.0316518921387</v>
       </c>
     </row>
@@ -11145,35 +11454,38 @@
       <c r="S108" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea0eb</t>
-        </is>
-      </c>
-      <c r="U108" t="n">
+      <c r="T108" t="n">
+        <v>34.73241228322888</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d41e</t>
+        </is>
+      </c>
+      <c r="V108" t="n">
         <v>24.39720304665796</v>
       </c>
-      <c r="V108" t="n">
+      <c r="W108" t="n">
         <v>700</v>
       </c>
-      <c r="W108" t="n">
+      <c r="X108" t="n">
         <v>25.5491145106465</v>
       </c>
-      <c r="X108" t="n">
+      <c r="Y108" t="n">
         <v>142.7709875</v>
       </c>
-      <c r="Y108" t="n">
+      <c r="Z108" t="n">
         <v>158.4929261</v>
       </c>
-      <c r="Z108" t="n">
+      <c r="AA108" t="n">
         <v>157.8339024</v>
       </c>
-      <c r="AA108" t="inlineStr">
+      <c r="AB108" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB108" t="n">
+      <c r="AC108" t="n">
         <v>120.3651137150548</v>
       </c>
     </row>
@@ -11245,35 +11557,38 @@
       <c r="S109" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea0e5</t>
-        </is>
-      </c>
-      <c r="U109" t="n">
+      <c r="T109" t="n">
+        <v>15.40564873094073</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d418</t>
+        </is>
+      </c>
+      <c r="V109" t="n">
         <v>2.756198976735239</v>
       </c>
-      <c r="V109" t="n">
+      <c r="W109" t="n">
         <v>700</v>
       </c>
-      <c r="W109" t="n">
+      <c r="X109" t="n">
         <v>2.893592324685713</v>
       </c>
-      <c r="X109" t="n">
+      <c r="Y109" t="n">
         <v>53.664094</v>
       </c>
-      <c r="Y109" t="n">
+      <c r="Z109" t="n">
         <v>64.4988092</v>
       </c>
-      <c r="Z109" t="n">
+      <c r="AA109" t="n">
         <v>68.0002509</v>
       </c>
-      <c r="AA109" t="inlineStr">
+      <c r="AB109" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB109" t="n">
+      <c r="AC109" t="n">
         <v>13.63207985390929</v>
       </c>
     </row>
@@ -11345,35 +11660,38 @@
       <c r="S110" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea029</t>
-        </is>
-      </c>
-      <c r="U110" t="n">
+      <c r="T110" t="n">
+        <v>19.47847117713586</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d35c</t>
+        </is>
+      </c>
+      <c r="V110" t="n">
         <v>25.27710124569929</v>
       </c>
-      <c r="V110" t="n">
+      <c r="W110" t="n">
         <v>650</v>
       </c>
-      <c r="W110" t="n">
+      <c r="X110" t="n">
         <v>26.65919426663017</v>
       </c>
-      <c r="X110" t="n">
+      <c r="Y110" t="n">
         <v>143.221483</v>
       </c>
-      <c r="Y110" t="n">
+      <c r="Z110" t="n">
         <v>148.8056624</v>
       </c>
-      <c r="Z110" t="n">
+      <c r="AA110" t="n">
         <v>143.2183496</v>
       </c>
-      <c r="AA110" t="inlineStr">
+      <c r="AB110" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB110" t="n">
+      <c r="AC110" t="n">
         <v>135.255981553145</v>
       </c>
     </row>
@@ -11445,35 +11763,38 @@
       <c r="S111" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea02b</t>
-        </is>
-      </c>
-      <c r="U111" t="n">
+      <c r="T111" t="n">
+        <v>24.89781368524388</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d35e</t>
+        </is>
+      </c>
+      <c r="V111" t="n">
         <v>33.93345802718223</v>
       </c>
-      <c r="V111" t="n">
+      <c r="W111" t="n">
         <v>650</v>
       </c>
-      <c r="W111" t="n">
+      <c r="X111" t="n">
         <v>36.1858353563842</v>
       </c>
-      <c r="X111" t="n">
+      <c r="Y111" t="n">
         <v>206.6491235</v>
       </c>
-      <c r="Y111" t="n">
+      <c r="Z111" t="n">
         <v>228.0338328</v>
       </c>
-      <c r="Z111" t="n">
+      <c r="AA111" t="n">
         <v>164.0006028</v>
       </c>
-      <c r="AA111" t="inlineStr">
+      <c r="AB111" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB111" t="n">
+      <c r="AC111" t="n">
         <v>183.5895950379339</v>
       </c>
     </row>
@@ -11545,35 +11866,38 @@
       <c r="S112" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9fff</t>
-        </is>
-      </c>
-      <c r="U112" t="n">
+      <c r="T112" t="n">
+        <v>22.89797152446894</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d332</t>
+        </is>
+      </c>
+      <c r="V112" t="n">
         <v>30.06012200057793</v>
       </c>
-      <c r="V112" t="n">
+      <c r="W112" t="n">
         <v>650</v>
       </c>
-      <c r="W112" t="n">
+      <c r="X112" t="n">
         <v>31.48508151402518</v>
       </c>
-      <c r="X112" t="n">
+      <c r="Y112" t="n">
         <v>176.0459527</v>
       </c>
-      <c r="Y112" t="n">
+      <c r="Z112" t="n">
         <v>187.2755142</v>
       </c>
-      <c r="Z112" t="n">
+      <c r="AA112" t="n">
         <v>196.1638793</v>
       </c>
-      <c r="AA112" t="inlineStr">
+      <c r="AB112" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB112" t="n">
+      <c r="AC112" t="n">
         <v>159.7402217737225</v>
       </c>
     </row>
@@ -11645,35 +11969,38 @@
       <c r="S113" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9ffd</t>
-        </is>
-      </c>
-      <c r="U113" t="n">
+      <c r="T113" t="n">
+        <v>23.38893665607673</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d330</t>
+        </is>
+      </c>
+      <c r="V113" t="n">
         <v>30.76993382729556</v>
       </c>
-      <c r="V113" t="n">
+      <c r="W113" t="n">
         <v>650</v>
       </c>
-      <c r="W113" t="n">
+      <c r="X113" t="n">
         <v>32.42200632811969</v>
       </c>
-      <c r="X113" t="n">
+      <c r="Y113" t="n">
         <v>178.7487063</v>
       </c>
-      <c r="Y113" t="n">
+      <c r="Z113" t="n">
         <v>218.6865729</v>
       </c>
-      <c r="Z113" t="n">
+      <c r="AA113" t="n">
         <v>188.804305</v>
       </c>
-      <c r="AA113" t="inlineStr">
+      <c r="AB113" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB113" t="n">
+      <c r="AC113" t="n">
         <v>164.4937294793351</v>
       </c>
     </row>
@@ -11745,35 +12072,38 @@
       <c r="S114" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea001</t>
-        </is>
-      </c>
-      <c r="U114" t="n">
+      <c r="T114" t="n">
+        <v>30.92782665985537</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d334</t>
+        </is>
+      </c>
+      <c r="V114" t="n">
         <v>28.02396906225675</v>
       </c>
-      <c r="V114" t="n">
+      <c r="W114" t="n">
         <v>650</v>
       </c>
-      <c r="W114" t="n">
+      <c r="X114" t="n">
         <v>29.35090551531473</v>
       </c>
-      <c r="X114" t="n">
+      <c r="Y114" t="n">
         <v>148.4301018</v>
       </c>
-      <c r="Y114" t="n">
+      <c r="Z114" t="n">
         <v>228.0346512</v>
       </c>
-      <c r="Z114" t="n">
+      <c r="AA114" t="n">
         <v>190.1583266</v>
       </c>
-      <c r="AA114" t="inlineStr">
+      <c r="AB114" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB114" t="n">
+      <c r="AC114" t="n">
         <v>148.9124350587254</v>
       </c>
     </row>
@@ -11845,35 +12175,38 @@
       <c r="S115" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea01a</t>
-        </is>
-      </c>
-      <c r="U115" t="n">
+      <c r="T115" t="n">
+        <v>16.12576284578486</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d34d</t>
+        </is>
+      </c>
+      <c r="V115" t="n">
         <v>29.23929648221075</v>
       </c>
-      <c r="V115" t="n">
+      <c r="W115" t="n">
         <v>650</v>
       </c>
-      <c r="W115" t="n">
+      <c r="X115" t="n">
         <v>31.10957845456883</v>
       </c>
-      <c r="X115" t="n">
+      <c r="Y115" t="n">
         <v>157.2778817</v>
       </c>
-      <c r="Y115" t="n">
+      <c r="Z115" t="n">
         <v>150.6221584</v>
       </c>
-      <c r="Z115" t="n">
+      <c r="AA115" t="n">
         <v>181.5914828</v>
       </c>
-      <c r="AA115" t="inlineStr">
+      <c r="AB115" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB115" t="n">
+      <c r="AC115" t="n">
         <v>157.8350991216643</v>
       </c>
     </row>
@@ -11945,35 +12278,38 @@
       <c r="S116" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea01a</t>
-        </is>
-      </c>
-      <c r="U116" t="n">
+      <c r="T116" t="n">
+        <v>30.27993528537605</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d34d</t>
+        </is>
+      </c>
+      <c r="V116" t="n">
         <v>29.23929648221075</v>
       </c>
-      <c r="V116" t="n">
+      <c r="W116" t="n">
         <v>650</v>
       </c>
-      <c r="W116" t="n">
+      <c r="X116" t="n">
         <v>31.10957845456883</v>
       </c>
-      <c r="X116" t="n">
+      <c r="Y116" t="n">
         <v>173.8480469</v>
       </c>
-      <c r="Y116" t="n">
+      <c r="Z116" t="n">
         <v>199.0799048</v>
       </c>
-      <c r="Z116" t="n">
+      <c r="AA116" t="n">
         <v>227.6830436</v>
       </c>
-      <c r="AA116" t="inlineStr">
+      <c r="AB116" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB116" t="n">
+      <c r="AC116" t="n">
         <v>157.8350991216643</v>
       </c>
     </row>
@@ -12045,35 +12381,38 @@
       <c r="S117" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74ce9ff4</t>
-        </is>
-      </c>
-      <c r="U117" t="n">
+      <c r="T117" t="n">
+        <v>30.51249450229771</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d327</t>
+        </is>
+      </c>
+      <c r="V117" t="n">
         <v>36.55261870461946</v>
       </c>
-      <c r="V117" t="n">
+      <c r="W117" t="n">
         <v>650</v>
       </c>
-      <c r="W117" t="n">
+      <c r="X117" t="n">
         <v>38.53289537952889</v>
       </c>
-      <c r="X117" t="n">
+      <c r="Y117" t="n">
         <v>209.9122332</v>
       </c>
-      <c r="Y117" t="n">
+      <c r="Z117" t="n">
         <v>216.8138592</v>
       </c>
-      <c r="Z117" t="n">
+      <c r="AA117" t="n">
         <v>177.1797744</v>
       </c>
-      <c r="AA117" t="inlineStr">
+      <c r="AB117" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB117" t="n">
+      <c r="AC117" t="n">
         <v>195.4974533182551</v>
       </c>
     </row>
@@ -12145,35 +12484,38 @@
       <c r="S118" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea03c</t>
-        </is>
-      </c>
-      <c r="U118" t="n">
+      <c r="T118" t="n">
+        <v>24.87962272883264</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d36f</t>
+        </is>
+      </c>
+      <c r="V118" t="n">
         <v>28.25267746259269</v>
       </c>
-      <c r="V118" t="n">
+      <c r="W118" t="n">
         <v>650</v>
       </c>
-      <c r="W118" t="n">
+      <c r="X118" t="n">
         <v>30.02183995254137</v>
       </c>
-      <c r="X118" t="n">
+      <c r="Y118" t="n">
         <v>211.3567476</v>
       </c>
-      <c r="Y118" t="n">
+      <c r="Z118" t="n">
         <v>193.4924778</v>
       </c>
-      <c r="Z118" t="n">
+      <c r="AA118" t="n">
         <v>188.040992</v>
       </c>
-      <c r="AA118" t="inlineStr">
+      <c r="AB118" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB118" t="n">
+      <c r="AC118" t="n">
         <v>152.3164350055088</v>
       </c>
     </row>
@@ -12245,35 +12587,38 @@
       <c r="S119" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea083</t>
-        </is>
-      </c>
-      <c r="U119" t="n">
+      <c r="T119" t="n">
+        <v>39.07498992567358</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3b6</t>
+        </is>
+      </c>
+      <c r="V119" t="n">
         <v>34.02814308821208</v>
       </c>
-      <c r="V119" t="n">
+      <c r="W119" t="n">
         <v>650</v>
       </c>
-      <c r="W119" t="n">
+      <c r="X119" t="n">
         <v>35.72791017045907</v>
       </c>
-      <c r="X119" t="n">
+      <c r="Y119" t="n">
         <v>240.0307184</v>
       </c>
-      <c r="Y119" t="n">
+      <c r="Z119" t="n">
         <v>233.4622835</v>
       </c>
-      <c r="Z119" t="n">
+      <c r="AA119" t="n">
         <v>264.8457301</v>
       </c>
-      <c r="AA119" t="inlineStr">
+      <c r="AB119" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB119" t="n">
+      <c r="AC119" t="n">
         <v>181.2663019976136</v>
       </c>
     </row>
@@ -12345,35 +12690,38 @@
       <c r="S120" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T120" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea081</t>
-        </is>
-      </c>
-      <c r="U120" t="n">
+      <c r="T120" t="n">
+        <v>26.18295626866995</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3b4</t>
+        </is>
+      </c>
+      <c r="V120" t="n">
         <v>27.58935275327094</v>
       </c>
-      <c r="V120" t="n">
+      <c r="W120" t="n">
         <v>650</v>
       </c>
-      <c r="W120" t="n">
+      <c r="X120" t="n">
         <v>28.94169780106563</v>
       </c>
-      <c r="X120" t="n">
+      <c r="Y120" t="n">
         <v>148.4303326</v>
       </c>
-      <c r="Y120" t="n">
+      <c r="Z120" t="n">
         <v>201.6913085</v>
       </c>
-      <c r="Z120" t="n">
+      <c r="AA120" t="n">
         <v>178.3945822</v>
       </c>
-      <c r="AA120" t="inlineStr">
+      <c r="AB120" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB120" t="n">
+      <c r="AC120" t="n">
         <v>146.8363111332863</v>
       </c>
     </row>
@@ -12445,35 +12793,38 @@
       <c r="S121" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T121" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea085</t>
-        </is>
-      </c>
-      <c r="U121" t="n">
+      <c r="T121" t="n">
+        <v>28.71451428668433</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3b8</t>
+        </is>
+      </c>
+      <c r="V121" t="n">
         <v>30.90395386582069</v>
       </c>
-      <c r="V121" t="n">
+      <c r="W121" t="n">
         <v>650</v>
       </c>
-      <c r="W121" t="n">
+      <c r="X121" t="n">
         <v>32.33594531718474</v>
       </c>
-      <c r="X121" t="n">
+      <c r="Y121" t="n">
         <v>172.0451392</v>
       </c>
-      <c r="Y121" t="n">
+      <c r="Z121" t="n">
         <v>153.794417</v>
       </c>
-      <c r="Z121" t="n">
+      <c r="AA121" t="n">
         <v>169.5161616</v>
       </c>
-      <c r="AA121" t="inlineStr">
+      <c r="AB121" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB121" t="n">
+      <c r="AC121" t="n">
         <v>164.0570971343722</v>
       </c>
     </row>
@@ -12545,35 +12896,38 @@
       <c r="S122" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T122" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea09e</t>
-        </is>
-      </c>
-      <c r="U122" t="n">
+      <c r="T122" t="n">
+        <v>46.17432598623448</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3d1</t>
+        </is>
+      </c>
+      <c r="V122" t="n">
         <v>36.47365228664646</v>
       </c>
-      <c r="V122" t="n">
+      <c r="W122" t="n">
         <v>650</v>
       </c>
-      <c r="W122" t="n">
+      <c r="X122" t="n">
         <v>38.14511459072778</v>
       </c>
-      <c r="X122" t="n">
+      <c r="Y122" t="n">
         <v>224.5681905</v>
       </c>
-      <c r="Y122" t="n">
+      <c r="Z122" t="n">
         <v>181.5946027</v>
       </c>
-      <c r="Z122" t="n">
+      <c r="AA122" t="n">
         <v>220.1453856</v>
       </c>
-      <c r="AA122" t="inlineStr">
+      <c r="AB122" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB122" t="n">
+      <c r="AC122" t="n">
         <v>193.5300393487189</v>
       </c>
     </row>
@@ -12645,35 +12999,38 @@
       <c r="S123" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T123" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea09c</t>
-        </is>
-      </c>
-      <c r="U123" t="n">
+      <c r="T123" t="n">
+        <v>30.13450058817676</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3cf</t>
+        </is>
+      </c>
+      <c r="V123" t="n">
         <v>22.83265829128433</v>
       </c>
-      <c r="V123" t="n">
+      <c r="W123" t="n">
         <v>650</v>
       </c>
-      <c r="W123" t="n">
+      <c r="X123" t="n">
         <v>24.07545816828272</v>
       </c>
-      <c r="X123" t="n">
+      <c r="Y123" t="n">
         <v>131.026965</v>
       </c>
-      <c r="Y123" t="n">
+      <c r="Z123" t="n">
         <v>189.733096</v>
       </c>
-      <c r="Z123" t="n">
+      <c r="AA123" t="n">
         <v>139.9991256</v>
       </c>
-      <c r="AA123" t="inlineStr">
+      <c r="AB123" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB123" t="n">
+      <c r="AC123" t="n">
         <v>122.1473422386511</v>
       </c>
     </row>
@@ -12745,35 +13102,38 @@
       <c r="S124" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea04d</t>
-        </is>
-      </c>
-      <c r="U124" t="n">
+      <c r="T124" t="n">
+        <v>34.92709314132629</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d380</t>
+        </is>
+      </c>
+      <c r="V124" t="n">
         <v>33.7767406365772</v>
       </c>
-      <c r="V124" t="n">
+      <c r="W124" t="n">
         <v>650</v>
       </c>
-      <c r="W124" t="n">
+      <c r="X124" t="n">
         <v>35.33965083552826</v>
       </c>
-      <c r="X124" t="n">
+      <c r="Y124" t="n">
         <v>212.6014068</v>
       </c>
-      <c r="Y124" t="n">
+      <c r="Z124" t="n">
         <v>215.4163896</v>
       </c>
-      <c r="Z124" t="n">
+      <c r="AA124" t="n">
         <v>229.9587306</v>
       </c>
-      <c r="AA124" t="inlineStr">
+      <c r="AB124" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB124" t="n">
+      <c r="AC124" t="n">
         <v>179.2964601142461</v>
       </c>
     </row>
@@ -12845,35 +13205,38 @@
       <c r="S125" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T125" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea049</t>
-        </is>
-      </c>
-      <c r="U125" t="n">
+      <c r="T125" t="n">
+        <v>51.15809073133753</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d37c</t>
+        </is>
+      </c>
+      <c r="V125" t="n">
         <v>39.43814501353985</v>
       </c>
-      <c r="V125" t="n">
+      <c r="W125" t="n">
         <v>650</v>
       </c>
-      <c r="W125" t="n">
+      <c r="X125" t="n">
         <v>41.37254738455533</v>
       </c>
-      <c r="X125" t="n">
+      <c r="Y125" t="n">
         <v>258.1479508</v>
       </c>
-      <c r="Y125" t="n">
+      <c r="Z125" t="n">
         <v>261.3952026</v>
       </c>
-      <c r="Z125" t="n">
+      <c r="AA125" t="n">
         <v>250.3466028</v>
       </c>
-      <c r="AA125" t="inlineStr">
+      <c r="AB125" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB125" t="n">
+      <c r="AC125" t="n">
         <v>209.9044873556628</v>
       </c>
     </row>
@@ -12945,35 +13308,38 @@
       <c r="S126" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T126" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea04b</t>
-        </is>
-      </c>
-      <c r="U126" t="n">
+      <c r="T126" t="n">
+        <v>28.33025299191442</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d37e</t>
+        </is>
+      </c>
+      <c r="V126" t="n">
         <v>29.59931537645023</v>
       </c>
-      <c r="V126" t="n">
+      <c r="W126" t="n">
         <v>650</v>
       </c>
-      <c r="W126" t="n">
+      <c r="X126" t="n">
         <v>30.96576907477481</v>
       </c>
-      <c r="X126" t="n">
+      <c r="Y126" t="n">
         <v>196.654247</v>
       </c>
-      <c r="Y126" t="n">
+      <c r="Z126" t="n">
         <v>194.3303751</v>
       </c>
-      <c r="Z126" t="n">
+      <c r="AA126" t="n">
         <v>185.083932</v>
       </c>
-      <c r="AA126" t="inlineStr">
+      <c r="AB126" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB126" t="n">
+      <c r="AC126" t="n">
         <v>157.1054792154492</v>
       </c>
     </row>
@@ -13045,35 +13411,38 @@
       <c r="S127" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T127" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea04f</t>
-        </is>
-      </c>
-      <c r="U127" t="n">
+      <c r="T127" t="n">
+        <v>26.64259651804839</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>66f5ab0214f9f3f112e9d382</t>
+        </is>
+      </c>
+      <c r="V127" t="n">
         <v>33.65493498468531</v>
       </c>
-      <c r="V127" t="n">
+      <c r="W127" t="n">
         <v>650</v>
       </c>
-      <c r="W127" t="n">
+      <c r="X127" t="n">
         <v>35.20049656528234</v>
       </c>
-      <c r="X127" t="n">
+      <c r="Y127" t="n">
         <v>172.7423114</v>
       </c>
-      <c r="Y127" t="n">
+      <c r="Z127" t="n">
         <v>186.3837135</v>
       </c>
-      <c r="Z127" t="n">
+      <c r="AA127" t="n">
         <v>176.044533</v>
       </c>
-      <c r="AA127" t="inlineStr">
+      <c r="AB127" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB127" t="n">
+      <c r="AC127" t="n">
         <v>178.5904580040104</v>
       </c>
     </row>
@@ -13145,35 +13514,38 @@
       <c r="S128" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T128" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea072</t>
-        </is>
-      </c>
-      <c r="U128" t="n">
+      <c r="T128" t="n">
+        <v>31.09699505195388</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3a5</t>
+        </is>
+      </c>
+      <c r="V128" t="n">
         <v>31.27557840245549</v>
       </c>
-      <c r="V128" t="n">
+      <c r="W128" t="n">
         <v>650</v>
       </c>
-      <c r="W128" t="n">
+      <c r="X128" t="n">
         <v>32.74897516307074</v>
       </c>
-      <c r="X128" t="n">
+      <c r="Y128" t="n">
         <v>196.121622</v>
       </c>
-      <c r="Y128" t="n">
+      <c r="Z128" t="n">
         <v>145.9845113</v>
       </c>
-      <c r="Z128" t="n">
+      <c r="AA128" t="n">
         <v>188.3005732</v>
       </c>
-      <c r="AA128" t="inlineStr">
+      <c r="AB128" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB128" t="n">
+      <c r="AC128" t="n">
         <v>166.1526127248783</v>
       </c>
     </row>
@@ -13245,35 +13617,38 @@
       <c r="S129" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T129" t="inlineStr">
-        <is>
-          <t>66f57df16e41de5c74cea070</t>
-        </is>
-      </c>
-      <c r="U129" t="n">
+      <c r="T129" t="n">
+        <v>35.34376935100185</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3a3</t>
+        </is>
+      </c>
+      <c r="V129" t="n">
         <v>26.50248278265459</v>
       </c>
-      <c r="V129" t="n">
+      <c r="W129" t="n">
         <v>650</v>
       </c>
-      <c r="W129" t="n">
+      <c r="X129" t="n">
         <v>28.08298514634632</v>
       </c>
-      <c r="X129" t="n">
+      <c r="Y129" t="n">
         <v>174.402708</v>
       </c>
-      <c r="Y129" t="n">
+      <c r="Z129" t="n">
         <v>193.0410159</v>
       </c>
-      <c r="Z129" t="n">
+      <c r="AA129" t="n">
         <v>196.3649174</v>
       </c>
-      <c r="AA129" t="inlineStr">
+      <c r="AB129" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB129" t="n">
+      <c r="AC129" t="n">
         <v>142.4796144595406</v>
       </c>
     </row>
@@ -13345,35 +13720,38 @@
       <c r="S130" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T130" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea0b7</t>
-        </is>
-      </c>
-      <c r="U130" t="n">
+      <c r="T130" t="n">
+        <v>45.00687482799127</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d3ea</t>
+        </is>
+      </c>
+      <c r="V130" t="n">
         <v>43.57818014760628</v>
       </c>
-      <c r="V130" t="n">
+      <c r="W130" t="n">
         <v>650</v>
       </c>
-      <c r="W130" t="n">
+      <c r="X130" t="n">
         <v>45.79704356692451</v>
       </c>
-      <c r="X130" t="n">
+      <c r="Y130" t="n">
         <v>230.756371</v>
       </c>
-      <c r="Y130" t="n">
+      <c r="Z130" t="n">
         <v>219.6716358</v>
       </c>
-      <c r="Z130" t="n">
+      <c r="AA130" t="n">
         <v>241.34472</v>
       </c>
-      <c r="AA130" t="inlineStr">
+      <c r="AB130" t="inlineStr">
         <is>
           <t>test-right</t>
         </is>
       </c>
-      <c r="AB130" t="n">
+      <c r="AC130" t="n">
         <v>232.3522615846674</v>
       </c>
     </row>
@@ -13445,35 +13823,38 @@
       <c r="S131" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T131" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea11d</t>
-        </is>
-      </c>
-      <c r="U131" t="n">
+      <c r="T131" t="n">
+        <v>36.8763672487479</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d450</t>
+        </is>
+      </c>
+      <c r="V131" t="n">
         <v>23.90918049639193</v>
       </c>
-      <c r="V131" t="n">
+      <c r="W131" t="n">
         <v>760</v>
       </c>
-      <c r="W131" t="n">
+      <c r="X131" t="n">
         <v>25.36034771760088</v>
       </c>
-      <c r="X131" t="n">
+      <c r="Y131" t="n">
         <v>157.066</v>
       </c>
-      <c r="Y131" t="n">
+      <c r="Z131" t="n">
         <v>142.2408</v>
       </c>
-      <c r="Z131" t="n">
+      <c r="AA131" t="n">
         <v>139.9440672</v>
       </c>
-      <c r="AA131" t="inlineStr">
+      <c r="AB131" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB131" t="n">
+      <c r="AC131" t="n">
         <v>110.0435087036636</v>
       </c>
     </row>
@@ -13545,35 +13926,38 @@
       <c r="S132" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T132" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea11f</t>
-        </is>
-      </c>
-      <c r="U132" t="n">
+      <c r="T132" t="n">
+        <v>18.40600607334448</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d452</t>
+        </is>
+      </c>
+      <c r="V132" t="n">
         <v>21.42705264198886</v>
       </c>
-      <c r="V132" t="n">
+      <c r="W132" t="n">
         <v>760</v>
       </c>
-      <c r="W132" t="n">
+      <c r="X132" t="n">
         <v>22.83252117200171</v>
       </c>
-      <c r="X132" t="n">
+      <c r="Y132" t="n">
         <v>93.38159999999999</v>
       </c>
-      <c r="Y132" t="n">
+      <c r="Z132" t="n">
         <v>126.568</v>
       </c>
-      <c r="Z132" t="n">
+      <c r="AA132" t="n">
         <v>100.078902</v>
       </c>
-      <c r="AA132" t="inlineStr">
+      <c r="AB132" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB132" t="n">
+      <c r="AC132" t="n">
         <v>99.07477493196795</v>
       </c>
     </row>
@@ -13645,35 +14029,38 @@
       <c r="S133" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T133" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea119</t>
-        </is>
-      </c>
-      <c r="U133" t="n">
+      <c r="T133" t="n">
+        <v>20.9999627898615</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d44c</t>
+        </is>
+      </c>
+      <c r="V133" t="n">
         <v>21.5428152062824</v>
       </c>
-      <c r="V133" t="n">
+      <c r="W133" t="n">
         <v>760</v>
       </c>
-      <c r="W133" t="n">
+      <c r="X133" t="n">
         <v>22.76857451628019</v>
       </c>
-      <c r="X133" t="n">
+      <c r="Y133" t="n">
         <v>99.03400000000002</v>
       </c>
-      <c r="Y133" t="n">
+      <c r="Z133" t="n">
         <v>114.6288</v>
       </c>
-      <c r="Z133" t="n">
+      <c r="AA133" t="n">
         <v>99.03758760000001</v>
       </c>
-      <c r="AA133" t="inlineStr">
+      <c r="AB133" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB133" t="n">
+      <c r="AC133" t="n">
         <v>98.79729788615532</v>
       </c>
     </row>
@@ -13745,35 +14132,38 @@
       <c r="S134" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T134" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea11b</t>
-        </is>
-      </c>
-      <c r="U134" t="n">
+      <c r="T134" t="n">
+        <v>20.86159308341219</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d44e</t>
+        </is>
+      </c>
+      <c r="V134" t="n">
         <v>20.05796905035209</v>
       </c>
-      <c r="V134" t="n">
+      <c r="W134" t="n">
         <v>760</v>
       </c>
-      <c r="W134" t="n">
+      <c r="X134" t="n">
         <v>21.24085529754919</v>
       </c>
-      <c r="X134" t="n">
+      <c r="Y134" t="n">
         <v>104.9932</v>
       </c>
-      <c r="Y134" t="n">
+      <c r="Z134" t="n">
         <v>123.6924</v>
       </c>
-      <c r="Z134" t="n">
+      <c r="AA134" t="n">
         <v>116.2729512</v>
       </c>
-      <c r="AA134" t="inlineStr">
+      <c r="AB134" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB134" t="n">
+      <c r="AC134" t="n">
         <v>92.16822540595024</v>
       </c>
     </row>
@@ -13845,35 +14235,38 @@
       <c r="S135" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T135" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea10c</t>
-        </is>
-      </c>
-      <c r="U135" t="n">
+      <c r="T135" t="n">
+        <v>34.3443609943217</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d43f</t>
+        </is>
+      </c>
+      <c r="V135" t="n">
         <v>34.51446176618487</v>
       </c>
-      <c r="V135" t="n">
+      <c r="W135" t="n">
         <v>760</v>
       </c>
-      <c r="W135" t="n">
+      <c r="X135" t="n">
         <v>36.26653580881793</v>
       </c>
-      <c r="X135" t="n">
+      <c r="Y135" t="n">
         <v>155.3339284</v>
       </c>
-      <c r="Y135" t="n">
+      <c r="Z135" t="n">
         <v>190.5917126</v>
       </c>
-      <c r="Z135" t="n">
+      <c r="AA135" t="n">
         <v>184.1717185</v>
       </c>
-      <c r="AA135" t="inlineStr">
+      <c r="AB135" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB135" t="n">
+      <c r="AC135" t="n">
         <v>157.3675918552007</v>
       </c>
     </row>
@@ -13945,35 +14338,38 @@
       <c r="S136" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T136" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea142</t>
-        </is>
-      </c>
-      <c r="U136" t="n">
+      <c r="T136" t="n">
+        <v>12.12637450050619</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d475</t>
+        </is>
+      </c>
+      <c r="V136" t="n">
         <v>17.82214718937066</v>
       </c>
-      <c r="V136" t="n">
+      <c r="W136" t="n">
         <v>760</v>
       </c>
-      <c r="W136" t="n">
+      <c r="X136" t="n">
         <v>18.78341469261274</v>
       </c>
-      <c r="X136" t="n">
+      <c r="Y136" t="n">
         <v>82.0718925</v>
       </c>
-      <c r="Y136" t="n">
+      <c r="Z136" t="n">
         <v>129.4181549</v>
       </c>
-      <c r="Z136" t="n">
+      <c r="AA136" t="n">
         <v>107.6296065</v>
       </c>
-      <c r="AA136" t="inlineStr">
+      <c r="AB136" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB136" t="n">
+      <c r="AC136" t="n">
         <v>81.50490999681742</v>
       </c>
     </row>
@@ -14045,35 +14441,38 @@
       <c r="S137" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T137" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea140</t>
-        </is>
-      </c>
-      <c r="U137" t="n">
+      <c r="T137" t="n">
+        <v>30.85209027153977</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>66f5ab0314f9f3f112e9d473</t>
+        </is>
+      </c>
+      <c r="V137" t="n">
         <v>29.78057741862015</v>
       </c>
-      <c r="V137" t="n">
+      <c r="W137" t="n">
         <v>760</v>
       </c>
-      <c r="W137" t="n">
+      <c r="X137" t="n">
         <v>31.39703645419367</v>
       </c>
-      <c r="X137" t="n">
+      <c r="Y137" t="n">
         <v>133.2087575</v>
       </c>
-      <c r="Y137" t="n">
+      <c r="Z137" t="n">
         <v>169.7023996</v>
       </c>
-      <c r="Z137" t="n">
+      <c r="AA137" t="n">
         <v>144.49878</v>
       </c>
-      <c r="AA137" t="inlineStr">
+      <c r="AB137" t="inlineStr">
         <is>
           <t>test-left</t>
         </is>
       </c>
-      <c r="AB137" t="n">
+      <c r="AC137" t="n">
         <v>136.2378817826066</v>
       </c>
     </row>
@@ -14145,35 +14544,38 @@
       <c r="S138" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T138" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea157</t>
-        </is>
-      </c>
-      <c r="U138" t="n">
+      <c r="T138" t="n">
+        <v>27.34268954438119</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d48a</t>
+        </is>
+      </c>
+      <c r="V138" t="n">
         <v>28.35187641740393</v>
       </c>
-      <c r="V138" t="n">
+      <c r="W138" t="n">
         <v>415</v>
       </c>
-      <c r="W138" t="n">
+      <c r="X138" t="n">
         <v>28.88577660030482</v>
       </c>
-      <c r="X138" t="n">
+      <c r="Y138" t="n">
         <v>294.1815303</v>
       </c>
-      <c r="Y138" t="n">
+      <c r="Z138" t="n">
         <v>296.9876682</v>
       </c>
-      <c r="Z138" t="n">
+      <c r="AA138" t="n">
         <v>296.9875773</v>
       </c>
-      <c r="AA138" t="inlineStr">
+      <c r="AB138" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB138" t="n">
+      <c r="AC138" t="n">
         <v>240.0268155197871</v>
       </c>
     </row>
@@ -14245,35 +14647,38 @@
       <c r="S139" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T139" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea153</t>
-        </is>
-      </c>
-      <c r="U139" t="n">
+      <c r="T139" t="n">
+        <v>24.54192453592183</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d486</t>
+        </is>
+      </c>
+      <c r="V139" t="n">
         <v>26.23537504940931</v>
       </c>
-      <c r="V139" t="n">
+      <c r="W139" t="n">
         <v>415</v>
       </c>
-      <c r="W139" t="n">
+      <c r="X139" t="n">
         <v>26.42481755062565</v>
       </c>
-      <c r="X139" t="n">
+      <c r="Y139" t="n">
         <v>322.0176414</v>
       </c>
-      <c r="Y139" t="n">
+      <c r="Z139" t="n">
         <v>267.9285294</v>
       </c>
-      <c r="Z139" t="n">
+      <c r="AA139" t="n">
         <v>337.7628072</v>
       </c>
-      <c r="AA139" t="inlineStr">
+      <c r="AB139" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB139" t="n">
+      <c r="AC139" t="n">
         <v>219.5774375441623</v>
       </c>
     </row>
@@ -14345,23 +14750,24 @@
       <c r="S140" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T140" t="inlineStr">
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr"/>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr"/>
-      <c r="AA140" t="inlineStr">
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB140" t="inlineStr"/>
+      <c r="AC140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -14431,35 +14837,38 @@
       <c r="S141" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T141" t="inlineStr">
-        <is>
-          <t>66f57df26e41de5c74cea16a</t>
-        </is>
-      </c>
-      <c r="U141" t="n">
+      <c r="T141" t="n">
+        <v>24.76103094556028</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d49d</t>
+        </is>
+      </c>
+      <c r="V141" t="n">
         <v>26.1066921487481</v>
       </c>
-      <c r="V141" t="n">
+      <c r="W141" t="n">
         <v>415</v>
       </c>
-      <c r="W141" t="n">
+      <c r="X141" t="n">
         <v>26.63733511906634</v>
       </c>
-      <c r="X141" t="n">
+      <c r="Y141" t="n">
         <v>30.762</v>
       </c>
-      <c r="Y141" t="n">
+      <c r="Z141" t="n">
         <v>332.2159092</v>
       </c>
-      <c r="Z141" t="n">
+      <c r="AA141" t="n">
         <v>270.0644546</v>
       </c>
-      <c r="AA141" t="inlineStr">
+      <c r="AB141" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB141" t="n">
+      <c r="AC141" t="n">
         <v>221.3433556255993</v>
       </c>
     </row>
@@ -14531,35 +14940,38 @@
       <c r="S142" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T142" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea17d</t>
-        </is>
-      </c>
-      <c r="U142" t="n">
+      <c r="T142" t="n">
+        <v>21.75614063400926</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d4b0</t>
+        </is>
+      </c>
+      <c r="V142" t="n">
         <v>25.06729003009563</v>
       </c>
-      <c r="V142" t="n">
+      <c r="W142" t="n">
         <v>415</v>
       </c>
-      <c r="W142" t="n">
+      <c r="X142" t="n">
         <v>25.22527182170814</v>
       </c>
-      <c r="X142" t="n">
+      <c r="Y142" t="n">
         <v>245.1782208</v>
       </c>
-      <c r="Y142" t="n">
+      <c r="Z142" t="n">
         <v>306.1519483999999</v>
       </c>
-      <c r="Z142" t="n">
+      <c r="AA142" t="n">
         <v>288.128673</v>
       </c>
-      <c r="AA142" t="inlineStr">
+      <c r="AB142" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB142" t="n">
+      <c r="AC142" t="n">
         <v>209.6097934206738</v>
       </c>
     </row>
@@ -14631,23 +15043,24 @@
       <c r="S143" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T143" t="inlineStr">
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr"/>
-      <c r="AA143" t="inlineStr">
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB143" t="inlineStr"/>
+      <c r="AC143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -14717,35 +15130,38 @@
       <c r="S144" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T144" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1ab</t>
-        </is>
-      </c>
-      <c r="U144" t="n">
+      <c r="T144" t="n">
+        <v>29.98540530915148</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d4de</t>
+        </is>
+      </c>
+      <c r="V144" t="n">
         <v>17.7911812911664</v>
       </c>
-      <c r="V144" t="n">
+      <c r="W144" t="n">
         <v>415</v>
       </c>
-      <c r="W144" t="n">
+      <c r="X144" t="n">
         <v>18.14622085111023</v>
       </c>
-      <c r="X144" t="n">
+      <c r="Y144" t="n">
         <v>240.0003692</v>
       </c>
-      <c r="Y144" t="n">
+      <c r="Z144" t="n">
         <v>259.9954544</v>
       </c>
-      <c r="Z144" t="n">
+      <c r="AA144" t="n">
         <v>215.0771974</v>
       </c>
-      <c r="AA144" t="inlineStr">
+      <c r="AB144" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB144" t="n">
+      <c r="AC144" t="n">
         <v>150.7863079078437</v>
       </c>
     </row>
@@ -14817,23 +15233,24 @@
       <c r="S145" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T145" t="inlineStr">
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr"/>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr"/>
-      <c r="AA145" t="inlineStr">
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB145" t="inlineStr"/>
+      <c r="AC145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -14903,23 +15320,24 @@
       <c r="S146" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T146" t="inlineStr">
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr"/>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr"/>
-      <c r="AA146" t="inlineStr">
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB146" t="inlineStr"/>
+      <c r="AC146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -14989,35 +15407,38 @@
       <c r="S147" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T147" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea186</t>
-        </is>
-      </c>
-      <c r="U147" t="n">
+      <c r="T147" t="n">
+        <v>26.39688959671947</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d4b9</t>
+        </is>
+      </c>
+      <c r="V147" t="n">
         <v>22.07199194778374</v>
       </c>
-      <c r="V147" t="n">
+      <c r="W147" t="n">
         <v>415</v>
       </c>
-      <c r="W147" t="n">
+      <c r="X147" t="n">
         <v>22.23286535323977</v>
       </c>
-      <c r="X147" t="n">
+      <c r="Y147" t="n">
         <v>237.622665</v>
       </c>
-      <c r="Y147" t="n">
+      <c r="Z147" t="n">
         <v>237.743748</v>
       </c>
-      <c r="Z147" t="n">
+      <c r="AA147" t="n">
         <v>225.223446</v>
       </c>
-      <c r="AA147" t="inlineStr">
+      <c r="AB147" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB147" t="n">
+      <c r="AC147" t="n">
         <v>184.7443447500053</v>
       </c>
     </row>
@@ -15089,35 +15510,38 @@
       <c r="S148" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T148" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea188</t>
-        </is>
-      </c>
-      <c r="U148" t="n">
+      <c r="T148" t="n">
+        <v>15.32062382856391</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d4bb</t>
+        </is>
+      </c>
+      <c r="V148" t="n">
         <v>15.17330055264671</v>
       </c>
-      <c r="V148" t="n">
+      <c r="W148" t="n">
         <v>415</v>
       </c>
-      <c r="W148" t="n">
+      <c r="X148" t="n">
         <v>15.34258262381278</v>
       </c>
-      <c r="X148" t="n">
+      <c r="Y148" t="n">
         <v>268.8092505</v>
       </c>
-      <c r="Y148" t="n">
+      <c r="Z148" t="n">
         <v>279.8859096</v>
       </c>
-      <c r="Z148" t="n">
+      <c r="AA148" t="n">
         <v>296.4422940000001</v>
       </c>
-      <c r="AA148" t="inlineStr">
+      <c r="AB148" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB148" t="n">
+      <c r="AC148" t="n">
         <v>127.4894319096874</v>
       </c>
     </row>
@@ -15189,23 +15613,24 @@
       <c r="S149" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T149" t="inlineStr">
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr"/>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr"/>
-      <c r="AA149" t="inlineStr">
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB149" t="inlineStr"/>
+      <c r="AC149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -15275,35 +15700,38 @@
       <c r="S150" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T150" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea197</t>
-        </is>
-      </c>
-      <c r="U150" t="n">
+      <c r="T150" t="n">
+        <v>21.13166700444395</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d4ca</t>
+        </is>
+      </c>
+      <c r="V150" t="n">
         <v>25.20374870651977</v>
       </c>
-      <c r="V150" t="n">
+      <c r="W150" t="n">
         <v>415</v>
       </c>
-      <c r="W150" t="n">
+      <c r="X150" t="n">
         <v>25.20945894183832</v>
       </c>
-      <c r="X150" t="n">
+      <c r="Y150" t="n">
         <v>261.9645777</v>
       </c>
-      <c r="Y150" t="n">
+      <c r="Z150" t="n">
         <v>290.237934</v>
       </c>
-      <c r="Z150" t="n">
+      <c r="AA150" t="n">
         <v>288.562176</v>
       </c>
-      <c r="AA150" t="inlineStr">
+      <c r="AB150" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB150" t="n">
+      <c r="AC150" t="n">
         <v>209.4783960463926</v>
       </c>
     </row>
@@ -15375,35 +15803,38 @@
       <c r="S151" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T151" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1a2</t>
-        </is>
-      </c>
-      <c r="U151" t="n">
+      <c r="T151" t="n">
+        <v>25.69802795386045</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d4d5</t>
+        </is>
+      </c>
+      <c r="V151" t="n">
         <v>25.78593396164096</v>
       </c>
-      <c r="V151" t="n">
+      <c r="W151" t="n">
         <v>415</v>
       </c>
-      <c r="W151" t="n">
+      <c r="X151" t="n">
         <v>26.31400534123903</v>
       </c>
-      <c r="X151" t="n">
+      <c r="Y151" t="n">
         <v>276.5841824</v>
       </c>
-      <c r="Y151" t="n">
+      <c r="Z151" t="n">
         <v>277.9500447</v>
       </c>
-      <c r="Z151" t="n">
+      <c r="AA151" t="n">
         <v>276.489294</v>
       </c>
-      <c r="AA151" t="inlineStr">
+      <c r="AB151" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB151" t="n">
+      <c r="AC151" t="n">
         <v>218.6566417453226</v>
       </c>
     </row>
@@ -15475,23 +15906,24 @@
       <c r="S152" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T152" t="inlineStr">
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U152" t="inlineStr"/>
       <c r="V152" t="inlineStr"/>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr"/>
       <c r="Z152" t="inlineStr"/>
-      <c r="AA152" t="inlineStr">
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB152" t="inlineStr"/>
+      <c r="AC152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -15561,23 +15993,24 @@
       <c r="S153" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T153" t="inlineStr">
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr"/>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr"/>
-      <c r="AA153" t="inlineStr">
+      <c r="AA153" t="inlineStr"/>
+      <c r="AB153" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB153" t="inlineStr"/>
+      <c r="AC153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -15647,23 +16080,24 @@
       <c r="S154" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T154" t="inlineStr">
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr"/>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr"/>
-      <c r="AA154" t="inlineStr">
+      <c r="AA154" t="inlineStr"/>
+      <c r="AB154" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB154" t="inlineStr"/>
+      <c r="AC154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -15733,23 +16167,24 @@
       <c r="S155" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T155" t="inlineStr">
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr"/>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr"/>
-      <c r="AA155" t="inlineStr">
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB155" t="inlineStr"/>
+      <c r="AC155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -15819,35 +16254,38 @@
       <c r="S156" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T156" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1b4</t>
-        </is>
-      </c>
-      <c r="U156" t="n">
+      <c r="T156" t="n">
+        <v>29.1959036730641</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d4e7</t>
+        </is>
+      </c>
+      <c r="V156" t="n">
         <v>25.14110091453718</v>
       </c>
-      <c r="V156" t="n">
+      <c r="W156" t="n">
         <v>400</v>
       </c>
-      <c r="W156" t="n">
+      <c r="X156" t="n">
         <v>25.51644585360476</v>
       </c>
-      <c r="X156" t="n">
+      <c r="Y156" t="n">
         <v>292.2475556</v>
       </c>
-      <c r="Y156" t="n">
+      <c r="Z156" t="n">
         <v>292.9535976</v>
       </c>
-      <c r="Z156" t="n">
+      <c r="AA156" t="n">
         <v>297.890068</v>
       </c>
-      <c r="AA156" t="inlineStr">
+      <c r="AB156" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB156" t="n">
+      <c r="AC156" t="n">
         <v>219.9804076971802</v>
       </c>
     </row>
@@ -15919,35 +16357,38 @@
       <c r="S157" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T157" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea264</t>
-        </is>
-      </c>
-      <c r="U157" t="n">
+      <c r="T157" t="n">
+        <v>36.084082715336</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d597</t>
+        </is>
+      </c>
+      <c r="V157" t="n">
         <v>27.2070784594051</v>
       </c>
-      <c r="V157" t="n">
+      <c r="W157" t="n">
         <v>400</v>
       </c>
-      <c r="W157" t="n">
+      <c r="X157" t="n">
         <v>27.31676919520205</v>
       </c>
-      <c r="X157" t="n">
+      <c r="Y157" t="n">
         <v>355.4606972</v>
       </c>
-      <c r="Y157" t="n">
+      <c r="Z157" t="n">
         <v>356.7825548</v>
       </c>
-      <c r="Z157" t="n">
+      <c r="AA157" t="n">
         <v>394.6883814</v>
       </c>
-      <c r="AA157" t="inlineStr">
+      <c r="AB157" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB157" t="n">
+      <c r="AC157" t="n">
         <v>235.501215921942</v>
       </c>
     </row>
@@ -16019,35 +16460,38 @@
       <c r="S158" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T158" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1bd</t>
-        </is>
-      </c>
-      <c r="U158" t="n">
+      <c r="T158" t="n">
+        <v>30.34679370409703</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d4f0</t>
+        </is>
+      </c>
+      <c r="V158" t="n">
         <v>24.64922597509153</v>
       </c>
-      <c r="V158" t="n">
+      <c r="W158" t="n">
         <v>400</v>
       </c>
-      <c r="W158" t="n">
+      <c r="X158" t="n">
         <v>24.66331307283585</v>
       </c>
-      <c r="X158" t="n">
+      <c r="Y158" t="n">
         <v>216.9204948</v>
       </c>
-      <c r="Y158" t="n">
+      <c r="Z158" t="n">
         <v>227.130058</v>
       </c>
-      <c r="Z158" t="n">
+      <c r="AA158" t="n">
         <v>211.096188</v>
       </c>
-      <c r="AA158" t="inlineStr">
+      <c r="AB158" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB158" t="n">
+      <c r="AC158" t="n">
         <v>212.6254454108921</v>
       </c>
     </row>
@@ -16119,23 +16563,24 @@
       <c r="S159" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T159" t="inlineStr">
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U159" t="inlineStr"/>
       <c r="V159" t="inlineStr"/>
       <c r="W159" t="inlineStr"/>
       <c r="X159" t="inlineStr"/>
       <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr"/>
-      <c r="AA159" t="inlineStr">
+      <c r="AA159" t="inlineStr"/>
+      <c r="AB159" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB159" t="inlineStr"/>
+      <c r="AC159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -16205,23 +16650,24 @@
       <c r="S160" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T160" t="inlineStr">
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr"/>
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="inlineStr"/>
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr"/>
-      <c r="AA160" t="inlineStr">
+      <c r="AA160" t="inlineStr"/>
+      <c r="AB160" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB160" t="inlineStr"/>
+      <c r="AC160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -16291,23 +16737,24 @@
       <c r="S161" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T161" t="inlineStr">
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr"/>
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="inlineStr"/>
       <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr"/>
-      <c r="AA161" t="inlineStr">
+      <c r="AA161" t="inlineStr"/>
+      <c r="AB161" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB161" t="inlineStr"/>
+      <c r="AC161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -16377,23 +16824,24 @@
       <c r="S162" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T162" t="inlineStr">
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U162" t="inlineStr"/>
       <c r="V162" t="inlineStr"/>
       <c r="W162" t="inlineStr"/>
       <c r="X162" t="inlineStr"/>
       <c r="Y162" t="inlineStr"/>
       <c r="Z162" t="inlineStr"/>
-      <c r="AA162" t="inlineStr">
+      <c r="AA162" t="inlineStr"/>
+      <c r="AB162" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB162" t="inlineStr"/>
+      <c r="AC162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -16463,23 +16911,24 @@
       <c r="S163" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T163" t="inlineStr">
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U163" t="inlineStr"/>
       <c r="V163" t="inlineStr"/>
       <c r="W163" t="inlineStr"/>
       <c r="X163" t="inlineStr"/>
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr"/>
-      <c r="AA163" t="inlineStr">
+      <c r="AA163" t="inlineStr"/>
+      <c r="AB163" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB163" t="inlineStr"/>
+      <c r="AC163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -16549,23 +16998,24 @@
       <c r="S164" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T164" t="inlineStr">
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U164" t="inlineStr"/>
       <c r="V164" t="inlineStr"/>
       <c r="W164" t="inlineStr"/>
       <c r="X164" t="inlineStr"/>
       <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr"/>
-      <c r="AA164" t="inlineStr">
+      <c r="AA164" t="inlineStr"/>
+      <c r="AB164" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB164" t="inlineStr"/>
+      <c r="AC164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -16635,35 +17085,38 @@
       <c r="S165" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T165" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea26d</t>
-        </is>
-      </c>
-      <c r="U165" t="n">
+      <c r="T165" t="n">
+        <v>21.34144388812362</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d5a0</t>
+        </is>
+      </c>
+      <c r="V165" t="n">
         <v>26.16952050096042</v>
       </c>
-      <c r="V165" t="n">
+      <c r="W165" t="n">
         <v>370</v>
       </c>
-      <c r="W165" t="n">
+      <c r="X165" t="n">
         <v>26.28642264188944</v>
       </c>
-      <c r="X165" t="n">
+      <c r="Y165" t="n">
         <v>302.3635499000001</v>
       </c>
-      <c r="Y165" t="n">
+      <c r="Z165" t="n">
         <v>341.1531</v>
       </c>
-      <c r="Z165" t="n">
+      <c r="AA165" t="n">
         <v>313.7413026</v>
       </c>
-      <c r="AA165" t="inlineStr">
+      <c r="AB165" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB165" t="n">
+      <c r="AC165" t="n">
         <v>244.9929426793402</v>
       </c>
     </row>
@@ -16735,23 +17188,24 @@
       <c r="S166" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T166" t="inlineStr">
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U166" t="inlineStr"/>
       <c r="V166" t="inlineStr"/>
       <c r="W166" t="inlineStr"/>
       <c r="X166" t="inlineStr"/>
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr"/>
-      <c r="AA166" t="inlineStr">
+      <c r="AA166" t="inlineStr"/>
+      <c r="AB166" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB166" t="inlineStr"/>
+      <c r="AC166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -16821,35 +17275,38 @@
       <c r="S167" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T167" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1c6</t>
-        </is>
-      </c>
-      <c r="U167" t="n">
+      <c r="T167" t="n">
+        <v>19.39415355782895</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d4f9</t>
+        </is>
+      </c>
+      <c r="V167" t="n">
         <v>19.2865037317477</v>
       </c>
-      <c r="V167" t="n">
+      <c r="W167" t="n">
         <v>370</v>
       </c>
-      <c r="W167" t="n">
+      <c r="X167" t="n">
         <v>19.60425047518709</v>
       </c>
-      <c r="X167" t="n">
+      <c r="Y167" t="n">
         <v>311.517318</v>
       </c>
-      <c r="Y167" t="n">
+      <c r="Z167" t="n">
         <v>295.4667366</v>
       </c>
-      <c r="Z167" t="n">
+      <c r="AA167" t="n">
         <v>276.927594</v>
       </c>
-      <c r="AA167" t="inlineStr">
+      <c r="AB167" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB167" t="n">
+      <c r="AC167" t="n">
         <v>182.7142125184102</v>
       </c>
     </row>
@@ -16921,35 +17378,38 @@
       <c r="S168" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T168" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea278</t>
-        </is>
-      </c>
-      <c r="U168" t="n">
+      <c r="T168" t="n">
+        <v>22.59779515451074</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d5ab</t>
+        </is>
+      </c>
+      <c r="V168" t="n">
         <v>29.45309826298016</v>
       </c>
-      <c r="V168" t="n">
+      <c r="W168" t="n">
         <v>370</v>
       </c>
-      <c r="W168" t="n">
+      <c r="X168" t="n">
         <v>30.00269418526771</v>
       </c>
-      <c r="X168" t="n">
+      <c r="Y168" t="n">
         <v>352.4795928</v>
       </c>
-      <c r="Y168" t="n">
+      <c r="Z168" t="n">
         <v>332.7510090000001</v>
       </c>
-      <c r="Z168" t="n">
+      <c r="AA168" t="n">
         <v>344.805472</v>
       </c>
-      <c r="AA168" t="inlineStr">
+      <c r="AB168" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB168" t="n">
+      <c r="AC168" t="n">
         <v>279.6290859694068</v>
       </c>
     </row>
@@ -17021,35 +17481,38 @@
       <c r="S169" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T169" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1cf</t>
-        </is>
-      </c>
-      <c r="U169" t="n">
+      <c r="T169" t="n">
+        <v>27.76121262839162</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d502</t>
+        </is>
+      </c>
+      <c r="V169" t="n">
         <v>28.69179918175906</v>
       </c>
-      <c r="V169" t="n">
+      <c r="W169" t="n">
         <v>370</v>
       </c>
-      <c r="W169" t="n">
+      <c r="X169" t="n">
         <v>28.73836432228059</v>
       </c>
-      <c r="X169" t="n">
+      <c r="Y169" t="n">
         <v>291.97632</v>
       </c>
-      <c r="Y169" t="n">
+      <c r="Z169" t="n">
         <v>288.313062</v>
       </c>
-      <c r="Z169" t="n">
+      <c r="AA169" t="n">
         <v>295.4630438999999</v>
       </c>
-      <c r="AA169" t="inlineStr">
+      <c r="AB169" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB169" t="n">
+      <c r="AC169" t="n">
         <v>267.845364088706</v>
       </c>
     </row>
@@ -17121,23 +17584,24 @@
       <c r="S170" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T170" t="inlineStr">
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U170" t="inlineStr"/>
       <c r="V170" t="inlineStr"/>
       <c r="W170" t="inlineStr"/>
       <c r="X170" t="inlineStr"/>
       <c r="Y170" t="inlineStr"/>
       <c r="Z170" t="inlineStr"/>
-      <c r="AA170" t="inlineStr">
+      <c r="AA170" t="inlineStr"/>
+      <c r="AB170" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB170" t="inlineStr"/>
+      <c r="AC170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -17207,23 +17671,24 @@
       <c r="S171" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T171" t="inlineStr">
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr"/>
       <c r="W171" t="inlineStr"/>
       <c r="X171" t="inlineStr"/>
       <c r="Y171" t="inlineStr"/>
       <c r="Z171" t="inlineStr"/>
-      <c r="AA171" t="inlineStr">
+      <c r="AA171" t="inlineStr"/>
+      <c r="AB171" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="AB171" t="inlineStr"/>
+      <c r="AC171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -17293,35 +17758,38 @@
       <c r="S172" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T172" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea28a</t>
-        </is>
-      </c>
-      <c r="U172" t="n">
+      <c r="T172" t="n">
+        <v>26.11204480472755</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>66f5ab0514f9f3f112e9d5bd</t>
+        </is>
+      </c>
+      <c r="V172" t="n">
         <v>31.08360158907979</v>
       </c>
-      <c r="V172" t="n">
+      <c r="W172" t="n">
         <v>385</v>
       </c>
-      <c r="W172" t="n">
+      <c r="X172" t="n">
         <v>31.11989486994812</v>
       </c>
-      <c r="X172" t="n">
+      <c r="Y172" t="n">
         <v>276.1992822</v>
       </c>
-      <c r="Y172" t="n">
+      <c r="Z172" t="n">
         <v>269.8756461</v>
       </c>
-      <c r="Z172" t="n">
+      <c r="AA172" t="n">
         <v>247.9383657</v>
       </c>
-      <c r="AA172" t="inlineStr">
+      <c r="AB172" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB172" t="n">
+      <c r="AC172" t="n">
         <v>278.7412244976547</v>
       </c>
     </row>
@@ -17393,35 +17861,38 @@
       <c r="S173" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T173" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1d8</t>
-        </is>
-      </c>
-      <c r="U173" t="n">
+      <c r="T173" t="n">
+        <v>38.97951411861197</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d50b</t>
+        </is>
+      </c>
+      <c r="V173" t="n">
         <v>22.96461698712408</v>
       </c>
-      <c r="V173" t="n">
+      <c r="W173" t="n">
         <v>385</v>
       </c>
-      <c r="W173" t="n">
+      <c r="X173" t="n">
         <v>22.97512836817724</v>
       </c>
-      <c r="X173" t="n">
+      <c r="Y173" t="n">
         <v>298.691358</v>
       </c>
-      <c r="Y173" t="n">
+      <c r="Z173" t="n">
         <v>377.463464</v>
       </c>
-      <c r="Z173" t="n">
+      <c r="AA173" t="n">
         <v>282.303714</v>
       </c>
-      <c r="AA173" t="inlineStr">
+      <c r="AB173" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB173" t="n">
+      <c r="AC173" t="n">
         <v>205.7884655812528</v>
       </c>
     </row>
@@ -17493,35 +17964,38 @@
       <c r="S174" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T174" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea281</t>
-        </is>
-      </c>
-      <c r="U174" t="n">
+      <c r="T174" t="n">
+        <v>27.94006038215964</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>66f5ab0514f9f3f112e9d5b4</t>
+        </is>
+      </c>
+      <c r="V174" t="n">
         <v>29.69751548329342</v>
       </c>
-      <c r="V174" t="n">
+      <c r="W174" t="n">
         <v>385</v>
       </c>
-      <c r="W174" t="n">
+      <c r="X174" t="n">
         <v>29.78070345543679</v>
       </c>
-      <c r="X174" t="n">
+      <c r="Y174" t="n">
         <v>243.5120226</v>
       </c>
-      <c r="Y174" t="n">
+      <c r="Z174" t="n">
         <v>286.2702114</v>
       </c>
-      <c r="Z174" t="n">
+      <c r="AA174" t="n">
         <v>345.3896488</v>
       </c>
-      <c r="AA174" t="inlineStr">
+      <c r="AB174" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB174" t="n">
+      <c r="AC174" t="n">
         <v>266.7460729626759</v>
       </c>
     </row>
@@ -17593,35 +18067,38 @@
       <c r="S175" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T175" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea293</t>
-        </is>
-      </c>
-      <c r="U175" t="n">
+      <c r="T175" t="n">
+        <v>37.28241302838828</v>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>66f5ab0514f9f3f112e9d5c6</t>
+        </is>
+      </c>
+      <c r="V175" t="n">
         <v>41.11430780126948</v>
       </c>
-      <c r="V175" t="n">
+      <c r="W175" t="n">
         <v>385</v>
       </c>
-      <c r="W175" t="n">
+      <c r="X175" t="n">
         <v>41.94821215100872</v>
       </c>
-      <c r="X175" t="n">
+      <c r="Y175" t="n">
         <v>386.9919396</v>
       </c>
-      <c r="Y175" t="n">
+      <c r="Z175" t="n">
         <v>325.5774892</v>
       </c>
-      <c r="Z175" t="n">
+      <c r="AA175" t="n">
         <v>369.1343909</v>
       </c>
-      <c r="AA175" t="inlineStr">
+      <c r="AB175" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB175" t="n">
+      <c r="AC175" t="n">
         <v>375.7305758687179</v>
       </c>
     </row>
@@ -17693,35 +18170,38 @@
       <c r="S176" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T176" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1e1</t>
-        </is>
-      </c>
-      <c r="U176" t="n">
+      <c r="T176" t="n">
+        <v>33.98735986904719</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d514</t>
+        </is>
+      </c>
+      <c r="V176" t="n">
         <v>23.77857530160091</v>
       </c>
-      <c r="V176" t="n">
+      <c r="W176" t="n">
         <v>455</v>
       </c>
-      <c r="W176" t="n">
+      <c r="X176" t="n">
         <v>24.16105877713304</v>
       </c>
-      <c r="X176" t="n">
+      <c r="Y176" t="n">
         <v>299.8627465999999</v>
       </c>
-      <c r="Y176" t="n">
+      <c r="Z176" t="n">
         <v>305.4655784</v>
       </c>
-      <c r="Z176" t="n">
+      <c r="AA176" t="n">
         <v>260.764338</v>
       </c>
-      <c r="AA176" t="inlineStr">
+      <c r="AB176" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB176" t="n">
+      <c r="AC176" t="n">
         <v>183.1168787319731</v>
       </c>
     </row>
@@ -17793,35 +18273,38 @@
       <c r="S177" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T177" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1e3</t>
-        </is>
-      </c>
-      <c r="U177" t="n">
+      <c r="T177" t="n">
+        <v>49.80999196659403</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d516</t>
+        </is>
+      </c>
+      <c r="V177" t="n">
         <v>35.28290170703388</v>
       </c>
-      <c r="V177" t="n">
+      <c r="W177" t="n">
         <v>455</v>
       </c>
-      <c r="W177" t="n">
+      <c r="X177" t="n">
         <v>35.96522251994786</v>
       </c>
-      <c r="X177" t="n">
+      <c r="Y177" t="n">
         <v>320.3959288</v>
       </c>
-      <c r="Y177" t="n">
+      <c r="Z177" t="n">
         <v>282.2527864</v>
       </c>
-      <c r="Z177" t="n">
+      <c r="AA177" t="n">
         <v>316.026021</v>
       </c>
-      <c r="AA177" t="inlineStr">
+      <c r="AB177" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB177" t="n">
+      <c r="AC177" t="n">
         <v>272.5807404179992</v>
       </c>
     </row>
@@ -17893,35 +18376,38 @@
       <c r="S178" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T178" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea29e</t>
-        </is>
-      </c>
-      <c r="U178" t="n">
+      <c r="T178" t="n">
+        <v>47.63839525890084</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>66f5ab0514f9f3f112e9d5d1</t>
+        </is>
+      </c>
+      <c r="V178" t="n">
         <v>44.28545648745536</v>
       </c>
-      <c r="V178" t="n">
+      <c r="W178" t="n">
         <v>455</v>
       </c>
-      <c r="W178" t="n">
+      <c r="X178" t="n">
         <v>44.35540633050358</v>
       </c>
-      <c r="X178" t="n">
+      <c r="Y178" t="n">
         <v>325.5767928</v>
       </c>
-      <c r="Y178" t="n">
+      <c r="Z178" t="n">
         <v>375.89904</v>
       </c>
-      <c r="Z178" t="n">
+      <c r="AA178" t="n">
         <v>365.6473623</v>
       </c>
-      <c r="AA178" t="inlineStr">
+      <c r="AB178" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB178" t="n">
+      <c r="AC178" t="n">
         <v>336.1700179222859</v>
       </c>
     </row>
@@ -17993,35 +18479,38 @@
       <c r="S179" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T179" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea2a7</t>
-        </is>
-      </c>
-      <c r="U179" t="n">
+      <c r="T179" t="n">
+        <v>32.84973477306396</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>66f5ab0514f9f3f112e9d5da</t>
+        </is>
+      </c>
+      <c r="V179" t="n">
         <v>36.96849705192815</v>
       </c>
-      <c r="V179" t="n">
+      <c r="W179" t="n">
         <v>455</v>
       </c>
-      <c r="W179" t="n">
+      <c r="X179" t="n">
         <v>36.97319264490816</v>
       </c>
-      <c r="X179" t="n">
+      <c r="Y179" t="n">
         <v>304.4191248</v>
       </c>
-      <c r="Y179" t="n">
+      <c r="Z179" t="n">
         <v>330.87267</v>
       </c>
-      <c r="Z179" t="n">
+      <c r="AA179" t="n">
         <v>315.995796</v>
       </c>
-      <c r="AA179" t="inlineStr">
+      <c r="AB179" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB179" t="n">
+      <c r="AC179" t="n">
         <v>280.2201549337446</v>
       </c>
     </row>
@@ -18093,35 +18582,38 @@
       <c r="S180" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T180" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1f2</t>
-        </is>
-      </c>
-      <c r="U180" t="n">
+      <c r="T180" t="n">
+        <v>30.95413191581126</v>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d525</t>
+        </is>
+      </c>
+      <c r="V180" t="n">
         <v>28.19025564935648</v>
       </c>
-      <c r="V180" t="n">
+      <c r="W180" t="n">
         <v>455</v>
       </c>
-      <c r="W180" t="n">
+      <c r="X180" t="n">
         <v>28.721920765215</v>
       </c>
-      <c r="X180" t="n">
+      <c r="Y180" t="n">
         <v>295.0284678</v>
       </c>
-      <c r="Y180" t="n">
+      <c r="Z180" t="n">
         <v>269.070432</v>
       </c>
-      <c r="Z180" t="n">
+      <c r="AA180" t="n">
         <v>276.925374</v>
       </c>
-      <c r="AA180" t="inlineStr">
+      <c r="AB180" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB180" t="n">
+      <c r="AC180" t="n">
         <v>217.683692185335</v>
       </c>
     </row>
@@ -18193,35 +18685,38 @@
       <c r="S181" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T181" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea1f4</t>
-        </is>
-      </c>
-      <c r="U181" t="n">
+      <c r="T181" t="n">
+        <v>34.35919132062088</v>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d527</t>
+        </is>
+      </c>
+      <c r="V181" t="n">
         <v>36.49694014156258</v>
       </c>
-      <c r="V181" t="n">
+      <c r="W181" t="n">
         <v>455</v>
       </c>
-      <c r="W181" t="n">
+      <c r="X181" t="n">
         <v>37.2397192482389</v>
       </c>
-      <c r="X181" t="n">
+      <c r="Y181" t="n">
         <v>328.0271394</v>
       </c>
-      <c r="Y181" t="n">
+      <c r="Z181" t="n">
         <v>308.2294559999999</v>
       </c>
-      <c r="Z181" t="n">
+      <c r="AA181" t="n">
         <v>328.0929388</v>
       </c>
-      <c r="AA181" t="inlineStr">
+      <c r="AB181" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB181" t="n">
+      <c r="AC181" t="n">
         <v>282.2401624239441</v>
       </c>
     </row>
@@ -18293,35 +18788,38 @@
       <c r="S182" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T182" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea203</t>
-        </is>
-      </c>
-      <c r="U182" t="n">
+      <c r="T182" t="n">
+        <v>32.64640319696538</v>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d536</t>
+        </is>
+      </c>
+      <c r="V182" t="n">
         <v>34.76991273781095</v>
       </c>
-      <c r="V182" t="n">
+      <c r="W182" t="n">
         <v>455</v>
       </c>
-      <c r="W182" t="n">
+      <c r="X182" t="n">
         <v>35.47065066958163</v>
       </c>
-      <c r="X182" t="n">
+      <c r="Y182" t="n">
         <v>329.506425</v>
       </c>
-      <c r="Y182" t="n">
+      <c r="Z182" t="n">
         <v>295.9235188</v>
       </c>
-      <c r="Z182" t="n">
+      <c r="AA182" t="n">
         <v>314.5583444</v>
       </c>
-      <c r="AA182" t="inlineStr">
+      <c r="AB182" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB182" t="n">
+      <c r="AC182" t="n">
         <v>268.8323759782143</v>
       </c>
     </row>
@@ -18393,35 +18891,38 @@
       <c r="S183" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T183" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea2b0</t>
-        </is>
-      </c>
-      <c r="U183" t="n">
+      <c r="T183" t="n">
+        <v>39.4414408529179</v>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>66f5ab0514f9f3f112e9d5e3</t>
+        </is>
+      </c>
+      <c r="V183" t="n">
         <v>39.02577693215903</v>
       </c>
-      <c r="V183" t="n">
+      <c r="W183" t="n">
         <v>455</v>
       </c>
-      <c r="W183" t="n">
+      <c r="X183" t="n">
         <v>39.18930317492293</v>
       </c>
-      <c r="X183" t="n">
+      <c r="Y183" t="n">
         <v>368.7182572999999</v>
       </c>
-      <c r="Y183" t="n">
+      <c r="Z183" t="n">
         <v>292.5236922</v>
       </c>
-      <c r="Z183" t="n">
+      <c r="AA183" t="n">
         <v>289.802604</v>
       </c>
-      <c r="AA183" t="inlineStr">
+      <c r="AB183" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB183" t="n">
+      <c r="AC183" t="n">
         <v>297.0160762931775</v>
       </c>
     </row>
@@ -18493,35 +18994,38 @@
       <c r="S184" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T184" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea20c</t>
-        </is>
-      </c>
-      <c r="U184" t="n">
+      <c r="T184" t="n">
+        <v>36.44778654202474</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d53f</t>
+        </is>
+      </c>
+      <c r="V184" t="n">
         <v>26.73027614391297</v>
       </c>
-      <c r="V184" t="n">
+      <c r="W184" t="n">
         <v>455</v>
       </c>
-      <c r="W184" t="n">
+      <c r="X184" t="n">
         <v>26.85293956664093</v>
       </c>
-      <c r="X184" t="n">
+      <c r="Y184" t="n">
         <v>288.0534417</v>
       </c>
-      <c r="Y184" t="n">
+      <c r="Z184" t="n">
         <v>287.1221985</v>
       </c>
-      <c r="Z184" t="n">
+      <c r="AA184" t="n">
         <v>313.1726089</v>
       </c>
-      <c r="AA184" t="inlineStr">
+      <c r="AB184" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB184" t="n">
+      <c r="AC184" t="n">
         <v>203.5186671072314</v>
       </c>
     </row>
@@ -18593,35 +19097,38 @@
       <c r="S185" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T185" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea217</t>
-        </is>
-      </c>
-      <c r="U185" t="n">
+      <c r="T185" t="n">
+        <v>38.41448340915647</v>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d54a</t>
+        </is>
+      </c>
+      <c r="V185" t="n">
         <v>31.48189304740949</v>
       </c>
-      <c r="V185" t="n">
+      <c r="W185" t="n">
         <v>455</v>
       </c>
-      <c r="W185" t="n">
+      <c r="X185" t="n">
         <v>32.10811877198707</v>
       </c>
-      <c r="X185" t="n">
+      <c r="Y185" t="n">
         <v>313.63626</v>
       </c>
-      <c r="Y185" t="n">
+      <c r="Z185" t="n">
         <v>296.9822878000001</v>
       </c>
-      <c r="Z185" t="n">
+      <c r="AA185" t="n">
         <v>241.197336</v>
       </c>
-      <c r="AA185" t="inlineStr">
+      <c r="AB185" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB185" t="n">
+      <c r="AC185" t="n">
         <v>243.3477169074382</v>
       </c>
     </row>
@@ -18693,35 +19200,38 @@
       <c r="S186" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T186" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea222</t>
-        </is>
-      </c>
-      <c r="U186" t="n">
+      <c r="T186" t="n">
+        <v>31.13424943658793</v>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d555</t>
+        </is>
+      </c>
+      <c r="V186" t="n">
         <v>26.48666992296654</v>
       </c>
-      <c r="V186" t="n">
+      <c r="W186" t="n">
         <v>455</v>
       </c>
-      <c r="W186" t="n">
+      <c r="X186" t="n">
         <v>27.01565766881514</v>
       </c>
-      <c r="X186" t="n">
+      <c r="Y186" t="n">
         <v>290.9265835</v>
       </c>
-      <c r="Y186" t="n">
+      <c r="Z186" t="n">
         <v>292.218712</v>
       </c>
-      <c r="Z186" t="n">
+      <c r="AA186" t="n">
         <v>294.241125</v>
       </c>
-      <c r="AA186" t="inlineStr">
+      <c r="AB186" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB186" t="n">
+      <c r="AC186" t="n">
         <v>204.7519090465927</v>
       </c>
     </row>
@@ -18793,35 +19303,38 @@
       <c r="S187" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T187" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea23c</t>
-        </is>
-      </c>
-      <c r="U187" t="n">
+      <c r="T187" t="n">
+        <v>21.51178959337583</v>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d56f</t>
+        </is>
+      </c>
+      <c r="V187" t="n">
         <v>20.70811262507129</v>
       </c>
-      <c r="V187" t="n">
+      <c r="W187" t="n">
         <v>455</v>
       </c>
-      <c r="W187" t="n">
+      <c r="X187" t="n">
         <v>21.06409936106715</v>
       </c>
-      <c r="X187" t="n">
+      <c r="Y187" t="n">
         <v>236.3749416</v>
       </c>
-      <c r="Y187" t="n">
+      <c r="Z187" t="n">
         <v>249.774364</v>
       </c>
-      <c r="Z187" t="n">
+      <c r="AA187" t="n">
         <v>251.0789309</v>
       </c>
-      <c r="AA187" t="inlineStr">
+      <c r="AB187" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB187" t="n">
+      <c r="AC187" t="n">
         <v>159.6449958537977</v>
       </c>
     </row>
@@ -18893,35 +19406,38 @@
       <c r="S188" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T188" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea23e</t>
-        </is>
-      </c>
-      <c r="U188" t="n">
+      <c r="T188" t="n">
+        <v>19.79094752105591</v>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d571</t>
+        </is>
+      </c>
+      <c r="V188" t="n">
         <v>26.18106917291921</v>
       </c>
-      <c r="V188" t="n">
+      <c r="W188" t="n">
         <v>455</v>
       </c>
-      <c r="W188" t="n">
+      <c r="X188" t="n">
         <v>26.71135133448309</v>
       </c>
-      <c r="X188" t="n">
+      <c r="Y188" t="n">
         <v>174.2600979</v>
       </c>
-      <c r="Y188" t="n">
+      <c r="Z188" t="n">
         <v>176.5689079</v>
       </c>
-      <c r="Z188" t="n">
+      <c r="AA188" t="n">
         <v>222.1706655</v>
       </c>
-      <c r="AA188" t="inlineStr">
+      <c r="AB188" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB188" t="n">
+      <c r="AC188" t="n">
         <v>202.4455686401038</v>
       </c>
     </row>
@@ -18993,35 +19509,38 @@
       <c r="S189" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T189" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea240</t>
-        </is>
-      </c>
-      <c r="U189" t="n">
+      <c r="T189" t="n">
+        <v>26.86936334994345</v>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d573</t>
+        </is>
+      </c>
+      <c r="V189" t="n">
         <v>20.47870766047297</v>
       </c>
-      <c r="V189" t="n">
+      <c r="W189" t="n">
         <v>455</v>
       </c>
-      <c r="W189" t="n">
+      <c r="X189" t="n">
         <v>20.65706647850809</v>
       </c>
-      <c r="X189" t="n">
+      <c r="Y189" t="n">
         <v>278.1062319</v>
       </c>
-      <c r="Y189" t="n">
+      <c r="Z189" t="n">
         <v>261.6000289</v>
       </c>
-      <c r="Z189" t="n">
+      <c r="AA189" t="n">
         <v>305.5230689</v>
       </c>
-      <c r="AA189" t="inlineStr">
+      <c r="AB189" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB189" t="n">
+      <c r="AC189" t="n">
         <v>156.5600900273181</v>
       </c>
     </row>
@@ -19093,35 +19612,38 @@
       <c r="S190" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T190" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea255</t>
-        </is>
-      </c>
-      <c r="U190" t="n">
+      <c r="T190" t="n">
+        <v>24.99239398403173</v>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d588</t>
+        </is>
+      </c>
+      <c r="V190" t="n">
         <v>30.30305244923433</v>
       </c>
-      <c r="V190" t="n">
+      <c r="W190" t="n">
         <v>455</v>
       </c>
-      <c r="W190" t="n">
+      <c r="X190" t="n">
         <v>30.31719375076593</v>
       </c>
-      <c r="X190" t="n">
+      <c r="Y190" t="n">
         <v>321.646494</v>
       </c>
-      <c r="Y190" t="n">
+      <c r="Z190" t="n">
         <v>296.8619483</v>
       </c>
-      <c r="Z190" t="n">
+      <c r="AA190" t="n">
         <v>316.3064695</v>
       </c>
-      <c r="AA190" t="inlineStr">
+      <c r="AB190" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB190" t="n">
+      <c r="AC190" t="n">
         <v>229.774280289694</v>
       </c>
     </row>
@@ -19193,35 +19715,38 @@
       <c r="S191" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T191" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea255</t>
-        </is>
-      </c>
-      <c r="U191" t="n">
+      <c r="T191" t="n">
+        <v>35.59638997970578</v>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d588</t>
+        </is>
+      </c>
+      <c r="V191" t="n">
         <v>30.30305244923433</v>
       </c>
-      <c r="V191" t="n">
+      <c r="W191" t="n">
         <v>455</v>
       </c>
-      <c r="W191" t="n">
+      <c r="X191" t="n">
         <v>30.31719375076593</v>
       </c>
-      <c r="X191" t="n">
+      <c r="Y191" t="n">
         <v>264.5162804</v>
       </c>
-      <c r="Y191" t="n">
+      <c r="Z191" t="n">
         <v>274.1665738</v>
       </c>
-      <c r="Z191" t="n">
+      <c r="AA191" t="n">
         <v>306.1503096</v>
       </c>
-      <c r="AA191" t="inlineStr">
+      <c r="AB191" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB191" t="n">
+      <c r="AC191" t="n">
         <v>229.774280289694</v>
       </c>
     </row>
@@ -19293,35 +19818,38 @@
       <c r="S192" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T192" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea22d</t>
-        </is>
-      </c>
-      <c r="U192" t="n">
+      <c r="T192" t="n">
+        <v>28.11031751053916</v>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d560</t>
+        </is>
+      </c>
+      <c r="V192" t="n">
         <v>23.27731262873623</v>
       </c>
-      <c r="V192" t="n">
+      <c r="W192" t="n">
         <v>455</v>
       </c>
-      <c r="W192" t="n">
+      <c r="X192" t="n">
         <v>23.28027321029692</v>
       </c>
-      <c r="X192" t="n">
+      <c r="Y192" t="n">
         <v>266.5960134000001</v>
       </c>
-      <c r="Y192" t="n">
+      <c r="Z192" t="n">
         <v>250.714436</v>
       </c>
-      <c r="Z192" t="n">
+      <c r="AA192" t="n">
         <v>234.776375</v>
       </c>
-      <c r="AA192" t="inlineStr">
+      <c r="AB192" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB192" t="n">
+      <c r="AC192" t="n">
         <v>176.4413971101227</v>
       </c>
     </row>
@@ -19393,35 +19921,38 @@
       <c r="S193" t="n">
         <v>0.2942581907953586</v>
       </c>
-      <c r="T193" t="inlineStr">
-        <is>
-          <t>66f57df36e41de5c74cea22d</t>
-        </is>
-      </c>
-      <c r="U193" t="n">
+      <c r="T193" t="n">
+        <v>20.70244914705901</v>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>66f5ab0414f9f3f112e9d560</t>
+        </is>
+      </c>
+      <c r="V193" t="n">
         <v>23.27731262873623</v>
       </c>
-      <c r="V193" t="n">
+      <c r="W193" t="n">
         <v>455</v>
       </c>
-      <c r="W193" t="n">
+      <c r="X193" t="n">
         <v>23.28027321029692</v>
       </c>
-      <c r="X193" t="n">
+      <c r="Y193" t="n">
         <v>193.4912926</v>
       </c>
-      <c r="Y193" t="n">
+      <c r="Z193" t="n">
         <v>228.712288</v>
       </c>
-      <c r="Z193" t="n">
+      <c r="AA193" t="n">
         <v>232.86175</v>
       </c>
-      <c r="AA193" t="inlineStr">
+      <c r="AB193" t="inlineStr">
         <is>
           <t>test-car</t>
         </is>
       </c>
-      <c r="AB193" t="n">
+      <c r="AC193" t="n">
         <v>176.4413971101227</v>
       </c>
     </row>

--- a/fifty_one/measurements/Updated_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_Filtered_Data_with_real_length.xlsx
@@ -743,7 +743,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327b66</t>
+          <t>66f70373a04dfd6d00545bf4</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -900,7 +900,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327b6c</t>
+          <t>66f70373a04dfd6d00545bfa</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327b68</t>
+          <t>66f70373a04dfd6d00545bf6</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327b6a</t>
+          <t>66f70373a04dfd6d00545bf8</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327b87</t>
+          <t>66f70374a04dfd6d00545c15</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327b89</t>
+          <t>66f70374a04dfd6d00545c17</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327b8b</t>
+          <t>66f70374a04dfd6d00545c19</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327ba2</t>
+          <t>66f70374a04dfd6d00545c30</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327ba0</t>
+          <t>66f70374a04dfd6d00545c2e</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327bb3</t>
+          <t>66f70374a04dfd6d00545c41</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327bb1</t>
+          <t>66f70374a04dfd6d00545c3f</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327bb7</t>
+          <t>66f70374a04dfd6d00545c45</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327bb5</t>
+          <t>66f70374a04dfd6d00545c43</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327bd6</t>
+          <t>66f70374a04dfd6d00545c64</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327bd8</t>
+          <t>66f70374a04dfd6d00545c66</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327be7</t>
+          <t>66f70374a04dfd6d00545c75</t>
         </is>
       </c>
       <c r="V17" t="n">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>66f5cf942ae7be17ad327be9</t>
+          <t>66f70374a04dfd6d00545c77</t>
         </is>
       </c>
       <c r="V18" t="n">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327bfc</t>
+          <t>66f70374a04dfd6d00545c8a</t>
         </is>
       </c>
       <c r="V19" t="n">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327bfa</t>
+          <t>66f70374a04dfd6d00545c88</t>
         </is>
       </c>
       <c r="V20" t="n">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c00</t>
+          <t>66f70374a04dfd6d00545c8e</t>
         </is>
       </c>
       <c r="V21" t="n">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c19</t>
+          <t>66f70374a04dfd6d00545ca7</t>
         </is>
       </c>
       <c r="V22" t="n">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c17</t>
+          <t>66f70374a04dfd6d00545ca5</t>
         </is>
       </c>
       <c r="V23" t="n">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c1b</t>
+          <t>66f70374a04dfd6d00545ca9</t>
         </is>
       </c>
       <c r="V24" t="n">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c38</t>
+          <t>66f70375a04dfd6d00545cc6</t>
         </is>
       </c>
       <c r="V25" t="n">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c36</t>
+          <t>66f70375a04dfd6d00545cc4</t>
         </is>
       </c>
       <c r="V26" t="n">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c3a</t>
+          <t>66f70375a04dfd6d00545cc8</t>
         </is>
       </c>
       <c r="V27" t="n">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c53</t>
+          <t>66f70375a04dfd6d00545ce1</t>
         </is>
       </c>
       <c r="V35" t="n">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c57</t>
+          <t>66f70375a04dfd6d00545ce5</t>
         </is>
       </c>
       <c r="V36" t="n">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c59</t>
+          <t>66f70375a04dfd6d00545ce7</t>
         </is>
       </c>
       <c r="V37" t="n">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c4f</t>
+          <t>66f70375a04dfd6d00545cdd</t>
         </is>
       </c>
       <c r="V38" t="n">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c55</t>
+          <t>66f70375a04dfd6d00545ce3</t>
         </is>
       </c>
       <c r="V39" t="n">
@@ -6345,7 +6345,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c7e</t>
+          <t>66f70375a04dfd6d00545d0c</t>
         </is>
       </c>
       <c r="V40" t="n">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c82</t>
+          <t>66f70375a04dfd6d00545d10</t>
         </is>
       </c>
       <c r="V41" t="n">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c8c</t>
+          <t>66f70375a04dfd6d00545d1a</t>
         </is>
       </c>
       <c r="V42" t="n">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327c80</t>
+          <t>66f70375a04dfd6d00545d0e</t>
         </is>
       </c>
       <c r="V43" t="n">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327cad</t>
+          <t>66f70375a04dfd6d00545d3b</t>
         </is>
       </c>
       <c r="V44" t="n">
@@ -7130,7 +7130,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327caf</t>
+          <t>66f70375a04dfd6d00545d3d</t>
         </is>
       </c>
       <c r="V45" t="n">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327cb3</t>
+          <t>66f70375a04dfd6d00545d41</t>
         </is>
       </c>
       <c r="V46" t="n">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327cd2</t>
+          <t>66f70375a04dfd6d00545d60</t>
         </is>
       </c>
       <c r="V47" t="n">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327cce</t>
+          <t>66f70375a04dfd6d00545d5c</t>
         </is>
       </c>
       <c r="V48" t="n">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327cd0</t>
+          <t>66f70375a04dfd6d00545d5e</t>
         </is>
       </c>
       <c r="V49" t="n">
@@ -7915,7 +7915,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327ccc</t>
+          <t>66f70375a04dfd6d00545d5a</t>
         </is>
       </c>
       <c r="V50" t="n">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327cfb</t>
+          <t>66f70376a04dfd6d00545d89</t>
         </is>
       </c>
       <c r="V51" t="n">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327cf9</t>
+          <t>66f70376a04dfd6d00545d87</t>
         </is>
       </c>
       <c r="V52" t="n">
@@ -8386,7 +8386,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327d01</t>
+          <t>66f70376a04dfd6d00545d8f</t>
         </is>
       </c>
       <c r="V53" t="n">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327cfd</t>
+          <t>66f70376a04dfd6d00545d8b</t>
         </is>
       </c>
       <c r="V54" t="n">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>66f5cf952ae7be17ad327cf7</t>
+          <t>66f70376a04dfd6d00545d85</t>
         </is>
       </c>
       <c r="V55" t="n">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d7d</t>
+          <t>66f70376a04dfd6d00545e0b</t>
         </is>
       </c>
       <c r="V56" t="n">
@@ -9014,7 +9014,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d79</t>
+          <t>66f70376a04dfd6d00545e07</t>
         </is>
       </c>
       <c r="V57" t="n">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d7b</t>
+          <t>66f70376a04dfd6d00545e09</t>
         </is>
       </c>
       <c r="V58" t="n">
@@ -9328,7 +9328,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d81</t>
+          <t>66f70376a04dfd6d00545e0f</t>
         </is>
       </c>
       <c r="V59" t="n">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d7d</t>
+          <t>66f70376a04dfd6d00545e0b</t>
         </is>
       </c>
       <c r="V60" t="n">
@@ -9642,7 +9642,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d83</t>
+          <t>66f70376a04dfd6d00545e11</t>
         </is>
       </c>
       <c r="V61" t="n">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d51</t>
+          <t>66f70376a04dfd6d00545ddf</t>
         </is>
       </c>
       <c r="V62" t="n">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d4f</t>
+          <t>66f70376a04dfd6d00545ddd</t>
         </is>
       </c>
       <c r="V63" t="n">
@@ -10113,7 +10113,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d60</t>
+          <t>66f70376a04dfd6d00545dee</t>
         </is>
       </c>
       <c r="V64" t="n">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d64</t>
+          <t>66f70376a04dfd6d00545df2</t>
         </is>
       </c>
       <c r="V65" t="n">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d62</t>
+          <t>66f70376a04dfd6d00545df0</t>
         </is>
       </c>
       <c r="V66" t="n">
@@ -10584,7 +10584,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d2e</t>
+          <t>66f70376a04dfd6d00545dbc</t>
         </is>
       </c>
       <c r="V67" t="n">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d32</t>
+          <t>66f70376a04dfd6d00545dc0</t>
         </is>
       </c>
       <c r="V68" t="n">
@@ -10898,7 +10898,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d2c</t>
+          <t>66f70376a04dfd6d00545dba</t>
         </is>
       </c>
       <c r="V69" t="n">
@@ -11055,7 +11055,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327d34</t>
+          <t>66f70376a04dfd6d00545dc2</t>
         </is>
       </c>
       <c r="V70" t="n">
@@ -11212,7 +11212,7 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327de4</t>
+          <t>66f70377a04dfd6d00545e72</t>
         </is>
       </c>
       <c r="V71" t="n">
@@ -11369,7 +11369,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327de8</t>
+          <t>66f70377a04dfd6d00545e76</t>
         </is>
       </c>
       <c r="V72" t="n">
@@ -11526,7 +11526,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327de0</t>
+          <t>66f70377a04dfd6d00545e6e</t>
         </is>
       </c>
       <c r="V73" t="n">
@@ -11683,7 +11683,7 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327de2</t>
+          <t>66f70377a04dfd6d00545e70</t>
         </is>
       </c>
       <c r="V74" t="n">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327de6</t>
+          <t>66f70377a04dfd6d00545e74</t>
         </is>
       </c>
       <c r="V75" t="n">
@@ -11997,7 +11997,7 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327dac</t>
+          <t>66f70377a04dfd6d00545e3a</t>
         </is>
       </c>
       <c r="V76" t="n">
@@ -12154,7 +12154,7 @@
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327db0</t>
+          <t>66f70377a04dfd6d00545e3e</t>
         </is>
       </c>
       <c r="V77" t="n">
@@ -12311,7 +12311,7 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327db2</t>
+          <t>66f70377a04dfd6d00545e40</t>
         </is>
       </c>
       <c r="V78" t="n">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327dae</t>
+          <t>66f70377a04dfd6d00545e3c</t>
         </is>
       </c>
       <c r="V79" t="n">
@@ -12625,7 +12625,7 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327dcf</t>
+          <t>66f70377a04dfd6d00545e5d</t>
         </is>
       </c>
       <c r="V80" t="n">
@@ -12782,7 +12782,7 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327dcd</t>
+          <t>66f70377a04dfd6d00545e5b</t>
         </is>
       </c>
       <c r="V81" t="n">
@@ -12939,7 +12939,7 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327e0d</t>
+          <t>66f70377a04dfd6d00545e9b</t>
         </is>
       </c>
       <c r="V82" t="n">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327e0d</t>
+          <t>66f70377a04dfd6d00545e9b</t>
         </is>
       </c>
       <c r="V83" t="n">
@@ -13253,7 +13253,7 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327e11</t>
+          <t>66f70377a04dfd6d00545e9f</t>
         </is>
       </c>
       <c r="V84" t="n">
@@ -13410,7 +13410,7 @@
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327e28</t>
+          <t>66f70377a04dfd6d00545eb6</t>
         </is>
       </c>
       <c r="V85" t="n">
@@ -13567,7 +13567,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327e2c</t>
+          <t>66f70377a04dfd6d00545eba</t>
         </is>
       </c>
       <c r="V86" t="n">
@@ -13724,7 +13724,7 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>66f5cf962ae7be17ad327e2a</t>
+          <t>66f70377a04dfd6d00545eb8</t>
         </is>
       </c>
       <c r="V87" t="n">
@@ -13881,7 +13881,7 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e45</t>
+          <t>66f70377a04dfd6d00545ed3</t>
         </is>
       </c>
       <c r="V88" t="n">
@@ -14038,7 +14038,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e43</t>
+          <t>66f70377a04dfd6d00545ed1</t>
         </is>
       </c>
       <c r="V89" t="n">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e5c</t>
+          <t>66f70378a04dfd6d00545eea</t>
         </is>
       </c>
       <c r="V90" t="n">
@@ -14352,7 +14352,7 @@
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e64</t>
+          <t>66f70378a04dfd6d00545ef2</t>
         </is>
       </c>
       <c r="V91" t="n">
@@ -14509,7 +14509,7 @@
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e58</t>
+          <t>66f70378a04dfd6d00545ee6</t>
         </is>
       </c>
       <c r="V92" t="n">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e5a</t>
+          <t>66f70378a04dfd6d00545ee8</t>
         </is>
       </c>
       <c r="V93" t="n">
@@ -14823,7 +14823,7 @@
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e62</t>
+          <t>66f70378a04dfd6d00545ef0</t>
         </is>
       </c>
       <c r="V94" t="n">
@@ -14980,7 +14980,7 @@
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e62</t>
+          <t>66f70378a04dfd6d00545ef0</t>
         </is>
       </c>
       <c r="V95" t="n">
@@ -15137,7 +15137,7 @@
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e8f</t>
+          <t>66f70378a04dfd6d00545f1d</t>
         </is>
       </c>
       <c r="V96" t="n">
@@ -15294,7 +15294,7 @@
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e89</t>
+          <t>66f70378a04dfd6d00545f17</t>
         </is>
       </c>
       <c r="V97" t="n">
@@ -15451,7 +15451,7 @@
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e8d</t>
+          <t>66f70378a04dfd6d00545f1b</t>
         </is>
       </c>
       <c r="V98" t="n">
@@ -15608,7 +15608,7 @@
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327e8b</t>
+          <t>66f70378a04dfd6d00545f19</t>
         </is>
       </c>
       <c r="V99" t="n">
@@ -15765,7 +15765,7 @@
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327f8d</t>
+          <t>66f7037ba04dfd6d0054601b</t>
         </is>
       </c>
       <c r="V100" t="n">
@@ -15922,7 +15922,7 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327f91</t>
+          <t>66f7037ba04dfd6d0054601f</t>
         </is>
       </c>
       <c r="V101" t="n">
@@ -16079,7 +16079,7 @@
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327f93</t>
+          <t>66f7037ba04dfd6d00546021</t>
         </is>
       </c>
       <c r="V102" t="n">
@@ -16236,7 +16236,7 @@
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327f8f</t>
+          <t>66f7037ba04dfd6d0054601d</t>
         </is>
       </c>
       <c r="V103" t="n">
@@ -16393,7 +16393,7 @@
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327eae</t>
+          <t>66f70378a04dfd6d00545f3c</t>
         </is>
       </c>
       <c r="V104" t="n">
@@ -16550,7 +16550,7 @@
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327eb0</t>
+          <t>66f70378a04dfd6d00545f3e</t>
         </is>
       </c>
       <c r="V105" t="n">
@@ -16707,7 +16707,7 @@
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327fb4</t>
+          <t>66f7037ca04dfd6d00546042</t>
         </is>
       </c>
       <c r="V106" t="n">
@@ -16864,7 +16864,7 @@
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327fb0</t>
+          <t>66f7037ca04dfd6d0054603e</t>
         </is>
       </c>
       <c r="V107" t="n">
@@ -17021,7 +17021,7 @@
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327fb8</t>
+          <t>66f7037ca04dfd6d00546046</t>
         </is>
       </c>
       <c r="V108" t="n">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327fb2</t>
+          <t>66f7037ca04dfd6d00546040</t>
         </is>
       </c>
       <c r="V109" t="n">
@@ -17335,7 +17335,7 @@
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327ef6</t>
+          <t>66f70378a04dfd6d00545f84</t>
         </is>
       </c>
       <c r="V110" t="n">
@@ -17492,7 +17492,7 @@
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327ef8</t>
+          <t>66f70378a04dfd6d00545f86</t>
         </is>
       </c>
       <c r="V111" t="n">
@@ -17649,7 +17649,7 @@
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327ecc</t>
+          <t>66f70378a04dfd6d00545f5a</t>
         </is>
       </c>
       <c r="V112" t="n">
@@ -17806,7 +17806,7 @@
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327eca</t>
+          <t>66f70378a04dfd6d00545f58</t>
         </is>
       </c>
       <c r="V113" t="n">
@@ -17963,7 +17963,7 @@
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327ece</t>
+          <t>66f70378a04dfd6d00545f5c</t>
         </is>
       </c>
       <c r="V114" t="n">
@@ -18120,7 +18120,7 @@
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327ee7</t>
+          <t>66f70378a04dfd6d00545f75</t>
         </is>
       </c>
       <c r="V115" t="n">
@@ -18277,7 +18277,7 @@
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327ee7</t>
+          <t>66f70378a04dfd6d00545f75</t>
         </is>
       </c>
       <c r="V116" t="n">
@@ -18434,7 +18434,7 @@
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327ec1</t>
+          <t>66f70378a04dfd6d00545f4f</t>
         </is>
       </c>
       <c r="V117" t="n">
@@ -18591,7 +18591,7 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f09</t>
+          <t>66f70379a04dfd6d00545f97</t>
         </is>
       </c>
       <c r="V118" t="n">
@@ -18748,7 +18748,7 @@
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f50</t>
+          <t>66f70379a04dfd6d00545fde</t>
         </is>
       </c>
       <c r="V119" t="n">
@@ -18905,7 +18905,7 @@
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f4e</t>
+          <t>66f70379a04dfd6d00545fdc</t>
         </is>
       </c>
       <c r="V120" t="n">
@@ -19062,7 +19062,7 @@
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f52</t>
+          <t>66f70379a04dfd6d00545fe0</t>
         </is>
       </c>
       <c r="V121" t="n">
@@ -19219,7 +19219,7 @@
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327f6b</t>
+          <t>66f70379a04dfd6d00545ff9</t>
         </is>
       </c>
       <c r="V122" t="n">
@@ -19376,7 +19376,7 @@
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327f69</t>
+          <t>66f70379a04dfd6d00545ff7</t>
         </is>
       </c>
       <c r="V123" t="n">
@@ -19533,7 +19533,7 @@
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f1a</t>
+          <t>66f70379a04dfd6d00545fa8</t>
         </is>
       </c>
       <c r="V124" t="n">
@@ -19690,7 +19690,7 @@
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f16</t>
+          <t>66f70379a04dfd6d00545fa4</t>
         </is>
       </c>
       <c r="V125" t="n">
@@ -19847,7 +19847,7 @@
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f18</t>
+          <t>66f70379a04dfd6d00545fa6</t>
         </is>
       </c>
       <c r="V126" t="n">
@@ -20004,7 +20004,7 @@
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f1c</t>
+          <t>66f70379a04dfd6d00545faa</t>
         </is>
       </c>
       <c r="V127" t="n">
@@ -20161,7 +20161,7 @@
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f3f</t>
+          <t>66f70379a04dfd6d00545fcd</t>
         </is>
       </c>
       <c r="V128" t="n">
@@ -20318,7 +20318,7 @@
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>66f5cf972ae7be17ad327f3d</t>
+          <t>66f70379a04dfd6d00545fcb</t>
         </is>
       </c>
       <c r="V129" t="n">
@@ -20475,7 +20475,7 @@
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327f84</t>
+          <t>66f70379a04dfd6d00546012</t>
         </is>
       </c>
       <c r="V130" t="n">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327fea</t>
+          <t>66f7037ca04dfd6d00546078</t>
         </is>
       </c>
       <c r="V131" t="n">
@@ -20789,7 +20789,7 @@
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327fec</t>
+          <t>66f7037ca04dfd6d0054607a</t>
         </is>
       </c>
       <c r="V132" t="n">
@@ -20946,7 +20946,7 @@
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327fe6</t>
+          <t>66f7037ca04dfd6d00546074</t>
         </is>
       </c>
       <c r="V133" t="n">
@@ -21103,7 +21103,7 @@
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327fe8</t>
+          <t>66f7037ca04dfd6d00546076</t>
         </is>
       </c>
       <c r="V134" t="n">
@@ -21260,7 +21260,7 @@
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>66f5cf982ae7be17ad327fd9</t>
+          <t>66f7037ca04dfd6d00546067</t>
         </is>
       </c>
       <c r="V135" t="n">
@@ -21417,7 +21417,7 @@
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad32800f</t>
+          <t>66f7037ca04dfd6d0054609d</t>
         </is>
       </c>
       <c r="V136" t="n">
@@ -21574,7 +21574,7 @@
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad32800d</t>
+          <t>66f7037ca04dfd6d0054609b</t>
         </is>
       </c>
       <c r="V137" t="n">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad328024</t>
+          <t>66f7037da04dfd6d005460b2</t>
         </is>
       </c>
       <c r="V138" t="n">
@@ -21888,7 +21888,7 @@
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad328020</t>
+          <t>66f7037da04dfd6d005460ae</t>
         </is>
       </c>
       <c r="V139" t="n">
@@ -22150,7 +22150,7 @@
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad328037</t>
+          <t>66f7037da04dfd6d005460c5</t>
         </is>
       </c>
       <c r="V141" t="n">
@@ -22307,7 +22307,7 @@
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad32804a</t>
+          <t>66f7037da04dfd6d005460d8</t>
         </is>
       </c>
       <c r="V142" t="n">
@@ -22569,7 +22569,7 @@
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad328078</t>
+          <t>66f7037da04dfd6d00546106</t>
         </is>
       </c>
       <c r="V144" t="n">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad328053</t>
+          <t>66f7037da04dfd6d005460e1</t>
         </is>
       </c>
       <c r="V147" t="n">
@@ -23093,7 +23093,7 @@
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad328055</t>
+          <t>66f7037da04dfd6d005460e3</t>
         </is>
       </c>
       <c r="V148" t="n">
@@ -23355,7 +23355,7 @@
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad328064</t>
+          <t>66f7037da04dfd6d005460f2</t>
         </is>
       </c>
       <c r="V150" t="n">
@@ -23512,7 +23512,7 @@
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad32806f</t>
+          <t>66f7037da04dfd6d005460fd</t>
         </is>
       </c>
       <c r="V151" t="n">
@@ -24089,7 +24089,7 @@
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad328081</t>
+          <t>66f7037da04dfd6d0054610f</t>
         </is>
       </c>
       <c r="V156" t="n">
@@ -24246,7 +24246,7 @@
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad328131</t>
+          <t>66f7037ea04dfd6d005461bf</t>
         </is>
       </c>
       <c r="V157" t="n">
@@ -24403,7 +24403,7 @@
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad32808a</t>
+          <t>66f7037da04dfd6d00546118</t>
         </is>
       </c>
       <c r="V158" t="n">
@@ -25190,7 +25190,7 @@
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad32813a</t>
+          <t>66f7037ea04dfd6d005461c8</t>
         </is>
       </c>
       <c r="V165" t="n">
@@ -25452,7 +25452,7 @@
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad328093</t>
+          <t>66f7037da04dfd6d00546121</t>
         </is>
       </c>
       <c r="V167" t="n">
@@ -25609,7 +25609,7 @@
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad328145</t>
+          <t>66f7037ea04dfd6d005461d3</t>
         </is>
       </c>
       <c r="V168" t="n">
@@ -25766,7 +25766,7 @@
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad32809c</t>
+          <t>66f7037da04dfd6d0054612a</t>
         </is>
       </c>
       <c r="V169" t="n">
@@ -26133,7 +26133,7 @@
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad328157</t>
+          <t>66f7037fa04dfd6d005461e5</t>
         </is>
       </c>
       <c r="V172" t="n">
@@ -26290,7 +26290,7 @@
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad3280a5</t>
+          <t>66f7037da04dfd6d00546133</t>
         </is>
       </c>
       <c r="V173" t="n">
@@ -26447,7 +26447,7 @@
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad32814e</t>
+          <t>66f7037ea04dfd6d005461dc</t>
         </is>
       </c>
       <c r="V174" t="n">
@@ -26604,7 +26604,7 @@
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad328160</t>
+          <t>66f7037fa04dfd6d005461ee</t>
         </is>
       </c>
       <c r="V175" t="n">
@@ -26761,7 +26761,7 @@
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad3280ae</t>
+          <t>66f7037da04dfd6d0054613c</t>
         </is>
       </c>
       <c r="V176" t="n">
@@ -26918,7 +26918,7 @@
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>66f5cf992ae7be17ad3280b0</t>
+          <t>66f7037da04dfd6d0054613e</t>
         </is>
       </c>
       <c r="V177" t="n">
@@ -27075,7 +27075,7 @@
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad32816b</t>
+          <t>66f7037fa04dfd6d005461f9</t>
         </is>
       </c>
       <c r="V178" t="n">
@@ -27232,7 +27232,7 @@
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad328174</t>
+          <t>66f7037fa04dfd6d00546202</t>
         </is>
       </c>
       <c r="V179" t="n">
@@ -27389,7 +27389,7 @@
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad3280bf</t>
+          <t>66f7037da04dfd6d0054614d</t>
         </is>
       </c>
       <c r="V180" t="n">
@@ -27546,7 +27546,7 @@
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad3280c1</t>
+          <t>66f7037da04dfd6d0054614f</t>
         </is>
       </c>
       <c r="V181" t="n">
@@ -27703,7 +27703,7 @@
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad3280d0</t>
+          <t>66f7037da04dfd6d0054615e</t>
         </is>
       </c>
       <c r="V182" t="n">
@@ -27860,7 +27860,7 @@
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad32817d</t>
+          <t>66f7037fa04dfd6d0054620b</t>
         </is>
       </c>
       <c r="V183" t="n">
@@ -28017,7 +28017,7 @@
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad3280d9</t>
+          <t>66f7037ea04dfd6d00546167</t>
         </is>
       </c>
       <c r="V184" t="n">
@@ -28174,7 +28174,7 @@
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad3280e4</t>
+          <t>66f7037ea04dfd6d00546172</t>
         </is>
       </c>
       <c r="V185" t="n">
@@ -28331,7 +28331,7 @@
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad3280ef</t>
+          <t>66f7037ea04dfd6d0054617d</t>
         </is>
       </c>
       <c r="V186" t="n">
@@ -28488,7 +28488,7 @@
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad328109</t>
+          <t>66f7037ea04dfd6d00546197</t>
         </is>
       </c>
       <c r="V187" t="n">
@@ -28645,7 +28645,7 @@
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad32810b</t>
+          <t>66f7037ea04dfd6d00546199</t>
         </is>
       </c>
       <c r="V188" t="n">
@@ -28802,7 +28802,7 @@
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad32810d</t>
+          <t>66f7037ea04dfd6d0054619b</t>
         </is>
       </c>
       <c r="V189" t="n">
@@ -28959,7 +28959,7 @@
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad328122</t>
+          <t>66f7037ea04dfd6d005461b0</t>
         </is>
       </c>
       <c r="V190" t="n">
@@ -29116,7 +29116,7 @@
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad328122</t>
+          <t>66f7037ea04dfd6d005461b0</t>
         </is>
       </c>
       <c r="V191" t="n">
@@ -29273,7 +29273,7 @@
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad3280fa</t>
+          <t>66f7037ea04dfd6d00546188</t>
         </is>
       </c>
       <c r="V192" t="n">
@@ -29430,7 +29430,7 @@
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>66f5cf9a2ae7be17ad3280fa</t>
+          <t>66f7037ea04dfd6d00546188</t>
         </is>
       </c>
       <c r="V193" t="n">

--- a/fifty_one/measurements/Updated_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_Filtered_Data_with_real_length.xlsx
@@ -743,7 +743,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>679b3b5a4618aec46d8a8283</t>
+          <t>67c1c5c16780faa5d9e49884</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -900,7 +900,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>679b3b5a4618aec46d8a8287</t>
+          <t>67c1c5c16780faa5d9e49888</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>679b3b5a4618aec46d8a8285</t>
+          <t>67c1c5c16780faa5d9e49886</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>679b3b5a4618aec46d8a8289</t>
+          <t>67c1c5c16780faa5d9e4988a</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>679b3b5f4618aec46d8a85a7</t>
+          <t>67c1c5c86780faa5d9e49ba8</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>679b3b5f4618aec46d8a85a9</t>
+          <t>67c1c5c86780faa5d9e49baa</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>679b3b5f4618aec46d8a85ab</t>
+          <t>67c1c5c86780faa5d9e49bac</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>679b3b634618aec46d8a8723</t>
+          <t>67c1c5cb6780faa5d9e49d24</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>679b3b634618aec46d8a8721</t>
+          <t>67c1c5cb6780faa5d9e49d22</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>679b3b5d4618aec46d8a844a</t>
+          <t>67c1c5c56780faa5d9e49a4b</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>679b3b5d4618aec46d8a8448</t>
+          <t>67c1c5c56780faa5d9e49a49</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>679b3b5d4618aec46d8a844e</t>
+          <t>67c1c5c56780faa5d9e49a4f</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>679b3b5d4618aec46d8a844c</t>
+          <t>67c1c5c56780faa5d9e49a4d</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>679b3b5b4618aec46d8a8364</t>
+          <t>67c1c5c36780faa5d9e49965</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>679b3b5b4618aec46d8a8362</t>
+          <t>67c1c5c36780faa5d9e49963</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>679b3b604618aec46d8a8607</t>
+          <t>67c1c5c86780faa5d9e49c08</t>
         </is>
       </c>
       <c r="V17" t="n">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>679b3b604618aec46d8a8609</t>
+          <t>67c1c5c86780faa5d9e49c0a</t>
         </is>
       </c>
       <c r="V18" t="n">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>679b3b5b4618aec46d8a8309</t>
+          <t>67c1c5c26780faa5d9e4990a</t>
         </is>
       </c>
       <c r="V19" t="n">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>679b3b5b4618aec46d8a8307</t>
+          <t>67c1c5c26780faa5d9e49908</t>
         </is>
       </c>
       <c r="V20" t="n">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>679b3b5b4618aec46d8a830d</t>
+          <t>67c1c5c26780faa5d9e4990e</t>
         </is>
       </c>
       <c r="V21" t="n">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>679b3b594618aec46d8a823f</t>
+          <t>67c1c5c06780faa5d9e49840</t>
         </is>
       </c>
       <c r="V22" t="n">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>679b3b594618aec46d8a8241</t>
+          <t>67c1c5c06780faa5d9e49842</t>
         </is>
       </c>
       <c r="V23" t="n">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>679b3b594618aec46d8a8243</t>
+          <t>67c1c5c06780faa5d9e49844</t>
         </is>
       </c>
       <c r="V24" t="n">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>679b3b5d4618aec46d8a8479</t>
+          <t>67c1c5c56780faa5d9e49a7a</t>
         </is>
       </c>
       <c r="V25" t="n">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>679b3b5d4618aec46d8a8477</t>
+          <t>67c1c5c56780faa5d9e49a78</t>
         </is>
       </c>
       <c r="V26" t="n">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>679b3b5d4618aec46d8a847b</t>
+          <t>67c1c5c56780faa5d9e49a7c</t>
         </is>
       </c>
       <c r="V27" t="n">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>679b3b5d4618aec46d8a840f</t>
+          <t>67c1c5c46780faa5d9e49a10</t>
         </is>
       </c>
       <c r="V35" t="n">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>679b3b5d4618aec46d8a8419</t>
+          <t>67c1c5c56780faa5d9e49a1a</t>
         </is>
       </c>
       <c r="V36" t="n">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>679b3b5d4618aec46d8a8415</t>
+          <t>67c1c5c56780faa5d9e49a16</t>
         </is>
       </c>
       <c r="V37" t="n">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>679b3b5d4618aec46d8a840d</t>
+          <t>67c1c5c46780faa5d9e49a0e</t>
         </is>
       </c>
       <c r="V38" t="n">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>679b3b5d4618aec46d8a8413</t>
+          <t>67c1c5c46780faa5d9e49a14</t>
         </is>
       </c>
       <c r="V39" t="n">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>679b3b5e4618aec46d8a84cf</t>
+          <t>67c1c5c66780faa5d9e49ad0</t>
         </is>
       </c>
       <c r="V40" t="n">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>679b3b5e4618aec46d8a84d3</t>
+          <t>67c1c5c66780faa5d9e49ad4</t>
         </is>
       </c>
       <c r="V41" t="n">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>679b3b5e4618aec46d8a84dd</t>
+          <t>67c1c5c66780faa5d9e49ade</t>
         </is>
       </c>
       <c r="V42" t="n">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>679b3b5e4618aec46d8a84d1</t>
+          <t>67c1c5c66780faa5d9e49ad2</t>
         </is>
       </c>
       <c r="V43" t="n">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>679b3b5a4618aec46d8a82c3</t>
+          <t>67c1c5c26780faa5d9e498c4</t>
         </is>
       </c>
       <c r="V44" t="n">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>679b3b5a4618aec46d8a82c5</t>
+          <t>67c1c5c26780faa5d9e498c6</t>
         </is>
       </c>
       <c r="V45" t="n">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>679b3b5a4618aec46d8a82c5</t>
+          <t>67c1c5c26780faa5d9e498c6</t>
         </is>
       </c>
       <c r="V46" t="n">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>679b3b5e4618aec46d8a84a2</t>
+          <t>67c1c5c66780faa5d9e49aa3</t>
         </is>
       </c>
       <c r="V47" t="n">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>679b3b5e4618aec46d8a849e</t>
+          <t>67c1c5c66780faa5d9e49a9f</t>
         </is>
       </c>
       <c r="V48" t="n">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>679b3b5e4618aec46d8a849a</t>
+          <t>67c1c5c66780faa5d9e49a9b</t>
         </is>
       </c>
       <c r="V49" t="n">
@@ -7859,7 +7859,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>679b3b5e4618aec46d8a849c</t>
+          <t>67c1c5c66780faa5d9e49a9d</t>
         </is>
       </c>
       <c r="V50" t="n">
@@ -8016,7 +8016,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>679b3b604618aec46d8a85cc</t>
+          <t>67c1c5c86780faa5d9e49bcd</t>
         </is>
       </c>
       <c r="V51" t="n">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>679b3b604618aec46d8a85c8</t>
+          <t>67c1c5c86780faa5d9e49bc9</t>
         </is>
       </c>
       <c r="V52" t="n">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>679b3b604618aec46d8a85d6</t>
+          <t>67c1c5c86780faa5d9e49bd7</t>
         </is>
       </c>
       <c r="V53" t="n">
@@ -8487,7 +8487,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>679b3b604618aec46d8a85ca</t>
+          <t>67c1c5c86780faa5d9e49bcb</t>
         </is>
       </c>
       <c r="V54" t="n">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>679b3b604618aec46d8a85c6</t>
+          <t>67c1c5c86780faa5d9e49bc7</t>
         </is>
       </c>
       <c r="V55" t="n">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>679b3b5e4618aec46d8a8529</t>
+          <t>67c1c5c76780faa5d9e49b2a</t>
         </is>
       </c>
       <c r="V56" t="n">
@@ -8958,7 +8958,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>679b3b5e4618aec46d8a851d</t>
+          <t>67c1c5c76780faa5d9e49b1e</t>
         </is>
       </c>
       <c r="V57" t="n">
@@ -9115,7 +9115,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>679b3b5e4618aec46d8a851f</t>
+          <t>67c1c5c76780faa5d9e49b20</t>
         </is>
       </c>
       <c r="V58" t="n">
@@ -9272,7 +9272,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>679b3b5e4618aec46d8a8523</t>
+          <t>67c1c5c76780faa5d9e49b24</t>
         </is>
       </c>
       <c r="V59" t="n">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>679b3b5e4618aec46d8a8521</t>
+          <t>67c1c5c76780faa5d9e49b22</t>
         </is>
       </c>
       <c r="V60" t="n">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>679b3b5e4618aec46d8a8527</t>
+          <t>67c1c5c76780faa5d9e49b28</t>
         </is>
       </c>
       <c r="V61" t="n">
@@ -9743,7 +9743,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>679b3b5a4618aec46d8a82b0</t>
+          <t>67c1c5c16780faa5d9e498b1</t>
         </is>
       </c>
       <c r="V62" t="n">
@@ -9900,7 +9900,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>679b3b5a4618aec46d8a82ae</t>
+          <t>67c1c5c16780faa5d9e498af</t>
         </is>
       </c>
       <c r="V63" t="n">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>679b3b634618aec46d8a8736</t>
+          <t>67c1c5cb6780faa5d9e49d37</t>
         </is>
       </c>
       <c r="V64" t="n">
@@ -10214,7 +10214,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>679b3b634618aec46d8a8738</t>
+          <t>67c1c5cb6780faa5d9e49d39</t>
         </is>
       </c>
       <c r="V65" t="n">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>679b3b634618aec46d8a873a</t>
+          <t>67c1c5cb6780faa5d9e49d3b</t>
         </is>
       </c>
       <c r="V66" t="n">
@@ -10528,7 +10528,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>679b3b5f4618aec46d8a8575</t>
+          <t>67c1c5c76780faa5d9e49b76</t>
         </is>
       </c>
       <c r="V67" t="n">
@@ -10685,7 +10685,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>679b3b5f4618aec46d8a8571</t>
+          <t>67c1c5c76780faa5d9e49b72</t>
         </is>
       </c>
       <c r="V68" t="n">
@@ -10842,7 +10842,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>679b3b5f4618aec46d8a856f</t>
+          <t>67c1c5c76780faa5d9e49b70</t>
         </is>
       </c>
       <c r="V69" t="n">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>679b3b5f4618aec46d8a8575</t>
+          <t>67c1c5c76780faa5d9e49b76</t>
         </is>
       </c>
       <c r="V70" t="n">
@@ -11156,7 +11156,7 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>679b3b614618aec46d8a866f</t>
+          <t>67c1c5ca6780faa5d9e49c70</t>
         </is>
       </c>
       <c r="V71" t="n">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>679b3b614618aec46d8a8671</t>
+          <t>67c1c5ca6780faa5d9e49c72</t>
         </is>
       </c>
       <c r="V72" t="n">
@@ -11470,7 +11470,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>679b3b614618aec46d8a8669</t>
+          <t>67c1c5ca6780faa5d9e49c6a</t>
         </is>
       </c>
       <c r="V73" t="n">
@@ -11627,7 +11627,7 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>679b3b614618aec46d8a8667</t>
+          <t>67c1c5ca6780faa5d9e49c68</t>
         </is>
       </c>
       <c r="V74" t="n">
@@ -11784,7 +11784,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>679b3b614618aec46d8a866b</t>
+          <t>67c1c5ca6780faa5d9e49c6c</t>
         </is>
       </c>
       <c r="V75" t="n">
@@ -11941,7 +11941,7 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>679b3b5c4618aec46d8a8379</t>
+          <t>67c1c5c36780faa5d9e4997a</t>
         </is>
       </c>
       <c r="V76" t="n">
@@ -12098,7 +12098,7 @@
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>679b3b5c4618aec46d8a8377</t>
+          <t>67c1c5c36780faa5d9e49978</t>
         </is>
       </c>
       <c r="V77" t="n">
@@ -12255,7 +12255,7 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>679b3b5c4618aec46d8a837d</t>
+          <t>67c1c5c36780faa5d9e4997e</t>
         </is>
       </c>
       <c r="V78" t="n">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>679b3b5c4618aec46d8a837b</t>
+          <t>67c1c5c36780faa5d9e4997c</t>
         </is>
       </c>
       <c r="V79" t="n">
@@ -12569,7 +12569,7 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>679b3b5e4618aec46d8a8508</t>
+          <t>67c1c5c66780faa5d9e49b09</t>
         </is>
       </c>
       <c r="V80" t="n">
@@ -12726,7 +12726,7 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>679b3b5e4618aec46d8a8506</t>
+          <t>67c1c5c66780faa5d9e49b07</t>
         </is>
       </c>
       <c r="V81" t="n">
@@ -12883,7 +12883,7 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>679b3b5c4618aec46d8a83bb</t>
+          <t>67c1c5c46780faa5d9e499bc</t>
         </is>
       </c>
       <c r="V82" t="n">
@@ -13040,7 +13040,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>679b3b5c4618aec46d8a83b9</t>
+          <t>67c1c5c46780faa5d9e499ba</t>
         </is>
       </c>
       <c r="V83" t="n">
@@ -13197,7 +13197,7 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>679b3b5c4618aec46d8a83bf</t>
+          <t>67c1c5c46780faa5d9e499c0</t>
         </is>
       </c>
       <c r="V84" t="n">
@@ -13354,7 +13354,7 @@
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>679b3b5b4618aec46d8a832a</t>
+          <t>67c1c5c26780faa5d9e4992b</t>
         </is>
       </c>
       <c r="V85" t="n">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>679b3b5b4618aec46d8a832c</t>
+          <t>67c1c5c26780faa5d9e4992d</t>
         </is>
       </c>
       <c r="V86" t="n">
@@ -13668,7 +13668,7 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>679b3b5b4618aec46d8a8330</t>
+          <t>67c1c5c26780faa5d9e49931</t>
         </is>
       </c>
       <c r="V87" t="n">
@@ -13825,7 +13825,7 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>679b3b5c4618aec46d8a83a2</t>
+          <t>67c1c5c46780faa5d9e499a3</t>
         </is>
       </c>
       <c r="V88" t="n">
@@ -13982,7 +13982,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>679b3b5c4618aec46d8a83a0</t>
+          <t>67c1c5c46780faa5d9e499a1</t>
         </is>
       </c>
       <c r="V89" t="n">
@@ -14139,7 +14139,7 @@
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>679b3b624618aec46d8a86a8</t>
+          <t>67c1c5ca6780faa5d9e49ca9</t>
         </is>
       </c>
       <c r="V90" t="n">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>679b3b624618aec46d8a86ac</t>
+          <t>67c1c5ca6780faa5d9e49cad</t>
         </is>
       </c>
       <c r="V91" t="n">
@@ -14453,7 +14453,7 @@
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>679b3b624618aec46d8a86a4</t>
+          <t>67c1c5ca6780faa5d9e49ca5</t>
         </is>
       </c>
       <c r="V92" t="n">
@@ -14610,7 +14610,7 @@
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>679b3b624618aec46d8a86a4</t>
+          <t>67c1c5ca6780faa5d9e49ca5</t>
         </is>
       </c>
       <c r="V93" t="n">
@@ -14767,7 +14767,7 @@
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>679b3b624618aec46d8a86a2</t>
+          <t>67c1c5ca6780faa5d9e49ca3</t>
         </is>
       </c>
       <c r="V94" t="n">
@@ -14924,7 +14924,7 @@
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>679b3b624618aec46d8a86a2</t>
+          <t>67c1c5ca6780faa5d9e49ca3</t>
         </is>
       </c>
       <c r="V95" t="n">
@@ -15081,7 +15081,7 @@
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>679b3b5d4618aec46d8a83e0</t>
+          <t>67c1c5c46780faa5d9e499e1</t>
         </is>
       </c>
       <c r="V96" t="n">
@@ -15238,7 +15238,7 @@
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>679b3b5d4618aec46d8a83dc</t>
+          <t>67c1c5c46780faa5d9e499dd</t>
         </is>
       </c>
       <c r="V97" t="n">
@@ -15395,7 +15395,7 @@
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>679b3b5d4618aec46d8a83e2</t>
+          <t>67c1c5c46780faa5d9e499e3</t>
         </is>
       </c>
       <c r="V98" t="n">
@@ -15552,7 +15552,7 @@
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>679b3b5d4618aec46d8a83de</t>
+          <t>67c1c5c46780faa5d9e499df</t>
         </is>
       </c>
       <c r="V99" t="n">
@@ -15709,7 +15709,7 @@
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>679b3b644618aec46d8a87aa</t>
+          <t>67c1c5cd6780faa5d9e49dab</t>
         </is>
       </c>
       <c r="V100" t="n">
@@ -15866,7 +15866,7 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>679b3b644618aec46d8a87ae</t>
+          <t>67c1c5cd6780faa5d9e49daf</t>
         </is>
       </c>
       <c r="V101" t="n">
@@ -16023,7 +16023,7 @@
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>679b3b644618aec46d8a87ac</t>
+          <t>67c1c5cd6780faa5d9e49dad</t>
         </is>
       </c>
       <c r="V102" t="n">
@@ -16180,7 +16180,7 @@
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>679b3b644618aec46d8a87b0</t>
+          <t>67c1c5cd6780faa5d9e49db1</t>
         </is>
       </c>
       <c r="V103" t="n">
@@ -16337,7 +16337,7 @@
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>679b3b5b4618aec46d8a834d</t>
+          <t>67c1c5c36780faa5d9e4994e</t>
         </is>
       </c>
       <c r="V104" t="n">
@@ -16494,7 +16494,7 @@
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>679b3b5b4618aec46d8a834f</t>
+          <t>67c1c5c36780faa5d9e49950</t>
         </is>
       </c>
       <c r="V105" t="n">
@@ -16651,7 +16651,7 @@
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>679b3b644618aec46d8a87d7</t>
+          <t>67c1c5cd6780faa5d9e49dd8</t>
         </is>
       </c>
       <c r="V106" t="n">
@@ -16808,7 +16808,7 @@
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>679b3b644618aec46d8a87d5</t>
+          <t>67c1c5cd6780faa5d9e49dd6</t>
         </is>
       </c>
       <c r="V107" t="n">
@@ -16965,7 +16965,7 @@
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>679b3b644618aec46d8a87db</t>
+          <t>67c1c5cd6780faa5d9e49ddc</t>
         </is>
       </c>
       <c r="V108" t="n">
@@ -17122,7 +17122,7 @@
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>679b3b644618aec46d8a87d9</t>
+          <t>67c1c5cd6780faa5d9e49dda</t>
         </is>
       </c>
       <c r="V109" t="n">
@@ -17279,7 +17279,7 @@
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>679b3b614618aec46d8a8620</t>
+          <t>67c1c5c96780faa5d9e49c21</t>
         </is>
       </c>
       <c r="V110" t="n">
@@ -17436,7 +17436,7 @@
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>679b3b614618aec46d8a8622</t>
+          <t>67c1c5c96780faa5d9e49c23</t>
         </is>
       </c>
       <c r="V111" t="n">
@@ -17593,7 +17593,7 @@
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>679b3b614618aec46d8a863f</t>
+          <t>67c1c5c96780faa5d9e49c40</t>
         </is>
       </c>
       <c r="V112" t="n">
@@ -17750,7 +17750,7 @@
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>679b3b614618aec46d8a863b</t>
+          <t>67c1c5c96780faa5d9e49c3c</t>
         </is>
       </c>
       <c r="V113" t="n">
@@ -17907,7 +17907,7 @@
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>679b3b614618aec46d8a8639</t>
+          <t>67c1c5c96780faa5d9e49c3a</t>
         </is>
       </c>
       <c r="V114" t="n">
@@ -18064,7 +18064,7 @@
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>679b3b634618aec46d8a8755</t>
+          <t>67c1c5cc6780faa5d9e49d56</t>
         </is>
       </c>
       <c r="V115" t="n">
@@ -18221,7 +18221,7 @@
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>679b3b634618aec46d8a8755</t>
+          <t>67c1c5cc6780faa5d9e49d56</t>
         </is>
       </c>
       <c r="V116" t="n">
@@ -18378,7 +18378,7 @@
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>679b3b614618aec46d8a865c</t>
+          <t>67c1c5c96780faa5d9e49c5d</t>
         </is>
       </c>
       <c r="V117" t="n">
@@ -18535,7 +18535,7 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>679b3b5f4618aec46d8a855e</t>
+          <t>67c1c5c76780faa5d9e49b5f</t>
         </is>
       </c>
       <c r="V118" t="n">
@@ -18692,7 +18692,7 @@
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>679b3b5a4618aec46d8a82ea</t>
+          <t>67c1c5c26780faa5d9e498eb</t>
         </is>
       </c>
       <c r="V119" t="n">
@@ -18849,7 +18849,7 @@
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>679b3b5a4618aec46d8a82e8</t>
+          <t>67c1c5c26780faa5d9e498e9</t>
         </is>
       </c>
       <c r="V120" t="n">
@@ -19006,7 +19006,7 @@
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>679b3b5a4618aec46d8a82e6</t>
+          <t>67c1c5c26780faa5d9e498e7</t>
         </is>
       </c>
       <c r="V121" t="n">
@@ -19163,7 +19163,7 @@
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>679b3b594618aec46d8a8268</t>
+          <t>67c1c5c16780faa5d9e49869</t>
         </is>
       </c>
       <c r="V122" t="n">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>679b3b594618aec46d8a8264</t>
+          <t>67c1c5c16780faa5d9e49865</t>
         </is>
       </c>
       <c r="V123" t="n">
@@ -19477,7 +19477,7 @@
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>679b3b624618aec46d8a86f2</t>
+          <t>67c1c5cb6780faa5d9e49cf3</t>
         </is>
       </c>
       <c r="V124" t="n">
@@ -19634,7 +19634,7 @@
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>679b3b624618aec46d8a86f4</t>
+          <t>67c1c5cb6780faa5d9e49cf5</t>
         </is>
       </c>
       <c r="V125" t="n">
@@ -19791,7 +19791,7 @@
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>679b3b624618aec46d8a86f8</t>
+          <t>67c1c5cb6780faa5d9e49cf9</t>
         </is>
       </c>
       <c r="V126" t="n">
@@ -19948,7 +19948,7 @@
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>679b3b624618aec46d8a86f6</t>
+          <t>67c1c5cb6780faa5d9e49cf7</t>
         </is>
       </c>
       <c r="V127" t="n">
@@ -20105,7 +20105,7 @@
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>679b3b624618aec46d8a86df</t>
+          <t>67c1c5ca6780faa5d9e49ce0</t>
         </is>
       </c>
       <c r="V128" t="n">
@@ -20262,7 +20262,7 @@
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>679b3b624618aec46d8a86dd</t>
+          <t>67c1c5ca6780faa5d9e49cde</t>
         </is>
       </c>
       <c r="V129" t="n">
@@ -20419,7 +20419,7 @@
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>679b3b5f4618aec46d8a8596</t>
+          <t>67c1c5c76780faa5d9e49b97</t>
         </is>
       </c>
       <c r="V130" t="n">
@@ -20576,7 +20576,7 @@
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>679b3b644618aec46d8a877b</t>
+          <t>67c1c5cc6780faa5d9e49d7c</t>
         </is>
       </c>
       <c r="V131" t="n">
@@ -20733,7 +20733,7 @@
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>679b3b644618aec46d8a8783</t>
+          <t>67c1c5cc6780faa5d9e49d84</t>
         </is>
       </c>
       <c r="V132" t="n">
@@ -20890,7 +20890,7 @@
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>679b3b644618aec46d8a877d</t>
+          <t>67c1c5cc6780faa5d9e49d7e</t>
         </is>
       </c>
       <c r="V133" t="n">
@@ -21047,7 +21047,7 @@
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>679b3b644618aec46d8a877f</t>
+          <t>67c1c5cc6780faa5d9e49d80</t>
         </is>
       </c>
       <c r="V134" t="n">
@@ -21204,7 +21204,7 @@
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>679b3b634618aec46d8a876a</t>
+          <t>67c1c5cc6780faa5d9e49d6b</t>
         </is>
       </c>
       <c r="V135" t="n">
@@ -21361,7 +21361,7 @@
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>679b3b644618aec46d8a8808</t>
+          <t>67c1c5cd6780faa5d9e49e09</t>
         </is>
       </c>
       <c r="V136" t="n">
@@ -21518,7 +21518,7 @@
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>679b3b644618aec46d8a8806</t>
+          <t>67c1c5cd6780faa5d9e49e07</t>
         </is>
       </c>
       <c r="V137" t="n">
@@ -21675,7 +21675,7 @@
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>679b3b654618aec46d8a8866</t>
+          <t>67c1c5ce6780faa5d9e49e67</t>
         </is>
       </c>
       <c r="V138" t="n">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>679b3b654618aec46d8a8862</t>
+          <t>67c1c5ce6780faa5d9e49e63</t>
         </is>
       </c>
       <c r="V139" t="n">
@@ -22086,7 +22086,7 @@
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>679b3b664618aec46d8a88ae</t>
+          <t>67c1c5d06780faa5d9e49eaf</t>
         </is>
       </c>
       <c r="V141" t="n">
@@ -22437,7 +22437,7 @@
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>679b3b694618aec46d8a8929</t>
+          <t>67c1c5d26780faa5d9e49f2a</t>
         </is>
       </c>
       <c r="V144" t="n">
@@ -22788,7 +22788,7 @@
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>679b3b694618aec46d8a8947</t>
+          <t>67c1c5d36780faa5d9e49f48</t>
         </is>
       </c>
       <c r="V147" t="n">
@@ -22945,7 +22945,7 @@
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>679b3b694618aec46d8a8949</t>
+          <t>67c1c5d36780faa5d9e49f4a</t>
         </is>
       </c>
       <c r="V148" t="n">
@@ -23199,7 +23199,7 @@
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>679b3b664618aec46d8a887b</t>
+          <t>67c1c5cf6780faa5d9e49e7c</t>
         </is>
       </c>
       <c r="V150" t="n">
@@ -23356,7 +23356,7 @@
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>679b3b674618aec46d8a88e3</t>
+          <t>67c1c5d06780faa5d9e49ee4</t>
         </is>
       </c>
       <c r="V151" t="n">
@@ -23901,7 +23901,7 @@
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>679b3b684618aec46d8a8906</t>
+          <t>67c1c5d16780faa5d9e49f07</t>
         </is>
       </c>
       <c r="V156" t="n">
@@ -24155,7 +24155,7 @@
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>679b3b674618aec46d8a88ee</t>
+          <t>67c1c5d16780faa5d9e49eef</t>
         </is>
       </c>
       <c r="V158" t="n">
@@ -25088,7 +25088,7 @@
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>679b3b664618aec46d8a889d</t>
+          <t>67c1c5cf6780faa5d9e49e9e</t>
         </is>
       </c>
       <c r="V167" t="n">
@@ -25342,7 +25342,7 @@
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>679b3b654618aec46d8a8832</t>
+          <t>67c1c5ce6780faa5d9e49e33</t>
         </is>
       </c>
       <c r="V169" t="n">
@@ -25790,7 +25790,7 @@
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>679b3b684618aec46d8a8911</t>
+          <t>67c1c5d26780faa5d9e49f12</t>
         </is>
       </c>
       <c r="V173" t="n">
@@ -26141,7 +26141,7 @@
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>679b3b664618aec46d8a888a</t>
+          <t>67c1c5cf6780faa5d9e49e8b</t>
         </is>
       </c>
       <c r="V176" t="n">
@@ -26298,7 +26298,7 @@
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>679b3b664618aec46d8a888a</t>
+          <t>67c1c5cf6780faa5d9e49e8b</t>
         </is>
       </c>
       <c r="V177" t="n">
@@ -26649,7 +26649,7 @@
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>679b3b694618aec46d8a895e</t>
+          <t>67c1c5d36780faa5d9e49f5f</t>
         </is>
       </c>
       <c r="V180" t="n">
@@ -26806,7 +26806,7 @@
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>679b3b694618aec46d8a895c</t>
+          <t>67c1c5d36780faa5d9e49f5d</t>
         </is>
       </c>
       <c r="V181" t="n">
@@ -26963,7 +26963,7 @@
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>679b3b674618aec46d8a88fb</t>
+          <t>67c1c5d16780faa5d9e49efc</t>
         </is>
       </c>
       <c r="V182" t="n">
@@ -27217,7 +27217,7 @@
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>679b3b684618aec46d8a891c</t>
+          <t>67c1c5d26780faa5d9e49f1d</t>
         </is>
       </c>
       <c r="V184" t="n">
@@ -27374,7 +27374,7 @@
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>679b3b654618aec46d8a8825</t>
+          <t>67c1c5ce6780faa5d9e49e26</t>
         </is>
       </c>
       <c r="V185" t="n">
@@ -27531,7 +27531,7 @@
       </c>
       <c r="U186" t="inlineStr">
         <is>
-          <t>679b3b674618aec46d8a88d4</t>
+          <t>67c1c5d06780faa5d9e49ed5</t>
         </is>
       </c>
       <c r="V186" t="n">
@@ -27688,7 +27688,7 @@
       </c>
       <c r="U187" t="inlineStr">
         <is>
-          <t>679b3b654618aec46d8a8845</t>
+          <t>67c1c5ce6780faa5d9e49e46</t>
         </is>
       </c>
       <c r="V187" t="n">
@@ -27845,7 +27845,7 @@
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>679b3b654618aec46d8a8841</t>
+          <t>67c1c5ce6780faa5d9e49e42</t>
         </is>
       </c>
       <c r="V188" t="n">
@@ -28002,7 +28002,7 @@
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>679b3b654618aec46d8a883f</t>
+          <t>67c1c5ce6780faa5d9e49e40</t>
         </is>
       </c>
       <c r="V189" t="n">
@@ -28159,7 +28159,7 @@
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>679b3b694618aec46d8a8934</t>
+          <t>67c1c5d26780faa5d9e49f35</t>
         </is>
       </c>
       <c r="V190" t="n">
@@ -28316,7 +28316,7 @@
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>679b3b694618aec46d8a8934</t>
+          <t>67c1c5d26780faa5d9e49f35</t>
         </is>
       </c>
       <c r="V191" t="n">
@@ -28473,7 +28473,7 @@
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>679b3b674618aec46d8a88bf</t>
+          <t>67c1c5d06780faa5d9e49ec0</t>
         </is>
       </c>
       <c r="V192" t="n">
@@ -28630,7 +28630,7 @@
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>679b3b674618aec46d8a88c1</t>
+          <t>67c1c5d06780faa5d9e49ec2</t>
         </is>
       </c>
       <c r="V193" t="n">

--- a/fifty_one/measurements/Updated_Filtered_Data_with_real_length.xlsx
+++ b/fifty_one/measurements/Updated_Filtered_Data_with_real_length.xlsx
@@ -759,7 +759,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>67c5b2c5a3e0a4ddb17f874d</t>
+          <t>67c86e77b9bded6d108a4044</t>
         </is>
       </c>
       <c r="X2" t="n">
@@ -922,7 +922,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>67c5b2c5a3e0a4ddb17f8751</t>
+          <t>67c86e77b9bded6d108a4048</t>
         </is>
       </c>
       <c r="X3" t="n">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>67c5b2c5a3e0a4ddb17f874f</t>
+          <t>67c86e77b9bded6d108a4046</t>
         </is>
       </c>
       <c r="X4" t="n">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>67c5b2c5a3e0a4ddb17f8753</t>
+          <t>67c86e77b9bded6d108a404a</t>
         </is>
       </c>
       <c r="X5" t="n">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>67c5b2cea3e0a4ddb17f8a6f</t>
+          <t>67c86e80b9bded6d108a4366</t>
         </is>
       </c>
       <c r="X6" t="n">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>67c5b2cea3e0a4ddb17f8a71</t>
+          <t>67c86e80b9bded6d108a4368</t>
         </is>
       </c>
       <c r="X7" t="n">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>67c5b2cea3e0a4ddb17f8a73</t>
+          <t>67c86e80b9bded6d108a436a</t>
         </is>
       </c>
       <c r="X8" t="n">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>67c5b2d2a3e0a4ddb17f8bed</t>
+          <t>67c86e85b9bded6d108a44e4</t>
         </is>
       </c>
       <c r="X9" t="n">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>67c5b2d2a3e0a4ddb17f8beb</t>
+          <t>67c86e85b9bded6d108a44e2</t>
         </is>
       </c>
       <c r="X10" t="n">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f8916</t>
+          <t>67c86e7cb9bded6d108a420d</t>
         </is>
       </c>
       <c r="X11" t="n">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f8914</t>
+          <t>67c86e7cb9bded6d108a420b</t>
         </is>
       </c>
       <c r="X12" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f891c</t>
+          <t>67c86e7cb9bded6d108a4213</t>
         </is>
       </c>
       <c r="X13" t="n">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f8918</t>
+          <t>67c86e7cb9bded6d108a420f</t>
         </is>
       </c>
       <c r="X14" t="n">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>67c5b2c8a3e0a4ddb17f883a</t>
+          <t>67c86e7ab9bded6d108a4131</t>
         </is>
       </c>
       <c r="X15" t="n">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>67c5b2c8a3e0a4ddb17f8838</t>
+          <t>67c86e7ab9bded6d108a412f</t>
         </is>
       </c>
       <c r="X16" t="n">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>67c5b2cfa3e0a4ddb17f8ad1</t>
+          <t>67c86e81b9bded6d108a43c8</t>
         </is>
       </c>
       <c r="X17" t="n">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>67c5b2cfa3e0a4ddb17f8ad3</t>
+          <t>67c86e81b9bded6d108a43ca</t>
         </is>
       </c>
       <c r="X18" t="n">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>67c5b2c7a3e0a4ddb17f87d7</t>
+          <t>67c86e78b9bded6d108a40ce</t>
         </is>
       </c>
       <c r="X19" t="n">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>67c5b2c7a3e0a4ddb17f87d5</t>
+          <t>67c86e78b9bded6d108a40cc</t>
         </is>
       </c>
       <c r="X20" t="n">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>67c5b2c7a3e0a4ddb17f87db</t>
+          <t>67c86e78b9bded6d108a40d2</t>
         </is>
       </c>
       <c r="X21" t="n">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>67c5b2c4a3e0a4ddb17f8707</t>
+          <t>67c86e75b9bded6d108a3ffe</t>
         </is>
       </c>
       <c r="X22" t="n">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>67c5b2c4a3e0a4ddb17f8709</t>
+          <t>67c86e75b9bded6d108a4000</t>
         </is>
       </c>
       <c r="X23" t="n">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>67c5b2c4a3e0a4ddb17f870b</t>
+          <t>67c86e75b9bded6d108a4002</t>
         </is>
       </c>
       <c r="X24" t="n">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>67c5b2cba3e0a4ddb17f8943</t>
+          <t>67c86e7db9bded6d108a423a</t>
         </is>
       </c>
       <c r="X25" t="n">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>67c5b2cba3e0a4ddb17f8941</t>
+          <t>67c86e7db9bded6d108a4238</t>
         </is>
       </c>
       <c r="X26" t="n">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>67c5b2cba3e0a4ddb17f8945</t>
+          <t>67c86e7db9bded6d108a423c</t>
         </is>
       </c>
       <c r="X27" t="n">
@@ -5690,7 +5690,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f88e1</t>
+          <t>67c86e7cb9bded6d108a41d8</t>
         </is>
       </c>
       <c r="X35" t="n">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f88e5</t>
+          <t>67c86e7cb9bded6d108a41dc</t>
         </is>
       </c>
       <c r="X36" t="n">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f88e3</t>
+          <t>67c86e7cb9bded6d108a41da</t>
         </is>
       </c>
       <c r="X37" t="n">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f88db</t>
+          <t>67c86e7cb9bded6d108a41d2</t>
         </is>
       </c>
       <c r="X38" t="n">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f88dd</t>
+          <t>67c86e7cb9bded6d108a41d4</t>
         </is>
       </c>
       <c r="X39" t="n">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f8995</t>
+          <t>67c86e7eb9bded6d108a428c</t>
         </is>
       </c>
       <c r="X40" t="n">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f8997</t>
+          <t>67c86e7eb9bded6d108a428e</t>
         </is>
       </c>
       <c r="X41" t="n">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f89a3</t>
+          <t>67c86e7eb9bded6d108a429a</t>
         </is>
       </c>
       <c r="X42" t="n">
@@ -6994,7 +6994,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f8999</t>
+          <t>67c86e7eb9bded6d108a4290</t>
         </is>
       </c>
       <c r="X43" t="n">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>67c5b2c6a3e0a4ddb17f878d</t>
+          <t>67c86e77b9bded6d108a4084</t>
         </is>
       </c>
       <c r="X44" t="n">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>67c5b2c6a3e0a4ddb17f878f</t>
+          <t>67c86e77b9bded6d108a4086</t>
         </is>
       </c>
       <c r="X45" t="n">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>67c5b2c6a3e0a4ddb17f8793</t>
+          <t>67c86e77b9bded6d108a408a</t>
         </is>
       </c>
       <c r="X46" t="n">
@@ -7646,7 +7646,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>67c5b2cba3e0a4ddb17f896a</t>
+          <t>67c86e7db9bded6d108a4261</t>
         </is>
       </c>
       <c r="X47" t="n">
@@ -7809,7 +7809,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>67c5b2cba3e0a4ddb17f8966</t>
+          <t>67c86e7db9bded6d108a425d</t>
         </is>
       </c>
       <c r="X48" t="n">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>67c5b2cba3e0a4ddb17f8964</t>
+          <t>67c86e7db9bded6d108a425b</t>
         </is>
       </c>
       <c r="X49" t="n">
@@ -8135,7 +8135,7 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>67c5b2cba3e0a4ddb17f8962</t>
+          <t>67c86e7db9bded6d108a4259</t>
         </is>
       </c>
       <c r="X50" t="n">
@@ -8298,7 +8298,7 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>67c5b2cea3e0a4ddb17f8a96</t>
+          <t>67c86e81b9bded6d108a438d</t>
         </is>
       </c>
       <c r="X51" t="n">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>67c5b2cea3e0a4ddb17f8a92</t>
+          <t>67c86e81b9bded6d108a4389</t>
         </is>
       </c>
       <c r="X52" t="n">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>67c5b2cea3e0a4ddb17f8a9c</t>
+          <t>67c86e81b9bded6d108a4393</t>
         </is>
       </c>
       <c r="X53" t="n">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>67c5b2cea3e0a4ddb17f8a94</t>
+          <t>67c86e81b9bded6d108a438b</t>
         </is>
       </c>
       <c r="X54" t="n">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>67c5b2cea3e0a4ddb17f8a90</t>
+          <t>67c86e81b9bded6d108a4387</t>
         </is>
       </c>
       <c r="X55" t="n">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f89f1</t>
+          <t>67c86e7fb9bded6d108a42e8</t>
         </is>
       </c>
       <c r="X56" t="n">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f89e7</t>
+          <t>67c86e7fb9bded6d108a42de</t>
         </is>
       </c>
       <c r="X57" t="n">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f89e5</t>
+          <t>67c86e7fb9bded6d108a42dc</t>
         </is>
       </c>
       <c r="X58" t="n">
@@ -9602,7 +9602,7 @@
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f89e9</t>
+          <t>67c86e7fb9bded6d108a42e0</t>
         </is>
       </c>
       <c r="X59" t="n">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f89eb</t>
+          <t>67c86e7fb9bded6d108a42e2</t>
         </is>
       </c>
       <c r="X60" t="n">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f89ef</t>
+          <t>67c86e7fb9bded6d108a42e6</t>
         </is>
       </c>
       <c r="X61" t="n">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>67c5b2c6a3e0a4ddb17f8778</t>
+          <t>67c86e77b9bded6d108a406f</t>
         </is>
       </c>
       <c r="X62" t="n">
@@ -10254,7 +10254,7 @@
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>67c5b2c6a3e0a4ddb17f8776</t>
+          <t>67c86e77b9bded6d108a406d</t>
         </is>
       </c>
       <c r="X63" t="n">
@@ -10417,7 +10417,7 @@
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>67c5b2d3a3e0a4ddb17f8c00</t>
+          <t>67c86e86b9bded6d108a44f7</t>
         </is>
       </c>
       <c r="X64" t="n">
@@ -10580,7 +10580,7 @@
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>67c5b2d3a3e0a4ddb17f8c02</t>
+          <t>67c86e86b9bded6d108a44f9</t>
         </is>
       </c>
       <c r="X65" t="n">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>67c5b2d3a3e0a4ddb17f8c04</t>
+          <t>67c86e86b9bded6d108a44fb</t>
         </is>
       </c>
       <c r="X66" t="n">
@@ -10906,7 +10906,7 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>67c5b2cda3e0a4ddb17f8a3b</t>
+          <t>67c86e80b9bded6d108a4332</t>
         </is>
       </c>
       <c r="X67" t="n">
@@ -11069,7 +11069,7 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>67c5b2cda3e0a4ddb17f8a39</t>
+          <t>67c86e80b9bded6d108a4330</t>
         </is>
       </c>
       <c r="X68" t="n">
@@ -11232,7 +11232,7 @@
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>67c5b2cda3e0a4ddb17f8a37</t>
+          <t>67c86e80b9bded6d108a432e</t>
         </is>
       </c>
       <c r="X69" t="n">
@@ -11395,7 +11395,7 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>67c5b2cda3e0a4ddb17f8a3d</t>
+          <t>67c86e80b9bded6d108a4334</t>
         </is>
       </c>
       <c r="X70" t="n">
@@ -11558,7 +11558,7 @@
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>67c5b2d0a3e0a4ddb17f8b3b</t>
+          <t>67c86e83b9bded6d108a4432</t>
         </is>
       </c>
       <c r="X71" t="n">
@@ -11721,7 +11721,7 @@
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>67c5b2d0a3e0a4ddb17f8b3f</t>
+          <t>67c86e83b9bded6d108a4436</t>
         </is>
       </c>
       <c r="X72" t="n">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>67c5b2d0a3e0a4ddb17f8b37</t>
+          <t>67c86e83b9bded6d108a442e</t>
         </is>
       </c>
       <c r="X73" t="n">
@@ -12047,7 +12047,7 @@
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>67c5b2d0a3e0a4ddb17f8b35</t>
+          <t>67c86e83b9bded6d108a442c</t>
         </is>
       </c>
       <c r="X74" t="n">
@@ -12210,7 +12210,7 @@
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>67c5b2d0a3e0a4ddb17f8b39</t>
+          <t>67c86e83b9bded6d108a4430</t>
         </is>
       </c>
       <c r="X75" t="n">
@@ -12373,7 +12373,7 @@
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>67c5b2c8a3e0a4ddb17f884f</t>
+          <t>67c86e7ab9bded6d108a4146</t>
         </is>
       </c>
       <c r="X76" t="n">
@@ -12536,7 +12536,7 @@
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>67c5b2c8a3e0a4ddb17f884d</t>
+          <t>67c86e7ab9bded6d108a4144</t>
         </is>
       </c>
       <c r="X77" t="n">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>67c5b2c8a3e0a4ddb17f8853</t>
+          <t>67c86e7ab9bded6d108a414a</t>
         </is>
       </c>
       <c r="X78" t="n">
@@ -12862,7 +12862,7 @@
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>67c5b2c8a3e0a4ddb17f8851</t>
+          <t>67c86e7ab9bded6d108a4148</t>
         </is>
       </c>
       <c r="X79" t="n">
@@ -13025,7 +13025,7 @@
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f89ce</t>
+          <t>67c86e7eb9bded6d108a42c5</t>
         </is>
       </c>
       <c r="X80" t="n">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>67c5b2cca3e0a4ddb17f89ce</t>
+          <t>67c86e7eb9bded6d108a42c5</t>
         </is>
       </c>
       <c r="X81" t="n">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>67c5b2c9a3e0a4ddb17f888b</t>
+          <t>67c86e7bb9bded6d108a4182</t>
         </is>
       </c>
       <c r="X82" t="n">
@@ -13514,7 +13514,7 @@
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>67c5b2c9a3e0a4ddb17f888b</t>
+          <t>67c86e7bb9bded6d108a4182</t>
         </is>
       </c>
       <c r="X83" t="n">
@@ -13677,7 +13677,7 @@
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>67c5b2c9a3e0a4ddb17f888f</t>
+          <t>67c86e7bb9bded6d108a4186</t>
         </is>
       </c>
       <c r="X84" t="n">
@@ -13840,7 +13840,7 @@
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>67c5b2c7a3e0a4ddb17f87f8</t>
+          <t>67c86e79b9bded6d108a40ef</t>
         </is>
       </c>
       <c r="X85" t="n">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>67c5b2c7a3e0a4ddb17f87fc</t>
+          <t>67c86e79b9bded6d108a40f3</t>
         </is>
       </c>
       <c r="X86" t="n">
@@ -14166,7 +14166,7 @@
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>67c5b2c7a3e0a4ddb17f87fe</t>
+          <t>67c86e79b9bded6d108a40f5</t>
         </is>
       </c>
       <c r="X87" t="n">
@@ -14329,7 +14329,7 @@
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>67c5b2c9a3e0a4ddb17f8878</t>
+          <t>67c86e7ab9bded6d108a416f</t>
         </is>
       </c>
       <c r="X88" t="n">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>67c5b2c9a3e0a4ddb17f8876</t>
+          <t>67c86e7ab9bded6d108a416d</t>
         </is>
       </c>
       <c r="X89" t="n">
@@ -14655,7 +14655,7 @@
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>67c5b2d1a3e0a4ddb17f8b70</t>
+          <t>67c86e84b9bded6d108a4467</t>
         </is>
       </c>
       <c r="X90" t="n">
@@ -14818,7 +14818,7 @@
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>67c5b2d1a3e0a4ddb17f8b72</t>
+          <t>67c86e84b9bded6d108a4469</t>
         </is>
       </c>
       <c r="X91" t="n">
@@ -14981,7 +14981,7 @@
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>67c5b2d1a3e0a4ddb17f8b74</t>
+          <t>67c86e84b9bded6d108a446b</t>
         </is>
       </c>
       <c r="X92" t="n">
@@ -15144,7 +15144,7 @@
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>67c5b2d1a3e0a4ddb17f8b74</t>
+          <t>67c86e84b9bded6d108a446b</t>
         </is>
       </c>
       <c r="X93" t="n">
@@ -15307,7 +15307,7 @@
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>67c5b2d1a3e0a4ddb17f8b6e</t>
+          <t>67c86e84b9bded6d108a4465</t>
         </is>
       </c>
       <c r="X94" t="n">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>67c5b2d1a3e0a4ddb17f8b6e</t>
+          <t>67c86e84b9bded6d108a4465</t>
         </is>
       </c>
       <c r="X95" t="n">
@@ -15633,7 +15633,7 @@
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f88b2</t>
+          <t>67c86e7bb9bded6d108a41a9</t>
         </is>
       </c>
       <c r="X96" t="n">
@@ -15796,7 +15796,7 @@
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f88ac</t>
+          <t>67c86e7bb9bded6d108a41a3</t>
         </is>
       </c>
       <c r="X97" t="n">
@@ -15959,7 +15959,7 @@
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f88ae</t>
+          <t>67c86e7bb9bded6d108a41a5</t>
         </is>
       </c>
       <c r="X98" t="n">
@@ -16122,7 +16122,7 @@
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>67c5b2caa3e0a4ddb17f88b0</t>
+          <t>67c86e7bb9bded6d108a41a7</t>
         </is>
       </c>
       <c r="X99" t="n">
@@ -16285,7 +16285,7 @@
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>67c5b2d4a3e0a4ddb17f8c72</t>
+          <t>67c86e87b9bded6d108a4569</t>
         </is>
       </c>
       <c r="X100" t="n">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>67c5b2d4a3e0a4ddb17f8c76</t>
+          <t>67c86e87b9bded6d108a456d</t>
         </is>
       </c>
       <c r="X101" t="n">
@@ -16611,7 +16611,7 @@
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>67c5b2d4a3e0a4ddb17f8c74</t>
+          <t>67c86e87b9bded6d108a456b</t>
         </is>
       </c>
       <c r="X102" t="n">
@@ -16774,7 +16774,7 @@
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>67c5b2d4a3e0a4ddb17f8c78</t>
+          <t>67c86e87b9bded6d108a456f</t>
         </is>
       </c>
       <c r="X103" t="n">
@@ -16937,7 +16937,7 @@
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>67c5b2c8a3e0a4ddb17f8821</t>
+          <t>67c86e79b9bded6d108a4118</t>
         </is>
       </c>
       <c r="X104" t="n">
@@ -17100,7 +17100,7 @@
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>67c5b2c8a3e0a4ddb17f8823</t>
+          <t>67c86e79b9bded6d108a411a</t>
         </is>
       </c>
       <c r="X105" t="n">
@@ -17263,7 +17263,7 @@
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>67c5b2d5a3e0a4ddb17f8ca1</t>
+          <t>67c86e88b9bded6d108a4598</t>
         </is>
       </c>
       <c r="X106" t="n">
@@ -17426,7 +17426,7 @@
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>67c5b2d5a3e0a4ddb17f8c9d</t>
+          <t>67c86e88b9bded6d108a4594</t>
         </is>
       </c>
       <c r="X107" t="n">
@@ -17589,7 +17589,7 @@
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>67c5b2d5a3e0a4ddb17f8c9f</t>
+          <t>67c86e88b9bded6d108a4596</t>
         </is>
       </c>
       <c r="X108" t="n">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>67c5b2d5a3e0a4ddb17f8ca7</t>
+          <t>67c86e88b9bded6d108a459e</t>
         </is>
       </c>
       <c r="X109" t="n">
@@ -17915,7 +17915,7 @@
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>67c5b2cfa3e0a4ddb17f8ae8</t>
+          <t>67c86e82b9bded6d108a43df</t>
         </is>
       </c>
       <c r="X110" t="n">
@@ -18078,7 +18078,7 @@
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>67c5b2cfa3e0a4ddb17f8aea</t>
+          <t>67c86e82b9bded6d108a43e1</t>
         </is>
       </c>
       <c r="X111" t="n">
@@ -18241,7 +18241,7 @@
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>67c5b2d0a3e0a4ddb17f8b0d</t>
+          <t>67c86e82b9bded6d108a4404</t>
         </is>
       </c>
       <c r="X112" t="n">
@@ -18404,7 +18404,7 @@
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>67c5b2d0a3e0a4ddb17f8b09</t>
+          <t>67c86e82b9bded6d108a4400</t>
         </is>
       </c>
       <c r="X113" t="n">
@@ -18567,7 +18567,7 @@
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>67c5b2d0a3e0a4ddb17f8b07</t>
+          <t>67c86e82b9bded6d108a43fe</t>
         </is>
       </c>
       <c r="X114" t="n">
@@ -18730,7 +18730,7 @@
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>67c5b2d3a3e0a4ddb17f8c1f</t>
+          <t>67c86e86b9bded6d108a4516</t>
         </is>
       </c>
       <c r="X115" t="n">
@@ -18893,7 +18893,7 @@
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>67c5b2d3a3e0a4ddb17f8c1f</t>
+          <t>67c86e86b9bded6d108a4516</t>
         </is>
       </c>
       <c r="X116" t="n">
@@ -19056,7 +19056,7 @@
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>67c5b2d0a3e0a4ddb17f8b2a</t>
+          <t>67c86e83b9bded6d108a4421</t>
         </is>
       </c>
       <c r="X117" t="n">
@@ -19219,7 +19219,7 @@
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>67c5b2cda3e0a4ddb17f8a26</t>
+          <t>67c86e7fb9bded6d108a431d</t>
         </is>
       </c>
       <c r="X118" t="n">
@@ -19382,7 +19382,7 @@
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>67c5b2c6a3e0a4ddb17f87b6</t>
+          <t>67c86e78b9bded6d108a40ad</t>
         </is>
       </c>
       <c r="X119" t="n">
@@ -19545,7 +19545,7 @@
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>67c5b2c6a3e0a4ddb17f87b4</t>
+          <t>67c86e78b9bded6d108a40ab</t>
         </is>
       </c>
       <c r="X120" t="n">
@@ -19708,7 +19708,7 @@
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>67c5b2c6a3e0a4ddb17f87b8</t>
+          <t>67c86e78b9bded6d108a40af</t>
         </is>
       </c>
       <c r="X121" t="n">
@@ -19871,7 +19871,7 @@
       </c>
       <c r="W122" t="inlineStr">
         <is>
-          <t>67c5b2c5a3e0a4ddb17f8730</t>
+          <t>67c86e76b9bded6d108a4027</t>
         </is>
       </c>
       <c r="X122" t="n">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="W123" t="inlineStr">
         <is>
-          <t>67c5b2c5a3e0a4ddb17f872e</t>
+          <t>67c86e76b9bded6d108a4025</t>
         </is>
       </c>
       <c r="X123" t="n">
@@ -20197,7 +20197,7 @@
       </c>
       <c r="W124" t="inlineStr">
         <is>
-          <t>67c5b2d2a3e0a4ddb17f8bbe</t>
+          <t>67c86e85b9bded6d108a44b5</t>
         </is>
       </c>
       <c r="X124" t="n">
@@ -20360,7 +20360,7 @@
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>67c5b2d2a3e0a4ddb17f8bbc</t>
+          <t>67c86e85b9bded6d108a44b3</t>
         </is>
       </c>
       <c r="X125" t="n">
@@ -20523,7 +20523,7 @@
       </c>
       <c r="W126" t="inlineStr">
         <is>
-          <t>67c5b2d2a3e0a4ddb17f8bc0</t>
+          <t>67c86e85b9bded6d108a44b7</t>
         </is>
       </c>
       <c r="X126" t="n">
@@ -20686,7 +20686,7 @@
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>67c5b2d2a3e0a4ddb17f8bc2</t>
+          <t>67c86e85b9bded6d108a44b9</t>
         </is>
       </c>
       <c r="X127" t="n">
@@ -20849,7 +20849,7 @@
       </c>
       <c r="W128" t="inlineStr">
         <is>
-          <t>67c5b2d1a3e0a4ddb17f8ba9</t>
+          <t>67c86e84b9bded6d108a44a0</t>
         </is>
       </c>
       <c r="X128" t="n">
@@ -21012,7 +21012,7 @@
       </c>
       <c r="W129" t="inlineStr">
         <is>
-          <t>67c5b2d1a3e0a4ddb17f8ba7</t>
+          <t>67c86e84b9bded6d108a449e</t>
         </is>
       </c>
       <c r="X129" t="n">
@@ -21175,7 +21175,7 @@
       </c>
       <c r="W130" t="inlineStr">
         <is>
-          <t>67c5b2cea3e0a4ddb17f8a60</t>
+          <t>67c86e80b9bded6d108a4357</t>
         </is>
       </c>
       <c r="X130" t="n">
@@ -21338,7 +21338,7 @@
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>67c5b2d4a3e0a4ddb17f8c45</t>
+          <t>67c86e87b9bded6d108a453c</t>
         </is>
       </c>
       <c r="X131" t="n">
@@ -21501,7 +21501,7 @@
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>67c5b2d4a3e0a4ddb17f8c45</t>
+          <t>67c86e87b9bded6d108a453c</t>
         </is>
       </c>
       <c r="X132" t="n">
@@ -21664,7 +21664,7 @@
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>67c5b2d4a3e0a4ddb17f8c49</t>
+          <t>67c86e87b9bded6d108a4540</t>
         </is>
       </c>
       <c r="X133" t="n">
@@ -21827,7 +21827,7 @@
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>67c5b2d4a3e0a4ddb17f8c47</t>
+          <t>67c86e87b9bded6d108a453e</t>
         </is>
       </c>
       <c r="X134" t="n">
@@ -21990,7 +21990,7 @@
       </c>
       <c r="W135" t="inlineStr">
         <is>
-          <t>67c5b2d3a3e0a4ddb17f8c36</t>
+          <t>67c86e86b9bded6d108a452d</t>
         </is>
       </c>
       <c r="X135" t="n">
@@ -22153,7 +22153,7 @@
       </c>
       <c r="W136" t="inlineStr">
         <is>
-          <t>67c5b2d5a3e0a4ddb17f8cd0</t>
+          <t>67c86e88b9bded6d108a45c7</t>
         </is>
       </c>
       <c r="X136" t="n">
@@ -22316,7 +22316,7 @@
       </c>
       <c r="W137" t="inlineStr">
         <is>
-          <t>67c5b2d5a3e0a4ddb17f8cce</t>
+          <t>67c86e88b9bded6d108a45c5</t>
         </is>
       </c>
       <c r="X137" t="n">
@@ -22469,7 +22469,7 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T138" t="n">
-        <v>27.3426895443812</v>
+        <v>34.91957941812539</v>
       </c>
       <c r="U138" t="n">
         <v>231.624696438009</v>
@@ -22479,17 +22479,17 @@
       </c>
       <c r="W138" t="inlineStr">
         <is>
-          <t>67c5b2d7a3e0a4ddb17f8d24</t>
+          <t>67c86e8ab9bded6d108a461b</t>
         </is>
       </c>
       <c r="X138" t="n">
-        <v>25.62712342362434</v>
+        <v>32.72861545667687</v>
       </c>
       <c r="Y138" t="n">
-        <v>415</v>
+        <v>530</v>
       </c>
       <c r="Z138" t="n">
-        <v>26.14013148788686</v>
+        <v>33.38378238212057</v>
       </c>
       <c r="AA138" t="n">
         <v>294.1815303</v>
@@ -22509,58 +22509,58 @@
         <v>217.2118342229299</v>
       </c>
       <c r="AF138" t="n">
-        <v>34.36852146483894</v>
+        <v>16.18148524425213</v>
       </c>
       <c r="AG138" t="n">
-        <v>41.2208458367753</v>
+        <v>24.93264649033952</v>
       </c>
       <c r="AH138" t="n">
-        <v>36.8681215391217</v>
+        <v>19.37374558008311</v>
       </c>
       <c r="AI138" t="n">
-        <v>13.41987657637566</v>
+        <v>6.318384543323127</v>
       </c>
       <c r="AJ138" t="n">
-        <v>17.97187657637566</v>
+        <v>10.87038454332313</v>
       </c>
       <c r="AK138" t="n">
-        <v>14.96587657637567</v>
+        <v>7.864384543323141</v>
       </c>
       <c r="AL138" t="n">
-        <v>12.90686851211314</v>
+        <v>5.663217617879425</v>
       </c>
       <c r="AM138" t="n">
-        <v>17.45886851211313</v>
+        <v>10.21521761787942</v>
       </c>
       <c r="AN138" t="n">
-        <v>14.45286851211315</v>
+        <v>7.209217617879439</v>
       </c>
       <c r="AO138" t="n">
-        <v>33.05469949576955</v>
+        <v>14.50359212712737</v>
       </c>
       <c r="AP138" t="n">
-        <v>40.04419484876519</v>
+        <v>23.42993558998928</v>
       </c>
       <c r="AQ138" t="n">
-        <v>35.60433698448783</v>
+        <v>17.75975566693626</v>
       </c>
       <c r="AR138" t="n">
-        <v>11.7043104556188</v>
+        <v>4.12742058187461</v>
       </c>
       <c r="AS138" t="n">
-        <v>16.2563104556188</v>
+        <v>8.679420581874609</v>
       </c>
       <c r="AT138" t="n">
-        <v>13.25031045561881</v>
+        <v>5.673420581874623</v>
       </c>
       <c r="AU138" t="n">
-        <v>29.97492881813917</v>
+        <v>10.57039102075604</v>
       </c>
       <c r="AV138" t="n">
-        <v>37.28597090671529</v>
+        <v>19.90738453146772</v>
       </c>
       <c r="AW138" t="n">
-        <v>32.64186055629988</v>
+        <v>13.97635203575646</v>
       </c>
     </row>
     <row r="139">
@@ -22632,7 +22632,7 @@
         <v>0.2942581907953586</v>
       </c>
       <c r="T139" t="n">
-        <v>24.54192453592182</v>
+        <v>31.3426988049122</v>
       </c>
       <c r="U139" t="n">
         <v>205.2437575177383</v>
@@ -22642,17 +22642,17 @@
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>67c5b2d7a3e0a4ddb17f8d26</t>
+          <t>67c86e8ab9bded6d108a461d</t>
         </is>
       </c>
       <c r="X139" t="n">
-        <v>23.2746477885393</v>
+        <v>29.7242489829538</v>
       </c>
       <c r="Y139" t="n">
-        <v>415</v>
+        <v>530</v>
       </c>
       <c r="Z139" t="n">
-        <v>23.38198452672091</v>
+        <v>29.86132963653514</v>
       </c>
       <c r="AA139" t="n">
         <v>322.0176414</v>
@@ -22672,58 +22672,58 @@
         <v>194.2929686170367</v>
       </c>
       <c r="AF139" t="n">
-        <v>40.82666517036763</v>
+        <v>24.42923503685507</v>
       </c>
       <c r="AG139" t="n">
-        <v>47.61973311306814</v>
+        <v>33.10471939741235</v>
       </c>
       <c r="AH139" t="n">
-        <v>47.58906550950439</v>
+        <v>33.06555354225863</v>
       </c>
       <c r="AI139" t="n">
-        <v>16.0583522114607</v>
+        <v>9.608751017046202</v>
       </c>
       <c r="AJ139" t="n">
-        <v>21.1593522114607</v>
+        <v>14.7097510170462</v>
       </c>
       <c r="AK139" t="n">
-        <v>21.13335221146072</v>
+        <v>14.68375101704622</v>
       </c>
       <c r="AL139" t="n">
-        <v>15.95101547327909</v>
+        <v>9.471670363464856</v>
       </c>
       <c r="AM139" t="n">
-        <v>21.05201547327908</v>
+        <v>14.57267036346486</v>
       </c>
       <c r="AN139" t="n">
-        <v>21.0260154732791</v>
+        <v>14.54667036346487</v>
       </c>
       <c r="AO139" t="n">
-        <v>40.55377284539467</v>
+        <v>24.08072194713054</v>
       </c>
       <c r="AP139" t="n">
-        <v>47.3781686845188</v>
+        <v>32.7962154284216</v>
       </c>
       <c r="AQ139" t="n">
-        <v>47.3473596497908</v>
+        <v>32.75686895033522</v>
       </c>
       <c r="AR139" t="n">
-        <v>14.79107546407818</v>
+        <v>7.990301195087795</v>
       </c>
       <c r="AS139" t="n">
-        <v>19.89207546407818</v>
+        <v>13.09130119508779</v>
       </c>
       <c r="AT139" t="n">
-        <v>19.86607546407819</v>
+        <v>13.06530119508781</v>
       </c>
       <c r="AU139" t="n">
-        <v>37.60474783026511</v>
+        <v>20.31449722901329</v>
       </c>
       <c r="AV139" t="n">
-        <v>44.76769020137322</v>
+        <v>29.46235134151279</v>
       </c>
       <c r="AW139" t="n">
-        <v>44.73535278345835</v>
+        <v>29.42105295236851</v>
       </c>
     </row>
     <row r="140">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>67c5b2d9a3e0a4ddb17f8d70</t>
+          <t>67c86e8bb9bded6d108a4667</t>
         </is>
       </c>
       <c r="X141" t="n">
@@ -23265,7 +23265,7 @@
       </c>
       <c r="W144" t="inlineStr">
         <is>
-          <t>67c5b2dca3e0a4ddb17f8ded</t>
+          <t>67c86e8fb9bded6d108a46e4</t>
         </is>
       </c>
       <c r="X144" t="n">
@@ -23626,7 +23626,7 @@
       </c>
       <c r="W147" t="inlineStr">
         <is>
-          <t>67c5b2dda3e0a4ddb17f8e0b</t>
+          <t>67c86e90b9bded6d108a4702</t>
         </is>
       </c>
       <c r="X147" t="n">
@@ -23789,7 +23789,7 @@
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>67c5b2dda3e0a4ddb17f8e0d</t>
+          <t>67c86e90b9bded6d108a4704</t>
         </is>
       </c>
       <c r="X148" t="n">
@@ -24051,7 +24051,7 @@
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>67c5b2d8a3e0a4ddb17f8d3d</t>
+          <t>67c86e8ab9bded6d108a4634</t>
         </is>
       </c>
       <c r="X150" t="n">
@@ -24214,7 +24214,7 @@
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>67c5b2daa3e0a4ddb17f8dab</t>
+          <t>67c86e8db9bded6d108a46a2</t>
         </is>
       </c>
       <c r="X151" t="n">
@@ -24773,7 +24773,7 @@
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>67c5b2dba3e0a4ddb17f8dce</t>
+          <t>67c86e8eb9bded6d108a46c5</t>
         </is>
       </c>
       <c r="X156" t="n">
@@ -25035,7 +25035,7 @@
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>67c5b2daa3e0a4ddb17f8db8</t>
+          <t>67c86e8db9bded6d108a46af</t>
         </is>
       </c>
       <c r="X158" t="n">
@@ -25990,7 +25990,7 @@
       </c>
       <c r="W167" t="inlineStr">
         <is>
-          <t>67c5b2d8a3e0a4ddb17f8d61</t>
+          <t>67c86e8bb9bded6d108a4658</t>
         </is>
       </c>
       <c r="X167" t="n">
@@ -26252,7 +26252,7 @@
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>67c5b2d6a3e0a4ddb17f8cfa</t>
+          <t>67c86e89b9bded6d108a45f1</t>
         </is>
       </c>
       <c r="X169" t="n">
@@ -27009,7 +27009,7 @@
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>67c5b2d8a3e0a4ddb17f8d4a</t>
+          <t>67c86e8bb9bded6d108a4641</t>
         </is>
       </c>
       <c r="X176" t="n">
@@ -27172,7 +27172,7 @@
       </c>
       <c r="W177" t="inlineStr">
         <is>
-          <t>67c5b2d8a3e0a4ddb17f8d4c</t>
+          <t>67c86e8bb9bded6d108a4643</t>
         </is>
       </c>
       <c r="X177" t="n">
@@ -27533,7 +27533,7 @@
       </c>
       <c r="W180" t="inlineStr">
         <is>
-          <t>67c5b2dea3e0a4ddb17f8e22</t>
+          <t>67c86e91b9bded6d108a4719</t>
         </is>
       </c>
       <c r="X180" t="n">
@@ -27696,7 +27696,7 @@
       </c>
       <c r="W181" t="inlineStr">
         <is>
-          <t>67c5b2dea3e0a4ddb17f8e20</t>
+          <t>67c86e91b9bded6d108a4717</t>
         </is>
       </c>
       <c r="X181" t="n">
@@ -27859,7 +27859,7 @@
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>67c5b2dba3e0a4ddb17f8dc3</t>
+          <t>67c86e8eb9bded6d108a46ba</t>
         </is>
       </c>
       <c r="X182" t="n">
@@ -28121,7 +28121,7 @@
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>67c5b2dca3e0a4ddb17f8de2</t>
+          <t>67c86e8fb9bded6d108a46d9</t>
         </is>
       </c>
       <c r="X184" t="n">
@@ -28284,7 +28284,7 @@
       </c>
       <c r="W185" t="inlineStr">
         <is>
-          <t>67c5b2d6a3e0a4ddb17f8ce5</t>
+          <t>67c86e89b9bded6d108a45dc</t>
         </is>
       </c>
       <c r="X185" t="n">
@@ -28447,7 +28447,7 @@
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>67c5b2daa3e0a4ddb17f8d9a</t>
+          <t>67c86e8cb9bded6d108a4691</t>
         </is>
       </c>
       <c r="X186" t="n">
@@ -28610,7 +28610,7 @@
       </c>
       <c r="W187" t="inlineStr">
         <is>
-          <t>67c5b2d7a3e0a4ddb17f8d07</t>
+          <t>67c86e89b9bded6d108a45fe</t>
         </is>
       </c>
       <c r="X187" t="n">
@@ -28773,7 +28773,7 @@
       </c>
       <c r="W188" t="inlineStr">
         <is>
-          <t>67c5b2d7a3e0a4ddb17f8d07</t>
+          <t>67c86e89b9bded6d108a45fe</t>
         </is>
       </c>
       <c r="X188" t="n">
@@ -28936,7 +28936,7 @@
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>67c5b2d7a3e0a4ddb17f8d05</t>
+          <t>67c86e89b9bded6d108a45fc</t>
         </is>
       </c>
       <c r="X189" t="n">
@@ -29099,7 +29099,7 @@
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>67c5b2dda3e0a4ddb17f8df8</t>
+          <t>67c86e90b9bded6d108a46ef</t>
         </is>
       </c>
       <c r="X190" t="n">
@@ -29262,7 +29262,7 @@
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>67c5b2dda3e0a4ddb17f8df8</t>
+          <t>67c86e90b9bded6d108a46ef</t>
         </is>
       </c>
       <c r="X191" t="n">
@@ -29425,7 +29425,7 @@
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t>67c5b2d9a3e0a4ddb17f8d83</t>
+          <t>67c86e8cb9bded6d108a467a</t>
         </is>
       </c>
       <c r="X192" t="n">
@@ -29588,7 +29588,7 @@
       </c>
       <c r="W193" t="inlineStr">
         <is>
-          <t>67c5b2d9a3e0a4ddb17f8d85</t>
+          <t>67c86e8cb9bded6d108a467c</t>
         </is>
       </c>
       <c r="X193" t="n">
